--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -8,45 +8,50 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54550BC5-E340-4EDC-A909-1781D9F7052B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380DDF56-AB47-4DDC-9EB5-52B78C4067FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
     <sheet name="PEGA" sheetId="2" r:id="rId2"/>
     <sheet name="SPORT1_P1.5" sheetId="3" r:id="rId3"/>
-    <sheet name="SPORT1_P2" sheetId="4" r:id="rId4"/>
-    <sheet name="SMARTHOME" sheetId="5" r:id="rId5"/>
-    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId6"/>
+    <sheet name="Hecquyn" sheetId="10" r:id="rId4"/>
+    <sheet name="SPORT1_P2" sheetId="4" r:id="rId5"/>
+    <sheet name="SMARTHOME" sheetId="5" r:id="rId6"/>
+    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
-    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$70</definedName>
+    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$73</definedName>
     <definedName name="Pega">PEGA!$G$39</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="6">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="3">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="3">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="6">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="3">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="5">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="4">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="3">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5">#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="3">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="5">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="4">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="3">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="5">'Chi Phí Công ty'!$G$70</definedName>
+    <definedName name="smarthome" localSheetId="6">'Chi Phí Công ty'!$G$73</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
-    <definedName name="sport1_p1.5">SPORT1_P1.5!$G$57</definedName>
+    <definedName name="sport1_p1.5" localSheetId="3">Hecquyn!$G$42</definedName>
+    <definedName name="sport1_p1.5">SPORT1_P1.5!$G$59</definedName>
     <definedName name="sport1_p2">SPORT1_P2!$G$32</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -59,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="143">
   <si>
     <t>STT</t>
   </si>
@@ -467,6 +472,27 @@
   </si>
   <si>
     <t>Phí vận chuyển + thuế  + thông quan</t>
+  </si>
+  <si>
+    <t>BT806</t>
+  </si>
+  <si>
+    <t>Tiền hàn mạch</t>
+  </si>
+  <si>
+    <t>Tiền cơm ngày 22/05/21</t>
+  </si>
+  <si>
+    <t>mạch nạp nuvoton</t>
+  </si>
+  <si>
+    <t>300 con STM32f102</t>
+  </si>
+  <si>
+    <t>Tiền cơm ngày 23/05/21</t>
+  </si>
+  <si>
+    <t>GPS NEO 6M</t>
   </si>
 </sst>
 </file>
@@ -662,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -864,6 +890,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1207,12 +1239,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:11" ht="20.25">
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
     </row>
     <row r="3" spans="8:11" ht="15.75">
       <c r="H3" s="6" t="s">
@@ -1237,7 +1269,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-29363000</v>
+        <v>-30080000</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1248,7 +1280,7 @@
       </c>
       <c r="J5" s="11">
         <f>Pega</f>
-        <v>-16520086</v>
+        <v>-16680086</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -1259,7 +1291,7 @@
       </c>
       <c r="J6" s="11">
         <f>sport1_p1.5</f>
-        <v>-7722000</v>
+        <v>-21768000</v>
       </c>
       <c r="K6" s="9"/>
     </row>
@@ -1308,7 +1340,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-66982066</v>
+        <v>-81905066</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1326,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032BD6C-08F6-46C4-8E07-045BAFBCF7A7}">
   <dimension ref="C2:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1345,16 +1377,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -1384,12 +1416,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1456,12 +1488,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
       <c r="H9" s="26"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -1708,7 +1740,7 @@
         <v>2547152</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" ref="G20:G22" si="2">E20*F20</f>
+        <f t="shared" ref="G20:G23" si="2">E20*F20</f>
         <v>2547152</v>
       </c>
       <c r="H20" s="70" t="s">
@@ -1761,11 +1793,22 @@
     </row>
     <row r="23" spans="3:10" ht="15.75">
       <c r="C23" s="8"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="62">
+        <v>1</v>
+      </c>
+      <c r="F23" s="69">
+        <v>160000</v>
+      </c>
+      <c r="G23" s="11">
+        <f t="shared" si="2"/>
+        <v>160000</v>
+      </c>
+      <c r="H23" s="70" t="s">
+        <v>9</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
     </row>
@@ -1785,8 +1828,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="73"/>
       <c r="G25" s="32">
-        <f>SUM(G10:G22)</f>
-        <v>30520086</v>
+        <f>SUM(G10:G23)</f>
+        <v>30680086</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="35"/>
@@ -1806,12 +1849,12 @@
     </row>
     <row r="27" spans="3:10" ht="15">
       <c r="C27" s="8"/>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="26"/>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
@@ -1846,12 +1889,12 @@
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="77"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="79"/>
       <c r="H30" s="27"/>
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
@@ -1963,7 +2006,7 @@
       <c r="F39" s="48"/>
       <c r="G39" s="12">
         <f>G8-G25-G28-G36</f>
-        <v>-16520086</v>
+        <v>-16680086</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="20"/>
@@ -1986,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE7A19-D435-4A51-A018-E212475E8992}">
-  <dimension ref="C2:J57"/>
+  <dimension ref="C2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:G48"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2007,16 +2050,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -2046,12 +2089,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2118,12 +2161,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -2358,19 +2401,19 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="39">
-        <v>260000</v>
+        <v>122000</v>
       </c>
       <c r="G20" s="29">
-        <v>260000</v>
+        <v>122000</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>22</v>
@@ -2380,19 +2423,19 @@
     </row>
     <row r="21" spans="3:10" ht="15">
       <c r="C21" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21" s="39">
-        <v>122000</v>
+        <v>120000</v>
       </c>
       <c r="G21" s="29">
-        <v>122000</v>
+        <v>120000</v>
       </c>
       <c r="H21" s="30" t="s">
         <v>22</v>
@@ -2402,19 +2445,19 @@
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="39">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G22" s="29">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="H22" s="30" t="s">
         <v>22</v>
@@ -2424,56 +2467,69 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="39">
-        <v>200000</v>
+        <v>15</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29">
+        <v>120000</v>
       </c>
       <c r="G23" s="29">
-        <v>200000</v>
+        <f>F23*E23</f>
+        <v>120000</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="3:10" ht="15">
       <c r="C24" s="8">
-        <v>15</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="38">
-        <v>1</v>
-      </c>
-      <c r="F24" s="29">
-        <v>120000</v>
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="39">
+        <v>2125000</v>
       </c>
       <c r="G24" s="29">
         <f>F24*E24</f>
-        <v>120000</v>
+        <v>2125000</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
+      <c r="C25" s="8">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="39">
+        <v>577000</v>
+      </c>
+      <c r="G25" s="29">
+        <v>577000</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
     </row>
@@ -2512,54 +2568,67 @@
       <c r="D29" s="30"/>
       <c r="E29" s="38"/>
       <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="9"/>
+      <c r="G29" s="55">
+        <f>SUM(G10:G27)</f>
+        <v>5680000</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="55">
-        <f>SUM(G10:G24)</f>
-        <v>3238000</v>
-      </c>
-      <c r="H30" s="56"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D30" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8"/>
-      <c r="D31" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="54"/>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="38">
+        <v>70</v>
+      </c>
+      <c r="F31" s="29">
+        <v>9000</v>
+      </c>
+      <c r="G31" s="29">
+        <f t="shared" ref="G31:G32" si="1">F31*E31</f>
+        <v>630000</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="3:10" ht="15">
       <c r="C32" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" s="38">
         <v>70</v>
       </c>
       <c r="F32" s="29">
-        <v>9000</v>
+        <v>10800</v>
       </c>
       <c r="G32" s="29">
-        <f t="shared" ref="G32:G34" si="1">F32*E32</f>
-        <v>630000</v>
+        <f t="shared" si="1"/>
+        <v>756000</v>
       </c>
       <c r="H32" s="30" t="s">
         <v>9</v>
@@ -2569,43 +2638,41 @@
     </row>
     <row r="33" spans="3:10" ht="15">
       <c r="C33" s="8">
-        <v>2</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="38">
-        <v>70</v>
-      </c>
-      <c r="F33" s="29">
-        <v>10800</v>
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="39">
+        <v>928000</v>
       </c>
       <c r="G33" s="29">
-        <f t="shared" si="1"/>
-        <v>756000</v>
+        <v>928000</v>
       </c>
       <c r="H33" s="30" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="3:10" ht="15">
       <c r="C34" s="8">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
       <c r="F34" s="39">
-        <v>2125000</v>
+        <v>222000</v>
       </c>
       <c r="G34" s="29">
-        <f t="shared" si="1"/>
-        <v>2125000</v>
+        <v>222000</v>
       </c>
       <c r="H34" s="30" t="s">
         <v>22</v>
@@ -2615,19 +2682,19 @@
     </row>
     <row r="35" spans="3:10" ht="15">
       <c r="C35" s="8">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
       <c r="F35" s="39">
-        <v>577000</v>
+        <v>1750000</v>
       </c>
       <c r="G35" s="29">
-        <v>577000</v>
+        <v>1750000</v>
       </c>
       <c r="H35" s="30" t="s">
         <v>22</v>
@@ -2637,19 +2704,19 @@
     </row>
     <row r="36" spans="3:10" ht="15">
       <c r="C36" s="8">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
       <c r="F36" s="39">
-        <v>928000</v>
+        <v>155000</v>
       </c>
       <c r="G36" s="29">
-        <v>928000</v>
+        <v>155000</v>
       </c>
       <c r="H36" s="30" t="s">
         <v>22</v>
@@ -2657,160 +2724,157 @@
       <c r="I36" s="11"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="3:10" ht="15">
+    <row r="37" spans="3:10" s="46" customFormat="1" ht="15">
       <c r="C37" s="8">
-        <v>6</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="39">
-        <v>222000</v>
-      </c>
-      <c r="G37" s="29">
-        <v>222000</v>
-      </c>
-      <c r="H37" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="43">
+        <v>1</v>
+      </c>
+      <c r="F37" s="44">
+        <v>830000</v>
+      </c>
+      <c r="G37" s="44">
+        <v>830000</v>
+      </c>
+      <c r="H37" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
     </row>
     <row r="38" spans="3:10" ht="15">
       <c r="C38" s="8">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="39">
-        <v>1750000</v>
+        <v>10</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="29">
+        <v>8606000</v>
       </c>
       <c r="G38" s="29">
-        <v>1750000</v>
+        <v>8606000</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="9"/>
+        <v>51</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="3:10" ht="15">
       <c r="C39" s="8">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="39">
-        <v>155000</v>
+        <v>11</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1</v>
+      </c>
+      <c r="F39" s="29">
+        <v>50000</v>
       </c>
       <c r="G39" s="29">
-        <v>155000</v>
+        <f t="shared" ref="G39:G44" si="2">E39*F39</f>
+        <v>50000</v>
       </c>
       <c r="H39" s="30" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I39" s="11"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="3:10" s="46" customFormat="1" ht="15">
+    <row r="40" spans="3:10" ht="15">
       <c r="C40" s="8">
-        <v>9</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" s="43">
-        <v>1</v>
-      </c>
-      <c r="F40" s="44">
-        <v>830000</v>
-      </c>
-      <c r="G40" s="44">
-        <v>830000</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="38">
+        <v>1</v>
+      </c>
+      <c r="F40" s="29">
+        <v>201000</v>
+      </c>
+      <c r="G40" s="29">
+        <f t="shared" si="2"/>
+        <v>201000</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41" spans="3:10" ht="15">
-      <c r="C41" s="8">
-        <v>10</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>50</v>
+      <c r="C41" s="8"/>
+      <c r="D41" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="E41" s="38">
         <v>1</v>
       </c>
       <c r="F41" s="29">
-        <v>8606000</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="29">
-        <v>8606000</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="H41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="3:10" ht="15">
+      <c r="C42" s="8"/>
+      <c r="D42" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="38">
+        <v>1</v>
+      </c>
+      <c r="F42" s="29">
+        <v>2014000</v>
+      </c>
+      <c r="G42" s="29">
+        <f t="shared" si="2"/>
+        <v>2014000</v>
+      </c>
+      <c r="H42" s="30" t="s">
         <v>51</v>
-      </c>
-      <c r="I41" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="3:10" ht="15">
-      <c r="C42" s="8">
-        <v>11</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="38">
-        <v>1</v>
-      </c>
-      <c r="F42" s="29">
-        <v>50000</v>
-      </c>
-      <c r="G42" s="29">
-        <f>E42*F42</f>
-        <v>50000</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>9</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="3:10" ht="15">
-      <c r="C43" s="8">
-        <v>12</v>
-      </c>
+      <c r="C43" s="8"/>
       <c r="D43" s="30" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E43" s="38">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F43" s="29">
-        <v>201000</v>
+        <v>395000</v>
       </c>
       <c r="G43" s="29">
-        <f>E43*F43</f>
-        <v>201000</v>
+        <f t="shared" si="2"/>
+        <v>11850000</v>
       </c>
       <c r="H43" s="30" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="I43" s="11"/>
       <c r="J43" s="9"/>
@@ -2818,50 +2882,49 @@
     <row r="44" spans="3:10" ht="15">
       <c r="C44" s="8"/>
       <c r="D44" s="30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E44" s="38">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="F44" s="29">
-        <v>40000</v>
+        <v>30500</v>
       </c>
       <c r="G44" s="29">
-        <f>E44*F44</f>
-        <v>40000</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>9</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>2196000</v>
+      </c>
+      <c r="H44" s="30"/>
       <c r="I44" s="11"/>
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="3:10" ht="15">
-      <c r="C45" s="8"/>
-      <c r="D45" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E45" s="38">
-        <v>1</v>
-      </c>
-      <c r="F45" s="29">
-        <v>2014000</v>
+      <c r="C45" s="8">
+        <v>11</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="39">
+        <v>260000</v>
       </c>
       <c r="G45" s="29">
-        <f>E45*F45</f>
-        <v>2014000</v>
+        <v>260000</v>
       </c>
       <c r="H45" s="30" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="3:10" ht="15">
       <c r="C46" s="8"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="29"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
       <c r="I46" s="11"/>
@@ -2869,79 +2932,74 @@
     </row>
     <row r="47" spans="3:10" ht="15">
       <c r="C47" s="8"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="55">
-        <f>SUM(G32:G45)</f>
-        <v>18884000</v>
-      </c>
-      <c r="H47" s="56"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="8"/>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="30"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="75">
+        <f>36000000-G49-G29</f>
+        <v>-168000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="15">
+      <c r="C49" s="8"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="55">
+        <f>SUM(G31:G48)</f>
+        <v>30488000</v>
+      </c>
+      <c r="H49" s="56"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="15">
+      <c r="C50" s="8"/>
+      <c r="D50" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="3:10" ht="15">
-      <c r="C49" s="8">
-        <v>1</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="34"/>
-    </row>
-    <row r="50" spans="3:10" ht="15">
-      <c r="C50" s="8">
-        <v>2</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="22"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="3:10" ht="15">
       <c r="C51" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="48"/>
       <c r="G51" s="50"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="22"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="34"/>
     </row>
     <row r="52" spans="3:10" ht="15">
       <c r="C52" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="48"/>
@@ -2951,62 +3009,90 @@
       <c r="J52" s="22"/>
     </row>
     <row r="53" spans="3:10" ht="15">
-      <c r="C53" s="8"/>
-      <c r="D53" s="21"/>
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="48"/>
       <c r="G53" s="50"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="I53" s="11"/>
       <c r="J53" s="22"/>
     </row>
     <row r="54" spans="3:10" ht="15">
-      <c r="C54" s="8"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="51">
-        <f>SUM(G49:G53)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="32"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10">
+      <c r="C54" s="8">
+        <v>4</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="3:10" ht="15">
       <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="D55" s="21"/>
       <c r="E55" s="10"/>
       <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="8"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="22"/>
     </row>
     <row r="56" spans="3:10" ht="15">
       <c r="C56" s="8"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="3:10" ht="15">
+      <c r="D56" s="36"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="51">
+        <f>SUM(G51:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
       <c r="C57" s="8"/>
-      <c r="D57" s="21"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="10"/>
       <c r="F57" s="48"/>
-      <c r="G57" s="49">
-        <f>G8-G30-G47</f>
-        <v>-7722000</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="31" t="s">
+      <c r="G57" s="48"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="3:10" ht="15">
+      <c r="C58" s="8"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="3:10" ht="15">
+      <c r="C59" s="8"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49">
+        <f>G8-G29-G49</f>
+        <v>-21768000</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3015,8 +3101,8 @@
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D50:G50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3024,11 +3110,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
-  <dimension ref="C2:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
+  <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3046,16 +3132,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="C2" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3085,20 +3171,18 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="54"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="3:10">
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="48"/>
@@ -3148,12 +3232,541 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="8"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="3:10" ht="15">
+      <c r="C11" s="8"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10" ht="15">
+      <c r="C12" s="8"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="55">
+        <f>SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="15">
+      <c r="C13" s="8"/>
+      <c r="D13" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="3:10" ht="15">
+      <c r="C14" s="8"/>
+      <c r="D14" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="38">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29">
+        <v>9064000</v>
+      </c>
+      <c r="G14" s="29">
+        <f>F14*E14</f>
+        <v>9064000</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="3:10" ht="15">
+      <c r="C15" s="8"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="3:10" ht="15">
+      <c r="C16" s="8"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:10" ht="15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="3:10" ht="15">
+      <c r="C18" s="8"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:10" ht="15">
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="3:10" s="46" customFormat="1" ht="15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="3:10" ht="15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:10" ht="15">
+      <c r="C23" s="8"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="8"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="15">
+      <c r="C25" s="8"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="8"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10" ht="15">
+      <c r="C30" s="8"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="3:10" ht="15">
+      <c r="C31" s="8"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="75"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="8"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="55">
+        <f>SUM(G14:G31)</f>
+        <v>9064000</v>
+      </c>
+      <c r="H32" s="56"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="8"/>
+      <c r="D33" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="3:10" ht="15">
+      <c r="C35" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
+      <c r="C36" s="8">
+        <v>3</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
+      <c r="C37" s="8">
+        <v>4</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="3:10" ht="15">
+      <c r="C38" s="8"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="3:10" ht="15">
+      <c r="C39" s="8"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="51">
+        <f>SUM(G34:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="3:10" ht="15">
+      <c r="C41" s="8"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="3:10" ht="15">
+      <c r="C42" s="8"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49">
+        <f>G8-G12-G32</f>
+        <v>-9064000</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D33:G33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
+  <dimension ref="C2:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="20.25">
+      <c r="C2" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="3:10" ht="15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49">
+        <f>SUM(G5:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -3350,12 +3963,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="54"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -3387,12 +4000,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="57"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -3534,7 +4147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F130950-C7C5-472A-9BC1-443D40499FE8}">
   <dimension ref="C2:J32"/>
   <sheetViews>
@@ -3557,16 +4170,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3596,12 +4209,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3659,12 +4272,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -3836,12 +4449,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="54"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -3873,12 +4486,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="57"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -4012,12 +4625,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:J70"/>
+  <dimension ref="C2:J73"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:G65"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4035,16 +4648,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -4074,12 +4687,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="60"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -4137,12 +4750,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="80" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="60"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -4332,12 +4945,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="60"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -4379,7 +4992,7 @@
         <v>120000</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" ref="G22:G43" si="1">E22*F22</f>
+        <f t="shared" ref="G22:G45" si="1">E22*F22</f>
         <v>120000</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -4871,425 +5484,488 @@
     </row>
     <row r="44" spans="3:10" ht="15">
       <c r="C44" s="8"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="8"/>
+      <c r="D44" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="29">
+        <v>147000</v>
+      </c>
+      <c r="G44" s="29">
+        <f t="shared" si="1"/>
+        <v>147000</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="3:10" ht="15">
       <c r="C45" s="8"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="55">
-        <f>SUM(G21:G43)</f>
-        <v>3469000</v>
-      </c>
-      <c r="H45" s="56"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D45" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="29">
+        <v>160000</v>
+      </c>
+      <c r="G45" s="29">
+        <f t="shared" si="1"/>
+        <v>160000</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
     <row r="46" spans="3:10" ht="15">
       <c r="C46" s="8"/>
-      <c r="D46" s="78" t="s">
+      <c r="D46" s="30"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="3:10" ht="15">
+      <c r="C47" s="8"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="3:10" ht="15">
+      <c r="C48" s="8"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="55">
+        <f>SUM(G21:G47)</f>
+        <v>3776000</v>
+      </c>
+      <c r="H48" s="56"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="15">
+      <c r="C49" s="8"/>
+      <c r="D49" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="3:10" ht="15">
-      <c r="C47" s="8">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="3:10" ht="15">
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="39">
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="39">
         <v>1800000</v>
       </c>
-      <c r="G47" s="59">
-        <f>F47*E47</f>
+      <c r="G50" s="59">
+        <f>F50*E50</f>
         <v>1800000</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H50" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="14"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" spans="3:10" ht="15">
-      <c r="C48" s="8">
+      <c r="I50" s="14"/>
+      <c r="J50" s="34"/>
+    </row>
+    <row r="51" spans="3:10" ht="15">
+      <c r="C51" s="8">
         <v>2</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="39">
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="39">
         <v>5000000</v>
       </c>
-      <c r="G48" s="59">
-        <f>F48*E48</f>
+      <c r="G51" s="59">
+        <f>F51*E51</f>
         <v>5000000</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H51" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="14"/>
-      <c r="J48" s="22"/>
-    </row>
-    <row r="49" spans="3:10" ht="15">
-      <c r="C49" s="8">
-        <v>3</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="30">
-        <v>1</v>
-      </c>
-      <c r="F49" s="29">
-        <v>2590000</v>
-      </c>
-      <c r="G49" s="59">
-        <f>F49*E49</f>
-        <v>2590000</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="22"/>
-    </row>
-    <row r="50" spans="3:10" ht="15">
-      <c r="C50" s="8"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="22"/>
-    </row>
-    <row r="51" spans="3:10" ht="15">
-      <c r="C51" s="8"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="22"/>
     </row>
     <row r="52" spans="3:10" ht="15">
-      <c r="C52" s="8"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="51">
-        <f>SUM(G47:G50)</f>
-        <v>9390000</v>
-      </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10">
+      <c r="C52" s="8">
+        <v>3</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="30">
+        <v>1</v>
+      </c>
+      <c r="F52" s="29">
+        <v>2590000</v>
+      </c>
+      <c r="G52" s="59">
+        <f>F52*E52</f>
+        <v>2590000</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="3:10" ht="15">
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="8"/>
+      <c r="D53" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="48">
+        <v>410000</v>
+      </c>
+      <c r="G53" s="59">
+        <f>F53*E53</f>
+        <v>410000</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="22"/>
     </row>
     <row r="54" spans="3:10" ht="15">
       <c r="C54" s="8"/>
-      <c r="D54" s="78" t="s">
+      <c r="D54" s="21"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="3:10" ht="15">
+      <c r="C55" s="8"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="51">
+        <f>SUM(G50:G53)</f>
+        <v>9800000</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="3:10" ht="15">
+      <c r="C57" s="8"/>
+      <c r="D57" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="8"/>
-    </row>
-    <row r="55" spans="3:10" ht="15">
-      <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="D55" s="30" t="s">
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="3:10" ht="15">
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="29">
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="29">
         <v>2000000</v>
       </c>
-      <c r="G55" s="59">
-        <f>F55*E55</f>
+      <c r="G58" s="59">
+        <f>F58*E58</f>
         <v>2000000</v>
       </c>
-      <c r="H55" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="34"/>
-    </row>
-    <row r="56" spans="3:10" ht="15">
-      <c r="C56" s="8">
+      <c r="H58" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="14"/>
+      <c r="J58" s="34"/>
+    </row>
+    <row r="59" spans="3:10" ht="15">
+      <c r="C59" s="8">
         <v>2</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="39">
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="39">
         <v>250000</v>
       </c>
-      <c r="G56" s="59">
-        <f t="shared" ref="G56:G59" si="2">F56*E56</f>
+      <c r="G59" s="59">
+        <f t="shared" ref="G59:G62" si="2">F59*E59</f>
         <v>250000</v>
       </c>
-      <c r="H56" s="65" t="s">
+      <c r="H59" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I56" s="14"/>
-      <c r="J56" s="22"/>
-    </row>
-    <row r="57" spans="3:10" ht="15">
-      <c r="C57" s="8">
+      <c r="I59" s="14"/>
+      <c r="J59" s="22"/>
+    </row>
+    <row r="60" spans="3:10" ht="15">
+      <c r="C60" s="8">
         <v>3</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="30">
-        <v>1</v>
-      </c>
-      <c r="F57" s="39">
+      <c r="E60" s="30">
+        <v>1</v>
+      </c>
+      <c r="F60" s="39">
         <v>1000000</v>
       </c>
-      <c r="G57" s="59">
+      <c r="G60" s="59">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="H57" s="65" t="s">
+      <c r="H60" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I57" s="11"/>
-      <c r="J57" s="22"/>
-    </row>
-    <row r="58" spans="3:10" ht="15">
-      <c r="C58" s="8"/>
-      <c r="D58" s="1" t="s">
+      <c r="I60" s="11"/>
+      <c r="J60" s="22"/>
+    </row>
+    <row r="61" spans="3:10" ht="15">
+      <c r="C61" s="8"/>
+      <c r="D61" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E58" s="30">
-        <v>1</v>
-      </c>
-      <c r="F58" s="39">
+      <c r="E61" s="30">
+        <v>1</v>
+      </c>
+      <c r="F61" s="39">
         <v>1880000</v>
       </c>
-      <c r="G58" s="59">
+      <c r="G61" s="59">
         <f t="shared" si="2"/>
         <v>1880000</v>
       </c>
-      <c r="H58" s="65" t="s">
+      <c r="H61" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="22"/>
-    </row>
-    <row r="59" spans="3:10" ht="15">
-      <c r="C59" s="8"/>
-      <c r="D59" s="1" t="s">
+      <c r="I61" s="14"/>
+      <c r="J61" s="22"/>
+    </row>
+    <row r="62" spans="3:10" ht="15">
+      <c r="C62" s="8"/>
+      <c r="D62" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E59" s="30">
-        <v>1</v>
-      </c>
-      <c r="F59" s="39">
+      <c r="E62" s="30">
+        <v>1</v>
+      </c>
+      <c r="F62" s="39">
         <v>1200000</v>
       </c>
-      <c r="G59" s="59">
+      <c r="G62" s="59">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="H59" s="65" t="s">
+      <c r="H62" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="22"/>
-    </row>
-    <row r="60" spans="3:10" ht="15">
-      <c r="C60" s="8"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="22"/>
-    </row>
-    <row r="61" spans="3:10" ht="15">
-      <c r="C61" s="8"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="22"/>
-    </row>
-    <row r="62" spans="3:10" ht="15">
-      <c r="C62" s="8"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="51">
-        <f>SUM(G55:G60)</f>
-        <v>6330000</v>
-      </c>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="I62" s="14"/>
+      <c r="J62" s="22"/>
     </row>
     <row r="63" spans="3:10" ht="15">
       <c r="C63" s="8"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="68"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" spans="3:10" ht="15">
       <c r="C64" s="8"/>
-      <c r="D64" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="8"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="22"/>
     </row>
     <row r="65" spans="3:10" ht="15">
       <c r="C65" s="8"/>
-      <c r="D65" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="29">
-        <v>7174000</v>
-      </c>
-      <c r="G65" s="59">
-        <f>F65*E65</f>
-        <v>7174000</v>
-      </c>
-      <c r="H65" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="34"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="51">
+        <f>SUM(G58:G63)</f>
+        <v>6330000</v>
+      </c>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="66" spans="3:10" ht="15">
       <c r="C66" s="8"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="65"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="22"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="68"/>
     </row>
     <row r="67" spans="3:10" ht="15">
       <c r="C67" s="8"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="22"/>
+      <c r="D67" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="8"/>
     </row>
     <row r="68" spans="3:10" ht="15">
       <c r="C68" s="8"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="51">
-        <f>SUM(G65:G66)</f>
+      <c r="D68" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="29">
         <v>7174000</v>
       </c>
-      <c r="H68" s="32"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="G68" s="59">
+        <f>F68*E68</f>
+        <v>7174000</v>
+      </c>
+      <c r="H68" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="14"/>
+      <c r="J68" s="34"/>
     </row>
     <row r="69" spans="3:10" ht="15">
       <c r="C69" s="8"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="22"/>
     </row>
     <row r="70" spans="3:10" ht="15">
       <c r="C70" s="8"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="49">
-        <f>G8-G19-G45-G52-G62-G68</f>
-        <v>-29363000</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="31" t="s">
+      <c r="D70" s="1"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="22"/>
+    </row>
+    <row r="71" spans="3:10" ht="15">
+      <c r="C71" s="8"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="51">
+        <f>SUM(G68:G69)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" ht="15">
+      <c r="C72" s="8"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="3:10" ht="15">
+      <c r="C73" s="8"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="49">
+        <f>G8-G19-G48-G55-G65-G71</f>
+        <v>-30080000</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="31" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D67:G67"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VitechSolutions\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380DDF56-AB47-4DDC-9EB5-52B78C4067FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A5C04-CBB8-4CAD-8C54-00005C69506C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$59</definedName>
     <definedName name="sport1_p2">SPORT1_P2!$G$32</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="144">
   <si>
     <t>STT</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>GPS NEO 6M</t>
+  </si>
+  <si>
+    <t>Cọc tiền EC20</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1283,7 @@
       </c>
       <c r="J5" s="11">
         <f>Pega</f>
-        <v>-16680086</v>
+        <v>-16890086</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -1340,7 +1343,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-81905066</v>
+        <v>-82115066</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1358,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032BD6C-08F6-46C4-8E07-045BAFBCF7A7}">
   <dimension ref="C2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1740,7 +1743,7 @@
         <v>2547152</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" ref="G20:G23" si="2">E20*F20</f>
+        <f t="shared" ref="G20:G24" si="2">E20*F20</f>
         <v>2547152</v>
       </c>
       <c r="H20" s="70" t="s">
@@ -1814,11 +1817,22 @@
     </row>
     <row r="24" spans="3:10" ht="15.75">
       <c r="C24" s="8"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="70"/>
+      <c r="D24" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="62">
+        <v>1</v>
+      </c>
+      <c r="F24" s="69">
+        <v>210000</v>
+      </c>
+      <c r="G24" s="11">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
+      <c r="H24" s="70" t="s">
+        <v>51</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="9"/>
     </row>
@@ -1828,8 +1842,8 @@
       <c r="E25" s="19"/>
       <c r="F25" s="73"/>
       <c r="G25" s="32">
-        <f>SUM(G10:G23)</f>
-        <v>30680086</v>
+        <f>SUM(G10:G24)</f>
+        <v>30890086</v>
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="35"/>
@@ -2006,7 +2020,7 @@
       <c r="F39" s="48"/>
       <c r="G39" s="12">
         <f>G8-G25-G28-G36</f>
-        <v>-16680086</v>
+        <v>-16890086</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="20"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -1,60 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VitechSolutions\Team_Log\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762A5C04-CBB8-4CAD-8C54-00005C69506C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20CA400-AD7A-42DA-8F62-F995E96FEFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
     <sheet name="PEGA" sheetId="2" r:id="rId2"/>
     <sheet name="SPORT1_P1.5" sheetId="3" r:id="rId3"/>
-    <sheet name="Hecquyn" sheetId="10" r:id="rId4"/>
-    <sheet name="SPORT1_P2" sheetId="4" r:id="rId5"/>
-    <sheet name="SMARTHOME" sheetId="5" r:id="rId6"/>
-    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId7"/>
+    <sheet name="SPORT1_P2" sheetId="4" r:id="rId4"/>
+    <sheet name="SMARTHOME" sheetId="5" r:id="rId5"/>
+    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId6"/>
+    <sheet name="270_Hecquyn" sheetId="10" r:id="rId7"/>
+    <sheet name="160_Zeus" sheetId="12" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$73</definedName>
     <definedName name="Pega">PEGA!$G$39</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="7">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="6">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="3">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="7">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="6">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="5">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="4">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="3">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="5">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="4">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5">#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="7">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="5">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="4">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="3">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="5">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="4">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="6">'Chi Phí Công ty'!$G$73</definedName>
+    <definedName name="smarthome" localSheetId="5">'Chi Phí Công ty'!$G$73</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
-    <definedName name="sport1_p1.5" localSheetId="3">Hecquyn!$G$42</definedName>
+    <definedName name="sport1_p1.5" localSheetId="7">'160_Zeus'!$G$42</definedName>
+    <definedName name="sport1_p1.5" localSheetId="6">'270_Hecquyn'!$G$42</definedName>
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$59</definedName>
     <definedName name="sport1_p2">SPORT1_P2!$G$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="145">
   <si>
     <t>STT</t>
   </si>
@@ -496,6 +501,9 @@
   </si>
   <si>
     <t>Cọc tiền EC20</t>
+  </si>
+  <si>
+    <t>200xMS51</t>
   </si>
 </sst>
 </file>
@@ -691,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -899,6 +907,9 @@
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1242,12 +1253,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:11" ht="20.25">
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="8:11" ht="15.75">
       <c r="H3" s="6" t="s">
@@ -1362,7 +1373,7 @@
   <dimension ref="C2:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1380,16 +1391,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -1419,12 +1430,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
       <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1491,12 +1502,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="26"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -1863,12 +1874,12 @@
     </row>
     <row r="27" spans="3:10" ht="15">
       <c r="C27" s="8"/>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="26"/>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
@@ -1903,12 +1914,12 @@
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
       <c r="H30" s="27"/>
       <c r="I30" s="11"/>
       <c r="J30" s="8"/>
@@ -2064,16 +2075,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -2103,12 +2114,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2175,12 +2186,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -2594,12 +2605,12 @@
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
       <c r="H30" s="54"/>
       <c r="I30" s="11"/>
       <c r="J30" s="9"/>
@@ -2984,12 +2995,12 @@
     </row>
     <row r="50" spans="3:10" ht="15">
       <c r="C50" s="8"/>
-      <c r="D50" s="80" t="s">
+      <c r="D50" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="57"/>
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
@@ -3124,6 +3135,2342 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
+  <dimension ref="C2:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="20.25">
+      <c r="C2" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="3:10" ht="15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49">
+        <f>SUM(G5:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <v>230000</v>
+      </c>
+      <c r="G10" s="29">
+        <v>230000</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="3:10" ht="15">
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>1360000</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1360000</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10" ht="15">
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2</v>
+      </c>
+      <c r="F12" s="29">
+        <v>65000</v>
+      </c>
+      <c r="G12" s="29">
+        <v>130000</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="3:10" ht="15">
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>450000</v>
+      </c>
+      <c r="G13" s="29">
+        <v>450000</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="3:10" ht="15">
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="30">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>30000</v>
+      </c>
+      <c r="G14" s="29">
+        <v>60000</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="3:10" ht="15">
+      <c r="C15" s="8">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>55000</v>
+      </c>
+      <c r="G15" s="29">
+        <v>55000</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="3:10" ht="15">
+      <c r="C16" s="8">
+        <v>7</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="39">
+        <v>15000</v>
+      </c>
+      <c r="G16" s="29">
+        <f>F16*E16</f>
+        <v>150000</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:10" ht="15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="3:10" ht="15">
+      <c r="C18" s="8"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:10" ht="15">
+      <c r="C19" s="8"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="55">
+        <f>SUM(G10:G16)</f>
+        <v>2435000</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="3:10" ht="15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="55">
+        <f>SUM(G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="15">
+      <c r="C23" s="8"/>
+      <c r="D23" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="3:10" ht="15">
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="8">
+        <v>3</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="8">
+        <v>4</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="50">
+        <v>3600000</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="51">
+        <f>SUM(G24:G28)</f>
+        <v>3600000</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="3:10" ht="15">
+      <c r="C31" s="8"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="8"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49">
+        <f>G8-G19-G22-G29</f>
+        <v>-6035000</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D23:G23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F130950-C7C5-472A-9BC1-443D40499FE8}">
+  <dimension ref="C2:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="20.25">
+      <c r="C2" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="3:10" ht="15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49">
+        <f>SUM(G5:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <v>1050000</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1050000</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="3:10" ht="15">
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>190000</v>
+      </c>
+      <c r="G11" s="29">
+        <v>190000</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10" ht="15">
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="29">
+        <v>3121980</v>
+      </c>
+      <c r="G12" s="29">
+        <v>3121980</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="3:10" ht="15">
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1980000</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1980000</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="3:10" ht="15">
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="39">
+        <v>1000000</v>
+      </c>
+      <c r="G14" s="59">
+        <v>1000000</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="3:10" ht="15">
+      <c r="C15" s="8"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="3:10" ht="15">
+      <c r="C16" s="8"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:10" ht="15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="3:10" ht="15">
+      <c r="C18" s="8"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:10" ht="15">
+      <c r="C19" s="8"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="55">
+        <f>SUM(G10:G16)</f>
+        <v>7341980</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="3:10" ht="15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="55">
+        <f>SUM(G21)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="15">
+      <c r="C23" s="8"/>
+      <c r="D23" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="3:10" ht="15">
+      <c r="C25" s="8">
+        <v>2</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="8">
+        <v>3</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="8">
+        <v>4</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="51">
+        <f>SUM(G24:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="3:10" ht="15">
+      <c r="C31" s="8"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="8"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49">
+        <f>G8-G19-G22-G29</f>
+        <v>-7341980</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D23:G23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
+  <dimension ref="C2:J73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="20.25">
+      <c r="C2" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="3:10" ht="15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49">
+        <f>SUM(G5:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <v>500000</v>
+      </c>
+      <c r="G10" s="29">
+        <f>E10*F10</f>
+        <v>500000</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="3:10" ht="15">
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>500000</v>
+      </c>
+      <c r="G11" s="29">
+        <f t="shared" ref="G11:G15" si="0">E11*F11</f>
+        <v>500000</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10" ht="15">
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="30">
+        <v>1</v>
+      </c>
+      <c r="F12" s="29">
+        <v>500000</v>
+      </c>
+      <c r="G12" s="29">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="3:10" ht="15">
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="30">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>500000</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="3:10" ht="15">
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="30">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29">
+        <v>500000</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="3:10" ht="15">
+      <c r="C15" s="8">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="30">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>500000</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="3:10" ht="15">
+      <c r="C16" s="8"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:10" ht="15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="3:10" ht="15">
+      <c r="C18" s="8"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:10" ht="15">
+      <c r="C19" s="8"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="55">
+        <f>SUM(G10:G16)</f>
+        <v>3000000</v>
+      </c>
+      <c r="H19" s="56"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="3:10" ht="15">
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29">
+        <v>40000</v>
+      </c>
+      <c r="G21" s="29">
+        <f>E21*F21</f>
+        <v>40000</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
+      <c r="C22" s="8">
+        <v>2</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" ref="G22:G45" si="1">E22*F22</f>
+        <v>120000</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:10" ht="15">
+      <c r="C23" s="8">
+        <v>3</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="29">
+        <v>40000</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="15">
+      <c r="C25" s="8">
+        <v>5</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="8">
+        <v>6</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G26" s="29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="8">
+        <v>7</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G27" s="29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="8">
+        <v>8</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="29">
+        <v>80000</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="8">
+        <v>9</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10" ht="15">
+      <c r="C30" s="8">
+        <v>10</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="29">
+        <v>200000</v>
+      </c>
+      <c r="G30" s="29">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="3:10" ht="15">
+      <c r="C31" s="8">
+        <v>11</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="29">
+        <v>80000</v>
+      </c>
+      <c r="G31" s="29">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="8">
+        <v>12</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G32" s="29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="8">
+        <v>13</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G33" s="29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="8">
+        <v>14</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G34" s="29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="3:10" ht="15">
+      <c r="C35" s="8">
+        <v>15</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G35" s="29">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
+      <c r="C36" s="8">
+        <v>16</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="29">
+        <v>200000</v>
+      </c>
+      <c r="G36" s="29">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
+      <c r="C37" s="8">
+        <v>17</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="39">
+        <v>360000</v>
+      </c>
+      <c r="G37" s="29">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+      <c r="H37" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="3:10" ht="15">
+      <c r="C38" s="8">
+        <v>18</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="39">
+        <v>170000</v>
+      </c>
+      <c r="G38" s="29">
+        <f t="shared" si="1"/>
+        <v>170000</v>
+      </c>
+      <c r="H38" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="3:10" ht="15">
+      <c r="C39" s="8">
+        <v>19</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="29">
+        <v>204000</v>
+      </c>
+      <c r="G39" s="29">
+        <f t="shared" si="1"/>
+        <v>204000</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="3:10" ht="15">
+      <c r="C40" s="8">
+        <v>20</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="29">
+        <v>227000</v>
+      </c>
+      <c r="G40" s="29">
+        <f t="shared" si="1"/>
+        <v>227000</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="3:10" ht="15">
+      <c r="C41" s="8">
+        <v>21</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="29">
+        <v>287000</v>
+      </c>
+      <c r="G41" s="29">
+        <f t="shared" si="1"/>
+        <v>287000</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="3:10" ht="15">
+      <c r="C42" s="8">
+        <v>22</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="29">
+        <v>81000</v>
+      </c>
+      <c r="G42" s="29">
+        <f t="shared" si="1"/>
+        <v>81000</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="3:10" ht="15">
+      <c r="C43" s="8"/>
+      <c r="D43" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="29">
+        <v>300000</v>
+      </c>
+      <c r="G43" s="29">
+        <f t="shared" si="1"/>
+        <v>300000</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="3:10" ht="15">
+      <c r="C44" s="8"/>
+      <c r="D44" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="29">
+        <v>147000</v>
+      </c>
+      <c r="G44" s="29">
+        <f t="shared" si="1"/>
+        <v>147000</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="3:10" ht="15">
+      <c r="C45" s="8"/>
+      <c r="D45" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="29">
+        <v>160000</v>
+      </c>
+      <c r="G45" s="29">
+        <f t="shared" si="1"/>
+        <v>160000</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="3:10" ht="15">
+      <c r="C46" s="8"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="3:10" ht="15">
+      <c r="C47" s="8"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="3:10" ht="15">
+      <c r="C48" s="8"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="55">
+        <f>SUM(G21:G47)</f>
+        <v>3776000</v>
+      </c>
+      <c r="H48" s="56"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="15">
+      <c r="C49" s="8"/>
+      <c r="D49" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="3:10" ht="15">
+      <c r="C50" s="8">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="39">
+        <v>1800000</v>
+      </c>
+      <c r="G50" s="59">
+        <f>F50*E50</f>
+        <v>1800000</v>
+      </c>
+      <c r="H50" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="34"/>
+    </row>
+    <row r="51" spans="3:10" ht="15">
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="39">
+        <v>5000000</v>
+      </c>
+      <c r="G51" s="59">
+        <f>F51*E51</f>
+        <v>5000000</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="22"/>
+    </row>
+    <row r="52" spans="3:10" ht="15">
+      <c r="C52" s="8">
+        <v>3</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="30">
+        <v>1</v>
+      </c>
+      <c r="F52" s="29">
+        <v>2590000</v>
+      </c>
+      <c r="G52" s="59">
+        <f>F52*E52</f>
+        <v>2590000</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="3:10" ht="15">
+      <c r="C53" s="8"/>
+      <c r="D53" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="48">
+        <v>410000</v>
+      </c>
+      <c r="G53" s="59">
+        <f>F53*E53</f>
+        <v>410000</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="14"/>
+      <c r="J53" s="22"/>
+    </row>
+    <row r="54" spans="3:10" ht="15">
+      <c r="C54" s="8"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="3:10" ht="15">
+      <c r="C55" s="8"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="51">
+        <f>SUM(G50:G53)</f>
+        <v>9800000</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="3:10" ht="15">
+      <c r="C57" s="8"/>
+      <c r="D57" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="3:10" ht="15">
+      <c r="C58" s="8">
+        <v>1</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="G58" s="59">
+        <f>F58*E58</f>
+        <v>2000000</v>
+      </c>
+      <c r="H58" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="14"/>
+      <c r="J58" s="34"/>
+    </row>
+    <row r="59" spans="3:10" ht="15">
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="39">
+        <v>250000</v>
+      </c>
+      <c r="G59" s="59">
+        <f t="shared" ref="G59:G62" si="2">F59*E59</f>
+        <v>250000</v>
+      </c>
+      <c r="H59" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="22"/>
+    </row>
+    <row r="60" spans="3:10" ht="15">
+      <c r="C60" s="8">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="30">
+        <v>1</v>
+      </c>
+      <c r="F60" s="39">
+        <v>1000000</v>
+      </c>
+      <c r="G60" s="59">
+        <f t="shared" si="2"/>
+        <v>1000000</v>
+      </c>
+      <c r="H60" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" s="11"/>
+      <c r="J60" s="22"/>
+    </row>
+    <row r="61" spans="3:10" ht="15">
+      <c r="C61" s="8"/>
+      <c r="D61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="30">
+        <v>1</v>
+      </c>
+      <c r="F61" s="39">
+        <v>1880000</v>
+      </c>
+      <c r="G61" s="59">
+        <f t="shared" si="2"/>
+        <v>1880000</v>
+      </c>
+      <c r="H61" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I61" s="14"/>
+      <c r="J61" s="22"/>
+    </row>
+    <row r="62" spans="3:10" ht="15">
+      <c r="C62" s="8"/>
+      <c r="D62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="30">
+        <v>1</v>
+      </c>
+      <c r="F62" s="39">
+        <v>1200000</v>
+      </c>
+      <c r="G62" s="59">
+        <f t="shared" si="2"/>
+        <v>1200000</v>
+      </c>
+      <c r="H62" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" s="14"/>
+      <c r="J62" s="22"/>
+    </row>
+    <row r="63" spans="3:10" ht="15">
+      <c r="C63" s="8"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="22"/>
+    </row>
+    <row r="64" spans="3:10" ht="15">
+      <c r="C64" s="8"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="22"/>
+    </row>
+    <row r="65" spans="3:10" ht="15">
+      <c r="C65" s="8"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="51">
+        <f>SUM(G58:G63)</f>
+        <v>6330000</v>
+      </c>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" ht="15">
+      <c r="C66" s="8"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="68"/>
+    </row>
+    <row r="67" spans="3:10" ht="15">
+      <c r="C67" s="8"/>
+      <c r="D67" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="3:10" ht="15">
+      <c r="C68" s="8"/>
+      <c r="D68" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="29">
+        <v>7174000</v>
+      </c>
+      <c r="G68" s="59">
+        <f>F68*E68</f>
+        <v>7174000</v>
+      </c>
+      <c r="H68" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="14"/>
+      <c r="J68" s="34"/>
+    </row>
+    <row r="69" spans="3:10" ht="15">
+      <c r="C69" s="8"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="22"/>
+    </row>
+    <row r="70" spans="3:10" ht="15">
+      <c r="C70" s="8"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="22"/>
+    </row>
+    <row r="71" spans="3:10" ht="15">
+      <c r="C71" s="8"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="51">
+        <f>SUM(G68:G69)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="3:10" ht="15">
+      <c r="C72" s="8"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+    </row>
+    <row r="73" spans="3:10" ht="15">
+      <c r="C73" s="8"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="49">
+        <f>G8-G19-G48-G55-G65-G71</f>
+        <v>-30080000</v>
+      </c>
+      <c r="H73" s="12"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D49:G49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
   <dimension ref="C2:J42"/>
   <sheetViews>
@@ -3146,16 +5493,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3185,12 +5532,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="74"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3246,12 +5593,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="74"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -3293,12 +5640,12 @@
     </row>
     <row r="13" spans="3:10" ht="15">
       <c r="C13" s="8"/>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="74"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
@@ -3511,12 +5858,12 @@
     </row>
     <row r="33" spans="3:10" ht="15">
       <c r="C33" s="8"/>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
       <c r="H33" s="57"/>
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
@@ -3650,12 +5997,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
-  <dimension ref="C2:J32"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
+  <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3673,16 +6020,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="C2" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3712,20 +6059,18 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="54"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="76"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="3:10">
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
+      <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="48"/>
@@ -3775,176 +6120,109 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="54"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="3:10" ht="15">
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
-        <v>230000</v>
-      </c>
-      <c r="G10" s="29">
-        <v>230000</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="3:10" ht="15">
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
-        <v>1360000</v>
-      </c>
-      <c r="G11" s="29">
-        <v>1360000</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="3:10" ht="15">
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="30">
-        <v>2</v>
-      </c>
-      <c r="F12" s="29">
-        <v>65000</v>
-      </c>
-      <c r="G12" s="29">
-        <v>130000</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="55">
+        <f>SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="3:10" ht="15">
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
-        <v>450000</v>
-      </c>
-      <c r="G13" s="29">
-        <v>450000</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="3:10" ht="15">
-      <c r="C14" s="8">
-        <v>5</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="30">
-        <v>2</v>
+        <v>144</v>
+      </c>
+      <c r="E14" s="38">
+        <v>1</v>
       </c>
       <c r="F14" s="29">
-        <v>30000</v>
+        <v>4800000</v>
       </c>
       <c r="G14" s="29">
-        <v>60000</v>
+        <f>F14*E14</f>
+        <v>4800000</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="8"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="3:10" ht="15">
-      <c r="C15" s="8">
-        <v>6</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
-        <v>55000</v>
-      </c>
-      <c r="G15" s="29">
-        <v>55000</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="3:10" ht="15">
-      <c r="C16" s="8">
-        <v>7</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
-      <c r="F16" s="39">
-        <v>15000</v>
-      </c>
-      <c r="G16" s="29">
-        <f>F16*E16</f>
-        <v>150000</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>22</v>
-      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="3:10" ht="15">
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="29"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="29"/>
       <c r="H17" s="30"/>
       <c r="I17" s="11"/>
@@ -3952,9 +6230,9 @@
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="29"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="29"/>
       <c r="H18" s="30"/>
       <c r="I18" s="11"/>
@@ -3962,189 +6240,274 @@
     </row>
     <row r="19" spans="3:10" ht="15">
       <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="55">
-        <f>SUM(G10:G16)</f>
-        <v>2435000</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="15">
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="3:10" s="46" customFormat="1" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="3:10" ht="15">
       <c r="C21" s="8"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="38"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8"/>
       <c r="D22" s="30"/>
       <c r="E22" s="38"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="55">
-        <f>SUM(G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="57"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="11"/>
-      <c r="J23" s="8"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="34"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="22"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="3:10" ht="15">
-      <c r="C26" s="8">
-        <v>3</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="14"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="22"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="8">
-        <v>4</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="22"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8">
-        <v>5</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50">
-        <v>3600000</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="22"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="3:10" ht="15">
       <c r="C29" s="8"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51">
-        <f>SUM(G24:G28)</f>
-        <v>3600000</v>
-      </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="8"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="3:10" ht="15">
       <c r="C31" s="8"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="75"/>
     </row>
     <row r="32" spans="3:10" ht="15">
       <c r="C32" s="8"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49">
-        <f>G8-G19-G22-G29</f>
-        <v>-6035000</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="31" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="55">
+        <f>SUM(G14:G31)</f>
+        <v>4800000</v>
+      </c>
+      <c r="H32" s="56"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="8"/>
+      <c r="D33" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="3:10" ht="15">
+      <c r="C35" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
+      <c r="C36" s="8">
+        <v>3</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
+      <c r="C37" s="8">
+        <v>4</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="3:10" ht="15">
+      <c r="C38" s="8"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="3:10" ht="15">
+      <c r="C39" s="8"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="51">
+        <f>SUM(G34:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="3:10" ht="15">
+      <c r="C41" s="8"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="3:10" ht="15">
+      <c r="C42" s="8"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49">
+        <f>G8-G12-G32</f>
+        <v>-4800000</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4153,1833 +6516,8 @@
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D23:G23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F130950-C7C5-472A-9BC1-443D40499FE8}">
-  <dimension ref="C2:J32"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="76" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-    </row>
-    <row r="3" spans="3:10" ht="15.75">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C4" s="7"/>
-      <c r="D4" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="3:10" ht="15">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
-        <f>SUM(G5:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="15">
-      <c r="C9" s="8"/>
-      <c r="D9" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="3:10" ht="15">
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
-        <v>1050000</v>
-      </c>
-      <c r="G10" s="29">
-        <v>1050000</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="3:10" ht="15">
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
-        <v>190000</v>
-      </c>
-      <c r="G11" s="29">
-        <v>190000</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="3:10" ht="15">
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29">
-        <v>3121980</v>
-      </c>
-      <c r="G12" s="29">
-        <v>3121980</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="3:10" ht="15">
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
-        <v>1980000</v>
-      </c>
-      <c r="G13" s="29">
-        <v>1980000</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="3:10" ht="15">
-      <c r="C14" s="8">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="39">
-        <v>1000000</v>
-      </c>
-      <c r="G14" s="59">
-        <v>1000000</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="3:10" ht="15">
-      <c r="C15" s="8"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="3:10" ht="15">
-      <c r="C16" s="8"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="3:10" ht="15">
-      <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="3:10" ht="15">
-      <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="3:10" ht="15">
-      <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="55">
-        <f>SUM(G10:G16)</f>
-        <v>7341980</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="15">
-      <c r="C20" s="8"/>
-      <c r="D20" s="80" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="3:10" ht="15">
-      <c r="C21" s="8"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="3:10" ht="15">
-      <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="55">
-        <f>SUM(G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="15">
-      <c r="C23" s="8"/>
-      <c r="D23" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="34"/>
-    </row>
-    <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="22"/>
-    </row>
-    <row r="26" spans="3:10" ht="15">
-      <c r="C26" s="8">
-        <v>3</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="8">
-        <v>4</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="22"/>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51">
-        <f>SUM(G24:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49">
-        <f>G8-G19-G22-G29</f>
-        <v>-7341980</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D23:G23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:J73"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-    </row>
-    <row r="3" spans="3:10" ht="15.75">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C4" s="7"/>
-      <c r="D4" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="3:10" ht="15">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
-        <f>SUM(G5:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="15">
-      <c r="C9" s="8"/>
-      <c r="D9" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="3:10" ht="15">
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
-        <v>500000</v>
-      </c>
-      <c r="G10" s="29">
-        <f>E10*F10</f>
-        <v>500000</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="3:10" ht="15">
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
-        <v>500000</v>
-      </c>
-      <c r="G11" s="29">
-        <f t="shared" ref="G11:G15" si="0">E11*F11</f>
-        <v>500000</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="3:10" ht="15">
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29">
-        <v>500000</v>
-      </c>
-      <c r="G12" s="29">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="3:10" ht="15">
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
-        <v>500000</v>
-      </c>
-      <c r="G13" s="29">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="3:10" ht="15">
-      <c r="C14" s="8">
-        <v>5</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="30">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29">
-        <v>500000</v>
-      </c>
-      <c r="G14" s="29">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="3:10" ht="15">
-      <c r="C15" s="8">
-        <v>6</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
-        <v>500000</v>
-      </c>
-      <c r="G15" s="29">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="3:10" ht="15">
-      <c r="C16" s="8"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="3:10" ht="15">
-      <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="3:10" ht="15">
-      <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="3:10" ht="15">
-      <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="55">
-        <f>SUM(G10:G16)</f>
-        <v>3000000</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="15">
-      <c r="C20" s="8"/>
-      <c r="D20" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="3:10" ht="15">
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="29">
-        <v>40000</v>
-      </c>
-      <c r="G21" s="29">
-        <f>E21*F21</f>
-        <v>40000</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="3:10" ht="15">
-      <c r="C22" s="8">
-        <v>2</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G22" s="29">
-        <f t="shared" ref="G22:G45" si="1">E22*F22</f>
-        <v>120000</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:10" ht="15">
-      <c r="C23" s="8">
-        <v>3</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G23" s="29">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="8">
-        <v>4</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="29">
-        <v>40000</v>
-      </c>
-      <c r="G24" s="29">
-        <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="8">
-        <v>5</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G25" s="29">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="3:10" ht="15">
-      <c r="C26" s="8">
-        <v>6</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G26" s="29">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="8">
-        <v>7</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G27" s="29">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8">
-        <v>8</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-      <c r="F28" s="29">
-        <v>80000</v>
-      </c>
-      <c r="G28" s="29">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8">
-        <v>9</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G29" s="29">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="3:10" ht="15">
-      <c r="C30" s="8">
-        <v>10</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="29">
-        <v>200000</v>
-      </c>
-      <c r="G30" s="29">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8">
-        <v>11</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="29">
-        <v>80000</v>
-      </c>
-      <c r="G31" s="29">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8">
-        <v>12</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G32" s="29">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8">
-        <v>13</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G33" s="29">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="8">
-        <v>14</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G34" s="29">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="3:10" ht="15">
-      <c r="C35" s="8">
-        <v>15</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G35" s="29">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="3:10" ht="15">
-      <c r="C36" s="8">
-        <v>16</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="29">
-        <v>200000</v>
-      </c>
-      <c r="G36" s="29">
-        <f t="shared" si="1"/>
-        <v>200000</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="3:10" ht="15">
-      <c r="C37" s="8">
-        <v>17</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="39">
-        <v>360000</v>
-      </c>
-      <c r="G37" s="29">
-        <f t="shared" si="1"/>
-        <v>360000</v>
-      </c>
-      <c r="H37" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="3:10" ht="15">
-      <c r="C38" s="8">
-        <v>18</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="39">
-        <v>170000</v>
-      </c>
-      <c r="G38" s="29">
-        <f t="shared" si="1"/>
-        <v>170000</v>
-      </c>
-      <c r="H38" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="11"/>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="3:10" ht="15">
-      <c r="C39" s="8">
-        <v>19</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="29">
-        <v>204000</v>
-      </c>
-      <c r="G39" s="29">
-        <f t="shared" si="1"/>
-        <v>204000</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="3:10" ht="15">
-      <c r="C40" s="8">
-        <v>20</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="29">
-        <v>227000</v>
-      </c>
-      <c r="G40" s="29">
-        <f t="shared" si="1"/>
-        <v>227000</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="3:10" ht="15">
-      <c r="C41" s="8">
-        <v>21</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="29">
-        <v>287000</v>
-      </c>
-      <c r="G41" s="29">
-        <f t="shared" si="1"/>
-        <v>287000</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="3:10" ht="15">
-      <c r="C42" s="8">
-        <v>22</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="29">
-        <v>81000</v>
-      </c>
-      <c r="G42" s="29">
-        <f t="shared" si="1"/>
-        <v>81000</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="3:10" ht="15">
-      <c r="C43" s="8"/>
-      <c r="D43" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="29">
-        <v>300000</v>
-      </c>
-      <c r="G43" s="29">
-        <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="3:10" ht="15">
-      <c r="C44" s="8"/>
-      <c r="D44" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="29">
-        <v>147000</v>
-      </c>
-      <c r="G44" s="29">
-        <f t="shared" si="1"/>
-        <v>147000</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="3:10" ht="15">
-      <c r="C45" s="8"/>
-      <c r="D45" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="29">
-        <v>160000</v>
-      </c>
-      <c r="G45" s="29">
-        <f t="shared" si="1"/>
-        <v>160000</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="3:10" ht="15">
-      <c r="C46" s="8"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="3:10" ht="15">
-      <c r="C47" s="8"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="3:10" ht="15">
-      <c r="C48" s="8"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="55">
-        <f>SUM(G21:G47)</f>
-        <v>3776000</v>
-      </c>
-      <c r="H48" s="56"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" ht="15">
-      <c r="C49" s="8"/>
-      <c r="D49" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="3:10" ht="15">
-      <c r="C50" s="8">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="39">
-        <v>1800000</v>
-      </c>
-      <c r="G50" s="59">
-        <f>F50*E50</f>
-        <v>1800000</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="34"/>
-    </row>
-    <row r="51" spans="3:10" ht="15">
-      <c r="C51" s="8">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="39">
-        <v>5000000</v>
-      </c>
-      <c r="G51" s="59">
-        <f>F51*E51</f>
-        <v>5000000</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="22"/>
-    </row>
-    <row r="52" spans="3:10" ht="15">
-      <c r="C52" s="8">
-        <v>3</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="30">
-        <v>1</v>
-      </c>
-      <c r="F52" s="29">
-        <v>2590000</v>
-      </c>
-      <c r="G52" s="59">
-        <f>F52*E52</f>
-        <v>2590000</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="3:10" ht="15">
-      <c r="C53" s="8"/>
-      <c r="D53" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="10">
-        <v>1</v>
-      </c>
-      <c r="F53" s="48">
-        <v>410000</v>
-      </c>
-      <c r="G53" s="59">
-        <f>F53*E53</f>
-        <v>410000</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="22"/>
-    </row>
-    <row r="54" spans="3:10" ht="15">
-      <c r="C54" s="8"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="22"/>
-    </row>
-    <row r="55" spans="3:10" ht="15">
-      <c r="C55" s="8"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="51">
-        <f>SUM(G50:G53)</f>
-        <v>9800000</v>
-      </c>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="3:10" ht="15">
-      <c r="C57" s="8"/>
-      <c r="D57" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="3:10" ht="15">
-      <c r="C58" s="8">
-        <v>1</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="29">
-        <v>2000000</v>
-      </c>
-      <c r="G58" s="59">
-        <f>F58*E58</f>
-        <v>2000000</v>
-      </c>
-      <c r="H58" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="34"/>
-    </row>
-    <row r="59" spans="3:10" ht="15">
-      <c r="C59" s="8">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="39">
-        <v>250000</v>
-      </c>
-      <c r="G59" s="59">
-        <f t="shared" ref="G59:G62" si="2">F59*E59</f>
-        <v>250000</v>
-      </c>
-      <c r="H59" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="22"/>
-    </row>
-    <row r="60" spans="3:10" ht="15">
-      <c r="C60" s="8">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" s="30">
-        <v>1</v>
-      </c>
-      <c r="F60" s="39">
-        <v>1000000</v>
-      </c>
-      <c r="G60" s="59">
-        <f t="shared" si="2"/>
-        <v>1000000</v>
-      </c>
-      <c r="H60" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="22"/>
-    </row>
-    <row r="61" spans="3:10" ht="15">
-      <c r="C61" s="8"/>
-      <c r="D61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" s="30">
-        <v>1</v>
-      </c>
-      <c r="F61" s="39">
-        <v>1880000</v>
-      </c>
-      <c r="G61" s="59">
-        <f t="shared" si="2"/>
-        <v>1880000</v>
-      </c>
-      <c r="H61" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="22"/>
-    </row>
-    <row r="62" spans="3:10" ht="15">
-      <c r="C62" s="8"/>
-      <c r="D62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="30">
-        <v>1</v>
-      </c>
-      <c r="F62" s="39">
-        <v>1200000</v>
-      </c>
-      <c r="G62" s="59">
-        <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-      <c r="H62" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="22"/>
-    </row>
-    <row r="63" spans="3:10" ht="15">
-      <c r="C63" s="8"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="22"/>
-    </row>
-    <row r="64" spans="3:10" ht="15">
-      <c r="C64" s="8"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="22"/>
-    </row>
-    <row r="65" spans="3:10" ht="15">
-      <c r="C65" s="8"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="51">
-        <f>SUM(G58:G63)</f>
-        <v>6330000</v>
-      </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="3:10" ht="15">
-      <c r="C66" s="8"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="68"/>
-    </row>
-    <row r="67" spans="3:10" ht="15">
-      <c r="C67" s="8"/>
-      <c r="D67" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="8"/>
-    </row>
-    <row r="68" spans="3:10" ht="15">
-      <c r="C68" s="8"/>
-      <c r="D68" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="29">
-        <v>7174000</v>
-      </c>
-      <c r="G68" s="59">
-        <f>F68*E68</f>
-        <v>7174000</v>
-      </c>
-      <c r="H68" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="34"/>
-    </row>
-    <row r="69" spans="3:10" ht="15">
-      <c r="C69" s="8"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="22"/>
-    </row>
-    <row r="70" spans="3:10" ht="15">
-      <c r="C70" s="8"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="22"/>
-    </row>
-    <row r="71" spans="3:10" ht="15">
-      <c r="C71" s="8"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="51">
-        <f>SUM(G68:G69)</f>
-        <v>7174000</v>
-      </c>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="3:10" ht="15">
-      <c r="C72" s="8"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-    </row>
-    <row r="73" spans="3:10" ht="15">
-      <c r="C73" s="8"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="49">
-        <f>G8-G19-G48-G55-G65-G71</f>
-        <v>-30080000</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VitechSolutions\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20CA400-AD7A-42DA-8F62-F995E96FEFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57CFCF8-4E73-48AE-BA3A-32CAA0F6DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -26,8 +26,8 @@
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$73</definedName>
-    <definedName name="Pega">PEGA!$G$39</definedName>
+    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$75</definedName>
+    <definedName name="Pega">PEGA!$G$46</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="7">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="6">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
@@ -52,14 +52,14 @@
     <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="3">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="5">'Chi Phí Công ty'!$G$73</definedName>
+    <definedName name="smarthome" localSheetId="5">'Chi Phí Công ty'!$G$75</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
     <definedName name="sport1_p1.5" localSheetId="7">'160_Zeus'!$G$42</definedName>
     <definedName name="sport1_p1.5" localSheetId="6">'270_Hecquyn'!$G$42</definedName>
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$59</definedName>
     <definedName name="sport1_p2">SPORT1_P2!$G$32</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="153">
   <si>
     <t>STT</t>
   </si>
@@ -504,6 +504,30 @@
   </si>
   <si>
     <t>200xMS51</t>
+  </si>
+  <si>
+    <t>Tiền làm mạch carrier boar</t>
+  </si>
+  <si>
+    <t>Tiền màn hình 7inch x3</t>
+  </si>
+  <si>
+    <t>tuấn</t>
+  </si>
+  <si>
+    <t>Tiền ship Neo 6M</t>
+  </si>
+  <si>
+    <t>Đặt mạch test</t>
+  </si>
+  <si>
+    <t>tiền cơm ngày 29/05</t>
+  </si>
+  <si>
+    <t>Tiền cơm ngày 30/05</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 5/21</t>
   </si>
 </sst>
 </file>
@@ -699,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -925,6 +949,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1283,7 +1316,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-30080000</v>
+        <v>-31306000</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1294,7 +1327,7 @@
       </c>
       <c r="J5" s="11">
         <f>Pega</f>
-        <v>-16890086</v>
+        <v>-24093138</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -1354,7 +1387,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-82115066</v>
+        <v>-90544118</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1370,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032BD6C-08F6-46C4-8E07-045BAFBCF7A7}">
-  <dimension ref="C2:J39"/>
+  <dimension ref="C2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1754,7 +1787,7 @@
         <v>2547152</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" ref="G20:G24" si="2">E20*F20</f>
+        <f t="shared" ref="G20:G31" si="2">E20*F20</f>
         <v>2547152</v>
       </c>
       <c r="H20" s="70" t="s">
@@ -1847,195 +1880,307 @@
       <c r="I24" s="11"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="3:10" ht="15">
+    <row r="25" spans="3:10" ht="15.75">
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="32">
-        <f>SUM(G10:G24)</f>
-        <v>30890086</v>
-      </c>
-      <c r="H25" s="32"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="15">
+      <c r="D25" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="62">
+        <v>1</v>
+      </c>
+      <c r="F25" s="69">
+        <v>2685000</v>
+      </c>
+      <c r="G25" s="11">
+        <f>E25*F25</f>
+        <v>2685000</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:10" ht="15.75">
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="D26" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="62">
+        <v>1</v>
+      </c>
+      <c r="F26" s="69">
+        <v>4298000</v>
+      </c>
+      <c r="G26" s="11">
+        <f>E26*F26</f>
+        <v>4298000</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="8"/>
-      <c r="D27" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="26"/>
+    <row r="27" spans="3:10" ht="15.75">
+      <c r="C27" s="82"/>
+      <c r="D27" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="62">
+        <v>1</v>
+      </c>
+      <c r="F27" s="69">
+        <v>220000</v>
+      </c>
+      <c r="G27" s="83">
+        <f>E27*F27</f>
+        <v>220000</v>
+      </c>
+      <c r="H27" s="84" t="s">
+        <v>147</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="32">
-        <v>25000000</v>
-      </c>
-      <c r="H28" s="32"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="33" t="s">
+    <row r="28" spans="3:10" ht="15.75">
+      <c r="C28" s="82"/>
+      <c r="D28" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="62">
+        <v>1</v>
+      </c>
+      <c r="F28" s="69">
+        <v>52</v>
+      </c>
+      <c r="G28" s="83">
+        <f>E28*F28</f>
+        <v>52</v>
+      </c>
+      <c r="H28" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:10" ht="15.75">
+      <c r="C29" s="82"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10" ht="15.75">
+      <c r="C30" s="82"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="3:10">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="8"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="32">
+        <f>SUM(G10:G28)</f>
+        <v>38093138</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="3:10" ht="15">
-      <c r="C30" s="8"/>
-      <c r="D30" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="14">
-        <v>5000000</v>
-      </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="34"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="22"/>
-    </row>
     <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8">
-        <v>3</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="14">
-        <v>25000000</v>
-      </c>
-      <c r="H33" s="14"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="22"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="8">
-        <v>4</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="22"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="3:10" ht="15">
       <c r="C35" s="8">
-        <v>5</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="48"/>
-      <c r="G35" s="14">
-        <v>10000000</v>
-      </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="22"/>
+      <c r="G35" s="32">
+        <v>25000000</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="3:10" ht="15">
       <c r="C36" s="8"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="32">
-        <f>SUM(G31:G35)</f>
-        <v>40000000</v>
-      </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
+      <c r="C37" s="8"/>
+      <c r="D37" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" spans="3:10" ht="15">
-      <c r="C38" s="8"/>
-      <c r="D38" s="21"/>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="E38" s="10"/>
       <c r="F38" s="48"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="G38" s="14">
+        <v>5000000</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="34"/>
     </row>
     <row r="39" spans="3:10" ht="15">
-      <c r="C39" s="8"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="8">
+        <v>2</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E39" s="10"/>
       <c r="F39" s="48"/>
-      <c r="G39" s="12">
-        <f>G8-G25-G28-G36</f>
-        <v>-16890086</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="31" t="s">
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="3:10" ht="15">
+      <c r="C40" s="8">
+        <v>3</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="14">
+        <v>25000000</v>
+      </c>
+      <c r="H40" s="14"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="3:10" ht="15">
+      <c r="C41" s="8">
+        <v>4</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="3:10" ht="15">
+      <c r="C42" s="8">
+        <v>5</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="14">
+        <v>10000000</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="22"/>
+    </row>
+    <row r="43" spans="3:10" ht="15">
+      <c r="C43" s="8"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="32">
+        <f>SUM(G38:G42)</f>
+        <v>40000000</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="15">
+      <c r="C45" s="8"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="3:10" ht="15">
+      <c r="C46" s="8"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="12">
+        <f>G8-G32-G35-G43</f>
+        <v>-24093138</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2044,8 +2189,8 @@
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D37:G37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2056,7 +2201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE7A19-D435-4A51-A018-E212475E8992}">
   <dimension ref="C2:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -3649,7 +3794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F130950-C7C5-472A-9BC1-443D40499FE8}">
   <dimension ref="C2:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C13" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4125,10 +4270,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:J73"/>
+  <dimension ref="C2:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4295,7 +4440,7 @@
         <v>500000</v>
       </c>
       <c r="G11" s="29">
-        <f t="shared" ref="G11:G15" si="0">E11*F11</f>
+        <f t="shared" ref="G11:G16" si="0">E11*F11</f>
         <v>500000</v>
       </c>
       <c r="H11" s="30" t="s">
@@ -4398,11 +4543,22 @@
     </row>
     <row r="16" spans="3:10" ht="15">
       <c r="C16" s="8"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="45"/>
+      <c r="D16" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39">
+        <v>1000000</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>147</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
@@ -4433,7 +4589,7 @@
       <c r="F19" s="29"/>
       <c r="G19" s="55">
         <f>SUM(G10:G16)</f>
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="H19" s="56"/>
       <c r="I19" s="35"/>
@@ -4490,7 +4646,7 @@
         <v>120000</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" ref="G22:G45" si="1">E22*F22</f>
+        <f t="shared" ref="G22:G47" si="1">E22*F22</f>
         <v>120000</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -5024,446 +5180,488 @@
     </row>
     <row r="46" spans="3:10" ht="15">
       <c r="C46" s="8"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="9"/>
+      <c r="D46" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="29">
+        <v>76000</v>
+      </c>
+      <c r="G46" s="29">
+        <f t="shared" si="1"/>
+        <v>76000</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="3:10" ht="15">
       <c r="C47" s="8"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="9"/>
+      <c r="D47" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="29">
+        <v>150000</v>
+      </c>
+      <c r="G47" s="29">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="8"/>
       <c r="D48" s="30"/>
-      <c r="E48" s="38"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="29"/>
-      <c r="G48" s="55">
-        <f>SUM(G21:G47)</f>
-        <v>3776000</v>
-      </c>
-      <c r="H48" s="56"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="3:10" ht="15">
       <c r="C49" s="8"/>
-      <c r="D49" s="81" t="s">
+      <c r="D49" s="30"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="3:10" ht="15">
+      <c r="C50" s="8"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="55">
+        <f>SUM(G21:G49)</f>
+        <v>4002000</v>
+      </c>
+      <c r="H50" s="56"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="15">
+      <c r="C51" s="8"/>
+      <c r="D51" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="3:10" ht="15">
-      <c r="C50" s="8">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="39">
-        <v>1800000</v>
-      </c>
-      <c r="G50" s="59">
-        <f>F50*E50</f>
-        <v>1800000</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="14"/>
-      <c r="J50" s="34"/>
-    </row>
-    <row r="51" spans="3:10" ht="15">
-      <c r="C51" s="8">
-        <v>2</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="39">
-        <v>5000000</v>
-      </c>
-      <c r="G51" s="59">
-        <f>F51*E51</f>
-        <v>5000000</v>
-      </c>
-      <c r="H51" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="14"/>
-      <c r="J51" s="22"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="8"/>
     </row>
     <row r="52" spans="3:10" ht="15">
       <c r="C52" s="8">
-        <v>3</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="30">
-        <v>1</v>
-      </c>
-      <c r="F52" s="29">
-        <v>2590000</v>
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="39">
+        <v>1800000</v>
       </c>
       <c r="G52" s="59">
         <f>F52*E52</f>
-        <v>2590000</v>
+        <v>1800000</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="I52" s="14"/>
+      <c r="J52" s="34"/>
     </row>
     <row r="53" spans="3:10" ht="15">
-      <c r="C53" s="8"/>
-      <c r="D53" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="10">
-        <v>1</v>
-      </c>
-      <c r="F53" s="48">
-        <v>410000</v>
+      <c r="C53" s="8">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="39">
+        <v>5000000</v>
       </c>
       <c r="G53" s="59">
         <f>F53*E53</f>
-        <v>410000</v>
-      </c>
-      <c r="H53" s="14" t="s">
+        <v>5000000</v>
+      </c>
+      <c r="H53" s="30" t="s">
         <v>22</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="22"/>
     </row>
     <row r="54" spans="3:10" ht="15">
-      <c r="C54" s="8"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="C54" s="8">
+        <v>3</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" s="30">
+        <v>1</v>
+      </c>
+      <c r="F54" s="29">
+        <v>2590000</v>
+      </c>
+      <c r="G54" s="59">
+        <f>F54*E54</f>
+        <v>2590000</v>
+      </c>
+      <c r="H54" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="11"/>
       <c r="J54" s="22"/>
     </row>
     <row r="55" spans="3:10" ht="15">
       <c r="C55" s="8"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="51">
-        <f>SUM(G50:G53)</f>
-        <v>9800000</v>
-      </c>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10">
+      <c r="D55" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="48">
+        <v>410000</v>
+      </c>
+      <c r="G55" s="59">
+        <f>F55*E55</f>
+        <v>410000</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="22"/>
+    </row>
+    <row r="56" spans="3:10" ht="15">
       <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="D56" s="21"/>
       <c r="E56" s="10"/>
       <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="8"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="22"/>
     </row>
     <row r="57" spans="3:10" ht="15">
       <c r="C57" s="8"/>
-      <c r="D57" s="81" t="s">
+      <c r="D57" s="36"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="51">
+        <f>SUM(G52:G55)</f>
+        <v>9800000</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="3:10" ht="15">
+      <c r="C59" s="8"/>
+      <c r="D59" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="3:10" ht="15">
-      <c r="C58" s="8">
-        <v>1</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="29">
-        <v>2000000</v>
-      </c>
-      <c r="G58" s="59">
-        <f>F58*E58</f>
-        <v>2000000</v>
-      </c>
-      <c r="H58" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="34"/>
-    </row>
-    <row r="59" spans="3:10" ht="15">
-      <c r="C59" s="8">
-        <v>2</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="39">
-        <v>250000</v>
-      </c>
-      <c r="G59" s="59">
-        <f t="shared" ref="G59:G62" si="2">F59*E59</f>
-        <v>250000</v>
-      </c>
-      <c r="H59" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="22"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="3:10" ht="15">
       <c r="C60" s="8">
+        <v>1</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="G60" s="59">
+        <f>F60*E60</f>
+        <v>2000000</v>
+      </c>
+      <c r="H60" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="14"/>
+      <c r="J60" s="34"/>
+    </row>
+    <row r="61" spans="3:10" ht="15">
+      <c r="C61" s="8">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="39">
+        <v>250000</v>
+      </c>
+      <c r="G61" s="59">
+        <f t="shared" ref="G61:G64" si="2">F61*E61</f>
+        <v>250000</v>
+      </c>
+      <c r="H61" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I61" s="14"/>
+      <c r="J61" s="22"/>
+    </row>
+    <row r="62" spans="3:10" ht="15">
+      <c r="C62" s="8">
         <v>3</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="30">
-        <v>1</v>
-      </c>
-      <c r="F60" s="39">
+      <c r="E62" s="30">
+        <v>1</v>
+      </c>
+      <c r="F62" s="39">
         <v>1000000</v>
       </c>
-      <c r="G60" s="59">
+      <c r="G62" s="59">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="H60" s="65" t="s">
+      <c r="H62" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="22"/>
-    </row>
-    <row r="61" spans="3:10" ht="15">
-      <c r="C61" s="8"/>
-      <c r="D61" s="1" t="s">
+      <c r="I62" s="11"/>
+      <c r="J62" s="22"/>
+    </row>
+    <row r="63" spans="3:10" ht="15">
+      <c r="C63" s="8"/>
+      <c r="D63" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="30">
-        <v>1</v>
-      </c>
-      <c r="F61" s="39">
+      <c r="E63" s="30">
+        <v>1</v>
+      </c>
+      <c r="F63" s="39">
         <v>1880000</v>
       </c>
-      <c r="G61" s="59">
+      <c r="G63" s="59">
         <f t="shared" si="2"/>
         <v>1880000</v>
       </c>
-      <c r="H61" s="65" t="s">
+      <c r="H63" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="22"/>
-    </row>
-    <row r="62" spans="3:10" ht="15">
-      <c r="C62" s="8"/>
-      <c r="D62" s="1" t="s">
+      <c r="I63" s="14"/>
+      <c r="J63" s="22"/>
+    </row>
+    <row r="64" spans="3:10" ht="15">
+      <c r="C64" s="8"/>
+      <c r="D64" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E62" s="30">
-        <v>1</v>
-      </c>
-      <c r="F62" s="39">
+      <c r="E64" s="30">
+        <v>1</v>
+      </c>
+      <c r="F64" s="39">
         <v>1200000</v>
       </c>
-      <c r="G62" s="59">
+      <c r="G64" s="59">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="H62" s="65" t="s">
+      <c r="H64" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="22"/>
-    </row>
-    <row r="63" spans="3:10" ht="15">
-      <c r="C63" s="8"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="22"/>
-    </row>
-    <row r="64" spans="3:10" ht="15">
-      <c r="C64" s="8"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="22"/>
     </row>
     <row r="65" spans="3:10" ht="15">
       <c r="C65" s="8"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="51">
-        <f>SUM(G58:G63)</f>
-        <v>6330000</v>
-      </c>
-      <c r="H65" s="32"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="22"/>
     </row>
     <row r="66" spans="3:10" ht="15">
       <c r="C66" s="8"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="68"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="22"/>
     </row>
     <row r="67" spans="3:10" ht="15">
       <c r="C67" s="8"/>
-      <c r="D67" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="8"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="51">
+        <f>SUM(G60:G65)</f>
+        <v>6330000</v>
+      </c>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" spans="3:10" ht="15">
       <c r="C68" s="8"/>
-      <c r="D68" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="29">
-        <v>7174000</v>
-      </c>
-      <c r="G68" s="59">
-        <f>F68*E68</f>
-        <v>7174000</v>
-      </c>
-      <c r="H68" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="34"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="67"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="68"/>
     </row>
     <row r="69" spans="3:10" ht="15">
       <c r="C69" s="8"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="22"/>
+      <c r="D69" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="8"/>
     </row>
     <row r="70" spans="3:10" ht="15">
       <c r="C70" s="8"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="14"/>
+      <c r="D70" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="29">
+        <v>7174000</v>
+      </c>
+      <c r="G70" s="59">
+        <f>F70*E70</f>
+        <v>7174000</v>
+      </c>
+      <c r="H70" s="64" t="s">
+        <v>22</v>
+      </c>
       <c r="I70" s="14"/>
-      <c r="J70" s="22"/>
+      <c r="J70" s="34"/>
     </row>
     <row r="71" spans="3:10" ht="15">
       <c r="C71" s="8"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="51">
-        <f>SUM(G68:G69)</f>
-        <v>7174000</v>
-      </c>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="22"/>
     </row>
     <row r="72" spans="3:10" ht="15">
       <c r="C72" s="8"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="22"/>
     </row>
     <row r="73" spans="3:10" ht="15">
       <c r="C73" s="8"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="49">
-        <f>G8-G19-G48-G55-G65-G71</f>
-        <v>-30080000</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="31" t="s">
+      <c r="D73" s="36"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="51">
+        <f>SUM(G70:G71)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" ht="15">
+      <c r="C74" s="8"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+    </row>
+    <row r="75" spans="3:10" ht="15">
+      <c r="C75" s="8"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="49">
+        <f>G8-G19-G50-G57-G67-G73</f>
+        <v>-31306000</v>
+      </c>
+      <c r="H75" s="12"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="31" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D69:G69"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D51:G51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5474,8 +5672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
   <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5605,7 +5803,6 @@
     </row>
     <row r="10" spans="3:10" ht="15">
       <c r="C10" s="8"/>
-      <c r="D10" s="30"/>
       <c r="E10" s="38"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -5673,11 +5870,22 @@
     </row>
     <row r="15" spans="3:10" ht="15">
       <c r="C15" s="8"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
+      <c r="D15" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>200000</v>
+      </c>
+      <c r="G15" s="29">
+        <f>F15*E15</f>
+        <v>200000</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
@@ -5848,7 +6056,7 @@
       <c r="F32" s="29"/>
       <c r="G32" s="55">
         <f>SUM(G14:G31)</f>
-        <v>9064000</v>
+        <v>9264000</v>
       </c>
       <c r="H32" s="56"/>
       <c r="I32" s="35"/>
@@ -5976,7 +6184,7 @@
       <c r="F42" s="48"/>
       <c r="G42" s="49">
         <f>G8-G12-G32</f>
-        <v>-9064000</v>
+        <v>-9264000</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="20"/>
@@ -6001,7 +6209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
   <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VitechSolutions\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57CFCF8-4E73-48AE-BA3A-32CAA0F6DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E5CC66-82C1-4801-8738-971CBEE69C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="155">
   <si>
     <t>STT</t>
   </si>
@@ -528,6 +528,12 @@
   </si>
   <si>
     <t>Chi phí văn phòng điện mạng tháng 5/21</t>
+  </si>
+  <si>
+    <t>Tiền cơm ngày 06/06</t>
+  </si>
+  <si>
+    <t>EC25</t>
   </si>
 </sst>
 </file>
@@ -935,6 +941,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -949,15 +964,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1286,12 +1292,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:11" ht="20.25">
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="8:11" ht="15.75">
       <c r="H3" s="6" t="s">
@@ -1316,7 +1322,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-31306000</v>
+        <v>-31402000</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1327,7 +1333,7 @@
       </c>
       <c r="J5" s="11">
         <f>Pega</f>
-        <v>-24093138</v>
+        <v>-36145086</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -1387,7 +1393,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-90544118</v>
+        <v>-102692066</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1405,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032BD6C-08F6-46C4-8E07-045BAFBCF7A7}">
   <dimension ref="C2:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1424,16 +1430,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -1463,12 +1469,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1535,12 +1541,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="26"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -1787,7 +1793,7 @@
         <v>2547152</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" ref="G20:G31" si="2">E20*F20</f>
+        <f t="shared" ref="G20:G24" si="2">E20*F20</f>
         <v>2547152</v>
       </c>
       <c r="H20" s="70" t="s">
@@ -1923,7 +1929,7 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="3:10" ht="15.75">
-      <c r="C27" s="82"/>
+      <c r="C27" s="77"/>
       <c r="D27" s="61" t="s">
         <v>142</v>
       </c>
@@ -1933,18 +1939,18 @@
       <c r="F27" s="69">
         <v>220000</v>
       </c>
-      <c r="G27" s="83">
+      <c r="G27" s="78">
         <f>E27*F27</f>
         <v>220000</v>
       </c>
-      <c r="H27" s="84" t="s">
+      <c r="H27" s="79" t="s">
         <v>147</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="3:10" ht="15.75">
-      <c r="C28" s="82"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="61" t="s">
         <v>148</v>
       </c>
@@ -1952,35 +1958,46 @@
         <v>1</v>
       </c>
       <c r="F28" s="69">
-        <v>52</v>
-      </c>
-      <c r="G28" s="83">
+        <v>52000</v>
+      </c>
+      <c r="G28" s="78">
         <f>E28*F28</f>
-        <v>52</v>
-      </c>
-      <c r="H28" s="84" t="s">
+        <v>52000</v>
+      </c>
+      <c r="H28" s="79" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="3:10" ht="15.75">
-      <c r="C29" s="82"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="62">
+        <v>1</v>
+      </c>
+      <c r="F29" s="69">
+        <v>12000000</v>
+      </c>
+      <c r="G29" s="78">
+        <f>E29*F29</f>
+        <v>12000000</v>
+      </c>
+      <c r="H29" s="79" t="s">
+        <v>22</v>
+      </c>
       <c r="I29" s="11"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="3:10" ht="15.75">
-      <c r="C30" s="82"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="61"/>
       <c r="E30" s="62"/>
       <c r="F30" s="69"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="79"/>
       <c r="I30" s="11"/>
       <c r="J30" s="9"/>
     </row>
@@ -1998,8 +2015,8 @@
       <c r="E32" s="19"/>
       <c r="F32" s="73"/>
       <c r="G32" s="32">
-        <f>SUM(G10:G28)</f>
-        <v>38093138</v>
+        <f>SUM(G10:G29)</f>
+        <v>50145086</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="35"/>
@@ -2019,12 +2036,12 @@
     </row>
     <row r="34" spans="3:10" ht="15">
       <c r="C34" s="8"/>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="80"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="26"/>
       <c r="I34" s="11"/>
       <c r="J34" s="9"/>
@@ -2059,12 +2076,12 @@
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="8"/>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="80"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="27"/>
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
@@ -2176,7 +2193,7 @@
       <c r="F46" s="48"/>
       <c r="G46" s="12">
         <f>G8-G32-G35-G43</f>
-        <v>-24093138</v>
+        <v>-36145086</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="20"/>
@@ -2201,7 +2218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE7A19-D435-4A51-A018-E212475E8992}">
   <dimension ref="C2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -2220,16 +2237,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -2259,12 +2276,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2331,12 +2348,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -2750,12 +2767,12 @@
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="81" t="s">
+      <c r="D30" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="81"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
       <c r="H30" s="54"/>
       <c r="I30" s="11"/>
       <c r="J30" s="9"/>
@@ -3140,12 +3157,12 @@
     </row>
     <row r="50" spans="3:10" ht="15">
       <c r="C50" s="8"/>
-      <c r="D50" s="81" t="s">
+      <c r="D50" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
       <c r="H50" s="57"/>
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
@@ -3302,16 +3319,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3341,12 +3358,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3404,12 +3421,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -3606,12 +3623,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="54"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -3643,12 +3660,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="57"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -3813,16 +3830,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3852,12 +3869,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3915,12 +3932,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -4092,12 +4109,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="54"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -4129,12 +4146,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="81" t="s">
+      <c r="D23" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="81"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="57"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -4272,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
   <dimension ref="C2:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4291,16 +4308,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -4330,12 +4347,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="60"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -4393,12 +4410,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="60"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -4599,12 +4616,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="81" t="s">
+      <c r="D20" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
       <c r="H20" s="60"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -4646,7 +4663,7 @@
         <v>120000</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" ref="G22:G47" si="1">E22*F22</f>
+        <f t="shared" ref="G22:G48" si="1">E22*F22</f>
         <v>120000</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -5222,11 +5239,22 @@
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="8"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="9"/>
+      <c r="D48" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="29">
+        <v>96000</v>
+      </c>
+      <c r="G48" s="29">
+        <f t="shared" si="1"/>
+        <v>96000</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
@@ -5247,7 +5275,7 @@
       <c r="F50" s="29"/>
       <c r="G50" s="55">
         <f>SUM(G21:G49)</f>
-        <v>4002000</v>
+        <v>4098000</v>
       </c>
       <c r="H50" s="56"/>
       <c r="I50" s="35"/>
@@ -5257,12 +5285,12 @@
     </row>
     <row r="51" spans="3:10" ht="15">
       <c r="C51" s="8"/>
-      <c r="D51" s="81" t="s">
+      <c r="D51" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
       <c r="H51" s="57"/>
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
@@ -5394,12 +5422,12 @@
     </row>
     <row r="59" spans="3:10" ht="15">
       <c r="C59" s="8"/>
-      <c r="D59" s="81" t="s">
+      <c r="D59" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="84"/>
       <c r="H59" s="57"/>
       <c r="I59" s="11"/>
       <c r="J59" s="8"/>
@@ -5562,12 +5590,12 @@
     </row>
     <row r="69" spans="3:10" ht="15">
       <c r="C69" s="8"/>
-      <c r="D69" s="81" t="s">
+      <c r="D69" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
+      <c r="E69" s="84"/>
+      <c r="F69" s="84"/>
+      <c r="G69" s="84"/>
       <c r="H69" s="57"/>
       <c r="I69" s="11"/>
       <c r="J69" s="8"/>
@@ -5645,7 +5673,7 @@
       <c r="F75" s="48"/>
       <c r="G75" s="49">
         <f>G8-G19-G50-G57-G67-G73</f>
-        <v>-31306000</v>
+        <v>-31402000</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="20"/>
@@ -5691,16 +5719,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -5730,12 +5758,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="74"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -5791,12 +5819,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="74"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -5837,12 +5865,12 @@
     </row>
     <row r="13" spans="3:10" ht="15">
       <c r="C13" s="8"/>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="74"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
@@ -6066,12 +6094,12 @@
     </row>
     <row r="33" spans="3:10" ht="15">
       <c r="C33" s="8"/>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
       <c r="H33" s="57"/>
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
@@ -6228,16 +6256,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -6267,12 +6295,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="76"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -6328,12 +6356,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="76"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -6375,12 +6403,12 @@
     </row>
     <row r="13" spans="3:10" ht="15">
       <c r="C13" s="8"/>
-      <c r="D13" s="81" t="s">
+      <c r="D13" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
       <c r="H13" s="76"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
@@ -6593,12 +6621,12 @@
     </row>
     <row r="33" spans="3:10" ht="15">
       <c r="C33" s="8"/>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
       <c r="H33" s="57"/>
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -5,61 +5,62 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VitechSolutions\Team_Log\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E5CC66-82C1-4801-8738-971CBEE69C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50508D57-BB63-4BE5-BD3C-7F842F6CC6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
     <sheet name="PEGA" sheetId="2" r:id="rId2"/>
     <sheet name="SPORT1_P1.5" sheetId="3" r:id="rId3"/>
-    <sheet name="SPORT1_P2" sheetId="4" r:id="rId4"/>
-    <sheet name="SMARTHOME" sheetId="5" r:id="rId5"/>
-    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId6"/>
-    <sheet name="270_Hecquyn" sheetId="10" r:id="rId7"/>
-    <sheet name="160_Zeus" sheetId="12" r:id="rId8"/>
+    <sheet name="Sport1_Thu" sheetId="13" r:id="rId4"/>
+    <sheet name="160_Zeus" sheetId="12" r:id="rId5"/>
+    <sheet name="SPORT1_P2" sheetId="4" r:id="rId6"/>
+    <sheet name="SMARTHOME" sheetId="5" r:id="rId7"/>
+    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId8"/>
+    <sheet name="270_Hecquyn" sheetId="10" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$75</definedName>
     <definedName name="Pega">PEGA!$G$46</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="8">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="7">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="6">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="3">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="4">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="8">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="7">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="6">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="5">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="4">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="3">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5">#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="4">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="8">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="7">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="5">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="4">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="3">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="5">'Chi Phí Công ty'!$G$75</definedName>
+    <definedName name="smarthome" localSheetId="7">'Chi Phí Công ty'!$G$75</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
-    <definedName name="sport1_p1.5" localSheetId="7">'160_Zeus'!$G$42</definedName>
-    <definedName name="sport1_p1.5" localSheetId="6">'270_Hecquyn'!$G$42</definedName>
+    <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$43</definedName>
+    <definedName name="sport1_p1.5" localSheetId="8">'270_Hecquyn'!$G$42</definedName>
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$59</definedName>
     <definedName name="sport1_p2">SPORT1_P2!$G$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="172">
   <si>
     <t>STT</t>
   </si>
@@ -434,9 +435,6 @@
     <t>Dự án PEGA</t>
   </si>
   <si>
-    <t>Dự án Sport1_P1.5</t>
-  </si>
-  <si>
     <t>Dự án Sport1 P2</t>
   </si>
   <si>
@@ -479,9 +477,6 @@
     <t>Phí vận chuyển + thuế  + thông quan</t>
   </si>
   <si>
-    <t>BT806</t>
-  </si>
-  <si>
     <t>Tiền hàn mạch</t>
   </si>
   <si>
@@ -534,13 +529,70 @@
   </si>
   <si>
     <t>EC25</t>
+  </si>
+  <si>
+    <t>Tiền PCB convert57</t>
+  </si>
+  <si>
+    <t>Giải ngân 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giải ngân 50% - </t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Ứng 50% 72 Zeus</t>
+  </si>
+  <si>
+    <t>a Khơ</t>
+  </si>
+  <si>
+    <t>Ứng 160 zeus</t>
+  </si>
+  <si>
+    <t>Ứng 270 hecquyn</t>
+  </si>
+  <si>
+    <t>Hạng mục</t>
+  </si>
+  <si>
+    <t>CK 11/06</t>
+  </si>
+  <si>
+    <t>Đã trừ 30 module 806</t>
+  </si>
+  <si>
+    <t>Dự án Sport1_P1.5(72 Zeus)</t>
+  </si>
+  <si>
+    <t>Còn nợ</t>
+  </si>
+  <si>
+    <t>Lãi</t>
+  </si>
+  <si>
+    <t>Giải ngân 40% 160 mạch</t>
+  </si>
+  <si>
+    <t>Tổng tiền dự án nhận về</t>
+  </si>
+  <si>
+    <t>Tiền dự án còn lại</t>
+  </si>
+  <si>
+    <t>Dự án CK</t>
+  </si>
+  <si>
+    <t>300 hddt mới</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,8 +662,31 @@
       <color rgb="FF2C2E2F"/>
       <name val="PayPal-Sans"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +720,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -950,6 +1031,9 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -964,6 +1048,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1280,7 +1379,7 @@
   <dimension ref="H2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J16" sqref="J16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1292,12 +1391,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:11" ht="20.25">
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" spans="8:11" ht="15.75">
       <c r="H3" s="6" t="s">
@@ -1322,7 +1421,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-31402000</v>
+        <v>-31728700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1333,25 +1432,25 @@
       </c>
       <c r="J5" s="11">
         <f>Pega</f>
-        <v>-36145086</v>
+        <v>-25505086</v>
       </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="8:11">
       <c r="H6" s="8"/>
       <c r="I6" s="9" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="J6" s="11">
         <f>sport1_p1.5</f>
-        <v>-21768000</v>
+        <v>-558000.40000000596</v>
       </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="8:11">
       <c r="H7" s="8"/>
       <c r="I7" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J7" s="11">
         <f>sport1_p2</f>
@@ -1362,7 +1461,7 @@
     <row r="8" spans="8:11">
       <c r="H8" s="8"/>
       <c r="I8" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" s="11">
         <f>smarthome</f>
@@ -1393,7 +1492,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-102692066</v>
+        <v>-71168766.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1411,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032BD6C-08F6-46C4-8E07-045BAFBCF7A7}">
   <dimension ref="C2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1430,16 +1529,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -1469,12 +1568,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1541,12 +1640,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="26"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -1671,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E15" s="62">
         <v>1</v>
@@ -1694,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="62">
         <v>1</v>
@@ -1717,7 +1816,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="62">
         <v>1</v>
@@ -1740,7 +1839,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="62">
         <v>1</v>
@@ -1761,7 +1860,7 @@
     <row r="19" spans="3:10" ht="15.75">
       <c r="C19" s="8"/>
       <c r="D19" s="61" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="62">
         <v>1</v>
@@ -1784,7 +1883,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="62">
         <v>1</v>
@@ -1805,7 +1904,7 @@
     <row r="21" spans="3:10" ht="15.75">
       <c r="C21" s="8"/>
       <c r="D21" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="62">
         <v>1</v>
@@ -1826,7 +1925,7 @@
     <row r="22" spans="3:10" ht="15.75">
       <c r="C22" s="8"/>
       <c r="D22" s="61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="62">
         <v>1</v>
@@ -1847,7 +1946,7 @@
     <row r="23" spans="3:10" ht="15.75">
       <c r="C23" s="8"/>
       <c r="D23" s="61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E23" s="62">
         <v>1</v>
@@ -1868,7 +1967,7 @@
     <row r="24" spans="3:10" ht="15.75">
       <c r="C24" s="8"/>
       <c r="D24" s="61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E24" s="62">
         <v>1</v>
@@ -1889,7 +1988,7 @@
     <row r="25" spans="3:10" ht="15.75">
       <c r="C25" s="8"/>
       <c r="D25" s="61" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E25" s="62">
         <v>1</v>
@@ -1910,7 +2009,7 @@
     <row r="26" spans="3:10" ht="15.75">
       <c r="C26" s="8"/>
       <c r="D26" s="61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E26" s="62">
         <v>1</v>
@@ -1931,7 +2030,7 @@
     <row r="27" spans="3:10" ht="15.75">
       <c r="C27" s="77"/>
       <c r="D27" s="61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E27" s="62">
         <v>1</v>
@@ -1944,7 +2043,7 @@
         <v>220000</v>
       </c>
       <c r="H27" s="79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
@@ -1952,7 +2051,7 @@
     <row r="28" spans="3:10" ht="15.75">
       <c r="C28" s="77"/>
       <c r="D28" s="61" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E28" s="62">
         <v>1</v>
@@ -1973,17 +2072,17 @@
     <row r="29" spans="3:10" ht="15.75">
       <c r="C29" s="77"/>
       <c r="D29" s="61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E29" s="62">
         <v>1</v>
       </c>
       <c r="F29" s="69">
-        <v>12000000</v>
+        <v>1200000</v>
       </c>
       <c r="G29" s="78">
         <f>E29*F29</f>
-        <v>12000000</v>
+        <v>1200000</v>
       </c>
       <c r="H29" s="79" t="s">
         <v>22</v>
@@ -1993,11 +2092,22 @@
     </row>
     <row r="30" spans="3:10" ht="15.75">
       <c r="C30" s="77"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="79"/>
+      <c r="D30" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="62">
+        <v>1</v>
+      </c>
+      <c r="F30" s="69">
+        <v>160000</v>
+      </c>
+      <c r="G30" s="78">
+        <f>E30*F30</f>
+        <v>160000</v>
+      </c>
+      <c r="H30" s="79" t="s">
+        <v>9</v>
+      </c>
       <c r="I30" s="11"/>
       <c r="J30" s="9"/>
     </row>
@@ -2015,8 +2125,8 @@
       <c r="E32" s="19"/>
       <c r="F32" s="73"/>
       <c r="G32" s="32">
-        <f>SUM(G10:G29)</f>
-        <v>50145086</v>
+        <f>SUM(G10:G30)</f>
+        <v>39505086</v>
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="35"/>
@@ -2036,12 +2146,12 @@
     </row>
     <row r="34" spans="3:10" ht="15">
       <c r="C34" s="8"/>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="84"/>
       <c r="H34" s="26"/>
       <c r="I34" s="11"/>
       <c r="J34" s="9"/>
@@ -2076,12 +2186,12 @@
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="8"/>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
       <c r="H37" s="27"/>
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
@@ -2193,7 +2303,7 @@
       <c r="F46" s="48"/>
       <c r="G46" s="12">
         <f>G8-G32-G35-G43</f>
-        <v>-36145086</v>
+        <v>-25505086</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="20"/>
@@ -2216,10 +2326,1225 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE7A19-D435-4A51-A018-E212475E8992}">
-  <dimension ref="C2:J59"/>
+  <dimension ref="C2:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="C4" sqref="C4:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="5"/>
+    <col min="13" max="13" width="25.85546875" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="20.25">
+      <c r="C2" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="48">
+        <v>14400000</v>
+      </c>
+      <c r="G5" s="48">
+        <f>F5*E5</f>
+        <v>14400000</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48">
+        <v>5655653.599999994</v>
+      </c>
+      <c r="G6" s="48">
+        <f>F6*E6</f>
+        <v>5655653.599999994</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="48">
+        <v>3704346</v>
+      </c>
+      <c r="G7" s="48">
+        <f>F7*E7</f>
+        <v>3704346</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="3:10" ht="15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49">
+        <f>SUM(G5:G7)</f>
+        <v>23759999.599999994</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="38">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29">
+        <v>150000</v>
+      </c>
+      <c r="G10" s="29">
+        <f t="shared" ref="G10:G17" si="0">F10*E10</f>
+        <v>150000</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="3:10" ht="15">
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>115000</v>
+      </c>
+      <c r="G11" s="29">
+        <f t="shared" si="0"/>
+        <v>115000</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10" ht="15">
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="38">
+        <v>1</v>
+      </c>
+      <c r="F12" s="29">
+        <v>276000</v>
+      </c>
+      <c r="G12" s="29">
+        <f t="shared" si="0"/>
+        <v>276000</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="3:10" ht="15">
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="38">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>400000</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="3:10" ht="15">
+      <c r="C14" s="8">
+        <v>5</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="38">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="3:10" ht="15">
+      <c r="C15" s="8">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>230000</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="0"/>
+        <v>230000</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="3:10" ht="15">
+      <c r="C16" s="8">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39">
+        <v>500000</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:13" ht="15">
+      <c r="C17" s="8">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="39">
+        <v>110000</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>330000</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="3:13" ht="15">
+      <c r="C18" s="8">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="3">
+        <v>10</v>
+      </c>
+      <c r="F18" s="39">
+        <v>11500</v>
+      </c>
+      <c r="G18" s="29">
+        <v>115000</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:13" ht="15">
+      <c r="C19" s="8">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="39">
+        <v>180000</v>
+      </c>
+      <c r="G19" s="29">
+        <v>180000</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="3:13" ht="15">
+      <c r="C20" s="8">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="39">
+        <v>122000</v>
+      </c>
+      <c r="G20" s="29">
+        <v>122000</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="3:13" ht="15">
+      <c r="C21" s="8">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39">
+        <v>120000</v>
+      </c>
+      <c r="G21" s="29">
+        <v>120000</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:13" ht="15">
+      <c r="C22" s="8">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="39">
+        <v>200000</v>
+      </c>
+      <c r="G22" s="29">
+        <v>200000</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:13" ht="15">
+      <c r="C23" s="8">
+        <v>15</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="38">
+        <v>1</v>
+      </c>
+      <c r="F23" s="29">
+        <v>120000</v>
+      </c>
+      <c r="G23" s="29">
+        <f>F23*E23</f>
+        <v>120000</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:13" ht="15">
+      <c r="C24" s="8">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="39">
+        <v>2125000</v>
+      </c>
+      <c r="G24" s="29">
+        <f>F24*E24</f>
+        <v>2125000</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:13" ht="15">
+      <c r="C25" s="8">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="39">
+        <v>577000</v>
+      </c>
+      <c r="G25" s="29">
+        <v>577000</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:13" ht="15">
+      <c r="C26" s="8"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:13" ht="15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:13" ht="15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:13" ht="15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="55">
+        <f>SUM(G10:G27)</f>
+        <v>5680000</v>
+      </c>
+      <c r="H29" s="56"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" ht="15">
+      <c r="C30" s="8"/>
+      <c r="D30" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="3:13" ht="15">
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="38">
+        <v>70</v>
+      </c>
+      <c r="F31" s="29">
+        <v>9000</v>
+      </c>
+      <c r="G31" s="29">
+        <f t="shared" ref="G31:G32" si="1">F31*E31</f>
+        <v>630000</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="9"/>
+      <c r="L31" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="M31" s="88">
+        <f>SUM(G33:G37)+G44</f>
+        <v>4145000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" ht="15">
+      <c r="C32" s="8">
+        <v>2</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="38">
+        <v>70</v>
+      </c>
+      <c r="F32" s="29">
+        <v>10800</v>
+      </c>
+      <c r="G32" s="29">
+        <f t="shared" si="1"/>
+        <v>756000</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="9"/>
+      <c r="L32" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="88">
+        <f>G31+G32+G39+G40+G41</f>
+        <v>1677000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="8">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="39">
+        <v>928000</v>
+      </c>
+      <c r="G33" s="29">
+        <v>928000</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="8">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="39">
+        <v>222000</v>
+      </c>
+      <c r="G34" s="29">
+        <v>222000</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="3:10" ht="15">
+      <c r="C35" s="8">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="39">
+        <v>1750000</v>
+      </c>
+      <c r="G35" s="29">
+        <v>1750000</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
+      <c r="C36" s="8">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="39">
+        <v>155000</v>
+      </c>
+      <c r="G36" s="29">
+        <v>155000</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="3:10" s="46" customFormat="1" ht="15">
+      <c r="C37" s="8">
+        <v>9</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="43">
+        <v>1</v>
+      </c>
+      <c r="F37" s="44">
+        <v>830000</v>
+      </c>
+      <c r="G37" s="44">
+        <v>830000</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+    </row>
+    <row r="38" spans="3:10" ht="15">
+      <c r="C38" s="8">
+        <v>10</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="29">
+        <v>8606000</v>
+      </c>
+      <c r="G38" s="29">
+        <v>8606000</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="3:10" ht="15">
+      <c r="C39" s="8">
+        <v>11</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1</v>
+      </c>
+      <c r="F39" s="29">
+        <v>50000</v>
+      </c>
+      <c r="G39" s="29">
+        <f t="shared" ref="G39:G43" si="2">E39*F39</f>
+        <v>50000</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="9"/>
+    </row>
+    <row r="40" spans="3:10" ht="15">
+      <c r="C40" s="8">
+        <v>12</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="38">
+        <v>1</v>
+      </c>
+      <c r="F40" s="29">
+        <v>201000</v>
+      </c>
+      <c r="G40" s="29">
+        <f t="shared" si="2"/>
+        <v>201000</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="3:10" ht="15">
+      <c r="C41" s="8">
+        <v>13</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="38">
+        <v>1</v>
+      </c>
+      <c r="F41" s="29">
+        <v>40000</v>
+      </c>
+      <c r="G41" s="29">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="3:10" ht="15">
+      <c r="C42" s="8">
+        <v>14</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="38">
+        <v>1</v>
+      </c>
+      <c r="F42" s="29">
+        <v>2014000</v>
+      </c>
+      <c r="G42" s="29">
+        <f t="shared" si="2"/>
+        <v>2014000</v>
+      </c>
+      <c r="H42" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="3:10" ht="15">
+      <c r="C43" s="8">
+        <v>16</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="38">
+        <v>72</v>
+      </c>
+      <c r="F43" s="29">
+        <v>30500</v>
+      </c>
+      <c r="G43" s="29">
+        <f t="shared" si="2"/>
+        <v>2196000</v>
+      </c>
+      <c r="H43" s="30"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="3:10" ht="15">
+      <c r="C44" s="8">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="39">
+        <v>260000</v>
+      </c>
+      <c r="G44" s="29">
+        <v>260000</v>
+      </c>
+      <c r="H44" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="3:10" ht="15">
+      <c r="C45" s="8"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="3:10" ht="15">
+      <c r="C46" s="8"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="3:10" ht="15">
+      <c r="C47" s="8"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="75"/>
+    </row>
+    <row r="48" spans="3:10" ht="15">
+      <c r="C48" s="8"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="55">
+        <f>SUM(G31:G47)</f>
+        <v>18638000</v>
+      </c>
+      <c r="H48" s="56"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="15">
+      <c r="C49" s="8"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="92">
+        <f>G8-G48</f>
+        <v>5121999.599999994</v>
+      </c>
+      <c r="H49" s="93"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="15">
+      <c r="C50" s="8"/>
+      <c r="D50" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="3:10" ht="15">
+      <c r="C51" s="8">
+        <v>1</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="34"/>
+    </row>
+    <row r="52" spans="3:10" ht="15">
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="22"/>
+    </row>
+    <row r="53" spans="3:10" ht="15">
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="50"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="22"/>
+    </row>
+    <row r="54" spans="3:10" ht="15">
+      <c r="C54" s="8">
+        <v>4</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="50"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="22"/>
+    </row>
+    <row r="55" spans="3:10" ht="15">
+      <c r="C55" s="8"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="22"/>
+    </row>
+    <row r="56" spans="3:10" ht="15">
+      <c r="C56" s="8"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="51">
+        <f>SUM(G51:G55)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="3:10" ht="15">
+      <c r="C58" s="8"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+    </row>
+    <row r="59" spans="3:10" ht="15">
+      <c r="C59" s="8"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49">
+        <f>G8-G29-G48</f>
+        <v>-558000.40000000596</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D50:G50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3E46B6-EEA2-499C-B73A-039F7F75D799}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="86" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="30">
+        <v>95822275</v>
+      </c>
+      <c r="C2" s="29">
+        <f>B2*0.4</f>
+        <v>38328910</v>
+      </c>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="30">
+        <v>73236626</v>
+      </c>
+      <c r="C3" s="29">
+        <f>B3*0.4</f>
+        <v>29294650.400000002</v>
+      </c>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="30">
+        <v>2640000</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2640000</v>
+      </c>
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29">
+        <f>C7-SUM(C2:C4)</f>
+        <v>5655653.599999994</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="89"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29">
+        <v>75919214</v>
+      </c>
+      <c r="D7" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
+  <dimension ref="C2:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2237,16 +3562,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -2268,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>5</v>
@@ -2276,32 +3601,32 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="54"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="3:10" ht="15">
       <c r="C5" s="8">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="48">
-        <v>14400000</v>
+      <c r="F5" s="29">
+        <v>38328910</v>
       </c>
       <c r="G5" s="48">
         <f>F5*E5</f>
-        <v>14400000</v>
+        <v>38328910</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2311,10 +3636,17 @@
       <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
+      <c r="D6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
       <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="G6" s="48">
+        <f>F6*E6</f>
+        <v>0</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="9"/>
@@ -2323,10 +3655,17 @@
       <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
       <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="G7" s="48">
+        <f>F7*E7</f>
+        <v>0</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
@@ -2338,157 +3677,102 @@
       <c r="F8" s="48"/>
       <c r="G8" s="49">
         <f>SUM(G5:G7)</f>
-        <v>14400000</v>
+        <v>38328910</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49">
+        <f>G8-G33</f>
+        <v>33528910</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="8"/>
+      <c r="D10" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="3:10" ht="15">
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="38">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
-        <v>150000</v>
-      </c>
-      <c r="G10" s="29">
-        <f t="shared" ref="G10:G17" si="0">F10*E10</f>
-        <v>150000</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="3:10" ht="15">
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
-        <v>115000</v>
-      </c>
-      <c r="G11" s="29">
-        <f t="shared" si="0"/>
-        <v>115000</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="3:10" ht="15">
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="38">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29">
-        <v>276000</v>
-      </c>
-      <c r="G12" s="29">
-        <f t="shared" si="0"/>
-        <v>276000</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="3:10" ht="15">
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
-        <v>400000</v>
-      </c>
-      <c r="G13" s="29">
-        <f t="shared" si="0"/>
-        <v>400000</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="55">
+        <f>SUM(G11:G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="56"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="3:10" ht="15">
-      <c r="C14" s="8">
-        <v>5</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="38">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G14" s="29">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="3:10" ht="15">
-      <c r="C15" s="8">
-        <v>6</v>
-      </c>
+      <c r="C15" s="8"/>
       <c r="D15" s="30" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="E15" s="38">
         <v>1</v>
       </c>
       <c r="F15" s="29">
-        <v>230000</v>
+        <v>4800000</v>
       </c>
       <c r="G15" s="29">
-        <f t="shared" si="0"/>
-        <v>230000</v>
+        <f>F15*E15</f>
+        <v>4800000</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>9</v>
@@ -2497,226 +3781,102 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="3:10" ht="15">
-      <c r="C16" s="8">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="39">
-        <v>500000</v>
-      </c>
-      <c r="G16" s="29">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="3:10" ht="15">
-      <c r="C17" s="8">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="39">
-        <v>110000</v>
-      </c>
-      <c r="G17" s="29">
-        <f t="shared" si="0"/>
-        <v>330000</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="3:10" ht="15">
-      <c r="C18" s="8">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="3">
-        <v>10</v>
-      </c>
-      <c r="F18" s="39">
-        <v>11500</v>
-      </c>
-      <c r="G18" s="29">
-        <v>115000</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="3:10" ht="15">
-      <c r="C19" s="8">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="39">
-        <v>180000</v>
-      </c>
-      <c r="G19" s="29">
-        <v>180000</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="3:10" ht="15">
-      <c r="C20" s="8">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="39">
-        <v>122000</v>
-      </c>
-      <c r="G20" s="29">
-        <v>122000</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="3:10" ht="15">
-      <c r="C21" s="8">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="39">
-        <v>120000</v>
-      </c>
-      <c r="G21" s="29">
-        <v>120000</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
+    <row r="21" spans="3:10" s="46" customFormat="1" ht="15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="3:10" ht="15">
-      <c r="C22" s="8">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="39">
-        <v>200000</v>
-      </c>
-      <c r="G22" s="29">
-        <v>200000</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="3:10" ht="15">
-      <c r="C23" s="8">
-        <v>15</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="38">
-        <v>1</v>
-      </c>
-      <c r="F23" s="29">
-        <v>120000</v>
-      </c>
-      <c r="G23" s="29">
-        <f>F23*E23</f>
-        <v>120000</v>
-      </c>
-      <c r="H23" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="8">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="39">
-        <v>2125000</v>
-      </c>
-      <c r="G24" s="29">
-        <f>F24*E24</f>
-        <v>2125000</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="11"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="8">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="39">
-        <v>577000</v>
-      </c>
-      <c r="G25" s="29">
-        <v>577000</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
     </row>
@@ -2752,534 +3912,184 @@
     </row>
     <row r="29" spans="3:10" ht="15">
       <c r="C29" s="8"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="55">
-        <f>SUM(G10:G27)</f>
-        <v>5680000</v>
-      </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="54"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
       <c r="I30" s="11"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="38">
-        <v>70</v>
-      </c>
-      <c r="F31" s="29">
-        <v>9000</v>
-      </c>
-      <c r="G31" s="29">
-        <f t="shared" ref="G31:G32" si="1">F31*E31</f>
-        <v>630000</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8">
-        <v>2</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="38">
-        <v>70</v>
-      </c>
-      <c r="F32" s="29">
-        <v>10800</v>
-      </c>
-      <c r="G32" s="29">
-        <f t="shared" si="1"/>
-        <v>756000</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="9"/>
+      <c r="J32" s="75"/>
     </row>
     <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="39">
-        <v>928000</v>
-      </c>
-      <c r="G33" s="29">
-        <v>928000</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="9"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="55">
+        <f>SUM(G15:G32)</f>
+        <v>4800000</v>
+      </c>
+      <c r="H33" s="56"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="8">
-        <v>6</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="39">
-        <v>222000</v>
-      </c>
-      <c r="G34" s="29">
-        <v>222000</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="57"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="3:10" ht="15">
       <c r="C35" s="8">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="39">
-        <v>1750000</v>
-      </c>
-      <c r="G35" s="29">
-        <v>1750000</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="34"/>
     </row>
     <row r="36" spans="3:10" ht="15">
       <c r="C36" s="8">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="39">
-        <v>155000</v>
-      </c>
-      <c r="G36" s="29">
-        <v>155000</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="3:10" s="46" customFormat="1" ht="15">
+        <v>2</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
       <c r="C37" s="8">
-        <v>9</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="43">
-        <v>1</v>
-      </c>
-      <c r="F37" s="44">
-        <v>830000</v>
-      </c>
-      <c r="G37" s="44">
-        <v>830000</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="22"/>
     </row>
     <row r="38" spans="3:10" ht="15">
       <c r="C38" s="8">
+        <v>4</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="29">
-        <v>8606000</v>
-      </c>
-      <c r="G38" s="29">
-        <v>8606000</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="15"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="22"/>
     </row>
     <row r="39" spans="3:10" ht="15">
-      <c r="C39" s="8">
-        <v>11</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="38">
-        <v>1</v>
-      </c>
-      <c r="F39" s="29">
-        <v>50000</v>
-      </c>
-      <c r="G39" s="29">
-        <f t="shared" ref="G39:G44" si="2">E39*F39</f>
-        <v>50000</v>
-      </c>
-      <c r="H39" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="22"/>
     </row>
     <row r="40" spans="3:10" ht="15">
-      <c r="C40" s="8">
-        <v>12</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="38">
-        <v>1</v>
-      </c>
-      <c r="F40" s="29">
-        <v>201000</v>
-      </c>
-      <c r="G40" s="29">
-        <f t="shared" si="2"/>
-        <v>201000</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="3:10" ht="15">
+      <c r="C40" s="8"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="51">
+        <f>SUM(G35:G39)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
       <c r="C41" s="8"/>
-      <c r="D41" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="38">
-        <v>1</v>
-      </c>
-      <c r="F41" s="29">
-        <v>40000</v>
-      </c>
-      <c r="G41" s="29">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="8"/>
     </row>
     <row r="42" spans="3:10" ht="15">
       <c r="C42" s="8"/>
-      <c r="D42" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="38">
-        <v>1</v>
-      </c>
-      <c r="F42" s="29">
-        <v>2014000</v>
-      </c>
-      <c r="G42" s="29">
-        <f t="shared" si="2"/>
-        <v>2014000</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="9"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
     </row>
     <row r="43" spans="3:10" ht="15">
       <c r="C43" s="8"/>
-      <c r="D43" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="38">
-        <v>30</v>
-      </c>
-      <c r="F43" s="29">
-        <v>395000</v>
-      </c>
-      <c r="G43" s="29">
-        <f t="shared" si="2"/>
-        <v>11850000</v>
-      </c>
-      <c r="H43" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="3:10" ht="15">
-      <c r="C44" s="8"/>
-      <c r="D44" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="38">
-        <v>72</v>
-      </c>
-      <c r="F44" s="29">
-        <v>30500</v>
-      </c>
-      <c r="G44" s="29">
-        <f t="shared" si="2"/>
-        <v>2196000</v>
-      </c>
-      <c r="H44" s="30"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="3:10" ht="15">
-      <c r="C45" s="8">
-        <v>11</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="39">
-        <v>260000</v>
-      </c>
-      <c r="G45" s="29">
-        <v>260000</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="3:10" ht="15">
-      <c r="C46" s="8"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="3:10" ht="15">
-      <c r="C47" s="8"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="3:10" ht="15">
-      <c r="C48" s="8"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="75">
-        <f>36000000-G49-G29</f>
-        <v>-168000</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" ht="15">
-      <c r="C49" s="8"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="55">
-        <f>SUM(G31:G48)</f>
-        <v>30488000</v>
-      </c>
-      <c r="H49" s="56"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" ht="15">
-      <c r="C50" s="8"/>
-      <c r="D50" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="3:10" ht="15">
-      <c r="C51" s="8">
-        <v>1</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="34"/>
-    </row>
-    <row r="52" spans="3:10" ht="15">
-      <c r="C52" s="8">
-        <v>2</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="3:10" ht="15">
-      <c r="C53" s="8">
-        <v>3</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="22"/>
-    </row>
-    <row r="54" spans="3:10" ht="15">
-      <c r="C54" s="8">
-        <v>4</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="22"/>
-    </row>
-    <row r="55" spans="3:10" ht="15">
-      <c r="C55" s="8"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="22"/>
-    </row>
-    <row r="56" spans="3:10" ht="15">
-      <c r="C56" s="8"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="51">
-        <f>SUM(G51:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10">
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="8"/>
-    </row>
-    <row r="58" spans="3:10" ht="15">
-      <c r="C58" s="8"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="3:10" ht="15">
-      <c r="C59" s="8"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="49">
-        <f>G8-G29-G49</f>
-        <v>-21768000</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="31" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49">
+        <f>G8-G13-G33</f>
+        <v>33528910</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3287,16 +4097,16 @@
   <mergeCells count="5">
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
   <dimension ref="C2:J32"/>
   <sheetViews>
@@ -3319,16 +4129,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3358,12 +4168,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3421,12 +4231,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -3623,12 +4433,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="54"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -3660,12 +4470,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="57"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -3807,7 +4617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F130950-C7C5-472A-9BC1-443D40499FE8}">
   <dimension ref="C2:J32"/>
   <sheetViews>
@@ -3830,16 +4640,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3869,12 +4679,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3932,12 +4742,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -4109,12 +4919,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="54"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -4146,12 +4956,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="57"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -4285,12 +5095,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
   <dimension ref="C2:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4308,16 +5118,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -4347,12 +5157,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="60"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -4410,12 +5220,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="60"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -4561,7 +5371,7 @@
     <row r="16" spans="3:10" ht="15">
       <c r="C16" s="8"/>
       <c r="D16" s="30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -4574,7 +5384,7 @@
         <v>1000000</v>
       </c>
       <c r="H16" s="45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
@@ -4616,12 +5426,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="60"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -5135,7 +5945,7 @@
     <row r="43" spans="3:10" ht="15">
       <c r="C43" s="8"/>
       <c r="D43" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
@@ -5156,7 +5966,7 @@
     <row r="44" spans="3:10" ht="15">
       <c r="C44" s="8"/>
       <c r="D44" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -5177,7 +5987,7 @@
     <row r="45" spans="3:10" ht="15">
       <c r="C45" s="8"/>
       <c r="D45" s="30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
@@ -5198,7 +6008,7 @@
     <row r="46" spans="3:10" ht="15">
       <c r="C46" s="8"/>
       <c r="D46" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
@@ -5219,7 +6029,7 @@
     <row r="47" spans="3:10" ht="15">
       <c r="C47" s="8"/>
       <c r="D47" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
@@ -5240,7 +6050,7 @@
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="8"/>
       <c r="D48" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
@@ -5285,12 +6095,12 @@
     </row>
     <row r="51" spans="3:10" ht="15">
       <c r="C51" s="8"/>
-      <c r="D51" s="84" t="s">
+      <c r="D51" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
       <c r="H51" s="57"/>
       <c r="I51" s="11"/>
       <c r="J51" s="8"/>
@@ -5367,7 +6177,7 @@
     <row r="55" spans="3:10" ht="15">
       <c r="C55" s="8"/>
       <c r="D55" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E55" s="10">
         <v>1</v>
@@ -5422,12 +6232,12 @@
     </row>
     <row r="59" spans="3:10" ht="15">
       <c r="C59" s="8"/>
-      <c r="D59" s="84" t="s">
+      <c r="D59" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="57"/>
       <c r="I59" s="11"/>
       <c r="J59" s="8"/>
@@ -5469,7 +6279,7 @@
         <v>250000</v>
       </c>
       <c r="G61" s="59">
-        <f t="shared" ref="G61:G64" si="2">F61*E61</f>
+        <f t="shared" ref="G61:G65" si="2">F61*E61</f>
         <v>250000</v>
       </c>
       <c r="H61" s="65" t="s">
@@ -5545,11 +6355,22 @@
     </row>
     <row r="65" spans="3:10" ht="15">
       <c r="C65" s="8"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="14"/>
+      <c r="D65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="30">
+        <v>1</v>
+      </c>
+      <c r="F65" s="39">
+        <v>326700</v>
+      </c>
+      <c r="G65" s="59">
+        <f t="shared" si="2"/>
+        <v>326700</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="I65" s="14"/>
       <c r="J65" s="22"/>
     </row>
@@ -5570,7 +6391,7 @@
       <c r="F67" s="53"/>
       <c r="G67" s="51">
         <f>SUM(G60:G65)</f>
-        <v>6330000</v>
+        <v>6656700</v>
       </c>
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
@@ -5590,12 +6411,12 @@
     </row>
     <row r="69" spans="3:10" ht="15">
       <c r="C69" s="8"/>
-      <c r="D69" s="84" t="s">
+      <c r="D69" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
       <c r="H69" s="57"/>
       <c r="I69" s="11"/>
       <c r="J69" s="8"/>
@@ -5673,7 +6494,7 @@
       <c r="F75" s="48"/>
       <c r="G75" s="49">
         <f>G8-G19-G50-G57-G67-G73</f>
-        <v>-31402000</v>
+        <v>-31728700</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="20"/>
@@ -5696,12 +6517,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
   <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5719,16 +6540,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -5758,76 +6579,101 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
       <c r="H4" s="74"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
+    <row r="5" spans="3:10" ht="20.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="3:10">
       <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48">
+        <v>29294650.400000002</v>
+      </c>
+      <c r="G6" s="48">
+        <f>F6*E6</f>
+        <v>29294650.400000002</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="3:10">
       <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
       <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="G7" s="48">
+        <f>F7*E7</f>
+        <v>0</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="3:10" ht="15">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
+    <row r="8" spans="3:10">
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
       <c r="F8" s="48"/>
-      <c r="G8" s="49">
-        <f>SUM(G5:G7)</f>
+      <c r="G8" s="48">
+        <f>F8*E8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49">
+        <f>SUM(G6:G8)</f>
+        <v>29294650.400000002</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="3:10" ht="15">
       <c r="C10" s="8"/>
@@ -5865,12 +6711,12 @@
     </row>
     <row r="13" spans="3:10" ht="15">
       <c r="C13" s="8"/>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
       <c r="H13" s="74"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
@@ -5878,7 +6724,7 @@
     <row r="14" spans="3:10" ht="15">
       <c r="C14" s="8"/>
       <c r="D14" s="30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="38">
         <v>1</v>
@@ -5899,7 +6745,7 @@
     <row r="15" spans="3:10" ht="15">
       <c r="C15" s="8"/>
       <c r="D15" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E15" s="38">
         <v>1</v>
@@ -6094,12 +6940,12 @@
     </row>
     <row r="33" spans="3:10" ht="15">
       <c r="C33" s="8"/>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
       <c r="H33" s="57"/>
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
@@ -6224,536 +7070,9 @@
   <mergeCells count="5">
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D9:G9"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D33:G33"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
-  <dimension ref="C2:J42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="80" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-    </row>
-    <row r="3" spans="3:10" ht="15.75">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C4" s="7"/>
-      <c r="D4" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="3:10" ht="15">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
-        <f>SUM(G5:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="15">
-      <c r="C9" s="8"/>
-      <c r="D9" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="3:10" ht="15">
-      <c r="C10" s="8"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="3:10" ht="15">
-      <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="3:10" ht="15">
-      <c r="C12" s="8"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="55">
-        <f>SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="15">
-      <c r="C13" s="8"/>
-      <c r="D13" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="3:10" ht="15">
-      <c r="C14" s="8"/>
-      <c r="D14" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="38">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29">
-        <v>4800000</v>
-      </c>
-      <c r="G14" s="29">
-        <f>F14*E14</f>
-        <v>4800000</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="3:10" ht="15">
-      <c r="C15" s="8"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="3:10" ht="15">
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="3:10" ht="15">
-      <c r="C17" s="8"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="3:10" ht="15">
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="3:10" ht="15">
-      <c r="C19" s="8"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="3:10" s="46" customFormat="1" ht="15">
-      <c r="C20" s="8"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="3:10" ht="15">
-      <c r="C21" s="8"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="3:10" ht="15">
-      <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:10" ht="15">
-      <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="8"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="3:10" ht="15">
-      <c r="C26" s="8"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="3:10" ht="15">
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="75"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="55">
-        <f>SUM(G14:G31)</f>
-        <v>4800000</v>
-      </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8"/>
-      <c r="D33" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="3:10" ht="15">
-      <c r="C35" s="8">
-        <v>2</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="3:10" ht="15">
-      <c r="C36" s="8">
-        <v>3</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="3:10" ht="15">
-      <c r="C37" s="8">
-        <v>4</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="3:10" ht="15">
-      <c r="C38" s="8"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="22"/>
-    </row>
-    <row r="39" spans="3:10" ht="15">
-      <c r="C39" s="8"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="51">
-        <f>SUM(G34:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="3:10" ht="15">
-      <c r="C41" s="8"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="3:10" ht="15">
-      <c r="C42" s="8"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49">
-        <f>G8-G12-G32</f>
-        <v>-4800000</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\Team_Log\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50508D57-BB63-4BE5-BD3C-7F842F6CC6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E4AB6-BC22-4930-A3BD-A3C5F8076AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -18,45 +18,46 @@
     <sheet name="SPORT1_P1.5" sheetId="3" r:id="rId3"/>
     <sheet name="Sport1_Thu" sheetId="13" r:id="rId4"/>
     <sheet name="160_Zeus" sheetId="12" r:id="rId5"/>
-    <sheet name="SPORT1_P2" sheetId="4" r:id="rId6"/>
-    <sheet name="SMARTHOME" sheetId="5" r:id="rId7"/>
-    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId8"/>
-    <sheet name="270_Hecquyn" sheetId="10" r:id="rId9"/>
+    <sheet name="270_Hecquyn" sheetId="10" r:id="rId6"/>
+    <sheet name="SPORT1_P2" sheetId="4" r:id="rId7"/>
+    <sheet name="SMARTHOME" sheetId="5" r:id="rId8"/>
+    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId9"/>
+    <sheet name="Quản lý tài khoản CT" sheetId="14" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$75</definedName>
+    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$77</definedName>
     <definedName name="Pega">PEGA!$G$46</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="8">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="7">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="6">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="4">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="5">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="8">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="7">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="6">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="5">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5">#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="4">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="5">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="8">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="7">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="5">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="7">'Chi Phí Công ty'!$G$75</definedName>
+    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$77</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
     <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$43</definedName>
-    <definedName name="sport1_p1.5" localSheetId="8">'270_Hecquyn'!$G$42</definedName>
+    <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$42</definedName>
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$59</definedName>
     <definedName name="sport1_p2">SPORT1_P2!$G$32</definedName>
   </definedNames>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="190">
   <si>
     <t>STT</t>
   </si>
@@ -586,6 +587,62 @@
   </si>
   <si>
     <t>300 hddt mới</t>
+  </si>
+  <si>
+    <t>Thời gian</t>
+  </si>
+  <si>
+    <t>Nội dung thu vào</t>
+  </si>
+  <si>
+    <t>Nội dung rút ra</t>
+  </si>
+  <si>
+    <t>Số tiền</t>
+  </si>
+  <si>
+    <t>Thanh toán : 
+200xMS51 : 160_Zeus
+300 con STM32f102, Đặt mạch test: 270 Hecquyn</t>
+  </si>
+  <si>
+    <t>Thuế VAT  + 50% 72 mạch zeus</t>
+  </si>
+  <si>
+    <t>Tiền đặt linh kiện PEGA</t>
+  </si>
+  <si>
+    <t>Tổng rút ra</t>
+  </si>
+  <si>
+    <t>Anh Khơ rút</t>
+  </si>
+  <si>
+    <t>Tuấn rút</t>
+  </si>
+  <si>
+    <t>Rút thêm</t>
+  </si>
+  <si>
+    <t>tiền cơm ngày 12/06</t>
+  </si>
+  <si>
+    <t>Tiền cơm ngày 13/06</t>
+  </si>
+  <si>
+    <t>Cọc 50%</t>
+  </si>
+  <si>
+    <t>Ck 50 % đặt mạch anh Thịnh</t>
+  </si>
+  <si>
+    <t>Vào tk cá nhân ACB</t>
+  </si>
+  <si>
+    <t>Rút thêm 25tr tiền đặt mạch Zeus + Hecquyn</t>
+  </si>
+  <si>
+    <t>Chuyển vào tk cá nhân TPBank Tuấn</t>
   </si>
 </sst>
 </file>
@@ -686,7 +743,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,6 +783,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1030,21 +1093,6 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1063,6 +1111,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="13" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1391,12 +1459,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:11" ht="20.25">
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="8:11" ht="15.75">
       <c r="H3" s="6" t="s">
@@ -1421,7 +1489,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-31728700</v>
+        <v>-32058700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1492,7 +1560,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-71168766.400000006</v>
+        <v>-71498766.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1503,6 +1571,128 @@
     <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E1739C-0CA9-4D70-99CB-9453E6E8DAF2}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60">
+      <c r="C2" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="81">
+        <v>14064000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="81">
+        <v>8295653.599999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="81">
+        <v>22200000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="81">
+        <v>40346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="81">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="D11" s="81">
+        <f>SUM(D2:D9)</f>
+        <v>69599999.599999994</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" s="81">
+        <v>25000000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" s="81">
+        <v>25000000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14" s="81">
+        <f>D11-D13</f>
+        <v>44599999.599999994</v>
+      </c>
+      <c r="E14" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="81"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1529,16 +1719,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -1568,12 +1758,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="26"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1640,12 +1830,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="84"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
       <c r="H9" s="26"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -1997,7 +2187,7 @@
         <v>2685000</v>
       </c>
       <c r="G25" s="11">
-        <f>E25*F25</f>
+        <f t="shared" ref="G25:G30" si="3">E25*F25</f>
         <v>2685000</v>
       </c>
       <c r="H25" s="70" t="s">
@@ -2018,7 +2208,7 @@
         <v>4298000</v>
       </c>
       <c r="G26" s="11">
-        <f>E26*F26</f>
+        <f t="shared" si="3"/>
         <v>4298000</v>
       </c>
       <c r="H26" s="70" t="s">
@@ -2039,7 +2229,7 @@
         <v>220000</v>
       </c>
       <c r="G27" s="78">
-        <f>E27*F27</f>
+        <f t="shared" si="3"/>
         <v>220000</v>
       </c>
       <c r="H27" s="79" t="s">
@@ -2060,7 +2250,7 @@
         <v>52000</v>
       </c>
       <c r="G28" s="78">
-        <f>E28*F28</f>
+        <f t="shared" si="3"/>
         <v>52000</v>
       </c>
       <c r="H28" s="79" t="s">
@@ -2081,7 +2271,7 @@
         <v>1200000</v>
       </c>
       <c r="G29" s="78">
-        <f>E29*F29</f>
+        <f t="shared" si="3"/>
         <v>1200000</v>
       </c>
       <c r="H29" s="79" t="s">
@@ -2102,7 +2292,7 @@
         <v>160000</v>
       </c>
       <c r="G30" s="78">
-        <f>E30*F30</f>
+        <f t="shared" si="3"/>
         <v>160000</v>
       </c>
       <c r="H30" s="79" t="s">
@@ -2146,12 +2336,12 @@
     </row>
     <row r="34" spans="3:10" ht="15">
       <c r="C34" s="8"/>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="84"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="96"/>
       <c r="H34" s="26"/>
       <c r="I34" s="11"/>
       <c r="J34" s="9"/>
@@ -2186,12 +2376,12 @@
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="8"/>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="84"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="96"/>
       <c r="H37" s="27"/>
       <c r="I37" s="11"/>
       <c r="J37" s="8"/>
@@ -2328,7 +2518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE7A19-D435-4A51-A018-E212475E8992}">
   <dimension ref="C2:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C4" sqref="C4:J8"/>
     </sheetView>
   </sheetViews>
@@ -2349,16 +2539,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -2388,12 +2578,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2478,12 +2668,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -2897,12 +3087,12 @@
     </row>
     <row r="30" spans="3:13" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
       <c r="H30" s="54"/>
       <c r="I30" s="11"/>
       <c r="J30" s="9"/>
@@ -2929,10 +3119,10 @@
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
-      <c r="L31" s="87" t="s">
+      <c r="L31" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="M31" s="88">
+      <c r="M31" s="83">
         <f>SUM(G33:G37)+G44</f>
         <v>4145000</v>
       </c>
@@ -2959,10 +3149,10 @@
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="9"/>
-      <c r="L32" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="88">
+      <c r="L32" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="83">
         <f>G31+G32+G39+G40+G41</f>
         <v>1677000</v>
       </c>
@@ -3286,24 +3476,24 @@
       <c r="D49" s="30"/>
       <c r="E49" s="38"/>
       <c r="F49" s="29"/>
-      <c r="G49" s="92">
+      <c r="G49" s="87">
         <f>G8-G48</f>
         <v>5121999.599999994</v>
       </c>
-      <c r="H49" s="93"/>
-      <c r="I49" s="94"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
       <c r="J49" s="31" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="3:10" ht="15">
       <c r="C50" s="8"/>
-      <c r="D50" s="85" t="s">
+      <c r="D50" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
       <c r="H50" s="57"/>
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
@@ -3439,35 +3629,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3E46B6-EEA2-499C-B73A-039F7F75D799}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="86" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="81" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="86" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="85" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="84" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="30">
@@ -3480,7 +3670,7 @@
       <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="84" t="s">
         <v>160</v>
       </c>
       <c r="B3" s="30">
@@ -3493,7 +3683,7 @@
       <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="84" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="30">
@@ -3505,7 +3695,7 @@
       <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="84" t="s">
         <v>157</v>
       </c>
       <c r="B5" s="30"/>
@@ -3518,13 +3708,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="89"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="30"/>
       <c r="C6" s="29"/>
       <c r="D6" s="30"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="84" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="30"/>
@@ -3532,6 +3722,12 @@
         <v>75919214</v>
       </c>
       <c r="D7" s="30"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="81">
+        <f>SUM(C4:C5)</f>
+        <v>8295653.599999994</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3544,7 +3740,7 @@
   <dimension ref="C2:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3562,16 +3758,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3601,12 +3797,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="80"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3692,7 +3888,7 @@
       <c r="F9" s="48"/>
       <c r="G9" s="49">
         <f>G8-G33</f>
-        <v>33528910</v>
+        <v>30528910</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -3702,12 +3898,12 @@
     </row>
     <row r="10" spans="3:10" ht="15">
       <c r="C10" s="8"/>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
       <c r="H10" s="76"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
@@ -3749,12 +3945,12 @@
     </row>
     <row r="14" spans="3:10" ht="15">
       <c r="C14" s="8"/>
-      <c r="D14" s="85" t="s">
+      <c r="D14" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
       <c r="H14" s="76"/>
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
@@ -3782,11 +3978,22 @@
     </row>
     <row r="16" spans="3:10" ht="15">
       <c r="C16" s="8"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="38">
+        <v>1</v>
+      </c>
+      <c r="F16" s="29">
+        <v>3000000</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" ref="G16:G18" si="0">F16*E16</f>
+        <v>3000000</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
@@ -3795,7 +4002,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="30"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
@@ -3805,7 +4015,10 @@
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="29"/>
+      <c r="G18" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H18" s="30"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
@@ -3957,7 +4170,7 @@
       <c r="F33" s="29"/>
       <c r="G33" s="55">
         <f>SUM(G15:G32)</f>
-        <v>4800000</v>
+        <v>7800000</v>
       </c>
       <c r="H33" s="56"/>
       <c r="I33" s="35"/>
@@ -3967,12 +4180,12 @@
     </row>
     <row r="34" spans="3:10" ht="15">
       <c r="C34" s="8"/>
-      <c r="D34" s="85" t="s">
+      <c r="D34" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
       <c r="H34" s="57"/>
       <c r="I34" s="11"/>
       <c r="J34" s="8"/>
@@ -4085,7 +4298,7 @@
       <c r="F43" s="48"/>
       <c r="G43" s="49">
         <f>G8-G13-G33</f>
-        <v>33528910</v>
+        <v>30528910</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="20"/>
@@ -4107,11 +4320,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
-  <dimension ref="C2:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
+  <dimension ref="C2:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4129,16 +4342,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="C2" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -4168,12 +4381,606 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="3:10" ht="20.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48">
+        <v>29294650.400000002</v>
+      </c>
+      <c r="G6" s="48">
+        <f>F6*E6</f>
+        <v>29294650.400000002</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48">
+        <f>F7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48">
+        <f>F8*E8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="3:10" ht="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49">
+        <f>SUM(G6:G8)</f>
+        <v>29294650.400000002</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="8"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="3:10" ht="15">
+      <c r="C11" s="8"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10" ht="15">
+      <c r="C12" s="8"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="55">
+        <f>SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="15">
+      <c r="C13" s="8"/>
+      <c r="D13" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="3:10" ht="15">
+      <c r="C14" s="8"/>
+      <c r="D14" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="38">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29">
+        <v>9064000</v>
+      </c>
+      <c r="G14" s="29">
+        <f>F14*E14</f>
+        <v>9064000</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="3:10" ht="15">
+      <c r="C15" s="8"/>
+      <c r="D15" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>200000</v>
+      </c>
+      <c r="G15" s="29">
+        <f>F15*E15</f>
+        <v>200000</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="3:10" ht="15">
+      <c r="C16" s="8"/>
+      <c r="D16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39">
+        <v>21000000</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" ref="G16:G23" si="0">F16*E16</f>
+        <v>21000000</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:10" ht="15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="3:10" ht="15">
+      <c r="C18" s="8"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="30"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:10" ht="15">
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="3:10" s="46" customFormat="1" ht="15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="45"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="3:10" ht="15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:10" ht="15">
+      <c r="C23" s="8"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="30"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="8"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="15">
+      <c r="C25" s="8"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="8"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10" ht="15">
+      <c r="C30" s="8"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="3:10" ht="15">
+      <c r="C31" s="8"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="75"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="8"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="55">
+        <f>SUM(G14:G31)</f>
+        <v>30264000</v>
+      </c>
+      <c r="H32" s="56"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="8"/>
+      <c r="D33" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="8">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="3:10" ht="15">
+      <c r="C35" s="8">
+        <v>2</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
+      <c r="C36" s="8">
+        <v>3</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="22"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
+      <c r="C37" s="8">
+        <v>4</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="22"/>
+    </row>
+    <row r="38" spans="3:10" ht="15">
+      <c r="C38" s="8"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="22"/>
+    </row>
+    <row r="39" spans="3:10" ht="15">
+      <c r="C39" s="8"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="51">
+        <f>SUM(G34:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="3:10" ht="15">
+      <c r="C41" s="8"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="3:10" ht="15">
+      <c r="C42" s="8"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49">
+        <f>G8-G12-G32</f>
+        <v>-30264000</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
+  <dimension ref="C2:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="20.25">
+      <c r="C2" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -4231,12 +5038,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -4398,11 +5205,22 @@
     </row>
     <row r="17" spans="3:10" ht="15">
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="38">
+        <v>1</v>
+      </c>
+      <c r="F17" s="29">
+        <v>5000000</v>
+      </c>
+      <c r="G17" s="29">
+        <f>F17*E17</f>
+        <v>5000000</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
@@ -4433,12 +5251,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="54"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -4470,12 +5288,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="57"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -4617,7 +5435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F130950-C7C5-472A-9BC1-443D40499FE8}">
   <dimension ref="C2:J32"/>
   <sheetViews>
@@ -4640,16 +5458,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -4679,12 +5497,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="54"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -4742,12 +5560,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="54"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -4919,12 +5737,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="54"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -4956,12 +5774,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
       <c r="H23" s="57"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -5095,12 +5913,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:J75"/>
+  <dimension ref="C2:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5118,16 +5936,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -5157,12 +5975,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
       <c r="H4" s="60"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -5220,12 +6038,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="60"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -5426,12 +6244,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="85" t="s">
+      <c r="D20" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="60"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -5473,7 +6291,7 @@
         <v>120000</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" ref="G22:G48" si="1">E22*F22</f>
+        <f t="shared" ref="G22:G50" si="1">E22*F22</f>
         <v>120000</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -6070,305 +6888,305 @@
     </row>
     <row r="49" spans="3:10" ht="15">
       <c r="C49" s="8"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="9"/>
+      <c r="D49" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="29">
+        <v>250000</v>
+      </c>
+      <c r="G49" s="29">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="3:10" ht="15">
       <c r="C50" s="8"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="55">
-        <f>SUM(G21:G49)</f>
-        <v>4098000</v>
-      </c>
-      <c r="H50" s="56"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D50" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="29">
+        <v>80000</v>
+      </c>
+      <c r="G50" s="29">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
     </row>
     <row r="51" spans="3:10" ht="15">
       <c r="C51" s="8"/>
-      <c r="D51" s="85" t="s">
+      <c r="D51" s="30"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="3:10" ht="15">
+      <c r="C52" s="8"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="55">
+        <f>SUM(G21:G50)</f>
+        <v>4428000</v>
+      </c>
+      <c r="H52" s="56"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="15">
+      <c r="C53" s="8"/>
+      <c r="D53" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="8"/>
-    </row>
-    <row r="52" spans="3:10" ht="15">
-      <c r="C52" s="8">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="39">
-        <v>1800000</v>
-      </c>
-      <c r="G52" s="59">
-        <f>F52*E52</f>
-        <v>1800000</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="34"/>
-    </row>
-    <row r="53" spans="3:10" ht="15">
-      <c r="C53" s="8">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="39">
-        <v>5000000</v>
-      </c>
-      <c r="G53" s="59">
-        <f>F53*E53</f>
-        <v>5000000</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="22"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="8"/>
     </row>
     <row r="54" spans="3:10" ht="15">
       <c r="C54" s="8">
-        <v>3</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="30">
-        <v>1</v>
-      </c>
-      <c r="F54" s="29">
-        <v>2590000</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="39">
+        <v>1800000</v>
       </c>
       <c r="G54" s="59">
         <f>F54*E54</f>
-        <v>2590000</v>
+        <v>1800000</v>
       </c>
       <c r="H54" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="11"/>
-      <c r="J54" s="22"/>
+        <v>22</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="34"/>
     </row>
     <row r="55" spans="3:10" ht="15">
-      <c r="C55" s="8"/>
-      <c r="D55" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E55" s="10">
-        <v>1</v>
-      </c>
-      <c r="F55" s="48">
-        <v>410000</v>
+      <c r="C55" s="8">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="39">
+        <v>5000000</v>
       </c>
       <c r="G55" s="59">
         <f>F55*E55</f>
-        <v>410000</v>
-      </c>
-      <c r="H55" s="14" t="s">
+        <v>5000000</v>
+      </c>
+      <c r="H55" s="30" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="22"/>
     </row>
     <row r="56" spans="3:10" ht="15">
-      <c r="C56" s="8"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
+      <c r="C56" s="8">
+        <v>3</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="30">
+        <v>1</v>
+      </c>
+      <c r="F56" s="29">
+        <v>2590000</v>
+      </c>
+      <c r="G56" s="59">
+        <f>F56*E56</f>
+        <v>2590000</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="11"/>
       <c r="J56" s="22"/>
     </row>
     <row r="57" spans="3:10" ht="15">
       <c r="C57" s="8"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="51">
-        <f>SUM(G52:G55)</f>
-        <v>9800000</v>
-      </c>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10">
+      <c r="D57" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+      <c r="F57" s="48">
+        <v>410000</v>
+      </c>
+      <c r="G57" s="59">
+        <f>F57*E57</f>
+        <v>410000</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="22"/>
+    </row>
+    <row r="58" spans="3:10" ht="15">
       <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="D58" s="21"/>
       <c r="E58" s="10"/>
       <c r="F58" s="48"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="8"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="22"/>
     </row>
     <row r="59" spans="3:10" ht="15">
       <c r="C59" s="8"/>
-      <c r="D59" s="85" t="s">
+      <c r="D59" s="36"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="51">
+        <f>SUM(G54:G57)</f>
+        <v>9800000</v>
+      </c>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="8"/>
+    </row>
+    <row r="61" spans="3:10" ht="15">
+      <c r="C61" s="8"/>
+      <c r="D61" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="8"/>
-    </row>
-    <row r="60" spans="3:10" ht="15">
-      <c r="C60" s="8">
-        <v>1</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="29">
-        <v>2000000</v>
-      </c>
-      <c r="G60" s="59">
-        <f>F60*E60</f>
-        <v>2000000</v>
-      </c>
-      <c r="H60" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="34"/>
-    </row>
-    <row r="61" spans="3:10" ht="15">
-      <c r="C61" s="8">
-        <v>2</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="39">
-        <v>250000</v>
-      </c>
-      <c r="G61" s="59">
-        <f t="shared" ref="G61:G65" si="2">F61*E61</f>
-        <v>250000</v>
-      </c>
-      <c r="H61" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="22"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="8"/>
     </row>
     <row r="62" spans="3:10" ht="15">
       <c r="C62" s="8">
+        <v>1</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="29">
+        <v>2000000</v>
+      </c>
+      <c r="G62" s="59">
+        <f>F62*E62</f>
+        <v>2000000</v>
+      </c>
+      <c r="H62" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="14"/>
+      <c r="J62" s="34"/>
+    </row>
+    <row r="63" spans="3:10" ht="15">
+      <c r="C63" s="8">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="39">
+        <v>250000</v>
+      </c>
+      <c r="G63" s="59">
+        <f t="shared" ref="G63:G67" si="2">F63*E63</f>
+        <v>250000</v>
+      </c>
+      <c r="H63" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="22"/>
+    </row>
+    <row r="64" spans="3:10" ht="15">
+      <c r="C64" s="8">
         <v>3</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="30">
-        <v>1</v>
-      </c>
-      <c r="F62" s="39">
+      <c r="E64" s="30">
+        <v>1</v>
+      </c>
+      <c r="F64" s="39">
         <v>1000000</v>
       </c>
-      <c r="G62" s="59">
+      <c r="G64" s="59">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="H62" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="22"/>
-    </row>
-    <row r="63" spans="3:10" ht="15">
-      <c r="C63" s="8"/>
-      <c r="D63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E63" s="30">
-        <v>1</v>
-      </c>
-      <c r="F63" s="39">
-        <v>1880000</v>
-      </c>
-      <c r="G63" s="59">
-        <f t="shared" si="2"/>
-        <v>1880000</v>
-      </c>
-      <c r="H63" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="22"/>
-    </row>
-    <row r="64" spans="3:10" ht="15">
-      <c r="C64" s="8"/>
-      <c r="D64" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E64" s="30">
-        <v>1</v>
-      </c>
-      <c r="F64" s="39">
-        <v>1200000</v>
-      </c>
-      <c r="G64" s="59">
-        <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
       <c r="H64" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I64" s="14"/>
+      <c r="I64" s="11"/>
       <c r="J64" s="22"/>
     </row>
     <row r="65" spans="3:10" ht="15">
       <c r="C65" s="8"/>
       <c r="D65" s="1" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="E65" s="30">
         <v>1</v>
       </c>
       <c r="F65" s="39">
-        <v>326700</v>
+        <v>1880000</v>
       </c>
       <c r="G65" s="59">
         <f t="shared" si="2"/>
-        <v>326700</v>
-      </c>
-      <c r="H65" s="14" t="s">
+        <v>1880000</v>
+      </c>
+      <c r="H65" s="65" t="s">
         <v>116</v>
       </c>
       <c r="I65" s="14"/>
@@ -6376,703 +7194,183 @@
     </row>
     <row r="66" spans="3:10" ht="15">
       <c r="C66" s="8"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="14"/>
+      <c r="D66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E66" s="30">
+        <v>1</v>
+      </c>
+      <c r="F66" s="39">
+        <v>1200000</v>
+      </c>
+      <c r="G66" s="59">
+        <f t="shared" si="2"/>
+        <v>1200000</v>
+      </c>
+      <c r="H66" s="65" t="s">
+        <v>116</v>
+      </c>
       <c r="I66" s="14"/>
       <c r="J66" s="22"/>
     </row>
     <row r="67" spans="3:10" ht="15">
       <c r="C67" s="8"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="51">
-        <f>SUM(G60:G65)</f>
-        <v>6656700</v>
-      </c>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" s="30">
+        <v>1</v>
+      </c>
+      <c r="F67" s="39">
+        <v>326700</v>
+      </c>
+      <c r="G67" s="59">
+        <f t="shared" si="2"/>
+        <v>326700</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" s="14"/>
+      <c r="J67" s="22"/>
     </row>
     <row r="68" spans="3:10" ht="15">
       <c r="C68" s="8"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="67"/>
-      <c r="J68" s="68"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="22"/>
     </row>
     <row r="69" spans="3:10" ht="15">
       <c r="C69" s="8"/>
-      <c r="D69" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="8"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="51">
+        <f>SUM(G62:G67)</f>
+        <v>6656700</v>
+      </c>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="70" spans="3:10" ht="15">
       <c r="C70" s="8"/>
-      <c r="D70" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="29">
-        <v>7174000</v>
-      </c>
-      <c r="G70" s="59">
-        <f>F70*E70</f>
-        <v>7174000</v>
-      </c>
-      <c r="H70" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="34"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="68"/>
     </row>
     <row r="71" spans="3:10" ht="15">
       <c r="C71" s="8"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="22"/>
+      <c r="D71" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="8"/>
     </row>
     <row r="72" spans="3:10" ht="15">
       <c r="C72" s="8"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="14"/>
+      <c r="D72" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="29">
+        <v>7174000</v>
+      </c>
+      <c r="G72" s="59">
+        <f>F72*E72</f>
+        <v>7174000</v>
+      </c>
+      <c r="H72" s="64" t="s">
+        <v>22</v>
+      </c>
       <c r="I72" s="14"/>
-      <c r="J72" s="22"/>
+      <c r="J72" s="34"/>
     </row>
     <row r="73" spans="3:10" ht="15">
       <c r="C73" s="8"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="51">
-        <f>SUM(G70:G71)</f>
-        <v>7174000</v>
-      </c>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="22"/>
     </row>
     <row r="74" spans="3:10" ht="15">
       <c r="C74" s="8"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="22"/>
     </row>
     <row r="75" spans="3:10" ht="15">
       <c r="C75" s="8"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="49">
-        <f>G8-G19-G50-G57-G67-G73</f>
-        <v>-31728700</v>
-      </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="31" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="51">
+        <f>SUM(G72:G73)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="3:10" ht="15">
+      <c r="C76" s="8"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+    </row>
+    <row r="77" spans="3:10" ht="15">
+      <c r="C77" s="8"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="49">
+        <f>G8-G19-G52-G59-G69-G75</f>
+        <v>-32058700</v>
+      </c>
+      <c r="H77" s="12"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="31" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D71:G71"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D51:G51"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
-  <dimension ref="C2:J42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-    </row>
-    <row r="3" spans="3:10" ht="15.75">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C4" s="7"/>
-      <c r="D4" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="3:10" ht="20.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="48">
-        <v>29294650.400000002</v>
-      </c>
-      <c r="G6" s="48">
-        <f>F6*E6</f>
-        <v>29294650.400000002</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48">
-        <f>F7*E7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48">
-        <f>F8*E8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="3:10" ht="15">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49">
-        <f>SUM(G6:G8)</f>
-        <v>29294650.400000002</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="15">
-      <c r="C10" s="8"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="3:10" ht="15">
-      <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="3:10" ht="15">
-      <c r="C12" s="8"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="55">
-        <f>SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="15">
-      <c r="C13" s="8"/>
-      <c r="D13" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="3:10" ht="15">
-      <c r="C14" s="8"/>
-      <c r="D14" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="38">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29">
-        <v>9064000</v>
-      </c>
-      <c r="G14" s="29">
-        <f>F14*E14</f>
-        <v>9064000</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="3:10" ht="15">
-      <c r="C15" s="8"/>
-      <c r="D15" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
-        <v>200000</v>
-      </c>
-      <c r="G15" s="29">
-        <f>F15*E15</f>
-        <v>200000</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="3:10" ht="15">
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="3:10" ht="15">
-      <c r="C17" s="8"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="3:10" ht="15">
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="3:10" ht="15">
-      <c r="C19" s="8"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="3:10" s="46" customFormat="1" ht="15">
-      <c r="C20" s="8"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="3:10" ht="15">
-      <c r="C21" s="8"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="3:10" ht="15">
-      <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:10" ht="15">
-      <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="8"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="3:10" ht="15">
-      <c r="C26" s="8"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="3:10" ht="15">
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="75"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="55">
-        <f>SUM(G14:G31)</f>
-        <v>9264000</v>
-      </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8"/>
-      <c r="D33" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="3:10" ht="15">
-      <c r="C35" s="8">
-        <v>2</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="22"/>
-    </row>
-    <row r="36" spans="3:10" ht="15">
-      <c r="C36" s="8">
-        <v>3</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="3:10" ht="15">
-      <c r="C37" s="8">
-        <v>4</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="3:10" ht="15">
-      <c r="C38" s="8"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="22"/>
-    </row>
-    <row r="39" spans="3:10" ht="15">
-      <c r="C39" s="8"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="51">
-        <f>SUM(G34:G38)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="3:10" ht="15">
-      <c r="C41" s="8"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="3:10" ht="15">
-      <c r="C42" s="8"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49">
-        <f>G8-G12-G32</f>
-        <v>-9264000</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D53:G53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393E4AB6-BC22-4930-A3BD-A3C5F8076AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC96687-77A3-4B3B-AF5D-90C825FCEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$77</definedName>
+    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$80</definedName>
     <definedName name="Pega">PEGA!$G$46</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
@@ -54,7 +54,7 @@
     <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$77</definedName>
+    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$80</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
     <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$43</definedName>
     <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$42</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="194">
   <si>
     <t>STT</t>
   </si>
@@ -643,6 +643,18 @@
   </si>
   <si>
     <t>Chuyển vào tk cá nhân TPBank Tuấn</t>
+  </si>
+  <si>
+    <t>Cọc 50% sản xuất</t>
+  </si>
+  <si>
+    <t>module giải mã I2S</t>
+  </si>
+  <si>
+    <t>Đặt DFPlayer mini</t>
+  </si>
+  <si>
+    <t>Ăn trưa ngày 19/06</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1501,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-32058700</v>
+        <v>-32138700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1560,7 +1572,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-71498766.400000006</v>
+        <v>-71578766.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1578,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E1739C-0CA9-4D70-99CB-9453E6E8DAF2}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -3740,7 +3752,7 @@
   <dimension ref="C2:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3910,11 +3922,22 @@
     </row>
     <row r="11" spans="3:10" ht="15">
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1</v>
+      </c>
+      <c r="F11" s="29">
+        <v>195000</v>
+      </c>
+      <c r="G11" s="29">
+        <f>E11*F11</f>
+        <v>195000</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
@@ -3935,7 +3958,7 @@
       <c r="F13" s="29"/>
       <c r="G13" s="55">
         <f>SUM(G11:G11)</f>
-        <v>0</v>
+        <v>195000</v>
       </c>
       <c r="H13" s="56"/>
       <c r="I13" s="35"/>
@@ -3979,7 +4002,7 @@
     <row r="16" spans="3:10" ht="15">
       <c r="C16" s="8"/>
       <c r="D16" s="30" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E16" s="38">
         <v>1</v>
@@ -4298,7 +4321,7 @@
       <c r="F43" s="48"/>
       <c r="G43" s="49">
         <f>G8-G13-G33</f>
-        <v>30528910</v>
+        <v>30333910</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="20"/>
@@ -4324,7 +4347,7 @@
   <dimension ref="C2:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4588,14 +4611,22 @@
     </row>
     <row r="17" spans="3:10" ht="15">
       <c r="C17" s="8"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="39">
+        <v>4200000</v>
+      </c>
       <c r="G17" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="30"/>
+        <v>4200000</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
@@ -4764,7 +4795,7 @@
       <c r="F32" s="29"/>
       <c r="G32" s="55">
         <f>SUM(G14:G31)</f>
-        <v>30264000</v>
+        <v>34464000</v>
       </c>
       <c r="H32" s="56"/>
       <c r="I32" s="35"/>
@@ -4892,7 +4923,7 @@
       <c r="F42" s="48"/>
       <c r="G42" s="49">
         <f>G8-G12-G32</f>
-        <v>-30264000</v>
+        <v>-34464000</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="20"/>
@@ -5915,10 +5946,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:J77"/>
+  <dimension ref="C2:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6291,7 +6322,7 @@
         <v>120000</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" ref="G22:G50" si="1">E22*F22</f>
+        <f t="shared" ref="G22:G51" si="1">E22*F22</f>
         <v>120000</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -6930,447 +6961,488 @@
     </row>
     <row r="51" spans="3:10" ht="15">
       <c r="C51" s="8"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="9"/>
+      <c r="D51" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="29">
+        <v>80000</v>
+      </c>
+      <c r="G51" s="29">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="3:10" ht="15">
       <c r="C52" s="8"/>
       <c r="D52" s="30"/>
-      <c r="E52" s="38"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="29"/>
-      <c r="G52" s="55">
-        <f>SUM(G21:G50)</f>
-        <v>4428000</v>
-      </c>
-      <c r="H52" s="56"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="G52" s="29"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
     </row>
     <row r="53" spans="3:10" ht="15">
       <c r="C53" s="8"/>
-      <c r="D53" s="97" t="s">
+      <c r="D53" s="30"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="3:10" ht="15">
+      <c r="C54" s="8"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="3:10" ht="15">
+      <c r="C55" s="8"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="55">
+        <f>SUM(G21:G51)</f>
+        <v>4508000</v>
+      </c>
+      <c r="H55" s="56"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" ht="15">
+      <c r="C56" s="8"/>
+      <c r="D56" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="3:10" ht="15">
-      <c r="C54" s="8">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="3:10" ht="15">
+      <c r="C57" s="8">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E54" s="3">
-        <v>1</v>
-      </c>
-      <c r="F54" s="39">
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="39">
         <v>1800000</v>
-      </c>
-      <c r="G54" s="59">
-        <f>F54*E54</f>
-        <v>1800000</v>
-      </c>
-      <c r="H54" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="34"/>
-    </row>
-    <row r="55" spans="3:10" ht="15">
-      <c r="C55" s="8">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="39">
-        <v>5000000</v>
-      </c>
-      <c r="G55" s="59">
-        <f>F55*E55</f>
-        <v>5000000</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="22"/>
-    </row>
-    <row r="56" spans="3:10" ht="15">
-      <c r="C56" s="8">
-        <v>3</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="30">
-        <v>1</v>
-      </c>
-      <c r="F56" s="29">
-        <v>2590000</v>
-      </c>
-      <c r="G56" s="59">
-        <f>F56*E56</f>
-        <v>2590000</v>
-      </c>
-      <c r="H56" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="11"/>
-      <c r="J56" s="22"/>
-    </row>
-    <row r="57" spans="3:10" ht="15">
-      <c r="C57" s="8"/>
-      <c r="D57" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" s="10">
-        <v>1</v>
-      </c>
-      <c r="F57" s="48">
-        <v>410000</v>
       </c>
       <c r="G57" s="59">
         <f>F57*E57</f>
-        <v>410000</v>
-      </c>
-      <c r="H57" s="14" t="s">
+        <v>1800000</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>22</v>
       </c>
       <c r="I57" s="14"/>
-      <c r="J57" s="22"/>
+      <c r="J57" s="34"/>
     </row>
     <row r="58" spans="3:10" ht="15">
-      <c r="C58" s="8"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="14"/>
+      <c r="C58" s="8">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="39">
+        <v>5000000</v>
+      </c>
+      <c r="G58" s="59">
+        <f>F58*E58</f>
+        <v>5000000</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="I58" s="14"/>
       <c r="J58" s="22"/>
     </row>
     <row r="59" spans="3:10" ht="15">
-      <c r="C59" s="8"/>
-      <c r="D59" s="36"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="51">
-        <f>SUM(G54:G57)</f>
-        <v>9800000</v>
-      </c>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10">
+      <c r="C59" s="8">
+        <v>3</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="30">
+        <v>1</v>
+      </c>
+      <c r="F59" s="29">
+        <v>2590000</v>
+      </c>
+      <c r="G59" s="59">
+        <f>F59*E59</f>
+        <v>2590000</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="22"/>
+    </row>
+    <row r="60" spans="3:10" ht="15">
       <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="8"/>
+      <c r="D60" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="10">
+        <v>1</v>
+      </c>
+      <c r="F60" s="48">
+        <v>410000</v>
+      </c>
+      <c r="G60" s="59">
+        <f>F60*E60</f>
+        <v>410000</v>
+      </c>
+      <c r="H60" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="14"/>
+      <c r="J60" s="22"/>
     </row>
     <row r="61" spans="3:10" ht="15">
       <c r="C61" s="8"/>
-      <c r="D61" s="97" t="s">
+      <c r="D61" s="21"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="22"/>
+    </row>
+    <row r="62" spans="3:10" ht="15">
+      <c r="C62" s="8"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="51">
+        <f>SUM(G57:G60)</f>
+        <v>9800000</v>
+      </c>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="8"/>
+    </row>
+    <row r="64" spans="3:10" ht="15">
+      <c r="C64" s="8"/>
+      <c r="D64" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="8"/>
-    </row>
-    <row r="62" spans="3:10" ht="15">
-      <c r="C62" s="8">
-        <v>1</v>
-      </c>
-      <c r="D62" s="30" t="s">
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="8"/>
+    </row>
+    <row r="65" spans="3:10" ht="15">
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
+      <c r="D65" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="29">
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="29">
         <v>2000000</v>
       </c>
-      <c r="G62" s="59">
-        <f>F62*E62</f>
+      <c r="G65" s="59">
+        <f>F65*E65</f>
         <v>2000000</v>
       </c>
-      <c r="H62" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="34"/>
-    </row>
-    <row r="63" spans="3:10" ht="15">
-      <c r="C63" s="8">
+      <c r="H65" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="14"/>
+      <c r="J65" s="34"/>
+    </row>
+    <row r="66" spans="3:10" ht="15">
+      <c r="C66" s="8">
         <v>2</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="39">
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="39">
         <v>250000</v>
       </c>
-      <c r="G63" s="59">
-        <f t="shared" ref="G63:G67" si="2">F63*E63</f>
+      <c r="G66" s="59">
+        <f t="shared" ref="G66:G70" si="2">F66*E66</f>
         <v>250000</v>
       </c>
-      <c r="H63" s="65" t="s">
+      <c r="H66" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="22"/>
-    </row>
-    <row r="64" spans="3:10" ht="15">
-      <c r="C64" s="8">
+      <c r="I66" s="14"/>
+      <c r="J66" s="22"/>
+    </row>
+    <row r="67" spans="3:10" ht="15">
+      <c r="C67" s="8">
         <v>3</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E64" s="30">
-        <v>1</v>
-      </c>
-      <c r="F64" s="39">
+      <c r="E67" s="30">
+        <v>1</v>
+      </c>
+      <c r="F67" s="39">
         <v>1000000</v>
       </c>
-      <c r="G64" s="59">
+      <c r="G67" s="59">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="H64" s="65" t="s">
+      <c r="H67" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="22"/>
-    </row>
-    <row r="65" spans="3:10" ht="15">
-      <c r="C65" s="8"/>
-      <c r="D65" s="1" t="s">
+      <c r="I67" s="11"/>
+      <c r="J67" s="22"/>
+    </row>
+    <row r="68" spans="3:10" ht="15">
+      <c r="C68" s="8"/>
+      <c r="D68" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E65" s="30">
-        <v>1</v>
-      </c>
-      <c r="F65" s="39">
+      <c r="E68" s="30">
+        <v>1</v>
+      </c>
+      <c r="F68" s="39">
         <v>1880000</v>
       </c>
-      <c r="G65" s="59">
+      <c r="G68" s="59">
         <f t="shared" si="2"/>
         <v>1880000</v>
       </c>
-      <c r="H65" s="65" t="s">
+      <c r="H68" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="22"/>
-    </row>
-    <row r="66" spans="3:10" ht="15">
-      <c r="C66" s="8"/>
-      <c r="D66" s="1" t="s">
+      <c r="I68" s="14"/>
+      <c r="J68" s="22"/>
+    </row>
+    <row r="69" spans="3:10" ht="15">
+      <c r="C69" s="8"/>
+      <c r="D69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E66" s="30">
-        <v>1</v>
-      </c>
-      <c r="F66" s="39">
+      <c r="E69" s="30">
+        <v>1</v>
+      </c>
+      <c r="F69" s="39">
         <v>1200000</v>
       </c>
-      <c r="G66" s="59">
+      <c r="G69" s="59">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="H66" s="65" t="s">
+      <c r="H69" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="22"/>
-    </row>
-    <row r="67" spans="3:10" ht="15">
-      <c r="C67" s="8"/>
-      <c r="D67" s="1" t="s">
+      <c r="I69" s="14"/>
+      <c r="J69" s="22"/>
+    </row>
+    <row r="70" spans="3:10" ht="15">
+      <c r="C70" s="8"/>
+      <c r="D70" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E67" s="30">
-        <v>1</v>
-      </c>
-      <c r="F67" s="39">
+      <c r="E70" s="30">
+        <v>1</v>
+      </c>
+      <c r="F70" s="39">
         <v>326700</v>
       </c>
-      <c r="G67" s="59">
+      <c r="G70" s="59">
         <f t="shared" si="2"/>
         <v>326700</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H70" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I67" s="14"/>
-      <c r="J67" s="22"/>
-    </row>
-    <row r="68" spans="3:10" ht="15">
-      <c r="C68" s="8"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="22"/>
-    </row>
-    <row r="69" spans="3:10" ht="15">
-      <c r="C69" s="8"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="51">
-        <f>SUM(G62:G67)</f>
-        <v>6656700</v>
-      </c>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="3:10" ht="15">
-      <c r="C70" s="8"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="68"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="22"/>
     </row>
     <row r="71" spans="3:10" ht="15">
       <c r="C71" s="8"/>
-      <c r="D71" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="8"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="22"/>
     </row>
     <row r="72" spans="3:10" ht="15">
       <c r="C72" s="8"/>
-      <c r="D72" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="29">
-        <v>7174000</v>
-      </c>
-      <c r="G72" s="59">
-        <f>F72*E72</f>
-        <v>7174000</v>
-      </c>
-      <c r="H72" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="34"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="51">
+        <f>SUM(G65:G70)</f>
+        <v>6656700</v>
+      </c>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="73" spans="3:10" ht="15">
       <c r="C73" s="8"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="22"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="68"/>
     </row>
     <row r="74" spans="3:10" ht="15">
       <c r="C74" s="8"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="22"/>
+      <c r="D74" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="8"/>
     </row>
     <row r="75" spans="3:10" ht="15">
       <c r="C75" s="8"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="51">
-        <f>SUM(G72:G73)</f>
+      <c r="D75" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="29">
         <v>7174000</v>
       </c>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="G75" s="59">
+        <f>F75*E75</f>
+        <v>7174000</v>
+      </c>
+      <c r="H75" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="14"/>
+      <c r="J75" s="34"/>
     </row>
     <row r="76" spans="3:10" ht="15">
       <c r="C76" s="8"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="22"/>
     </row>
     <row r="77" spans="3:10" ht="15">
       <c r="C77" s="8"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="49">
-        <f>G8-G19-G52-G59-G69-G75</f>
-        <v>-32058700</v>
-      </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="31" t="s">
+      <c r="D77" s="1"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="22"/>
+    </row>
+    <row r="78" spans="3:10" ht="15">
+      <c r="C78" s="8"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="51">
+        <f>SUM(G75:G76)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="3:10" ht="15">
+      <c r="C79" s="8"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+    </row>
+    <row r="80" spans="3:10" ht="15">
+      <c r="C80" s="8"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="49">
+        <f>G8-G19-G55-G62-G72-G78</f>
+        <v>-32138700</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="31" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="D74:G74"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D56:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VitechSolutions\Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC96687-77A3-4B3B-AF5D-90C825FCEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356763D-34CB-434A-BDF2-19B3F6BA5324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$80</definedName>
-    <definedName name="Pega">PEGA!$G$46</definedName>
+    <definedName name="Pega">PEGA!$G$48</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="8">#REF!</definedName>
@@ -56,12 +56,12 @@
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
     <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$80</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
-    <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$43</definedName>
+    <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$47</definedName>
     <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$42</definedName>
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$59</definedName>
     <definedName name="sport1_p2">SPORT1_P2!$G$32</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="200">
   <si>
     <t>STT</t>
   </si>
@@ -648,13 +648,31 @@
     <t>Cọc 50% sản xuất</t>
   </si>
   <si>
-    <t>module giải mã I2S</t>
-  </si>
-  <si>
-    <t>Đặt DFPlayer mini</t>
-  </si>
-  <si>
     <t>Ăn trưa ngày 19/06</t>
+  </si>
+  <si>
+    <t>Ăn trưa ngày 26/06</t>
+  </si>
+  <si>
+    <t>mạch tiền khuếch đại NE5532</t>
+  </si>
+  <si>
+    <t>Mạch khuếch đại TDA2030</t>
+  </si>
+  <si>
+    <t>Mạch khuếch đại TPA3118</t>
+  </si>
+  <si>
+    <t>IC 3118</t>
+  </si>
+  <si>
+    <t>Tổng hợp chi phí dự án SPORT1_P1.5 160Zeus</t>
+  </si>
+  <si>
+    <t>Mua cáp màn hình + Header</t>
+  </si>
+  <si>
+    <t>Linh kiện hàn mạch NE5532 test</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1519,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-32138700</v>
+        <v>-32238700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1512,7 +1530,7 @@
       </c>
       <c r="J5" s="11">
         <f>Pega</f>
-        <v>-25505086</v>
+        <v>-25605086</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -1572,7 +1590,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-71578766.400000006</v>
+        <v>-71778766.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1710,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032BD6C-08F6-46C4-8E07-045BAFBCF7A7}">
-  <dimension ref="C2:J46"/>
+  <dimension ref="C2:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2199,7 +2217,7 @@
         <v>2685000</v>
       </c>
       <c r="G25" s="11">
-        <f t="shared" ref="G25:G30" si="3">E25*F25</f>
+        <f t="shared" ref="G25:G31" si="3">E25*F25</f>
         <v>2685000</v>
       </c>
       <c r="H25" s="70" t="s">
@@ -2314,142 +2332,140 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="3:10">
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G31" s="78">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="32">
-        <f>SUM(G10:G30)</f>
-        <v>39505086</v>
-      </c>
-      <c r="H32" s="32"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+    <row r="32" spans="3:10">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="11"/>
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="3:10" ht="15">
       <c r="C34" s="8"/>
-      <c r="D34" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="9"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="32">
+        <f>SUM(G10:G31)</f>
+        <v>39605086</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="3:10" ht="15">
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="32">
-        <v>25000000</v>
-      </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="3:10" ht="15">
       <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
+      <c r="D36" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="3:10" ht="15">
-      <c r="C37" s="8"/>
-      <c r="D37" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="8"/>
+      <c r="C37" s="8">
+        <v>1</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="32">
+        <v>25000000</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="38" spans="3:10" ht="15">
-      <c r="C38" s="8">
-        <v>1</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="48"/>
-      <c r="G38" s="14">
-        <v>5000000</v>
-      </c>
+      <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="34"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="3:10" ht="15">
-      <c r="C39" s="8">
-        <v>2</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="22"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="8"/>
     </row>
     <row r="40" spans="3:10" ht="15">
       <c r="C40" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="48"/>
       <c r="G40" s="14">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
       <c r="H40" s="14"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="22"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="34"/>
     </row>
     <row r="41" spans="3:10" ht="15">
       <c r="C41" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="48"/>
@@ -2460,56 +2476,86 @@
     </row>
     <row r="42" spans="3:10" ht="15">
       <c r="C42" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="48"/>
       <c r="G42" s="14">
+        <v>25000000</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="22"/>
+    </row>
+    <row r="43" spans="3:10" ht="15">
+      <c r="C43" s="8">
+        <v>4</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" spans="3:10" ht="15">
+      <c r="C44" s="8">
+        <v>5</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="14">
         <v>10000000</v>
       </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="22"/>
-    </row>
-    <row r="43" spans="3:10" ht="15">
-      <c r="C43" s="8"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="32">
-        <f>SUM(G38:G42)</f>
-        <v>40000000</v>
-      </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="22"/>
     </row>
     <row r="45" spans="3:10" ht="15">
       <c r="C45" s="8"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" ht="15">
-      <c r="C46" s="8"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="12">
-        <f>G8-G32-G35-G43</f>
-        <v>-25505086</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="31" t="s">
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="32">
+        <f>SUM(G40:G44)</f>
+        <v>40000000</v>
+      </c>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" ht="15">
+      <c r="C47" s="8"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="3:10" ht="15">
+      <c r="C48" s="8"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="12">
+        <f>G8-G34-G37-G45</f>
+        <v>-25605086</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="31" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2518,8 +2564,8 @@
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D39:G39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3749,10 +3795,689 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
-  <dimension ref="C2:J43"/>
+  <dimension ref="C2:J47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="20.25">
+      <c r="C2" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="3:10" ht="15">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>38328910</v>
+      </c>
+      <c r="G5" s="48">
+        <f>F5*E5</f>
+        <v>38328910</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48">
+        <f>F6*E6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48">
+        <f>F7*E7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="3:10" ht="15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49">
+        <f>SUM(G5:G7)</f>
+        <v>38328910</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49">
+        <f>G8-G37</f>
+        <v>30528910</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="8"/>
+      <c r="D10" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="3:10" ht="15">
+      <c r="C11" s="8"/>
+      <c r="D11" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="38">
+        <v>3</v>
+      </c>
+      <c r="F11" s="29">
+        <v>116000</v>
+      </c>
+      <c r="G11" s="29">
+        <f>E11*F11</f>
+        <v>348000</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10" ht="15">
+      <c r="C12" s="8"/>
+      <c r="D12" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="38">
+        <v>2</v>
+      </c>
+      <c r="F12" s="29">
+        <v>20000</v>
+      </c>
+      <c r="G12" s="29">
+        <f>E12*F12</f>
+        <v>40000</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="3:10" ht="15">
+      <c r="C13" s="8"/>
+      <c r="D13" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="38">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>80000</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" ref="G13:G15" si="0">E13*F13</f>
+        <v>80000</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="3:10" ht="15">
+      <c r="C14" s="8"/>
+      <c r="D14" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="38">
+        <v>2</v>
+      </c>
+      <c r="F14" s="29">
+        <v>40000</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="0"/>
+        <v>80000</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="3:10" ht="15">
+      <c r="C15" s="8"/>
+      <c r="D15" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="38">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
+        <v>110000</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="3:10" ht="15">
+      <c r="C16" s="8"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:10" ht="15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="55">
+        <f>SUM(G11:G15)</f>
+        <v>658000</v>
+      </c>
+      <c r="H17" s="56"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="15">
+      <c r="C18" s="8"/>
+      <c r="D18" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:10" ht="15">
+      <c r="C19" s="8"/>
+      <c r="D19" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="38">
+        <v>1</v>
+      </c>
+      <c r="F19" s="29">
+        <v>4800000</v>
+      </c>
+      <c r="G19" s="29">
+        <f>F19*E19</f>
+        <v>4800000</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="3:10" ht="15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="38">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29">
+        <v>3000000</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" ref="G20:G22" si="1">F20*E20</f>
+        <v>3000000</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="3:10" ht="15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:10" ht="15">
+      <c r="C23" s="8"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" s="46" customFormat="1" ht="15">
+      <c r="C25" s="8"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="8"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10" ht="15">
+      <c r="C30" s="8"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="3:10" ht="15">
+      <c r="C31" s="8"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="8"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="8"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="8"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="3:10" ht="15">
+      <c r="C35" s="8"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
+      <c r="C36" s="8"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="75"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
+      <c r="C37" s="8"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="55">
+        <f>SUM(G19:G36)</f>
+        <v>7800000</v>
+      </c>
+      <c r="H37" s="56"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="15">
+      <c r="C38" s="8"/>
+      <c r="D38" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="3:10" ht="15">
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="34"/>
+    </row>
+    <row r="40" spans="3:10" ht="15">
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="22"/>
+    </row>
+    <row r="41" spans="3:10" ht="15">
+      <c r="C41" s="8">
+        <v>3</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="22"/>
+    </row>
+    <row r="42" spans="3:10" ht="15">
+      <c r="C42" s="8">
+        <v>4</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="22"/>
+    </row>
+    <row r="43" spans="3:10" ht="15">
+      <c r="C43" s="8"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="22"/>
+    </row>
+    <row r="44" spans="3:10" ht="15">
+      <c r="C44" s="8"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="51">
+        <f>SUM(G39:G43)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="3:10" ht="15">
+      <c r="C46" s="8"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="3:10" ht="15">
+      <c r="C47" s="8"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49">
+        <f>G8-G17-G37</f>
+        <v>29870910</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D38:G38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
+  <dimension ref="C2:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3801,7 +4526,7 @@
         <v>17</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>5</v>
@@ -3815,56 +4540,49 @@
       <c r="E4" s="97"/>
       <c r="F4" s="97"/>
       <c r="G4" s="97"/>
-      <c r="H4" s="80"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="3:10" ht="15">
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="29">
-        <v>38328910</v>
-      </c>
-      <c r="G5" s="48">
-        <f>F5*E5</f>
-        <v>38328910</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="8"/>
+    <row r="5" spans="3:10" ht="20.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="3:10">
       <c r="C6" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="48"/>
+      <c r="F6" s="48">
+        <v>29294650.400000002</v>
+      </c>
       <c r="G6" s="48">
         <f>F6*E6</f>
-        <v>0</v>
+        <v>29294650.400000002</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="3:10">
       <c r="C7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -3878,20 +4596,24 @@
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="3:10" ht="15">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
+    <row r="8" spans="3:10">
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
       <c r="F8" s="48"/>
-      <c r="G8" s="49">
-        <f>SUM(G5:G7)</f>
-        <v>38328910</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
-        <v>168</v>
-      </c>
+      <c r="G8" s="48">
+        <f>F8*E8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
@@ -3899,45 +4621,31 @@
       <c r="E9" s="10"/>
       <c r="F9" s="48"/>
       <c r="G9" s="49">
-        <f>G8-G33</f>
-        <v>30528910</v>
+        <f>SUM(G6:G8)</f>
+        <v>29294650.400000002</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="15">
       <c r="C10" s="8"/>
-      <c r="D10" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="3:10" ht="15">
       <c r="C11" s="8"/>
-      <c r="D11" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
-        <v>195000</v>
-      </c>
-      <c r="G11" s="29">
-        <f>E11*F11</f>
-        <v>195000</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>9</v>
-      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
@@ -3946,73 +4654,84 @@
       <c r="D12" s="30"/>
       <c r="E12" s="38"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="9"/>
+      <c r="G12" s="55">
+        <f>SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="3:10" ht="15">
       <c r="C13" s="8"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="55">
-        <f>SUM(G11:G11)</f>
-        <v>195000</v>
-      </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D13" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="3:10" ht="15">
       <c r="C14" s="8"/>
-      <c r="D14" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="76"/>
+      <c r="D14" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="38">
+        <v>1</v>
+      </c>
+      <c r="F14" s="29">
+        <v>9064000</v>
+      </c>
+      <c r="G14" s="29">
+        <f>F14*E14</f>
+        <v>9064000</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="3:10" ht="15">
       <c r="C15" s="8"/>
       <c r="D15" s="30" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E15" s="38">
         <v>1</v>
       </c>
       <c r="F15" s="29">
-        <v>4800000</v>
+        <v>200000</v>
       </c>
       <c r="G15" s="29">
         <f>F15*E15</f>
-        <v>4800000</v>
+        <v>200000</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="3:10" ht="15">
       <c r="C16" s="8"/>
-      <c r="D16" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" s="38">
-        <v>1</v>
-      </c>
-      <c r="F16" s="29">
-        <v>3000000</v>
+      <c r="D16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="39">
+        <v>21000000</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" ref="G16:G18" si="0">F16*E16</f>
-        <v>3000000</v>
+        <f t="shared" ref="G16:G23" si="0">F16*E16</f>
+        <v>21000000</v>
       </c>
       <c r="H16" s="30" t="s">
         <v>51</v>
@@ -4025,10 +4744,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G17" s="29"/>
       <c r="H17" s="30"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
@@ -4038,17 +4754,14 @@
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
       <c r="F18" s="39"/>
-      <c r="G18" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G18" s="29"/>
       <c r="H18" s="30"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="3:10" ht="15">
       <c r="C19" s="8"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="39"/>
       <c r="G19" s="29"/>
@@ -4056,35 +4769,35 @@
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="3:10" ht="15">
+    <row r="20" spans="3:10" s="46" customFormat="1" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="3:10" s="46" customFormat="1" ht="15">
+      <c r="H20" s="45"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="3:10" ht="15">
       <c r="C21" s="8"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8"/>
-      <c r="D22" s="28"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="38"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="15"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
@@ -4138,9 +4851,9 @@
     </row>
     <row r="28" spans="3:10" ht="15">
       <c r="C28" s="8"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="29"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="29"/>
       <c r="H28" s="30"/>
       <c r="I28" s="11"/>
@@ -4168,618 +4881,6 @@
     </row>
     <row r="31" spans="3:10" ht="15">
       <c r="C31" s="8"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="75"/>
-    </row>
-    <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="55">
-        <f>SUM(G15:G32)</f>
-        <v>7800000</v>
-      </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="8"/>
-      <c r="D34" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="3:10" ht="15">
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="34"/>
-    </row>
-    <row r="36" spans="3:10" ht="15">
-      <c r="C36" s="8">
-        <v>2</v>
-      </c>
-      <c r="D36" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="3:10" ht="15">
-      <c r="C37" s="8">
-        <v>3</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="22"/>
-    </row>
-    <row r="38" spans="3:10" ht="15">
-      <c r="C38" s="8">
-        <v>4</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="22"/>
-    </row>
-    <row r="39" spans="3:10" ht="15">
-      <c r="C39" s="8"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="22"/>
-    </row>
-    <row r="40" spans="3:10" ht="15">
-      <c r="C40" s="8"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="51">
-        <f>SUM(G35:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10">
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="3:10" ht="15">
-      <c r="C42" s="8"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="3:10" ht="15">
-      <c r="C43" s="8"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49">
-        <f>G8-G13-G33</f>
-        <v>30333910</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D34:G34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
-  <dimension ref="C2:J42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="93" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="3:10" ht="15.75">
-      <c r="C3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C4" s="7"/>
-      <c r="D4" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="3:10" ht="20.25">
-      <c r="C5" s="7"/>
-      <c r="D5" s="97" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="48">
-        <v>29294650.400000002</v>
-      </c>
-      <c r="G6" s="48">
-        <f>F6*E6</f>
-        <v>29294650.400000002</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48">
-        <f>F7*E7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="3:10">
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1</v>
-      </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48">
-        <f>F8*E8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="3:10" ht="15">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49">
-        <f>SUM(G6:G8)</f>
-        <v>29294650.400000002</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="15">
-      <c r="C10" s="8"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="3:10" ht="15">
-      <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="3:10" ht="15">
-      <c r="C12" s="8"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="55">
-        <f>SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="15">
-      <c r="C13" s="8"/>
-      <c r="D13" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="3:10" ht="15">
-      <c r="C14" s="8"/>
-      <c r="D14" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="38">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29">
-        <v>9064000</v>
-      </c>
-      <c r="G14" s="29">
-        <f>F14*E14</f>
-        <v>9064000</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="3:10" ht="15">
-      <c r="C15" s="8"/>
-      <c r="D15" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
-        <v>200000</v>
-      </c>
-      <c r="G15" s="29">
-        <f>F15*E15</f>
-        <v>200000</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="3:10" ht="15">
-      <c r="C16" s="8"/>
-      <c r="D16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="39">
-        <v>21000000</v>
-      </c>
-      <c r="G16" s="29">
-        <f t="shared" ref="G16:G23" si="0">F16*E16</f>
-        <v>21000000</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="3:10" ht="15">
-      <c r="C17" s="8"/>
-      <c r="D17" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="39">
-        <v>4200000</v>
-      </c>
-      <c r="G17" s="29">
-        <f t="shared" si="0"/>
-        <v>4200000</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="3:10" ht="15">
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="3:10" ht="15">
-      <c r="C19" s="8"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="3:10" s="46" customFormat="1" ht="15">
-      <c r="C20" s="8"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="3:10" ht="15">
-      <c r="C21" s="8"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="15"/>
-    </row>
-    <row r="22" spans="3:10" ht="15">
-      <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:10" ht="15">
-      <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="8"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="3:10" ht="15">
-      <c r="C26" s="8"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="3:10" ht="15">
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8"/>
       <c r="D31" s="30"/>
       <c r="E31" s="38"/>
       <c r="F31" s="29"/>
@@ -4795,7 +4896,7 @@
       <c r="F32" s="29"/>
       <c r="G32" s="55">
         <f>SUM(G14:G31)</f>
-        <v>34464000</v>
+        <v>30264000</v>
       </c>
       <c r="H32" s="56"/>
       <c r="I32" s="35"/>
@@ -4923,7 +5024,7 @@
       <c r="F42" s="48"/>
       <c r="G42" s="49">
         <f>G8-G12-G32</f>
-        <v>-34464000</v>
+        <v>-30264000</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="20"/>
@@ -4948,7 +5049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
   <dimension ref="C2:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -5948,8 +6049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
   <dimension ref="C2:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6322,7 +6423,7 @@
         <v>120000</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" ref="G22:G51" si="1">E22*F22</f>
+        <f t="shared" ref="G22:G52" si="1">E22*F22</f>
         <v>120000</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -6962,7 +7063,7 @@
     <row r="51" spans="3:10" ht="15">
       <c r="C51" s="8"/>
       <c r="D51" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
@@ -6982,11 +7083,22 @@
     </row>
     <row r="52" spans="3:10" ht="15">
       <c r="C52" s="8"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="9"/>
+      <c r="D52" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="29">
+        <v>100000</v>
+      </c>
+      <c r="G52" s="29">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
@@ -7016,8 +7128,8 @@
       <c r="E55" s="38"/>
       <c r="F55" s="29"/>
       <c r="G55" s="55">
-        <f>SUM(G21:G51)</f>
-        <v>4508000</v>
+        <f>SUM(G21:G52)</f>
+        <v>4608000</v>
       </c>
       <c r="H55" s="56"/>
       <c r="I55" s="35"/>
@@ -7426,7 +7538,7 @@
       <c r="F80" s="48"/>
       <c r="G80" s="49">
         <f>G8-G19-G55-G62-G72-G78</f>
-        <v>-32138700</v>
+        <v>-32238700</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="20"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VitechSolutions\Team_Log\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8356763D-34CB-434A-BDF2-19B3F6BA5324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A63C4E-DD6A-4B7D-80B2-B5FC2A4343C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -23,17 +23,20 @@
     <sheet name="SMARTHOME" sheetId="5" r:id="rId8"/>
     <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId9"/>
     <sheet name="Quản lý tài khoản CT" sheetId="14" r:id="rId10"/>
+    <sheet name="Quản lý tiền vào ra tài khoản" sheetId="16" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$80</definedName>
+    <definedName name="Pega" localSheetId="10">PEGA!$G$46</definedName>
     <definedName name="Pega">PEGA!$G$48</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="8">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="10">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="7">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="6">#REF!</definedName>
@@ -42,6 +45,7 @@
     <definedName name="RowTitleRegion2..G5" localSheetId="5">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="8">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="10">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="7">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="6">#REF!</definedName>
@@ -71,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="226">
   <si>
     <t>STT</t>
   </si>
@@ -673,6 +677,84 @@
   </si>
   <si>
     <t>Linh kiện hàn mạch NE5532 test</t>
+  </si>
+  <si>
+    <t>ăn trưa ngày 10/07</t>
+  </si>
+  <si>
+    <t>Tk Công ty</t>
+  </si>
+  <si>
+    <t>TK cá nhân VPB</t>
+  </si>
+  <si>
+    <t>TK cá nhân ACB</t>
+  </si>
+  <si>
+    <t>TK cá nhân TPB</t>
+  </si>
+  <si>
+    <t>Tiền dự án Pega</t>
+  </si>
+  <si>
+    <t>Ứng tiền du lịch</t>
+  </si>
+  <si>
+    <t>Ứng tiền a Khơ</t>
+  </si>
+  <si>
+    <t>Ứng tiền a Lực</t>
+  </si>
+  <si>
+    <t>Ck vẽ mạch anh Hưng</t>
+  </si>
+  <si>
+    <t>40PCs B1026</t>
+  </si>
+  <si>
+    <t>Nhận thêm 14tr tiền dự án</t>
+  </si>
+  <si>
+    <t>Cọc linh kiện digikey mạch màn hình 5in</t>
+  </si>
+  <si>
+    <t>Tiền màn hình 5 in x5</t>
+  </si>
+  <si>
+    <t>Tiền đặt mạch màn hình 5in</t>
+  </si>
+  <si>
+    <t>EC 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuyển nốt tiền linh kiện digikey </t>
+  </si>
+  <si>
+    <t>Ship linh kiện</t>
+  </si>
+  <si>
+    <t>Vận chuyển + thuế 40 BT1026</t>
+  </si>
+  <si>
+    <t>Cọc EC21</t>
+  </si>
+  <si>
+    <t>Anh Khơ rút Chuyển vào tk cá nhân TPBank Tuấn</t>
+  </si>
+  <si>
+    <t>Cọc đặt mạch zeus</t>
+  </si>
+  <si>
+    <t>Cọc đặt mạch hecquyn</t>
+  </si>
+  <si>
+    <t>Nhận tiền dự án từ tk cty</t>
+  </si>
+  <si>
+    <t>ứng tiền anh thịnh vẽ mạch</t>
+  </si>
+  <si>
+    <t>Tuấn ứng tiền dự án</t>
   </si>
 </sst>
 </file>
@@ -773,7 +855,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -819,6 +901,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +991,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1162,6 +1250,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1519,7 +1611,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-32238700</v>
+        <v>-32298700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1590,7 +1682,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-71778766.400000006</v>
+        <v>-71838766.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1726,12 +1818,334 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9372CB-71CC-4641-8BE0-54E7DBA302DF}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="81" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="81" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="81" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="50">
+        <v>79000000</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="32">
+        <v>-25000000</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="14">
+        <v>-5000000</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="14">
+        <v>-25000000</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29">
+        <v>-10000000</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="100">
+        <v>-8606000</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29">
+        <v>14000000</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="101">
+        <v>-2500000</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29">
+        <v>-5894900</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29">
+        <v>-2950000</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29">
+        <v>-733000</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29">
+        <v>-2547152</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29">
+        <v>-2272000</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29">
+        <v>-24000</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29">
+        <v>-2014000</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29">
+        <v>-210000</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29">
+        <v>-3000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29">
+        <v>-21000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29">
+        <v>19600000</v>
+      </c>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29">
+        <v>-5000000</v>
+      </c>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29">
+        <v>-14000000</v>
+      </c>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="30"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="30"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29">
+        <f>SUM(C4:C18)</f>
+        <v>-78751052</v>
+      </c>
+      <c r="D28" s="29">
+        <f>SUM(D22:D26)</f>
+        <v>600000</v>
+      </c>
+      <c r="E28" s="29">
+        <f>SUM(E19:E27)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8032BD6C-08F6-46C4-8E07-045BAFBCF7A7}">
   <dimension ref="C2:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3797,8 +4211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
   <dimension ref="C2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4730,7 +5144,7 @@
         <v>21000000</v>
       </c>
       <c r="G16" s="29">
-        <f t="shared" ref="G16:G23" si="0">F16*E16</f>
+        <f t="shared" ref="G16" si="0">F16*E16</f>
         <v>21000000</v>
       </c>
       <c r="H16" s="30" t="s">
@@ -6049,8 +6463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
   <dimension ref="C2:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6423,7 +6837,7 @@
         <v>120000</v>
       </c>
       <c r="G22" s="29">
-        <f t="shared" ref="G22:G52" si="1">E22*F22</f>
+        <f t="shared" ref="G22:G53" si="1">E22*F22</f>
         <v>120000</v>
       </c>
       <c r="H22" s="30" t="s">
@@ -7104,11 +7518,22 @@
     </row>
     <row r="53" spans="3:10" ht="15">
       <c r="C53" s="8"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="9"/>
+      <c r="D53" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="29">
+        <v>60000</v>
+      </c>
+      <c r="G53" s="29">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
@@ -7128,8 +7553,8 @@
       <c r="E55" s="38"/>
       <c r="F55" s="29"/>
       <c r="G55" s="55">
-        <f>SUM(G21:G52)</f>
-        <v>4608000</v>
+        <f>SUM(G21:G53)</f>
+        <v>4668000</v>
       </c>
       <c r="H55" s="56"/>
       <c r="I55" s="35"/>
@@ -7538,7 +7963,7 @@
       <c r="F80" s="48"/>
       <c r="G80" s="49">
         <f>G8-G19-G55-G62-G72-G78</f>
-        <v>-32238700</v>
+        <v>-32298700</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="20"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A63C4E-DD6A-4B7D-80B2-B5FC2A4343C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF51C5A-8721-43A1-B079-C48BA8B5A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$80</definedName>
+    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$83</definedName>
     <definedName name="Pega" localSheetId="10">PEGA!$G$46</definedName>
     <definedName name="Pega">PEGA!$G$48</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
@@ -58,7 +58,7 @@
     <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$80</definedName>
+    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$83</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
     <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$47</definedName>
     <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$42</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="234">
   <si>
     <t>STT</t>
   </si>
@@ -755,6 +755,30 @@
   </si>
   <si>
     <t>Tuấn ứng tiền dự án</t>
+  </si>
+  <si>
+    <t>Đã thanh lý 2tr2</t>
+  </si>
+  <si>
+    <t>Ăn trưa ngày 17/07</t>
+  </si>
+  <si>
+    <t>ăn trưa ngày 18/07</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 6/21</t>
+  </si>
+  <si>
+    <t>Gửi xe tháng 7</t>
+  </si>
+  <si>
+    <t>Cọc 50% sản xuất lần 2</t>
+  </si>
+  <si>
+    <t>Tuấn trả tiền ứng dự án(Cọc 50% mạch zeus lần 2)</t>
+  </si>
+  <si>
+    <t>Tuấn thanh lý Pi compute -&gt; ứng</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1067,12 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1184,9 +1202,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1205,12 +1220,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1235,25 +1244,58 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,12 +1623,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:11" ht="20.25">
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="8:11" ht="15.75">
       <c r="H3" s="6" t="s">
@@ -1611,7 +1653,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-32298700</v>
+        <v>-33448700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1622,7 +1664,7 @@
       </c>
       <c r="J5" s="11">
         <f>Pega</f>
-        <v>-25605086</v>
+        <v>-21305086</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -1682,7 +1724,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-71838766.400000006</v>
+        <v>-68688766.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1701,7 +1743,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1709,33 +1751,33 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="81" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="76" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="85" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="76">
         <v>14064000</v>
       </c>
     </row>
@@ -1743,7 +1785,7 @@
       <c r="C3" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="76">
         <v>8295653.599999994</v>
       </c>
     </row>
@@ -1751,7 +1793,7 @@
       <c r="C4" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="76">
         <v>22200000</v>
       </c>
     </row>
@@ -1759,7 +1801,7 @@
       <c r="C5" t="s">
         <v>182</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="76">
         <v>40346</v>
       </c>
     </row>
@@ -1767,12 +1809,12 @@
       <c r="C7" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="76">
         <v>25000000</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="D11" s="81">
+      <c r="D11" s="76">
         <f>SUM(D2:D9)</f>
         <v>69599999.599999994</v>
       </c>
@@ -1781,7 +1823,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="D12" s="81">
+      <c r="D12" s="76">
         <v>25000000</v>
       </c>
       <c r="E12" t="s">
@@ -1792,7 +1834,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="D13" s="81">
+      <c r="D13" s="76">
         <v>25000000</v>
       </c>
       <c r="E13" t="s">
@@ -1800,7 +1842,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="D14" s="81">
+      <c r="D14" s="76">
         <f>D11-D13</f>
         <v>44599999.599999994</v>
       </c>
@@ -1810,7 +1852,7 @@
       <c r="F14" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="81"/>
+      <c r="H14" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1823,63 +1865,63 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="81" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="81" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="81" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="76" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="76" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="76" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="89" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="89" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="99" t="s">
+      <c r="E1" s="89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="48">
         <v>79000000</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="30"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="32">
+      <c r="B4" s="27"/>
+      <c r="C4" s="30">
         <v>-25000000</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="21" t="s">
@@ -1902,236 +1944,245 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27">
         <v>-10000000</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="100">
+      <c r="B8" s="27"/>
+      <c r="C8" s="90">
         <v>-8606000</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27">
         <v>14000000</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="101">
+      <c r="B10" s="27"/>
+      <c r="C10" s="91">
         <v>-2500000</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27">
         <v>-5894900</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27">
         <v>-2950000</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27">
         <v>-733000</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27">
         <v>-2547152</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29">
+      <c r="A15" s="28"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27">
         <v>-2272000</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29">
+      <c r="B16" s="27"/>
+      <c r="C16" s="27">
         <v>-24000</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29">
+      <c r="B17" s="27"/>
+      <c r="C17" s="27">
         <v>-2014000</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27">
         <v>-210000</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>220</v>
       </c>
       <c r="B19"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27">
         <v>25000000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27">
         <v>-3000000</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29">
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27">
         <v>-21000000</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29">
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27">
         <v>19600000</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27">
         <v>-5000000</v>
       </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27">
         <v>-14000000</v>
       </c>
-      <c r="E24" s="29"/>
+      <c r="E24" s="27">
+        <v>14000000</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="30"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="E25" s="27">
+        <v>-6000000</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27">
+        <v>2200000</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="30"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="30"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29">
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27">
         <f>SUM(C4:C18)</f>
         <v>-78751052</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="27">
         <f>SUM(D22:D26)</f>
         <v>600000</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="27">
         <f>SUM(E19:E27)</f>
-        <v>1000000</v>
+        <v>11200000</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2196,7 @@
   <dimension ref="C2:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2154,25 +2205,25 @@
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="25" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="98" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -2184,13 +2235,13 @@
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="100" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -2202,13 +2253,13 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="26"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="101"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
@@ -2222,28 +2273,41 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="46">
         <v>79000000</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="46">
         <f>SUM(F5:F7)</f>
-        <v>79000000</v>
-      </c>
-      <c r="H5" s="11"/>
+        <v>81200000</v>
+      </c>
+      <c r="H5" s="92"/>
       <c r="I5" s="11"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="3:10">
+    <row r="6" spans="3:10" ht="15">
       <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="68">
+        <v>2200000</v>
+      </c>
+      <c r="G6" s="46">
+        <f>E6*F6</f>
+        <v>2200000</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="7" spans="3:10">
       <c r="C7" s="8">
@@ -2251,9 +2315,9 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="92"/>
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
     </row>
@@ -2261,12 +2325,12 @@
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="12">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47">
         <f>SUM(G5:G7)</f>
-        <v>79000000</v>
-      </c>
-      <c r="H8" s="12"/>
+        <v>83400000</v>
+      </c>
+      <c r="H8" s="93"/>
       <c r="I8" s="12"/>
       <c r="J8" s="13" t="s">
         <v>7</v>
@@ -2274,13 +2338,13 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="26"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="101"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
@@ -2294,37 +2358,39 @@
       <c r="E10" s="17">
         <v>1</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="68">
         <v>2372000</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="46">
         <f>E10*F10</f>
         <v>2372000</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="92" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="11" spans="3:10" ht="15">
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="17">
         <v>1</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <v>6536500</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="46">
         <f t="shared" ref="G11:G13" si="0">E11*F11</f>
         <v>6536500</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="92" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="11"/>
@@ -2340,14 +2406,14 @@
       <c r="E12" s="17">
         <v>1</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <v>890000</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="46">
         <f t="shared" si="0"/>
         <v>890000</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="92" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="11"/>
@@ -2357,20 +2423,20 @@
       <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="17">
         <v>1</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="27">
         <v>575000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="46">
         <f t="shared" si="0"/>
         <v>575000</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="92" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="11"/>
@@ -2380,20 +2446,20 @@
       <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="62">
-        <v>1</v>
-      </c>
-      <c r="F14" s="72">
+      <c r="E14" s="60">
+        <v>1</v>
+      </c>
+      <c r="F14" s="69">
         <v>2500000</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="46">
         <f>E14*F14</f>
         <v>2500000</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="92" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="11"/>
@@ -2403,20 +2469,20 @@
       <c r="C15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="E15" s="62">
-        <v>1</v>
-      </c>
-      <c r="F15" s="69">
+      <c r="E15" s="60">
+        <v>1</v>
+      </c>
+      <c r="F15" s="67">
         <v>2811534</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="46">
         <f>E15*F15</f>
         <v>2811534</v>
       </c>
-      <c r="H15" s="70" t="s">
+      <c r="H15" s="94" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="11"/>
@@ -2426,20 +2492,20 @@
       <c r="C16" s="8">
         <v>7</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="62">
-        <v>1</v>
-      </c>
-      <c r="F16" s="69">
+      <c r="E16" s="60">
+        <v>1</v>
+      </c>
+      <c r="F16" s="67">
         <v>2950000</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="46">
         <f>E16*F16</f>
         <v>2950000</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="94" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="11"/>
@@ -2449,20 +2515,20 @@
       <c r="C17" s="8">
         <v>8</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="62">
-        <v>1</v>
-      </c>
-      <c r="F17" s="69">
+      <c r="E17" s="60">
+        <v>1</v>
+      </c>
+      <c r="F17" s="67">
         <v>5894900</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="46">
         <f t="shared" ref="G17:G19" si="1">E17*F17</f>
         <v>5894900</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="94" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="11"/>
@@ -2472,20 +2538,20 @@
       <c r="C18" s="8">
         <v>9</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="62">
-        <v>1</v>
-      </c>
-      <c r="F18" s="69">
+      <c r="E18" s="60">
+        <v>1</v>
+      </c>
+      <c r="F18" s="67">
         <v>2500000</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="46">
         <f t="shared" si="1"/>
         <v>2500000</v>
       </c>
-      <c r="H18" s="70" t="s">
+      <c r="H18" s="94" t="s">
         <v>51</v>
       </c>
       <c r="I18" s="11"/>
@@ -2493,20 +2559,20 @@
     </row>
     <row r="19" spans="3:10" ht="15.75">
       <c r="C19" s="8"/>
-      <c r="D19" s="61" t="s">
+      <c r="D19" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="62">
-        <v>1</v>
-      </c>
-      <c r="F19" s="69">
+      <c r="E19" s="60">
+        <v>1</v>
+      </c>
+      <c r="F19" s="67">
         <v>733000</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="46">
         <f t="shared" si="1"/>
         <v>733000</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="H19" s="94" t="s">
         <v>51</v>
       </c>
       <c r="I19" s="11"/>
@@ -2516,20 +2582,20 @@
       <c r="C20" s="8">
         <v>9</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="D20" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="62">
-        <v>1</v>
-      </c>
-      <c r="F20" s="69">
+      <c r="E20" s="60">
+        <v>1</v>
+      </c>
+      <c r="F20" s="67">
         <v>2547152</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="46">
         <f t="shared" ref="G20:G24" si="2">E20*F20</f>
         <v>2547152</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="94" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="11"/>
@@ -2537,20 +2603,20 @@
     </row>
     <row r="21" spans="3:10" ht="15.75">
       <c r="C21" s="8"/>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="62">
-        <v>1</v>
-      </c>
-      <c r="F21" s="69">
+      <c r="E21" s="60">
+        <v>1</v>
+      </c>
+      <c r="F21" s="67">
         <v>100000</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="46">
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="94" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="11"/>
@@ -2558,20 +2624,20 @@
     </row>
     <row r="22" spans="3:10" ht="15.75">
       <c r="C22" s="8"/>
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="62">
-        <v>1</v>
-      </c>
-      <c r="F22" s="69">
+      <c r="E22" s="60">
+        <v>1</v>
+      </c>
+      <c r="F22" s="67">
         <v>110000</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="46">
         <f t="shared" si="2"/>
         <v>110000</v>
       </c>
-      <c r="H22" s="70" t="s">
+      <c r="H22" s="94" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="11"/>
@@ -2579,20 +2645,20 @@
     </row>
     <row r="23" spans="3:10" ht="15.75">
       <c r="C23" s="8"/>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="62">
-        <v>1</v>
-      </c>
-      <c r="F23" s="69">
+      <c r="E23" s="60">
+        <v>1</v>
+      </c>
+      <c r="F23" s="67">
         <v>160000</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="46">
         <f t="shared" si="2"/>
         <v>160000</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="94" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="11"/>
@@ -2600,20 +2666,20 @@
     </row>
     <row r="24" spans="3:10" ht="15.75">
       <c r="C24" s="8"/>
-      <c r="D24" s="61" t="s">
+      <c r="D24" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="62">
-        <v>1</v>
-      </c>
-      <c r="F24" s="69">
+      <c r="E24" s="60">
+        <v>1</v>
+      </c>
+      <c r="F24" s="67">
         <v>210000</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="46">
         <f t="shared" si="2"/>
         <v>210000</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="94" t="s">
         <v>51</v>
       </c>
       <c r="I24" s="11"/>
@@ -2621,20 +2687,20 @@
     </row>
     <row r="25" spans="3:10" ht="15.75">
       <c r="C25" s="8"/>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="62">
-        <v>1</v>
-      </c>
-      <c r="F25" s="69">
+      <c r="E25" s="60">
+        <v>1</v>
+      </c>
+      <c r="F25" s="67">
         <v>2685000</v>
       </c>
-      <c r="G25" s="11">
-        <f t="shared" ref="G25:G31" si="3">E25*F25</f>
+      <c r="G25" s="46">
+        <f t="shared" ref="G25:G32" si="3">E25*F25</f>
         <v>2685000</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="94" t="s">
         <v>9</v>
       </c>
       <c r="I25" s="11"/>
@@ -2642,104 +2708,104 @@
     </row>
     <row r="26" spans="3:10" ht="15.75">
       <c r="C26" s="8"/>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="62">
-        <v>1</v>
-      </c>
-      <c r="F26" s="69">
+      <c r="E26" s="60">
+        <v>1</v>
+      </c>
+      <c r="F26" s="67">
         <v>4298000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="46">
         <f t="shared" si="3"/>
         <v>4298000</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="94" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="3:10" ht="15.75">
-      <c r="C27" s="77"/>
-      <c r="D27" s="61" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="62">
-        <v>1</v>
-      </c>
-      <c r="F27" s="69">
+      <c r="E27" s="60">
+        <v>1</v>
+      </c>
+      <c r="F27" s="67">
         <v>220000</v>
       </c>
-      <c r="G27" s="78">
+      <c r="G27" s="99">
         <f t="shared" si="3"/>
         <v>220000</v>
       </c>
-      <c r="H27" s="79" t="s">
+      <c r="H27" s="95" t="s">
         <v>145</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="3:10" ht="15.75">
-      <c r="C28" s="77"/>
-      <c r="D28" s="61" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="E28" s="62">
-        <v>1</v>
-      </c>
-      <c r="F28" s="69">
+      <c r="E28" s="60">
+        <v>1</v>
+      </c>
+      <c r="F28" s="67">
         <v>52000</v>
       </c>
-      <c r="G28" s="78">
+      <c r="G28" s="99">
         <f t="shared" si="3"/>
         <v>52000</v>
       </c>
-      <c r="H28" s="79" t="s">
+      <c r="H28" s="95" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="3:10" ht="15.75">
-      <c r="C29" s="77"/>
-      <c r="D29" s="61" t="s">
+      <c r="C29" s="74"/>
+      <c r="D29" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="62">
-        <v>1</v>
-      </c>
-      <c r="F29" s="69">
+      <c r="E29" s="60">
+        <v>1</v>
+      </c>
+      <c r="F29" s="67">
         <v>1200000</v>
       </c>
-      <c r="G29" s="78">
+      <c r="G29" s="99">
         <f t="shared" si="3"/>
         <v>1200000</v>
       </c>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="95" t="s">
         <v>22</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="3:10" ht="15.75">
-      <c r="C30" s="77"/>
-      <c r="D30" s="61" t="s">
+      <c r="C30" s="74"/>
+      <c r="D30" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="62">
-        <v>1</v>
-      </c>
-      <c r="F30" s="69">
+      <c r="E30" s="60">
+        <v>1</v>
+      </c>
+      <c r="F30" s="67">
         <v>160000</v>
       </c>
-      <c r="G30" s="78">
+      <c r="G30" s="99">
         <f t="shared" si="3"/>
         <v>160000</v>
       </c>
-      <c r="H30" s="79" t="s">
+      <c r="H30" s="95" t="s">
         <v>9</v>
       </c>
       <c r="I30" s="11"/>
@@ -2755,29 +2821,40 @@
       <c r="F31" s="5">
         <v>100000</v>
       </c>
-      <c r="G31" s="78">
+      <c r="G31" s="99">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="98" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="3:10">
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>100000</v>
+      </c>
+      <c r="G32" s="99">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="H32" s="98" t="s">
+        <v>9</v>
+      </c>
       <c r="I32" s="11"/>
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="3:10">
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="5"/>
+      <c r="G33" s="99"/>
       <c r="I33" s="11"/>
       <c r="J33" s="9"/>
     </row>
@@ -2785,14 +2862,14 @@
       <c r="C34" s="8"/>
       <c r="D34" s="18"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="32">
-        <f>SUM(G10:G31)</f>
-        <v>39605086</v>
-      </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="33" t="s">
+      <c r="F34" s="70"/>
+      <c r="G34" s="49">
+        <f>SUM(G10:G32)</f>
+        <v>39705086</v>
+      </c>
+      <c r="H34" s="96"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2800,21 +2877,21 @@
       <c r="C35" s="8"/>
       <c r="D35" s="18"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="11"/>
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="3:10" ht="15">
       <c r="C36" s="8"/>
-      <c r="D36" s="94" t="s">
+      <c r="D36" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="26"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="101"/>
       <c r="I36" s="11"/>
       <c r="J36" s="9"/>
     </row>
@@ -2826,13 +2903,13 @@
         <v>25</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="32">
+      <c r="F37" s="46"/>
+      <c r="G37" s="49">
         <v>25000000</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="33" t="s">
+      <c r="H37" s="96"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2840,21 +2917,21 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="97"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
     </row>
     <row r="39" spans="3:10" ht="15">
       <c r="C39" s="8"/>
-      <c r="D39" s="94" t="s">
+      <c r="D39" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="27"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="102"/>
       <c r="I39" s="11"/>
       <c r="J39" s="8"/>
     </row>
@@ -2866,13 +2943,13 @@
         <v>11</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="14">
+      <c r="F40" s="46"/>
+      <c r="G40" s="48">
         <v>5000000</v>
       </c>
-      <c r="H40" s="14"/>
+      <c r="H40" s="97"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="34"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="3:10" ht="15">
       <c r="C41" s="8">
@@ -2882,9 +2959,9 @@
         <v>9</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="97"/>
       <c r="I41" s="14"/>
       <c r="J41" s="22"/>
     </row>
@@ -2896,11 +2973,11 @@
         <v>13</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="14">
+      <c r="F42" s="46"/>
+      <c r="G42" s="48">
         <v>25000000</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="97"/>
       <c r="I42" s="11"/>
       <c r="J42" s="22"/>
     </row>
@@ -2912,9 +2989,9 @@
         <v>10</v>
       </c>
       <c r="E43" s="10"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="97"/>
       <c r="I43" s="14"/>
       <c r="J43" s="22"/>
     </row>
@@ -2926,26 +3003,26 @@
         <v>24</v>
       </c>
       <c r="E44" s="10"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="14">
+      <c r="F44" s="46"/>
+      <c r="G44" s="48">
         <v>10000000</v>
       </c>
-      <c r="H44" s="14"/>
+      <c r="H44" s="97"/>
       <c r="I44" s="14"/>
       <c r="J44" s="22"/>
     </row>
     <row r="45" spans="3:10" ht="15">
       <c r="C45" s="8"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="32">
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="49">
         <f>SUM(G40:G44)</f>
         <v>40000000</v>
       </c>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33" t="s">
+      <c r="H45" s="96"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2953,23 +3030,22 @@
       <c r="C47" s="8"/>
       <c r="D47" s="21"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="78"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="8"/>
       <c r="D48" s="21"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="12">
+      <c r="F48" s="46"/>
+      <c r="G48" s="47">
         <f>G8-G34-G37-G45</f>
-        <v>-25605086</v>
-      </c>
-      <c r="H48" s="12"/>
+        <v>-21305086</v>
+      </c>
+      <c r="H48" s="93"/>
       <c r="I48" s="20"/>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3000,8 +3076,8 @@
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="50" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
@@ -3011,16 +3087,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -3032,10 +3108,10 @@
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -3050,13 +3126,13 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="54"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
@@ -3070,10 +3146,10 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="46">
         <v>14400000</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="46">
         <f>F5*E5</f>
         <v>14400000</v>
       </c>
@@ -3091,10 +3167,10 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="46">
         <v>5655653.599999994</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="46">
         <f>F6*E6</f>
         <v>5655653.599999994</v>
       </c>
@@ -3112,10 +3188,10 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="46">
         <v>3704346</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="46">
         <f>F7*E7</f>
         <v>3704346</v>
       </c>
@@ -3127,8 +3203,8 @@
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47">
         <f>SUM(G5:G7)</f>
         <v>23759999.599999994</v>
       </c>
@@ -3140,13 +3216,13 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="54"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
@@ -3154,20 +3230,20 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="38">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="E10" s="36">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
         <v>150000</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <f t="shared" ref="G10:G17" si="0">F10*E10</f>
         <v>150000</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="11"/>
@@ -3177,20 +3253,20 @@
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="38">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
+      <c r="E11" s="36">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27">
         <v>115000</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="11"/>
@@ -3200,20 +3276,20 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="38">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29">
+      <c r="E12" s="36">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27">
         <v>276000</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>276000</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="11"/>
@@ -3223,20 +3299,20 @@
       <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
         <v>400000</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="11"/>
@@ -3246,20 +3322,20 @@
       <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="38">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29">
+      <c r="E14" s="36">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
         <v>120000</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>120000</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="23"/>
@@ -3269,20 +3345,20 @@
       <c r="C15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
         <v>230000</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>230000</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="11"/>
@@ -3298,14 +3374,14 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="37">
         <v>500000</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="11"/>
@@ -3321,14 +3397,14 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="37">
         <v>110000</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="27">
         <f t="shared" si="0"/>
         <v>330000</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="11"/>
@@ -3344,13 +3420,13 @@
       <c r="E18" s="3">
         <v>10</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="37">
         <v>11500</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="27">
         <v>115000</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="11"/>
@@ -3366,13 +3442,13 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="37">
         <v>180000</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="27">
         <v>180000</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="11"/>
@@ -3388,13 +3464,13 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="37">
         <v>122000</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="27">
         <v>122000</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I20" s="11"/>
@@ -3410,13 +3486,13 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="37">
         <v>120000</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="27">
         <v>120000</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I21" s="11"/>
@@ -3432,13 +3508,13 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="37">
         <v>200000</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="27">
         <v>200000</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I22" s="11"/>
@@ -3448,20 +3524,20 @@
       <c r="C23" s="8">
         <v>15</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="38">
-        <v>1</v>
-      </c>
-      <c r="F23" s="29">
+      <c r="E23" s="36">
+        <v>1</v>
+      </c>
+      <c r="F23" s="27">
         <v>120000</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="27">
         <f>F23*E23</f>
         <v>120000</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="11"/>
@@ -3477,14 +3553,14 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="37">
         <v>2125000</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="27">
         <f>F24*E24</f>
         <v>2125000</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="11"/>
@@ -3500,13 +3576,13 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="37">
         <v>577000</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="27">
         <v>577000</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="11"/>
@@ -3514,58 +3590,58 @@
     </row>
     <row r="26" spans="3:13" ht="15">
       <c r="C26" s="8"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="3:13" ht="15">
       <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="3:13" ht="15">
       <c r="C28" s="8"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="3:13" ht="15">
       <c r="C29" s="8"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="55">
+      <c r="D29" s="28"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="53">
         <f>SUM(G10:G27)</f>
         <v>5680000</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="33" t="s">
+      <c r="H29" s="54"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="3:13" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="97" t="s">
+      <c r="D30" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="54"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="52"/>
       <c r="I30" s="11"/>
       <c r="J30" s="9"/>
     </row>
@@ -3573,28 +3649,28 @@
       <c r="C31" s="8">
         <v>1</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="36">
         <v>70</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="27">
         <v>9000</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="27">
         <f t="shared" ref="G31:G32" si="1">F31*E31</f>
         <v>630000</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
-      <c r="L31" s="82" t="s">
+      <c r="L31" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="M31" s="83">
+      <c r="M31" s="78">
         <f>SUM(G33:G37)+G44</f>
         <v>4145000</v>
       </c>
@@ -3603,28 +3679,28 @@
       <c r="C32" s="8">
         <v>2</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="36">
         <v>70</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="27">
         <v>10800</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="27">
         <f t="shared" si="1"/>
         <v>756000</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="9"/>
-      <c r="L32" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="M32" s="83">
+      <c r="L32" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M32" s="78">
         <f>G31+G32+G39+G40+G41</f>
         <v>1677000</v>
       </c>
@@ -3639,13 +3715,13 @@
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="37">
         <v>928000</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="27">
         <v>928000</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="11"/>
@@ -3661,13 +3737,13 @@
       <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="37">
         <v>222000</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="27">
         <v>222000</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="11"/>
@@ -3683,13 +3759,13 @@
       <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="37">
         <v>1750000</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="27">
         <v>1750000</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I35" s="11"/>
@@ -3705,60 +3781,60 @@
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="37">
         <v>155000</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="27">
         <v>155000</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I36" s="11"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="3:10" s="46" customFormat="1" ht="15">
+    <row r="37" spans="3:10" s="44" customFormat="1" ht="15">
       <c r="C37" s="8">
         <v>9</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="43">
-        <v>1</v>
-      </c>
-      <c r="F37" s="44">
+      <c r="E37" s="41">
+        <v>1</v>
+      </c>
+      <c r="F37" s="42">
         <v>830000</v>
       </c>
-      <c r="G37" s="44">
+      <c r="G37" s="42">
         <v>830000</v>
       </c>
-      <c r="H37" s="45" t="s">
+      <c r="H37" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="3:10" ht="15">
       <c r="C38" s="8">
         <v>10</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="29">
+      <c r="E38" s="36">
+        <v>1</v>
+      </c>
+      <c r="F38" s="27">
         <v>8606000</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="27">
         <v>8606000</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="28" t="s">
         <v>51</v>
       </c>
       <c r="J38" s="15"/>
@@ -3767,20 +3843,20 @@
       <c r="C39" s="8">
         <v>11</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="38">
-        <v>1</v>
-      </c>
-      <c r="F39" s="29">
+      <c r="E39" s="36">
+        <v>1</v>
+      </c>
+      <c r="F39" s="27">
         <v>50000</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="27">
         <f t="shared" ref="G39:G43" si="2">E39*F39</f>
         <v>50000</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I39" s="11"/>
@@ -3790,20 +3866,20 @@
       <c r="C40" s="8">
         <v>12</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="38">
-        <v>1</v>
-      </c>
-      <c r="F40" s="29">
+      <c r="E40" s="36">
+        <v>1</v>
+      </c>
+      <c r="F40" s="27">
         <v>201000</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="27">
         <f t="shared" si="2"/>
         <v>201000</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I40" s="11"/>
@@ -3813,20 +3889,20 @@
       <c r="C41" s="8">
         <v>13</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="38">
-        <v>1</v>
-      </c>
-      <c r="F41" s="29">
+      <c r="E41" s="36">
+        <v>1</v>
+      </c>
+      <c r="F41" s="27">
         <v>40000</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="27">
         <f t="shared" si="2"/>
         <v>40000</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="11"/>
@@ -3836,20 +3912,20 @@
       <c r="C42" s="8">
         <v>14</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="38">
-        <v>1</v>
-      </c>
-      <c r="F42" s="29">
+      <c r="E42" s="36">
+        <v>1</v>
+      </c>
+      <c r="F42" s="27">
         <v>2014000</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="27">
         <f t="shared" si="2"/>
         <v>2014000</v>
       </c>
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="28" t="s">
         <v>51</v>
       </c>
       <c r="I42" s="11"/>
@@ -3859,20 +3935,20 @@
       <c r="C43" s="8">
         <v>16</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="36">
         <v>72</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="27">
         <v>30500</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G43" s="27">
         <f t="shared" si="2"/>
         <v>2196000</v>
       </c>
-      <c r="H43" s="30"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="11"/>
       <c r="J43" s="9"/>
     </row>
@@ -3886,13 +3962,13 @@
       <c r="E44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="37">
         <v>260000</v>
       </c>
-      <c r="G44" s="29">
+      <c r="G44" s="27">
         <v>260000</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I44" s="11"/>
@@ -3902,9 +3978,9 @@
       <c r="C45" s="8"/>
       <c r="D45" s="1"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="11"/>
       <c r="J45" s="9"/>
     </row>
@@ -3912,61 +3988,61 @@
       <c r="C46" s="8"/>
       <c r="D46" s="1"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="28"/>
       <c r="I46" s="11"/>
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="3:10" ht="15">
       <c r="C47" s="8"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="28"/>
       <c r="I47" s="11"/>
-      <c r="J47" s="75"/>
+      <c r="J47" s="72"/>
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="8"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="55">
+      <c r="D48" s="28"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="53">
         <f>SUM(G31:G47)</f>
         <v>18638000</v>
       </c>
-      <c r="H48" s="56"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="33" t="s">
+      <c r="H48" s="54"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="15">
       <c r="C49" s="8"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="87">
+      <c r="D49" s="28"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="82">
         <f>G8-G48</f>
         <v>5121999.599999994</v>
       </c>
-      <c r="H49" s="88"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="31" t="s">
+      <c r="H49" s="83"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="29" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="3:10" ht="15">
       <c r="C50" s="8"/>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="57"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="55"/>
       <c r="I50" s="11"/>
       <c r="J50" s="8"/>
     </row>
@@ -3978,11 +4054,11 @@
         <v>11</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="50"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="48"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
-      <c r="J51" s="34"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="3:10" ht="15">
       <c r="C52" s="8">
@@ -3992,8 +4068,8 @@
         <v>9</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="50"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="48"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="22"/>
@@ -4006,8 +4082,8 @@
         <v>13</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="50"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="14"/>
       <c r="I53" s="11"/>
       <c r="J53" s="22"/>
@@ -4020,8 +4096,8 @@
         <v>10</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="50"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="48"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="22"/>
@@ -4030,24 +4106,24 @@
       <c r="C55" s="8"/>
       <c r="D55" s="21"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="50"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="48"/>
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="22"/>
     </row>
     <row r="56" spans="3:10" ht="15">
       <c r="C56" s="8"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="51">
+      <c r="D56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="49">
         <f>SUM(G51:G55)</f>
         <v>0</v>
       </c>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="33" t="s">
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4055,8 +4131,8 @@
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
       <c r="J57" s="8"/>
@@ -4065,8 +4141,8 @@
       <c r="C58" s="8"/>
       <c r="D58" s="21"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="58"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="56"/>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -4075,14 +4151,14 @@
       <c r="C59" s="8"/>
       <c r="D59" s="21"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="49">
+      <c r="F59" s="46"/>
+      <c r="G59" s="47">
         <f>G8-G29-G48</f>
         <v>-558000.40000000596</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="20"/>
-      <c r="J59" s="31" t="s">
+      <c r="J59" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4110,93 +4186,93 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="81" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="76" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="80" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="28">
         <v>95822275</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <f>B2*0.4</f>
         <v>38328910</v>
       </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="28">
         <v>73236626</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="27">
         <f>B3*0.4</f>
         <v>29294650.400000002</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>2640000</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>2640000</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29">
+      <c r="B5" s="28"/>
+      <c r="C5" s="27">
         <f>C7-SUM(C2:C4)</f>
         <v>5655653.599999994</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="28" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="84"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29">
+      <c r="B7" s="28"/>
+      <c r="C7" s="27">
         <v>75919214</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="D13" s="81">
+      <c r="D13" s="76">
         <f>SUM(C4:C5)</f>
         <v>8295653.599999994</v>
       </c>
@@ -4212,7 +4288,7 @@
   <dimension ref="C2:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4221,8 +4297,8 @@
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="50" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
@@ -4230,16 +4306,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -4251,10 +4327,10 @@
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -4269,13 +4345,13 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="80"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
@@ -4289,10 +4365,10 @@
       <c r="E5" s="10">
         <v>1</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="27">
         <v>38328910</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="46">
         <f>F5*E5</f>
         <v>38328910</v>
       </c>
@@ -4310,8 +4386,8 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46">
         <f>F6*E6</f>
         <v>0</v>
       </c>
@@ -4329,8 +4405,8 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46">
         <f>F7*E7</f>
         <v>0</v>
       </c>
@@ -4342,8 +4418,8 @@
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47">
         <f>SUM(G5:G7)</f>
         <v>38328910</v>
       </c>
@@ -4357,10 +4433,10 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49">
+      <c r="F9" s="46"/>
+      <c r="G9" s="47">
         <f>G8-G37</f>
-        <v>30528910</v>
+        <v>24528910</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4370,32 +4446,32 @@
     </row>
     <row r="10" spans="3:10" ht="15">
       <c r="C10" s="8"/>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="76"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="3:10" ht="15">
       <c r="C11" s="8"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="36">
         <v>3</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <v>116000</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <f>E11*F11</f>
         <v>348000</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="11"/>
@@ -4403,20 +4479,20 @@
     </row>
     <row r="12" spans="3:10" ht="15">
       <c r="C12" s="8"/>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="36">
         <v>2</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <v>20000</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <f>E12*F12</f>
         <v>40000</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="11"/>
@@ -4424,20 +4500,20 @@
     </row>
     <row r="13" spans="3:10" ht="15">
       <c r="C13" s="8"/>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="38">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="E13" s="36">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
         <v>80000</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <f t="shared" ref="G13:G15" si="0">E13*F13</f>
         <v>80000</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="11"/>
@@ -4445,20 +4521,20 @@
     </row>
     <row r="14" spans="3:10" ht="15">
       <c r="C14" s="8"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="36">
         <v>2</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="27">
         <v>40000</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>80000</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="11"/>
@@ -4466,20 +4542,20 @@
     </row>
     <row r="15" spans="3:10" ht="15">
       <c r="C15" s="8"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
         <v>110000</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="11"/>
@@ -4487,57 +4563,57 @@
     </row>
     <row r="16" spans="3:10" ht="15">
       <c r="C16" s="8"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="3:10" ht="15">
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="55">
+      <c r="D17" s="28"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="53">
         <f>SUM(G11:G15)</f>
         <v>658000</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="33" t="s">
+      <c r="H17" s="54"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="76"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="73"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="3:10" ht="15">
       <c r="C19" s="8"/>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="38">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29">
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+      <c r="F19" s="27">
         <v>4800000</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="27">
         <f>F19*E19</f>
         <v>4800000</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="11"/>
@@ -4545,20 +4621,20 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="38">
-        <v>1</v>
-      </c>
-      <c r="F20" s="29">
+      <c r="E20" s="36">
+        <v>1</v>
+      </c>
+      <c r="F20" s="27">
         <v>3000000</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="27">
         <f t="shared" ref="G20:G22" si="1">F20*E20</f>
         <v>3000000</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="28" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="11"/>
@@ -4566,14 +4642,22 @@
     </row>
     <row r="21" spans="3:10" ht="15">
       <c r="C21" s="8"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="29">
+      <c r="D21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="37">
+        <v>6000000</v>
+      </c>
+      <c r="G21" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="30"/>
+        <v>6000000</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
     </row>
@@ -4581,12 +4665,12 @@
       <c r="C22" s="8"/>
       <c r="D22" s="1"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="29">
+      <c r="F22" s="37"/>
+      <c r="G22" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="11"/>
       <c r="J22" s="9"/>
     </row>
@@ -4594,9 +4678,9 @@
       <c r="C23" s="8"/>
       <c r="D23" s="1"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
     </row>
@@ -4604,89 +4688,89 @@
       <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="11"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="3:10" s="46" customFormat="1" ht="15">
+    <row r="25" spans="3:10" s="44" customFormat="1" ht="15">
       <c r="C25" s="8"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="3:10" ht="15">
       <c r="C26" s="8"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="3:10" ht="15">
       <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="3:10" ht="15">
       <c r="C28" s="8"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="3:10" ht="15">
       <c r="C29" s="8"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="11"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="8"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="11"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="3:10" ht="15">
       <c r="C31" s="8"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="11"/>
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="3:10" ht="15">
       <c r="C32" s="8"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="28"/>
       <c r="I32" s="11"/>
       <c r="J32" s="9"/>
     </row>
@@ -4694,9 +4778,9 @@
       <c r="C33" s="8"/>
       <c r="D33" s="1"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="11"/>
       <c r="J33" s="9"/>
     </row>
@@ -4704,9 +4788,9 @@
       <c r="C34" s="8"/>
       <c r="D34" s="1"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="11"/>
       <c r="J34" s="9"/>
     </row>
@@ -4714,46 +4798,46 @@
       <c r="C35" s="8"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="11"/>
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="3:10" ht="15">
       <c r="C36" s="8"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="75"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="8"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="55">
+      <c r="D37" s="28"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="53">
         <f>SUM(G19:G36)</f>
-        <v>7800000</v>
-      </c>
-      <c r="H37" s="56"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="33" t="s">
+        <v>13800000</v>
+      </c>
+      <c r="H37" s="54"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="15">
       <c r="C38" s="8"/>
-      <c r="D38" s="97" t="s">
+      <c r="D38" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="57"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="55"/>
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
     </row>
@@ -4765,11 +4849,11 @@
         <v>11</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="50"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="34"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="3:10" ht="15">
       <c r="C40" s="8">
@@ -4779,8 +4863,8 @@
         <v>9</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="50"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="48"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="22"/>
@@ -4793,8 +4877,8 @@
         <v>13</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="50"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="14"/>
       <c r="I41" s="11"/>
       <c r="J41" s="22"/>
@@ -4807,8 +4891,8 @@
         <v>10</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="50"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="22"/>
@@ -4817,24 +4901,24 @@
       <c r="C43" s="8"/>
       <c r="D43" s="21"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="50"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="48"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="22"/>
     </row>
     <row r="44" spans="3:10" ht="15">
       <c r="C44" s="8"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="51">
+      <c r="D44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="49">
         <f>SUM(G39:G43)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33" t="s">
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4842,8 +4926,8 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
       <c r="J45" s="8"/>
@@ -4852,8 +4936,8 @@
       <c r="C46" s="8"/>
       <c r="D46" s="21"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="58"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -4862,14 +4946,14 @@
       <c r="C47" s="8"/>
       <c r="D47" s="21"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49">
+      <c r="F47" s="46"/>
+      <c r="G47" s="47">
         <f>G8-G17-G37</f>
-        <v>29870910</v>
+        <v>23870910</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="20"/>
-      <c r="J47" s="31" t="s">
+      <c r="J47" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4900,8 +4984,8 @@
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="50" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
@@ -4909,16 +4993,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -4930,10 +5014,10 @@
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -4948,25 +5032,25 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="74"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="3:10" ht="20.25">
       <c r="C5" s="7"/>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="80"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
@@ -4980,10 +5064,10 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="46">
         <v>29294650.400000002</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="46">
         <f>F6*E6</f>
         <v>29294650.400000002</v>
       </c>
@@ -5001,8 +5085,8 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46">
         <f>F7*E7</f>
         <v>0</v>
       </c>
@@ -5020,8 +5104,8 @@
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48">
+      <c r="F8" s="46"/>
+      <c r="G8" s="46">
         <f>F8*E8</f>
         <v>0</v>
       </c>
@@ -5033,8 +5117,8 @@
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49">
+      <c r="F9" s="46"/>
+      <c r="G9" s="47">
         <f>SUM(G6:G8)</f>
         <v>29294650.400000002</v>
       </c>
@@ -5046,66 +5130,66 @@
     </row>
     <row r="10" spans="3:10" ht="15">
       <c r="C10" s="8"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="11"/>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="3:10" ht="15">
       <c r="C11" s="8"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="3:10" ht="15">
       <c r="C12" s="8"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="55">
+      <c r="D12" s="28"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="53">
         <f>SUM(G10:G10)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33" t="s">
+      <c r="H12" s="54"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="15">
       <c r="C13" s="8"/>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="74"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="3:10" ht="15">
       <c r="C14" s="8"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="38">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29">
+      <c r="E14" s="36">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
         <v>9064000</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <f>F14*E14</f>
         <v>9064000</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="11"/>
@@ -5113,20 +5197,20 @@
     </row>
     <row r="15" spans="3:10" ht="15">
       <c r="C15" s="8"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="38">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
+      <c r="E15" s="36">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
         <v>200000</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <f>F15*E15</f>
         <v>200000</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I15" s="11"/>
@@ -5140,14 +5224,14 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="37">
         <v>21000000</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="27">
         <f t="shared" ref="G16" si="0">F16*E16</f>
         <v>21000000</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="28" t="s">
         <v>51</v>
       </c>
       <c r="I16" s="11"/>
@@ -5157,9 +5241,9 @@
       <c r="C17" s="8"/>
       <c r="D17" s="1"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
@@ -5167,9 +5251,9 @@
       <c r="C18" s="8"/>
       <c r="D18" s="1"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
@@ -5177,89 +5261,89 @@
       <c r="C19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="3:10" s="46" customFormat="1" ht="15">
+    <row r="20" spans="3:10" s="44" customFormat="1" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="3:10" ht="15">
       <c r="C21" s="8"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="15"/>
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="11"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="3:10" ht="15">
       <c r="C24" s="8"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="11"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" ht="15">
       <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="3:10" ht="15">
       <c r="C26" s="8"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="3:10" ht="15">
       <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
     </row>
@@ -5267,9 +5351,9 @@
       <c r="C28" s="8"/>
       <c r="D28" s="1"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
     </row>
@@ -5277,9 +5361,9 @@
       <c r="C29" s="8"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="11"/>
       <c r="J29" s="9"/>
     </row>
@@ -5287,46 +5371,46 @@
       <c r="C30" s="8"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="11"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="3:10" ht="15">
       <c r="C31" s="8"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="75"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" spans="3:10" ht="15">
       <c r="C32" s="8"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="55">
+      <c r="D32" s="28"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="53">
         <f>SUM(G14:G31)</f>
         <v>30264000</v>
       </c>
-      <c r="H32" s="56"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="33" t="s">
+      <c r="H32" s="54"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="15">
       <c r="C33" s="8"/>
-      <c r="D33" s="97" t="s">
+      <c r="D33" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="57"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="55"/>
       <c r="I33" s="11"/>
       <c r="J33" s="8"/>
     </row>
@@ -5338,11 +5422,11 @@
         <v>11</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="50"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="34"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="3:10" ht="15">
       <c r="C35" s="8">
@@ -5352,8 +5436,8 @@
         <v>9</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="50"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="48"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="22"/>
@@ -5366,8 +5450,8 @@
         <v>13</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="50"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="14"/>
       <c r="I36" s="11"/>
       <c r="J36" s="22"/>
@@ -5380,8 +5464,8 @@
         <v>10</v>
       </c>
       <c r="E37" s="10"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="50"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="48"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="22"/>
@@ -5390,24 +5474,24 @@
       <c r="C38" s="8"/>
       <c r="D38" s="21"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="50"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="22"/>
     </row>
     <row r="39" spans="3:10" ht="15">
       <c r="C39" s="8"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="51">
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="49">
         <f>SUM(G34:G38)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33" t="s">
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5415,8 +5499,8 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
       <c r="J40" s="8"/>
@@ -5425,8 +5509,8 @@
       <c r="C41" s="8"/>
       <c r="D41" s="21"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="58"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="56"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -5435,14 +5519,14 @@
       <c r="C42" s="8"/>
       <c r="D42" s="21"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49">
+      <c r="F42" s="46"/>
+      <c r="G42" s="47">
         <f>G8-G12-G32</f>
         <v>-30264000</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="20"/>
-      <c r="J42" s="31" t="s">
+      <c r="J42" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5473,8 +5557,8 @@
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="50" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
@@ -5482,16 +5566,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -5503,10 +5587,10 @@
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -5521,13 +5605,13 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="54"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
@@ -5537,8 +5621,8 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="8"/>
@@ -5549,8 +5633,8 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="9"/>
@@ -5561,8 +5645,8 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
@@ -5571,8 +5655,8 @@
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47">
         <f>SUM(G5:G7)</f>
         <v>0</v>
       </c>
@@ -5584,13 +5668,13 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="54"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
@@ -5598,19 +5682,19 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
         <v>230000</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <v>230000</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="11"/>
@@ -5620,19 +5704,19 @@
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27">
         <v>1360000</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <v>1360000</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="11"/>
@@ -5642,19 +5726,19 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>2</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <v>65000</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>130000</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="11"/>
@@ -5664,19 +5748,19 @@
       <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
         <v>450000</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <v>450000</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="11"/>
@@ -5686,19 +5770,19 @@
       <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="28">
         <v>2</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="27">
         <v>30000</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <v>60000</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="23"/>
@@ -5708,19 +5792,19 @@
       <c r="C15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
         <v>55000</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <v>55000</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="11"/>
@@ -5730,20 +5814,20 @@
       <c r="C16" s="8">
         <v>7</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="3">
         <v>10</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="37">
         <v>15000</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="27">
         <f>F16*E16</f>
         <v>150000</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="38" t="s">
         <v>22</v>
       </c>
       <c r="I16" s="11"/>
@@ -5751,20 +5835,20 @@
     </row>
     <row r="17" spans="3:10" ht="15">
       <c r="C17" s="8"/>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="E17" s="38">
-        <v>1</v>
-      </c>
-      <c r="F17" s="29">
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="27">
         <v>5000000</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="27">
         <f>F17*E17</f>
         <v>5000000</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="28" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="11"/>
@@ -5772,75 +5856,75 @@
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="3:10" ht="15">
       <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="55">
+      <c r="D19" s="28"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="53">
         <f>SUM(G10:G16)</f>
         <v>2435000</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33" t="s">
+      <c r="H19" s="54"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="54"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="3:10" ht="15">
       <c r="C21" s="8"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="55">
+      <c r="D22" s="28"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="53">
         <f>SUM(G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33" t="s">
+      <c r="H22" s="54"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="57"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
     </row>
@@ -5852,11 +5936,11 @@
         <v>11</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="50"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="34"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="3:10" ht="15">
       <c r="C25" s="8">
@@ -5866,8 +5950,8 @@
         <v>9</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="50"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="22"/>
@@ -5880,8 +5964,8 @@
         <v>13</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="50"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="14"/>
       <c r="I26" s="11"/>
       <c r="J26" s="22"/>
@@ -5894,8 +5978,8 @@
         <v>10</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="50"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="22"/>
@@ -5908,8 +5992,8 @@
         <v>65</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50">
+      <c r="F28" s="46"/>
+      <c r="G28" s="48">
         <v>3600000</v>
       </c>
       <c r="H28" s="14" t="s">
@@ -5920,16 +6004,16 @@
     </row>
     <row r="29" spans="3:10" ht="15">
       <c r="C29" s="8"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51">
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="49">
         <f>SUM(G24:G28)</f>
         <v>3600000</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33" t="s">
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5937,8 +6021,8 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="8"/>
@@ -5947,8 +6031,8 @@
       <c r="C31" s="8"/>
       <c r="D31" s="21"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="58"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -5957,14 +6041,14 @@
       <c r="C32" s="8"/>
       <c r="D32" s="21"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49">
+      <c r="F32" s="46"/>
+      <c r="G32" s="47">
         <f>G8-G19-G22-G29</f>
         <v>-6035000</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5985,7 +6069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F130950-C7C5-472A-9BC1-443D40499FE8}">
   <dimension ref="C2:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -5995,8 +6079,8 @@
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="50" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
@@ -6004,16 +6088,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -6025,10 +6109,10 @@
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -6043,13 +6127,13 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="54"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
@@ -6059,8 +6143,8 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="8"/>
@@ -6071,8 +6155,8 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="9"/>
@@ -6083,8 +6167,8 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
@@ -6093,8 +6177,8 @@
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47">
         <f>SUM(G5:G7)</f>
         <v>0</v>
       </c>
@@ -6106,13 +6190,13 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="54"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
@@ -6120,19 +6204,19 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
         <v>1050000</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <v>1050000</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="11"/>
@@ -6142,19 +6226,19 @@
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27">
         <v>190000</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="27">
         <v>190000</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="11"/>
@@ -6164,19 +6248,19 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29">
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27">
         <v>3121980</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <v>3121980</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="11"/>
@@ -6186,19 +6270,19 @@
       <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
         <v>1980000</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <v>1980000</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="11"/>
@@ -6214,13 +6298,13 @@
       <c r="E14" s="4">
         <v>1</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="37">
         <v>1000000</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="57">
         <v>1000000</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I14" s="23"/>
@@ -6228,105 +6312,105 @@
     </row>
     <row r="15" spans="3:10" ht="15">
       <c r="C15" s="8"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="3:10" ht="15">
       <c r="C16" s="8"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="45"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="3:10" ht="15">
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="3:10" ht="15">
       <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="55">
+      <c r="D19" s="28"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="53">
         <f>SUM(G10:G16)</f>
         <v>7341980</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33" t="s">
+      <c r="H19" s="54"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="54"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="52"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="3:10" ht="15">
       <c r="C21" s="8"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="55">
+      <c r="D22" s="28"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="53">
         <f>SUM(G21)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="33" t="s">
+      <c r="H22" s="54"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="57"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="55"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
     </row>
@@ -6338,11 +6422,11 @@
         <v>11</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="50"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="34"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="3:10" ht="15">
       <c r="C25" s="8">
@@ -6352,8 +6436,8 @@
         <v>9</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="50"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="48"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="22"/>
@@ -6366,8 +6450,8 @@
         <v>13</v>
       </c>
       <c r="E26" s="10"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="50"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="48"/>
       <c r="H26" s="14"/>
       <c r="I26" s="11"/>
       <c r="J26" s="22"/>
@@ -6380,8 +6464,8 @@
         <v>10</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="50"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="48"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="22"/>
@@ -6390,24 +6474,24 @@
       <c r="C28" s="8"/>
       <c r="D28" s="21"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="50"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="48"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="3:10" ht="15">
       <c r="C29" s="8"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="51">
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="49">
         <f>SUM(G24:G28)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33" t="s">
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6415,8 +6499,8 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="8"/>
@@ -6425,8 +6509,8 @@
       <c r="C31" s="8"/>
       <c r="D31" s="21"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="58"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -6435,14 +6519,14 @@
       <c r="C32" s="8"/>
       <c r="D32" s="21"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49">
+      <c r="F32" s="46"/>
+      <c r="G32" s="47">
         <f>G8-G19-G22-G29</f>
         <v>-7341980</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="31" t="s">
+      <c r="J32" s="29" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6461,10 +6545,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:J80"/>
+  <dimension ref="C2:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6473,8 +6557,8 @@
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="52" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="50" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="25" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
@@ -6482,16 +6566,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -6503,10 +6587,10 @@
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="45" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -6521,13 +6605,13 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="60"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
@@ -6537,8 +6621,8 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="8"/>
@@ -6549,8 +6633,8 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="9"/>
@@ -6561,8 +6645,8 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
@@ -6571,8 +6655,8 @@
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47">
         <f>SUM(G5:G7)</f>
         <v>0</v>
       </c>
@@ -6584,13 +6668,13 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="60"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="58"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
     </row>
@@ -6598,20 +6682,20 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="30">
-        <v>1</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="E10" s="28">
+        <v>1</v>
+      </c>
+      <c r="F10" s="27">
         <v>500000</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <f>E10*F10</f>
         <v>500000</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="11"/>
@@ -6621,20 +6705,20 @@
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="30">
-        <v>1</v>
-      </c>
-      <c r="F11" s="29">
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="27">
         <v>500000</v>
       </c>
-      <c r="G11" s="29">
-        <f t="shared" ref="G11:G16" si="0">E11*F11</f>
+      <c r="G11" s="27">
+        <f t="shared" ref="G11:G17" si="0">E11*F11</f>
         <v>500000</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="11"/>
@@ -6644,20 +6728,20 @@
       <c r="C12" s="8">
         <v>3</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="29">
+      <c r="E12" s="28">
+        <v>1</v>
+      </c>
+      <c r="F12" s="27">
         <v>500000</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="27">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="11"/>
@@ -6667,20 +6751,20 @@
       <c r="C13" s="8">
         <v>4</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="30">
-        <v>1</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+      <c r="F13" s="27">
         <v>500000</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="27">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="11"/>
@@ -6690,20 +6774,20 @@
       <c r="C14" s="8">
         <v>5</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="30">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29">
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27">
         <v>500000</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="27">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I14" s="23"/>
@@ -6713,20 +6797,20 @@
       <c r="C15" s="8">
         <v>6</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="30">
-        <v>1</v>
-      </c>
-      <c r="F15" s="29">
+      <c r="E15" s="28">
+        <v>1</v>
+      </c>
+      <c r="F15" s="27">
         <v>500000</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="27">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="11"/>
@@ -6734,20 +6818,20 @@
     </row>
     <row r="16" spans="3:10" ht="15">
       <c r="C16" s="8"/>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="28" t="s">
         <v>150</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="37">
         <v>1000000</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="27">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="43" t="s">
         <v>145</v>
       </c>
       <c r="I16" s="11"/>
@@ -6755,48 +6839,59 @@
     </row>
     <row r="17" spans="3:10" ht="15">
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
+      <c r="D17" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="36">
+        <v>1</v>
+      </c>
+      <c r="F17" s="27">
+        <v>1000000</v>
+      </c>
+      <c r="G17" s="27">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="3:10" ht="15">
       <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="55">
-        <f>SUM(G10:G16)</f>
-        <v>4000000</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="33" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="53">
+        <f>SUM(G10:G17)</f>
+        <v>5000000</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="97" t="s">
+      <c r="D20" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="60"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="58"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
     </row>
@@ -6804,20 +6899,20 @@
       <c r="C21" s="8">
         <v>1</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="26" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="27">
         <v>40000</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="27">
         <f>E21*F21</f>
         <v>40000</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I21" s="11"/>
@@ -6827,20 +6922,20 @@
       <c r="C22" s="8">
         <v>2</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="28" t="s">
         <v>86</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="27">
         <v>120000</v>
       </c>
-      <c r="G22" s="29">
-        <f t="shared" ref="G22:G53" si="1">E22*F22</f>
+      <c r="G22" s="27">
+        <f t="shared" ref="G22:G56" si="1">E22*F22</f>
         <v>120000</v>
       </c>
-      <c r="H22" s="30" t="s">
+      <c r="H22" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="11"/>
@@ -6850,20 +6945,20 @@
       <c r="C23" s="8">
         <v>3</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="28" t="s">
         <v>87</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="27">
         <v>120000</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="27">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I23" s="11"/>
@@ -6873,20 +6968,20 @@
       <c r="C24" s="8">
         <v>4</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="28" t="s">
         <v>88</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="27">
         <v>40000</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="27">
         <f t="shared" si="1"/>
         <v>40000</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H24" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="11"/>
@@ -6896,20 +6991,20 @@
       <c r="C25" s="8">
         <v>5</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="27">
         <v>120000</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="27">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I25" s="11"/>
@@ -6919,20 +7014,20 @@
       <c r="C26" s="8">
         <v>6</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="27">
         <v>120000</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="27">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="11"/>
@@ -6942,20 +7037,20 @@
       <c r="C27" s="8">
         <v>7</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="28" t="s">
         <v>90</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="27">
         <v>120000</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="27">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="11"/>
@@ -6965,20 +7060,20 @@
       <c r="C28" s="8">
         <v>8</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="28" t="s">
         <v>91</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="27">
         <v>80000</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="27">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I28" s="11"/>
@@ -6988,20 +7083,20 @@
       <c r="C29" s="8">
         <v>9</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="28" t="s">
         <v>92</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="27">
         <v>120000</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="27">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I29" s="11"/>
@@ -7011,20 +7106,20 @@
       <c r="C30" s="8">
         <v>10</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="28" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="27">
         <v>200000</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="27">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="H30" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I30" s="11"/>
@@ -7034,20 +7129,20 @@
       <c r="C31" s="8">
         <v>11</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>94</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="27">
         <v>80000</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="27">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="11"/>
@@ -7057,20 +7152,20 @@
       <c r="C32" s="8">
         <v>12</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>95</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="27">
         <v>120000</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="27">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H32" s="30" t="s">
+      <c r="H32" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I32" s="11"/>
@@ -7080,20 +7175,20 @@
       <c r="C33" s="8">
         <v>13</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="28" t="s">
         <v>96</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="27">
         <v>120000</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="27">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I33" s="11"/>
@@ -7103,20 +7198,20 @@
       <c r="C34" s="8">
         <v>14</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="27">
         <v>120000</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I34" s="11"/>
@@ -7126,20 +7221,20 @@
       <c r="C35" s="8">
         <v>15</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="28" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="27">
         <v>120000</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="H35" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I35" s="11"/>
@@ -7149,20 +7244,20 @@
       <c r="C36" s="8">
         <v>16</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="28" t="s">
         <v>99</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="27">
         <v>200000</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H36" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="11"/>
@@ -7172,20 +7267,20 @@
       <c r="C37" s="8">
         <v>17</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="28" t="s">
         <v>100</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="37">
         <v>360000</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="27">
         <f t="shared" si="1"/>
         <v>360000</v>
       </c>
-      <c r="H37" s="63" t="s">
+      <c r="H37" s="61" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="11"/>
@@ -7195,20 +7290,20 @@
       <c r="C38" s="8">
         <v>18</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="28" t="s">
         <v>101</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="37">
         <v>170000</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>170000</v>
       </c>
-      <c r="H38" s="63" t="s">
+      <c r="H38" s="61" t="s">
         <v>22</v>
       </c>
       <c r="I38" s="11"/>
@@ -7218,20 +7313,20 @@
       <c r="C39" s="8">
         <v>19</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="28" t="s">
         <v>102</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="27">
         <v>204000</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="27">
         <f t="shared" si="1"/>
         <v>204000</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I39" s="11"/>
@@ -7241,20 +7336,20 @@
       <c r="C40" s="8">
         <v>20</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="28" t="s">
         <v>103</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="29">
+      <c r="F40" s="27">
         <v>227000</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="27">
         <f t="shared" si="1"/>
         <v>227000</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I40" s="11"/>
@@ -7264,20 +7359,20 @@
       <c r="C41" s="8">
         <v>21</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="28" t="s">
         <v>104</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F41" s="27">
         <v>287000</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="27">
         <f t="shared" si="1"/>
         <v>287000</v>
       </c>
-      <c r="H41" s="30" t="s">
+      <c r="H41" s="28" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="8"/>
@@ -7287,16 +7382,16 @@
       <c r="C42" s="8">
         <v>22</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F42" s="27">
         <v>81000</v>
       </c>
-      <c r="G42" s="29">
+      <c r="G42" s="27">
         <f t="shared" si="1"/>
         <v>81000</v>
       </c>
@@ -7308,16 +7403,16 @@
     </row>
     <row r="43" spans="3:10" ht="15">
       <c r="C43" s="8"/>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="28" t="s">
         <v>130</v>
       </c>
       <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="27">
         <v>300000</v>
       </c>
-      <c r="G43" s="29">
+      <c r="G43" s="27">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
@@ -7329,16 +7424,16 @@
     </row>
     <row r="44" spans="3:10" ht="15">
       <c r="C44" s="8"/>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="28" t="s">
         <v>136</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="29">
+      <c r="F44" s="27">
         <v>147000</v>
       </c>
-      <c r="G44" s="29">
+      <c r="G44" s="27">
         <f t="shared" si="1"/>
         <v>147000</v>
       </c>
@@ -7350,16 +7445,16 @@
     </row>
     <row r="45" spans="3:10" ht="15">
       <c r="C45" s="8"/>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="28" t="s">
         <v>139</v>
       </c>
       <c r="E45" s="3">
         <v>1</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="27">
         <v>160000</v>
       </c>
-      <c r="G45" s="29">
+      <c r="G45" s="27">
         <f t="shared" si="1"/>
         <v>160000</v>
       </c>
@@ -7371,16 +7466,16 @@
     </row>
     <row r="46" spans="3:10" ht="15">
       <c r="C46" s="8"/>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="28" t="s">
         <v>148</v>
       </c>
       <c r="E46" s="3">
         <v>1</v>
       </c>
-      <c r="F46" s="29">
+      <c r="F46" s="27">
         <v>76000</v>
       </c>
-      <c r="G46" s="29">
+      <c r="G46" s="27">
         <f t="shared" si="1"/>
         <v>76000</v>
       </c>
@@ -7392,16 +7487,16 @@
     </row>
     <row r="47" spans="3:10" ht="15">
       <c r="C47" s="8"/>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="28" t="s">
         <v>149</v>
       </c>
       <c r="E47" s="3">
         <v>1</v>
       </c>
-      <c r="F47" s="29">
+      <c r="F47" s="27">
         <v>150000</v>
       </c>
-      <c r="G47" s="29">
+      <c r="G47" s="27">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
@@ -7413,16 +7508,16 @@
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="8"/>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="28" t="s">
         <v>151</v>
       </c>
       <c r="E48" s="3">
         <v>1</v>
       </c>
-      <c r="F48" s="29">
+      <c r="F48" s="27">
         <v>96000</v>
       </c>
-      <c r="G48" s="29">
+      <c r="G48" s="27">
         <f t="shared" si="1"/>
         <v>96000</v>
       </c>
@@ -7434,16 +7529,16 @@
     </row>
     <row r="49" spans="3:10" ht="15">
       <c r="C49" s="8"/>
-      <c r="D49" s="30" t="s">
+      <c r="D49" s="28" t="s">
         <v>183</v>
       </c>
       <c r="E49" s="3">
         <v>1</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="27">
         <v>250000</v>
       </c>
-      <c r="G49" s="29">
+      <c r="G49" s="27">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
@@ -7455,16 +7550,16 @@
     </row>
     <row r="50" spans="3:10" ht="15">
       <c r="C50" s="8"/>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="28" t="s">
         <v>184</v>
       </c>
       <c r="E50" s="3">
         <v>1</v>
       </c>
-      <c r="F50" s="29">
+      <c r="F50" s="27">
         <v>80000</v>
       </c>
-      <c r="G50" s="29">
+      <c r="G50" s="27">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
@@ -7476,16 +7571,16 @@
     </row>
     <row r="51" spans="3:10" ht="15">
       <c r="C51" s="8"/>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="28" t="s">
         <v>191</v>
       </c>
       <c r="E51" s="3">
         <v>1</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="27">
         <v>80000</v>
       </c>
-      <c r="G51" s="29">
+      <c r="G51" s="27">
         <f t="shared" si="1"/>
         <v>80000</v>
       </c>
@@ -7497,16 +7592,16 @@
     </row>
     <row r="52" spans="3:10" ht="15">
       <c r="C52" s="8"/>
-      <c r="D52" s="30" t="s">
+      <c r="D52" s="28" t="s">
         <v>192</v>
       </c>
       <c r="E52" s="3">
         <v>1</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="27">
         <v>100000</v>
       </c>
-      <c r="G52" s="29">
+      <c r="G52" s="27">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -7518,16 +7613,16 @@
     </row>
     <row r="53" spans="3:10" ht="15">
       <c r="C53" s="8"/>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="28" t="s">
         <v>200</v>
       </c>
       <c r="E53" s="3">
         <v>1</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="27">
         <v>60000</v>
       </c>
-      <c r="G53" s="29">
+      <c r="G53" s="27">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
@@ -7539,447 +7634,500 @@
     </row>
     <row r="54" spans="3:10" ht="15">
       <c r="C54" s="8"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="9"/>
+      <c r="D54" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="27">
+        <v>150000</v>
+      </c>
+      <c r="G54" s="27">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="3:10" ht="15">
       <c r="C55" s="8"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="55">
-        <f>SUM(G21:G53)</f>
-        <v>4668000</v>
-      </c>
-      <c r="H55" s="56"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="D55" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="27">
+        <v>120000</v>
+      </c>
+      <c r="G55" s="27">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
     </row>
     <row r="56" spans="3:10" ht="15">
       <c r="C56" s="8"/>
-      <c r="D56" s="97" t="s">
+      <c r="D56" s="28"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+    </row>
+    <row r="57" spans="3:10" ht="15">
+      <c r="C57" s="8"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+    </row>
+    <row r="58" spans="3:10" ht="15">
+      <c r="C58" s="8"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="53">
+        <f>SUM(G21:G54)</f>
+        <v>4818000</v>
+      </c>
+      <c r="H58" s="54"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" ht="15">
+      <c r="C59" s="8"/>
+      <c r="D59" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="8"/>
-    </row>
-    <row r="57" spans="3:10" ht="15">
-      <c r="C57" s="8">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="E59" s="107"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="8"/>
+    </row>
+    <row r="60" spans="3:10" ht="15">
+      <c r="C60" s="8">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="39">
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="37">
         <v>1800000</v>
       </c>
-      <c r="G57" s="59">
-        <f>F57*E57</f>
+      <c r="G60" s="57">
+        <f>F60*E60</f>
         <v>1800000</v>
       </c>
-      <c r="H57" s="30" t="s">
+      <c r="H60" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="34"/>
-    </row>
-    <row r="58" spans="3:10" ht="15">
-      <c r="C58" s="8">
+      <c r="I60" s="14"/>
+      <c r="J60" s="32"/>
+    </row>
+    <row r="61" spans="3:10" ht="15">
+      <c r="C61" s="8">
         <v>2</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="39">
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="37">
         <v>5000000</v>
       </c>
-      <c r="G58" s="59">
-        <f>F58*E58</f>
+      <c r="G61" s="57">
+        <f>F61*E61</f>
         <v>5000000</v>
       </c>
-      <c r="H58" s="30" t="s">
+      <c r="H61" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="22"/>
-    </row>
-    <row r="59" spans="3:10" ht="15">
-      <c r="C59" s="8">
-        <v>3</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="30">
-        <v>1</v>
-      </c>
-      <c r="F59" s="29">
-        <v>2590000</v>
-      </c>
-      <c r="G59" s="59">
-        <f>F59*E59</f>
-        <v>2590000</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="11"/>
-      <c r="J59" s="22"/>
-    </row>
-    <row r="60" spans="3:10" ht="15">
-      <c r="C60" s="8"/>
-      <c r="D60" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E60" s="10">
-        <v>1</v>
-      </c>
-      <c r="F60" s="48">
-        <v>410000</v>
-      </c>
-      <c r="G60" s="59">
-        <f>F60*E60</f>
-        <v>410000</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="22"/>
-    </row>
-    <row r="61" spans="3:10" ht="15">
-      <c r="C61" s="8"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="22"/>
     </row>
     <row r="62" spans="3:10" ht="15">
-      <c r="C62" s="8"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="51">
-        <f>SUM(G57:G60)</f>
-        <v>9800000</v>
-      </c>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10">
+      <c r="C62" s="8">
+        <v>3</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="28">
+        <v>1</v>
+      </c>
+      <c r="F62" s="27">
+        <v>2590000</v>
+      </c>
+      <c r="G62" s="57">
+        <f>F62*E62</f>
+        <v>2590000</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="22"/>
+    </row>
+    <row r="63" spans="3:10" ht="15">
       <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="8"/>
+      <c r="D63" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="10">
+        <v>1</v>
+      </c>
+      <c r="F63" s="46">
+        <v>410000</v>
+      </c>
+      <c r="G63" s="57">
+        <f>F63*E63</f>
+        <v>410000</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="14"/>
+      <c r="J63" s="22"/>
     </row>
     <row r="64" spans="3:10" ht="15">
       <c r="C64" s="8"/>
-      <c r="D64" s="97" t="s">
+      <c r="D64" s="21"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="22"/>
+    </row>
+    <row r="65" spans="3:10" ht="15">
+      <c r="C65" s="8"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="49">
+        <f>SUM(G60:G63)</f>
+        <v>9800000</v>
+      </c>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10">
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="8"/>
+    </row>
+    <row r="67" spans="3:10" ht="15">
+      <c r="C67" s="8"/>
+      <c r="D67" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="8"/>
-    </row>
-    <row r="65" spans="3:10" ht="15">
-      <c r="C65" s="8">
-        <v>1</v>
-      </c>
-      <c r="D65" s="30" t="s">
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="8"/>
+    </row>
+    <row r="68" spans="3:10" ht="15">
+      <c r="C68" s="8">
+        <v>1</v>
+      </c>
+      <c r="D68" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="29">
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="27">
         <v>2000000</v>
       </c>
-      <c r="G65" s="59">
-        <f>F65*E65</f>
+      <c r="G68" s="57">
+        <f>F68*E68</f>
         <v>2000000</v>
       </c>
-      <c r="H65" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="34"/>
-    </row>
-    <row r="66" spans="3:10" ht="15">
-      <c r="C66" s="8">
+      <c r="H68" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="14"/>
+      <c r="J68" s="32"/>
+    </row>
+    <row r="69" spans="3:10" ht="15">
+      <c r="C69" s="8">
         <v>2</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="39">
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="37">
         <v>250000</v>
       </c>
-      <c r="G66" s="59">
-        <f t="shared" ref="G66:G70" si="2">F66*E66</f>
+      <c r="G69" s="57">
+        <f t="shared" ref="G69:G73" si="2">F69*E69</f>
         <v>250000</v>
       </c>
-      <c r="H66" s="65" t="s">
+      <c r="H69" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="22"/>
-    </row>
-    <row r="67" spans="3:10" ht="15">
-      <c r="C67" s="8">
+      <c r="I69" s="14"/>
+      <c r="J69" s="22"/>
+    </row>
+    <row r="70" spans="3:10" ht="15">
+      <c r="C70" s="8">
         <v>3</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E67" s="30">
-        <v>1</v>
-      </c>
-      <c r="F67" s="39">
+      <c r="E70" s="28">
+        <v>1</v>
+      </c>
+      <c r="F70" s="37">
         <v>1000000</v>
       </c>
-      <c r="G67" s="59">
+      <c r="G70" s="57">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="H67" s="65" t="s">
+      <c r="H70" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="I67" s="11"/>
-      <c r="J67" s="22"/>
-    </row>
-    <row r="68" spans="3:10" ht="15">
-      <c r="C68" s="8"/>
-      <c r="D68" s="1" t="s">
+      <c r="I70" s="11"/>
+      <c r="J70" s="22"/>
+    </row>
+    <row r="71" spans="3:10" ht="15">
+      <c r="C71" s="8"/>
+      <c r="D71" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E68" s="30">
-        <v>1</v>
-      </c>
-      <c r="F68" s="39">
+      <c r="E71" s="28">
+        <v>1</v>
+      </c>
+      <c r="F71" s="37">
         <v>1880000</v>
       </c>
-      <c r="G68" s="59">
+      <c r="G71" s="57">
         <f t="shared" si="2"/>
         <v>1880000</v>
       </c>
-      <c r="H68" s="65" t="s">
+      <c r="H71" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="22"/>
-    </row>
-    <row r="69" spans="3:10" ht="15">
-      <c r="C69" s="8"/>
-      <c r="D69" s="1" t="s">
+      <c r="I71" s="14"/>
+      <c r="J71" s="22"/>
+    </row>
+    <row r="72" spans="3:10" ht="15">
+      <c r="C72" s="8"/>
+      <c r="D72" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E69" s="30">
-        <v>1</v>
-      </c>
-      <c r="F69" s="39">
+      <c r="E72" s="28">
+        <v>1</v>
+      </c>
+      <c r="F72" s="37">
         <v>1200000</v>
       </c>
-      <c r="G69" s="59">
+      <c r="G72" s="57">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="H69" s="65" t="s">
+      <c r="H72" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="I69" s="14"/>
-      <c r="J69" s="22"/>
-    </row>
-    <row r="70" spans="3:10" ht="15">
-      <c r="C70" s="8"/>
-      <c r="D70" s="1" t="s">
+      <c r="I72" s="14"/>
+      <c r="J72" s="22"/>
+    </row>
+    <row r="73" spans="3:10" ht="15">
+      <c r="C73" s="8"/>
+      <c r="D73" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E70" s="30">
-        <v>1</v>
-      </c>
-      <c r="F70" s="39">
+      <c r="E73" s="28">
+        <v>1</v>
+      </c>
+      <c r="F73" s="37">
         <v>326700</v>
       </c>
-      <c r="G70" s="59">
+      <c r="G73" s="57">
         <f t="shared" si="2"/>
         <v>326700</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H73" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="22"/>
-    </row>
-    <row r="71" spans="3:10" ht="15">
-      <c r="C71" s="8"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="22"/>
-    </row>
-    <row r="72" spans="3:10" ht="15">
-      <c r="C72" s="8"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="51">
-        <f>SUM(G65:G70)</f>
-        <v>6656700</v>
-      </c>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="3:10" ht="15">
-      <c r="C73" s="8"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="68"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="22"/>
     </row>
     <row r="74" spans="3:10" ht="15">
       <c r="C74" s="8"/>
-      <c r="D74" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="8"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="22"/>
     </row>
     <row r="75" spans="3:10" ht="15">
       <c r="C75" s="8"/>
-      <c r="D75" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="29">
-        <v>7174000</v>
-      </c>
-      <c r="G75" s="59">
-        <f>F75*E75</f>
-        <v>7174000</v>
-      </c>
-      <c r="H75" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="49">
+        <f>SUM(G68:G73)</f>
+        <v>6656700</v>
+      </c>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="31" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="76" spans="3:10" ht="15">
       <c r="C76" s="8"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="59"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="64"/>
       <c r="H76" s="65"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="22"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="66"/>
     </row>
     <row r="77" spans="3:10" ht="15">
       <c r="C77" s="8"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="22"/>
+      <c r="D77" s="107" t="s">
+        <v>117</v>
+      </c>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="8"/>
     </row>
     <row r="78" spans="3:10" ht="15">
       <c r="C78" s="8"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="51">
-        <f>SUM(G75:G76)</f>
+      <c r="D78" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="27">
         <v>7174000</v>
       </c>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="33" t="s">
-        <v>7</v>
-      </c>
+      <c r="G78" s="57">
+        <f>F78*E78</f>
+        <v>7174000</v>
+      </c>
+      <c r="H78" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" s="14"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="3:10" ht="15">
       <c r="C79" s="8"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="48"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="22"/>
     </row>
     <row r="80" spans="3:10" ht="15">
       <c r="C80" s="8"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="48"/>
-      <c r="G80" s="49">
-        <f>G8-G19-G55-G62-G72-G78</f>
-        <v>-32298700</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="31" t="s">
+      <c r="D80" s="1"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="22"/>
+    </row>
+    <row r="81" spans="3:10" ht="15">
+      <c r="C81" s="8"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="49">
+        <f>SUM(G78:G79)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" ht="15">
+      <c r="C82" s="8"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+    </row>
+    <row r="83" spans="3:10" ht="15">
+      <c r="C83" s="8"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="47">
+        <f>G8-G19-G58-G65-G75-G81</f>
+        <v>-33448700</v>
+      </c>
+      <c r="H83" s="12"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="29" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D77:G77"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D59:G59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF51C5A-8721-43A1-B079-C48BA8B5A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67195B82-5C7D-40B8-AC87-33ABF867161F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="238">
   <si>
     <t>STT</t>
   </si>
@@ -779,6 +779,18 @@
   </si>
   <si>
     <t>Tuấn thanh lý Pi compute -&gt; ứng</t>
+  </si>
+  <si>
+    <t>Tuấn ứng cho anh Khơ</t>
+  </si>
+  <si>
+    <t>Thuế nhập khẩu</t>
+  </si>
+  <si>
+    <t>Phí làm tờ khai hải quan</t>
+  </si>
+  <si>
+    <t>Làm luật HQ</t>
   </si>
 </sst>
 </file>
@@ -1862,10 +1874,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9372CB-71CC-4641-8BE0-54E7DBA302DF}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2162,27 +2174,52 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="28"/>
+    <row r="27" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A27" s="28" t="s">
+        <v>234</v>
+      </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="27">
+        <v>-2000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1">
       <c r="A28" s="28"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="27">
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A29" s="28"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A30" s="28"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27">
         <f>SUM(C4:C18)</f>
         <v>-78751052</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D31" s="27">
         <f>SUM(D22:D26)</f>
         <v>600000</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E31" s="27">
         <f>SUM(E19:E27)</f>
-        <v>11200000</v>
+        <v>9200000</v>
       </c>
     </row>
   </sheetData>
@@ -4287,8 +4324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
   <dimension ref="C2:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4436,7 +4473,7 @@
       <c r="F9" s="46"/>
       <c r="G9" s="47">
         <f>G8-G37</f>
-        <v>24528910</v>
+        <v>18988910</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4631,7 +4668,7 @@
         <v>3000000</v>
       </c>
       <c r="G20" s="27">
-        <f t="shared" ref="G20:G22" si="1">F20*E20</f>
+        <f t="shared" ref="G20:G29" si="1">F20*E20</f>
         <v>3000000</v>
       </c>
       <c r="H20" s="28" t="s">
@@ -4663,34 +4700,64 @@
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="37"/>
+      <c r="D22" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="37">
+        <v>3040000</v>
+      </c>
       <c r="G22" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="28"/>
+        <v>3040000</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
+      <c r="D23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="37">
+        <v>1500000</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="1"/>
+        <v>1500000</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="3:10" ht="15">
       <c r="C24" s="8"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
+      <c r="D24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="37">
+        <v>1000000</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="9"/>
     </row>
@@ -4699,7 +4766,10 @@
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
       <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="G25" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H25" s="43"/>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
@@ -4709,7 +4779,10 @@
       <c r="D26" s="26"/>
       <c r="E26" s="36"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="15"/>
@@ -4719,7 +4792,10 @@
       <c r="D27" s="28"/>
       <c r="E27" s="36"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H27" s="28"/>
       <c r="I27" s="11"/>
       <c r="J27" s="9"/>
@@ -4729,7 +4805,10 @@
       <c r="D28" s="28"/>
       <c r="E28" s="36"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H28" s="28"/>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
@@ -4739,7 +4818,10 @@
       <c r="D29" s="28"/>
       <c r="E29" s="36"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="H29" s="28"/>
       <c r="I29" s="11"/>
       <c r="J29" s="9"/>
@@ -4821,7 +4903,7 @@
       <c r="F37" s="27"/>
       <c r="G37" s="53">
         <f>SUM(G19:G36)</f>
-        <v>13800000</v>
+        <v>19340000</v>
       </c>
       <c r="H37" s="54"/>
       <c r="I37" s="33"/>
@@ -4949,7 +5031,7 @@
       <c r="F47" s="46"/>
       <c r="G47" s="47">
         <f>G8-G17-G37</f>
-        <v>23870910</v>
+        <v>18330910</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="20"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743C1503-271F-4296-BBD7-4FE2E312E91F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981AB656-104B-430E-86AD-B914CADE298B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="256">
   <si>
     <t>STT</t>
   </si>
@@ -838,6 +838,18 @@
   </si>
   <si>
     <t>Ăn trưa ngày 17/10</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 10</t>
+  </si>
+  <si>
+    <t>Ăn trưa 23,24,30,31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặt mạch test </t>
+  </si>
+  <si>
+    <t>Tiền phí lưu kho iMX + vận chuyển</t>
   </si>
 </sst>
 </file>
@@ -1829,7 +1841,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-38460700</v>
+        <v>-38960700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1900,7 +1912,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-74400266.400000006</v>
+        <v>-74900266.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -2397,7 +2409,7 @@
   <dimension ref="C2:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2570,11 +2582,22 @@
     </row>
     <row r="13" spans="3:10" ht="15">
       <c r="C13" s="8"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
+      <c r="D13" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>306000</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="0"/>
+        <v>306000</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
@@ -2584,7 +2607,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23">
-        <f t="shared" si="0"/>
+        <f>F14*E14</f>
         <v>0</v>
       </c>
       <c r="H14" s="24"/>
@@ -2621,7 +2644,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="49">
         <f>SUM(G11:G15)</f>
-        <v>1068000</v>
+        <v>1374000</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="29"/>
@@ -2956,7 +2979,7 @@
       <c r="F47" s="42"/>
       <c r="G47" s="43">
         <f>G8-G17-G37</f>
-        <v>-1068000</v>
+        <v>-1374000</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="16"/>
@@ -5127,8 +5150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
   <dimension ref="C2:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5587,7 +5610,7 @@
         <v>1253000</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="1"/>
+        <f>F25*E25</f>
         <v>1253000</v>
       </c>
       <c r="H25" s="39" t="s">
@@ -5910,7 +5933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
   <dimension ref="C2:K44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -6524,7 +6547,7 @@
   <dimension ref="C2:J32"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6832,11 +6855,22 @@
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="D18" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1</v>
+      </c>
+      <c r="F18" s="23">
+        <v>180000</v>
+      </c>
+      <c r="G18" s="23">
+        <f>F18*E18</f>
+        <v>180000</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
@@ -7046,7 +7080,7 @@
   <dimension ref="C2:J32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7523,8 +7557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
   <dimension ref="C2:J87"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7691,7 +7725,7 @@
         <v>500000</v>
       </c>
       <c r="G11" s="118">
-        <f t="shared" ref="G11:G18" si="0">E11*F11</f>
+        <f t="shared" ref="G11:G19" si="0">E11*F11</f>
         <v>500000</v>
       </c>
       <c r="H11" s="116" t="s">
@@ -7857,11 +7891,22 @@
     </row>
     <row r="19" spans="3:10" ht="15">
       <c r="C19" s="99"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="116"/>
+      <c r="D19" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="117">
+        <v>1</v>
+      </c>
+      <c r="F19" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G19" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H19" s="116" t="s">
+        <v>9</v>
+      </c>
       <c r="I19" s="103"/>
       <c r="J19" s="99"/>
     </row>
@@ -7882,7 +7927,7 @@
       <c r="F21" s="118"/>
       <c r="G21" s="122">
         <f>SUM(G10:G19)</f>
-        <v>8000000</v>
+        <v>8500000</v>
       </c>
       <c r="H21" s="123"/>
       <c r="I21" s="124"/>
@@ -7939,7 +7984,7 @@
         <v>120000</v>
       </c>
       <c r="G24" s="118">
-        <f t="shared" ref="G24:G58" si="1">E24*F24</f>
+        <f t="shared" ref="G24:G59" si="1">E24*F24</f>
         <v>120000</v>
       </c>
       <c r="H24" s="116" t="s">
@@ -8704,11 +8749,22 @@
     </row>
     <row r="59" spans="3:10" ht="15">
       <c r="C59" s="99"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="99"/>
+      <c r="D59" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="E59" s="119">
+        <v>1</v>
+      </c>
+      <c r="F59" s="118">
+        <v>270000</v>
+      </c>
+      <c r="G59" s="118">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+      <c r="H59" s="99" t="s">
+        <v>21</v>
+      </c>
       <c r="I59" s="99"/>
       <c r="J59" s="99"/>
     </row>
@@ -9176,7 +9232,7 @@
       <c r="F87" s="101"/>
       <c r="G87" s="43">
         <f>G8-G21-G60-G67-G79-G85</f>
-        <v>-38460700</v>
+        <v>-38960700</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981AB656-104B-430E-86AD-B914CADE298B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6943354F-121E-4685-AC3F-81E12C7DAF1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$87</definedName>
+    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$88</definedName>
     <definedName name="Pega" localSheetId="10">PEGA!$G$47</definedName>
     <definedName name="Pega">PEGA!$G$49</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
@@ -62,12 +62,12 @@
     <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$87</definedName>
+    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$88</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
-    <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$48</definedName>
-    <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$44</definedName>
+    <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$40</definedName>
+    <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$26</definedName>
     <definedName name="sport1_p1.5" localSheetId="11">SoM_Dev!$G$47</definedName>
-    <definedName name="sport1_p1.5">SPORT1_P1.5!$G$59</definedName>
+    <definedName name="sport1_p1.5">SPORT1_P1.5!$G$57</definedName>
     <definedName name="sport1_p2">SPORT1_P2!$G$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="270">
   <si>
     <t>STT</t>
   </si>
@@ -735,9 +735,6 @@
     <t>Cọc đặt mạch hecquyn</t>
   </si>
   <si>
-    <t>Nhận tiền dự án từ tk cty</t>
-  </si>
-  <si>
     <t>ứng tiền anh thịnh vẽ mạch</t>
   </si>
   <si>
@@ -850,6 +847,51 @@
   </si>
   <si>
     <t>Tiền phí lưu kho iMX + vận chuyển</t>
+  </si>
+  <si>
+    <t>A kho</t>
+  </si>
+  <si>
+    <t>Tổng Vitech</t>
+  </si>
+  <si>
+    <t>Tổng chi</t>
+  </si>
+  <si>
+    <t>Tổng thu</t>
+  </si>
+  <si>
+    <t>10% bảo hành</t>
+  </si>
+  <si>
+    <t>Đặt Cách ly 5-5 bảo hành</t>
+  </si>
+  <si>
+    <t>Tiền 270 hecquyn + 160 zeus</t>
+  </si>
+  <si>
+    <t>Chuyển vào tk cá nhân ACB</t>
+  </si>
+  <si>
+    <t>Chuyển từ tk cty sang tk cá nhân</t>
+  </si>
+  <si>
+    <t>Nhận tiền dự án 270 hecquyn+ 160zeus từ tk cty</t>
+  </si>
+  <si>
+    <t>A Khơ ứng trước</t>
+  </si>
+  <si>
+    <t>Ăn trưa 7/11</t>
+  </si>
+  <si>
+    <t>Tuấn ứng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Còn nợ </t>
+  </si>
+  <si>
+    <t>Ngày 7/11, tài khoản cá nhân ACB Tuấn</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1905,7 @@
       </c>
       <c r="J6" s="11">
         <f>sport1_p1.5</f>
-        <v>-558000.40000000596</v>
+        <v>345299.59999999404</v>
       </c>
       <c r="K6" s="9"/>
     </row>
@@ -1912,7 +1954,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-74900266.400000006</v>
+        <v>-73996966.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -1928,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E1739C-0CA9-4D70-99CB-9453E6E8DAF2}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2042,6 +2084,20 @@
       </c>
       <c r="H14" s="61"/>
     </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="61">
+        <v>90000000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
+        <v>262</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2053,7 +2109,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2094,9 +2150,13 @@
       <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="24"/>
+      <c r="A3" s="24" t="s">
+        <v>263</v>
+      </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="C3" s="44">
+        <v>79000000</v>
+      </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
     </row>
@@ -2296,7 +2356,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="24" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2307,7 +2367,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2318,7 +2378,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -2331,7 +2391,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -2341,7 +2401,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -2352,7 +2412,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
@@ -2386,8 +2446,8 @@
       <c r="A31" s="24"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23">
-        <f>SUM(C4:C18)</f>
-        <v>-78751052</v>
+        <f>SUM(C3:C18)</f>
+        <v>248948</v>
       </c>
       <c r="D31" s="23">
         <f>SUM(D22:D26)</f>
@@ -2541,7 +2601,7 @@
     <row r="11" spans="3:10" ht="15">
       <c r="C11" s="8"/>
       <c r="D11" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E11" s="32">
         <v>1</v>
@@ -2562,7 +2622,7 @@
     <row r="12" spans="3:10" ht="15">
       <c r="C12" s="8"/>
       <c r="D12" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E12" s="32">
         <v>1</v>
@@ -2583,7 +2643,7 @@
     <row r="13" spans="3:10" ht="15">
       <c r="C13" s="8"/>
       <c r="D13" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E13" s="32">
         <v>1</v>
@@ -3005,7 +3065,7 @@
   <dimension ref="C2:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3115,7 +3175,7 @@
       </c>
       <c r="I6" s="103"/>
       <c r="J6" s="99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="3:10">
@@ -3179,7 +3239,7 @@
       </c>
       <c r="I10" s="103"/>
       <c r="J10" s="99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="3:10">
@@ -3233,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E13" s="105">
         <v>1</v>
@@ -3256,7 +3316,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E14" s="159">
         <v>1</v>
@@ -3279,7 +3339,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="106" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E15" s="105">
         <v>1</v>
@@ -3302,7 +3362,7 @@
         <v>7</v>
       </c>
       <c r="D16" s="106" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E16" s="105">
         <v>1</v>
@@ -3325,7 +3385,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="106" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="105">
         <v>1</v>
@@ -3647,7 +3707,7 @@
         <v>23</v>
       </c>
       <c r="D31" s="99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E31" s="105">
         <v>1</v>
@@ -3670,7 +3730,7 @@
         <v>24</v>
       </c>
       <c r="D32" s="99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32" s="105">
         <v>1</v>
@@ -3693,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="D33" s="99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33" s="105">
         <v>1</v>
@@ -3927,10 +3987,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE7A19-D435-4A51-A018-E212475E8992}">
-  <dimension ref="C2:M59"/>
+  <dimension ref="C2:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4534,8 +4594,8 @@
         <v>152</v>
       </c>
       <c r="M31" s="146">
-        <f>SUM(G33:G37)+G44</f>
-        <v>4145000</v>
+        <f>SUM(G33:G35)+G42+SUM(G16:G22)+G24+G25</f>
+        <v>7264000</v>
       </c>
     </row>
     <row r="32" spans="3:13">
@@ -4564,25 +4624,25 @@
         <v>9</v>
       </c>
       <c r="M32" s="146">
-        <f>G31+G32+G39+G40+G41</f>
-        <v>1677000</v>
+        <f>G31+G32+G37+G38+G39+SUM(G10:G15)+G23</f>
+        <v>3088000</v>
       </c>
     </row>
     <row r="33" spans="3:10">
       <c r="C33" s="99">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" s="108" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" s="143">
         <v>1</v>
       </c>
       <c r="F33" s="129">
-        <v>928000</v>
+        <v>1750000</v>
       </c>
       <c r="G33" s="142">
-        <v>928000</v>
+        <v>1750000</v>
       </c>
       <c r="H33" s="140" t="s">
         <v>21</v>
@@ -4592,19 +4652,19 @@
     </row>
     <row r="34" spans="3:10">
       <c r="C34" s="99">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" s="108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" s="143">
         <v>1</v>
       </c>
       <c r="F34" s="129">
-        <v>222000</v>
+        <v>155000</v>
       </c>
       <c r="G34" s="142">
-        <v>222000</v>
+        <v>155000</v>
       </c>
       <c r="H34" s="140" t="s">
         <v>21</v>
@@ -4612,112 +4672,114 @@
       <c r="I34" s="103"/>
       <c r="J34" s="99"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" s="152" customFormat="1">
       <c r="C35" s="99">
-        <v>7</v>
-      </c>
-      <c r="D35" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="143">
-        <v>1</v>
-      </c>
-      <c r="F35" s="129">
-        <v>1750000</v>
-      </c>
-      <c r="G35" s="142">
-        <v>1750000</v>
-      </c>
-      <c r="H35" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="147" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="148">
+        <v>1</v>
+      </c>
+      <c r="F35" s="149">
+        <v>830000</v>
+      </c>
+      <c r="G35" s="149">
+        <v>830000</v>
+      </c>
+      <c r="H35" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="I35" s="103"/>
-      <c r="J35" s="99"/>
-    </row>
-    <row r="36" spans="3:10">
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
       <c r="C36" s="99">
-        <v>8</v>
-      </c>
-      <c r="D36" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="143">
-        <v>1</v>
-      </c>
-      <c r="F36" s="129">
-        <v>155000</v>
+        <v>10</v>
+      </c>
+      <c r="D36" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="141">
+        <v>1</v>
+      </c>
+      <c r="F36" s="142">
+        <v>8606000</v>
       </c>
       <c r="G36" s="142">
-        <v>155000</v>
+        <v>8606000</v>
       </c>
       <c r="H36" s="140" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="103"/>
-      <c r="J36" s="99"/>
-    </row>
-    <row r="37" spans="3:10" s="152" customFormat="1">
+        <v>50</v>
+      </c>
+      <c r="I36" s="140" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="3:10">
       <c r="C37" s="99">
-        <v>9</v>
-      </c>
-      <c r="D37" s="147" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="148">
-        <v>1</v>
-      </c>
-      <c r="F37" s="149">
-        <v>830000</v>
-      </c>
-      <c r="G37" s="149">
-        <v>830000</v>
-      </c>
-      <c r="H37" s="150" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-    </row>
-    <row r="38" spans="3:10" ht="15">
+        <v>11</v>
+      </c>
+      <c r="D37" s="140" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="141">
+        <v>1</v>
+      </c>
+      <c r="F37" s="142">
+        <v>50000</v>
+      </c>
+      <c r="G37" s="142">
+        <f t="shared" ref="G37:G41" si="2">E37*F37</f>
+        <v>50000</v>
+      </c>
+      <c r="H37" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="103"/>
+      <c r="J37" s="99"/>
+    </row>
+    <row r="38" spans="3:10">
       <c r="C38" s="99">
-        <v>10</v>
-      </c>
-      <c r="D38" s="106" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="D38" s="140" t="s">
+        <v>123</v>
       </c>
       <c r="E38" s="141">
         <v>1</v>
       </c>
       <c r="F38" s="142">
-        <v>8606000</v>
+        <v>201000</v>
       </c>
       <c r="G38" s="142">
-        <v>8606000</v>
+        <f t="shared" si="2"/>
+        <v>201000</v>
       </c>
       <c r="H38" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="J38" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="I38" s="103"/>
+      <c r="J38" s="99"/>
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D39" s="140" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E39" s="141">
         <v>1</v>
       </c>
       <c r="F39" s="142">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="142">
-        <f t="shared" ref="G39:G43" si="2">E39*F39</f>
-        <v>50000</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="H39" s="140" t="s">
         <v>9</v>
@@ -4727,208 +4789,201 @@
     </row>
     <row r="40" spans="3:10">
       <c r="C40" s="99">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" s="140" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E40" s="141">
         <v>1</v>
       </c>
       <c r="F40" s="142">
-        <v>201000</v>
+        <v>2014000</v>
       </c>
       <c r="G40" s="142">
         <f t="shared" si="2"/>
-        <v>201000</v>
+        <v>2014000</v>
       </c>
       <c r="H40" s="140" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="I40" s="103"/>
       <c r="J40" s="99"/>
     </row>
     <row r="41" spans="3:10">
       <c r="C41" s="99">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D41" s="140" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E41" s="141">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="F41" s="142">
-        <v>40000</v>
+        <v>30500</v>
       </c>
       <c r="G41" s="142">
         <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="H41" s="140" t="s">
-        <v>9</v>
-      </c>
+        <v>2196000</v>
+      </c>
+      <c r="H41" s="140"/>
       <c r="I41" s="103"/>
       <c r="J41" s="99"/>
     </row>
     <row r="42" spans="3:10">
       <c r="C42" s="99">
-        <v>14</v>
-      </c>
-      <c r="D42" s="140" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="141">
-        <v>1</v>
-      </c>
-      <c r="F42" s="142">
-        <v>2014000</v>
+        <v>17</v>
+      </c>
+      <c r="D42" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="143">
+        <v>1</v>
+      </c>
+      <c r="F42" s="129">
+        <v>260000</v>
       </c>
       <c r="G42" s="142">
-        <f t="shared" si="2"/>
-        <v>2014000</v>
+        <v>260000</v>
       </c>
       <c r="H42" s="140" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I42" s="103"/>
       <c r="J42" s="99"/>
     </row>
     <row r="43" spans="3:10">
-      <c r="C43" s="99">
-        <v>16</v>
-      </c>
-      <c r="D43" s="140" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43" s="141">
-        <v>72</v>
-      </c>
-      <c r="F43" s="142">
-        <v>30500</v>
+      <c r="C43" s="99"/>
+      <c r="D43" s="108" t="s">
+        <v>260</v>
+      </c>
+      <c r="E43" s="143">
+        <v>1</v>
+      </c>
+      <c r="F43" s="129">
+        <v>246700</v>
       </c>
       <c r="G43" s="142">
-        <f t="shared" si="2"/>
-        <v>2196000</v>
-      </c>
-      <c r="H43" s="140"/>
+        <f>F43*E43</f>
+        <v>246700</v>
+      </c>
+      <c r="H43" s="140" t="s">
+        <v>9</v>
+      </c>
       <c r="I43" s="103"/>
       <c r="J43" s="99"/>
     </row>
     <row r="44" spans="3:10">
-      <c r="C44" s="99">
-        <v>17</v>
-      </c>
-      <c r="D44" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="143">
-        <v>1</v>
-      </c>
-      <c r="F44" s="129">
-        <v>260000</v>
-      </c>
-      <c r="G44" s="142">
-        <v>260000</v>
-      </c>
-      <c r="H44" s="140" t="s">
-        <v>21</v>
-      </c>
+      <c r="C44" s="99"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="140"/>
       <c r="I44" s="103"/>
       <c r="J44" s="99"/>
     </row>
     <row r="45" spans="3:10">
       <c r="C45" s="99"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="143"/>
-      <c r="F45" s="129"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="141"/>
+      <c r="F45" s="142"/>
       <c r="G45" s="142"/>
       <c r="H45" s="140"/>
       <c r="I45" s="103"/>
-      <c r="J45" s="99"/>
-    </row>
-    <row r="46" spans="3:10">
+      <c r="J45" s="135"/>
+    </row>
+    <row r="46" spans="3:10" ht="15">
       <c r="C46" s="99"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="99"/>
-    </row>
-    <row r="47" spans="3:10">
+      <c r="D46" s="140"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="144">
+        <f>SUM(G31:G45)</f>
+        <v>17734700</v>
+      </c>
+      <c r="H46" s="145"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" ht="15">
       <c r="C47" s="99"/>
       <c r="D47" s="140"/>
       <c r="E47" s="141"/>
       <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="135"/>
+      <c r="G47" s="153">
+        <f>G8-G46</f>
+        <v>6025299.599999994</v>
+      </c>
+      <c r="H47" s="154"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="136" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="99"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="144">
-        <f>SUM(G31:G47)</f>
-        <v>18638000</v>
-      </c>
-      <c r="H48" s="145"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="D48" s="165" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="165"/>
+      <c r="F48" s="165"/>
+      <c r="G48" s="165"/>
+      <c r="H48" s="127"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="99"/>
     </row>
     <row r="49" spans="3:10" ht="15">
-      <c r="C49" s="99"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="141"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="153">
-        <f>G8-G48</f>
-        <v>5121999.599999994</v>
-      </c>
-      <c r="H49" s="154"/>
-      <c r="I49" s="155"/>
-      <c r="J49" s="136" t="s">
-        <v>160</v>
-      </c>
+      <c r="C49" s="99">
+        <v>1</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="98"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="130"/>
     </row>
     <row r="50" spans="3:10" ht="15">
-      <c r="C50" s="99"/>
-      <c r="D50" s="165" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="165"/>
-      <c r="F50" s="165"/>
-      <c r="G50" s="165"/>
-      <c r="H50" s="127"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="99"/>
+      <c r="C50" s="99">
+        <v>2</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="98"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="130"/>
     </row>
     <row r="51" spans="3:10" ht="15">
       <c r="C51" s="99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E51" s="98"/>
       <c r="F51" s="101"/>
       <c r="G51" s="44"/>
       <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+      <c r="I51" s="103"/>
       <c r="J51" s="130"/>
     </row>
     <row r="52" spans="3:10" ht="15">
       <c r="C52" s="99">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" s="98"/>
       <c r="F52" s="101"/>
@@ -4938,90 +4993,62 @@
       <c r="J52" s="130"/>
     </row>
     <row r="53" spans="3:10" ht="15">
-      <c r="C53" s="99">
-        <v>3</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="C53" s="99"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="98"/>
       <c r="F53" s="101"/>
       <c r="G53" s="44"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="103"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="130"/>
     </row>
     <row r="54" spans="3:10" ht="15">
-      <c r="C54" s="99">
-        <v>4</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="98"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="130"/>
-    </row>
-    <row r="55" spans="3:10" ht="15">
+      <c r="C54" s="99"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="45">
+        <f>SUM(G49:G53)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
       <c r="C55" s="99"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="99"/>
       <c r="E55" s="98"/>
       <c r="F55" s="101"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="130"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="99"/>
     </row>
     <row r="56" spans="3:10" ht="15">
       <c r="C56" s="99"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="45">
-        <f>SUM(G51:G55)</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10">
+      <c r="D56" s="15"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+    </row>
+    <row r="57" spans="3:10" ht="15">
       <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="98"/>
       <c r="F57" s="101"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="105"/>
-      <c r="I57" s="105"/>
-      <c r="J57" s="99"/>
-    </row>
-    <row r="58" spans="3:10" ht="15">
-      <c r="C58" s="99"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
-    </row>
-    <row r="59" spans="3:10" ht="15">
-      <c r="C59" s="99"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="101"/>
-      <c r="G59" s="43">
-        <f>G8-G29-G48</f>
-        <v>-558000.40000000596</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="136" t="s">
+      <c r="G57" s="43">
+        <f>G8-G29-G46</f>
+        <v>345299.59999999404</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="136" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5031,7 +5058,7 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D48:G48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5148,10 +5175,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
-  <dimension ref="C2:K48"/>
+  <dimension ref="C2:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5165,11 +5192,12 @@
     <col min="8" max="8" width="12.85546875" style="21" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="21" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="11" max="12" width="19.140625" style="5" customWidth="1"/>
+    <col min="13" max="16" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="20.25">
+    <row r="2" spans="3:12" ht="20.25">
       <c r="C2" s="163" t="s">
         <v>191</v>
       </c>
@@ -5181,7 +5209,7 @@
       <c r="I2" s="163"/>
       <c r="J2" s="163"/>
     </row>
-    <row r="3" spans="3:11" ht="15.75">
+    <row r="3" spans="3:12" ht="15.75">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -5207,7 +5235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="15.75" customHeight="1">
+    <row r="4" spans="3:12" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
       <c r="D4" s="166" t="s">
         <v>6</v>
@@ -5219,7 +5247,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="3:11" ht="15">
+    <row r="5" spans="3:12" ht="15">
       <c r="C5" s="8">
         <v>1</v>
       </c>
@@ -5244,7 +5272,7 @@
         <v>95822275</v>
       </c>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="3:12">
       <c r="C6" s="8">
         <v>2</v>
       </c>
@@ -5254,20 +5282,24 @@
       <c r="E6" s="10">
         <v>1</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="42">
+        <f>N20*0.5</f>
+        <v>47911120</v>
+      </c>
       <c r="G6" s="42">
         <f>F6*E6</f>
-        <v>0</v>
+        <v>47911120</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="9"/>
       <c r="K6" s="156">
-        <f>K5-G38-G17</f>
-        <v>32452337</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
+        <f>K5-G30-G17</f>
+        <v>36739931</v>
+      </c>
+      <c r="L6" s="156"/>
+    </row>
+    <row r="7" spans="3:12">
       <c r="C7" s="8">
         <v>3</v>
       </c>
@@ -5286,14 +5318,14 @@
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="3:11" ht="15">
+    <row r="8" spans="3:12" ht="15">
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="42"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
-        <v>38328910</v>
+        <v>86240030</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -5301,14 +5333,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="15">
+    <row r="9" spans="3:12" ht="15">
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="42"/>
       <c r="G9" s="43">
-        <f>G8-G38-G17</f>
-        <v>-25041028</v>
+        <f>G8-G30-G17</f>
+        <v>27157686</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -5316,7 +5348,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="15">
+    <row r="10" spans="3:12" ht="15">
       <c r="C10" s="8"/>
       <c r="D10" s="166" t="s">
         <v>28</v>
@@ -5328,7 +5360,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="3:11" ht="15">
+    <row r="11" spans="3:12" ht="15">
       <c r="C11" s="8"/>
       <c r="D11" s="24" t="s">
         <v>187</v>
@@ -5349,7 +5381,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="3:11" ht="15">
+    <row r="12" spans="3:12" ht="15">
       <c r="C12" s="8"/>
       <c r="D12" s="24" t="s">
         <v>188</v>
@@ -5370,7 +5402,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="3:11" ht="15">
+    <row r="13" spans="3:12" ht="15">
       <c r="C13" s="8"/>
       <c r="D13" s="24" t="s">
         <v>189</v>
@@ -5391,7 +5423,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="3:11" ht="15">
+    <row r="14" spans="3:12" ht="15">
       <c r="C14" s="8"/>
       <c r="D14" s="24" t="s">
         <v>190</v>
@@ -5412,7 +5444,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="3:11" ht="15">
+    <row r="15" spans="3:12" ht="15">
       <c r="C15" s="8"/>
       <c r="D15" s="24" t="s">
         <v>193</v>
@@ -5433,7 +5465,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="3:11" ht="15">
+    <row r="16" spans="3:12" ht="15">
       <c r="C16" s="8"/>
       <c r="D16" s="24"/>
       <c r="E16" s="32"/>
@@ -5443,7 +5475,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="3:10" ht="15">
+    <row r="17" spans="3:16" ht="15">
       <c r="C17" s="8"/>
       <c r="D17" s="24"/>
       <c r="E17" s="32"/>
@@ -5458,7 +5490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="15">
+    <row r="18" spans="3:16" ht="15">
       <c r="C18" s="8"/>
       <c r="D18" s="166" t="s">
         <v>29</v>
@@ -5470,7 +5502,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="3:10" ht="15">
+    <row r="19" spans="3:16" ht="15">
       <c r="C19" s="8"/>
       <c r="D19" s="24" t="s">
         <v>136</v>
@@ -5490,8 +5522,26 @@
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="3:10" ht="15">
+      <c r="K19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="15">
       <c r="C20" s="8"/>
       <c r="D20" s="24" t="s">
         <v>184</v>
@@ -5503,7 +5553,7 @@
         <v>3000000</v>
       </c>
       <c r="G20" s="23">
-        <f t="shared" ref="G20:G30" si="1">F20*E20</f>
+        <f t="shared" ref="G20:G27" si="1">F20*E20</f>
         <v>3000000</v>
       </c>
       <c r="H20" s="24" t="s">
@@ -5511,11 +5561,34 @@
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="3:10" ht="15">
+      <c r="K20" s="156">
+        <f>SUM(G11:G15)+(G19+SUM(G22:G24)+G27)</f>
+        <v>17879344</v>
+      </c>
+      <c r="L20" s="156">
+        <f>G25+G28+G29</f>
+        <v>2403000</v>
+      </c>
+      <c r="M20" s="156">
+        <f>G20+G21+G26</f>
+        <v>38800000</v>
+      </c>
+      <c r="N20" s="156">
+        <v>95822240</v>
+      </c>
+      <c r="O20" s="156">
+        <f>M20+L20+K20</f>
+        <v>59082344</v>
+      </c>
+      <c r="P20" s="156">
+        <f>N20-O20</f>
+        <v>36739896</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="15">
       <c r="C21" s="8"/>
       <c r="D21" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -5532,11 +5605,12 @@
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="3:10" ht="15">
+      <c r="N21" s="156"/>
+    </row>
+    <row r="22" spans="3:16" ht="28.5">
       <c r="C22" s="8"/>
       <c r="D22" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -5553,13 +5627,24 @@
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="15">
+        <v>240</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="N22" s="156">
+        <f>N20*0.1</f>
+        <v>9582224</v>
+      </c>
+      <c r="P22" s="156">
+        <f>P20-N22</f>
+        <v>27157672</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" ht="15">
       <c r="C23" s="8"/>
       <c r="D23" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -5577,10 +5662,10 @@
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="3:10" ht="15">
+    <row r="24" spans="3:16" ht="15">
       <c r="C24" s="8"/>
       <c r="D24" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
@@ -5597,11 +5682,12 @@
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="3:10" s="40" customFormat="1" ht="15">
+      <c r="P24" s="156"/>
+    </row>
+    <row r="25" spans="3:16" s="40" customFormat="1" ht="15">
       <c r="C25" s="8"/>
       <c r="D25" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="37">
         <v>1</v>
@@ -5618,13 +5704,13 @@
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="35" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" ht="15">
       <c r="C26" s="8"/>
       <c r="D26" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" s="32">
         <v>1</v>
@@ -5642,10 +5728,10 @@
       <c r="I26" s="24"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="3:10" ht="30">
+    <row r="27" spans="3:16" ht="30">
       <c r="C27" s="8"/>
       <c r="D27" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E27" s="32">
         <v>1</v>
@@ -5662,257 +5748,225 @@
       </c>
       <c r="I27" s="24"/>
       <c r="J27" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23">
-        <v>5437594</v>
-      </c>
-      <c r="H28" s="24"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16">
+      <c r="C28" s="99">
+        <v>5</v>
+      </c>
+      <c r="D28" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="143">
+        <v>1</v>
+      </c>
+      <c r="F28" s="129">
+        <v>928000</v>
+      </c>
+      <c r="G28" s="142">
+        <v>928000</v>
+      </c>
+      <c r="H28" s="140" t="s">
+        <v>21</v>
+      </c>
       <c r="I28" s="11"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="24"/>
+    <row r="29" spans="3:16">
+      <c r="C29" s="99">
+        <v>6</v>
+      </c>
+      <c r="D29" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="143">
+        <v>1</v>
+      </c>
+      <c r="F29" s="129">
+        <v>222000</v>
+      </c>
+      <c r="G29" s="142">
+        <v>222000</v>
+      </c>
+      <c r="H29" s="140" t="s">
+        <v>21</v>
+      </c>
       <c r="I29" s="11"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="3:10" ht="15">
+      <c r="J29" s="58"/>
+    </row>
+    <row r="30" spans="3:16" ht="15">
       <c r="C30" s="8"/>
       <c r="D30" s="24"/>
       <c r="E30" s="32"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
+      <c r="G30" s="49">
+        <f>SUM(G19:G29)</f>
+        <v>58424344</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" ht="15">
       <c r="C31" s="8"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
+      <c r="D31" s="166" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="51"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="9"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="3:16" ht="15">
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="42">
+        <f>(P22/10)*2.5</f>
+        <v>6789418</v>
+      </c>
+      <c r="G32" s="44">
+        <f>F32</f>
+        <v>6789418</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="9"/>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="42">
+        <f>(P22/10)*2.5</f>
+        <v>6789418</v>
+      </c>
+      <c r="G33" s="44">
+        <f t="shared" ref="G33:G35" si="2">F33</f>
+        <v>6789418</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="C34" s="8">
+        <v>3</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+      <c r="F34" s="42">
+        <f>(P22/10)*3</f>
+        <v>8147301.6000000006</v>
+      </c>
+      <c r="G34" s="44">
+        <f t="shared" si="2"/>
+        <v>8147301.6000000006</v>
+      </c>
+      <c r="H34" s="14"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="3:10" ht="15">
-      <c r="C35" s="8"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="9"/>
+      <c r="C35" s="8">
+        <v>4</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="42">
+        <f>(P22/10)*2</f>
+        <v>5431534.4000000004</v>
+      </c>
+      <c r="G35" s="44">
+        <f t="shared" si="2"/>
+        <v>5431534.4000000004</v>
+      </c>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="3:10" ht="15">
       <c r="C36" s="8"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="9"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="8"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="58"/>
-    </row>
-    <row r="38" spans="3:10" ht="15">
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="45">
+        <f>SUM(G32:G36)</f>
+        <v>27157672</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
       <c r="C38" s="8"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="49">
-        <f>SUM(G19:G37)</f>
-        <v>62711938</v>
-      </c>
-      <c r="H38" s="50"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" spans="3:10" ht="15">
       <c r="C39" s="8"/>
-      <c r="D39" s="166" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="11"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="3:10" ht="15">
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>11</v>
-      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="17"/>
       <c r="E40" s="10"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="28"/>
-    </row>
-    <row r="41" spans="3:10" ht="15">
-      <c r="C41" s="8">
-        <v>2</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="42" spans="3:10" ht="15">
-      <c r="C42" s="8">
-        <v>3</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="18"/>
-    </row>
-    <row r="43" spans="3:10" ht="15">
-      <c r="C43" s="8">
-        <v>4</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="3:10" ht="15">
-      <c r="C44" s="8"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="18"/>
-    </row>
-    <row r="45" spans="3:10" ht="15">
-      <c r="C45" s="8"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="45">
-        <f>SUM(G40:G44)</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="3:10" ht="15">
-      <c r="C47" s="8"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="3:10" ht="15">
-      <c r="C48" s="8"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43">
-        <f>G8-G17-G38</f>
-        <v>-25041028</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="25" t="s">
+      <c r="G40" s="43">
+        <f>G8-G17-G30</f>
+        <v>27157686</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5922,7 +5976,7 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5931,10 +5985,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
-  <dimension ref="C2:K44"/>
+  <dimension ref="C2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5948,11 +6002,14 @@
     <col min="8" max="8" width="12.85546875" style="21" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="21" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="11" max="12" width="14.7109375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="19" style="5" customWidth="1"/>
+    <col min="14" max="15" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="20.25">
+    <row r="2" spans="3:16" ht="20.25">
       <c r="C2" s="163" t="s">
         <v>27</v>
       </c>
@@ -5964,7 +6021,7 @@
       <c r="I2" s="163"/>
       <c r="J2" s="163"/>
     </row>
-    <row r="3" spans="3:11" ht="15.75">
+    <row r="3" spans="3:16" ht="15.75">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -5990,7 +6047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="15.75" customHeight="1">
+    <row r="4" spans="3:16" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
       <c r="D4" s="166" t="s">
         <v>6</v>
@@ -6002,7 +6059,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="3:11" ht="20.25">
+    <row r="5" spans="3:16" ht="20.25">
       <c r="C5" s="7"/>
       <c r="D5" s="166" t="s">
         <v>6</v>
@@ -6014,12 +6071,12 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="3:16">
       <c r="C6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -6039,7 +6096,7 @@
         <v>73236626</v>
       </c>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="3:16">
       <c r="C7" s="8">
         <v>2</v>
       </c>
@@ -6049,25 +6106,28 @@
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="42">
+        <f>O12*0.5</f>
+        <v>36618345</v>
+      </c>
       <c r="G7" s="42">
         <f>F7*E7</f>
-        <v>0</v>
+        <v>36618345</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
       <c r="K7" s="156">
-        <f>K6-G34</f>
+        <f>K6-G17</f>
         <v>16001226</v>
       </c>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:16">
       <c r="C8" s="8">
         <v>3</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -6081,451 +6141,373 @@
       <c r="I8" s="11"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="3:11" ht="15">
+    <row r="9" spans="3:16" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43">
-        <f>SUM(G6:G8)</f>
-        <v>29294650.399999999</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" ht="15">
+      <c r="D9" s="24"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="3:16" ht="15">
       <c r="C10" s="8"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="32"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="3:11" ht="15">
+      <c r="G10" s="43">
+        <f>SUM(G6:G8)</f>
+        <v>65912995.399999999</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" ht="15">
       <c r="C11" s="8"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="D11" s="166" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="57"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="3:11" ht="15">
+      <c r="K11" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" ht="15">
       <c r="C12" s="8"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="49">
-        <f>SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="15">
+      <c r="D12" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="23">
+        <v>9064000</v>
+      </c>
+      <c r="G12" s="23">
+        <f>F12*E12</f>
+        <v>9064000</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="156">
+        <f>G12+G13</f>
+        <v>9264000</v>
+      </c>
+      <c r="L12" s="156">
+        <f>G15</f>
+        <v>26971400</v>
+      </c>
+      <c r="M12" s="156">
+        <f>G14</f>
+        <v>21000000</v>
+      </c>
+      <c r="N12" s="156">
+        <f>SUM(K12:M12)</f>
+        <v>57235400</v>
+      </c>
+      <c r="O12" s="156">
+        <v>73236690</v>
+      </c>
+      <c r="P12" s="156">
+        <f>O12-N12</f>
+        <v>16001290</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" ht="15">
       <c r="C13" s="8"/>
-      <c r="D13" s="166" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="57"/>
+      <c r="D13" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>200000</v>
+      </c>
+      <c r="G13" s="23">
+        <f>F13*E13</f>
+        <v>200000</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="3:11" ht="15">
+      <c r="K13" s="156">
+        <f>G21+K12</f>
+        <v>12156540.333333334</v>
+      </c>
+      <c r="L13" s="156">
+        <f>G20+L12</f>
+        <v>29863940.333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="28.5">
       <c r="C14" s="8"/>
-      <c r="D14" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="32">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23">
-        <v>9064000</v>
+      <c r="D14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="33">
+        <v>21000000</v>
       </c>
       <c r="G14" s="23">
-        <f>F14*E14</f>
-        <v>9064000</v>
+        <f t="shared" ref="G14" si="0">F14*E14</f>
+        <v>21000000</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="3:11" ht="15">
+      <c r="K14" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="15">
       <c r="C15" s="8"/>
-      <c r="D15" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="32">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23">
-        <v>200000</v>
+      <c r="D15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="33">
+        <v>26971400</v>
       </c>
       <c r="G15" s="23">
-        <f>F15*E15</f>
-        <v>200000</v>
+        <f>E15*F15</f>
+        <v>26971400</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="3:11" ht="15">
+      <c r="K15" s="5">
+        <v>2000000</v>
+      </c>
+      <c r="L15" s="5">
+        <v>20000000</v>
+      </c>
+      <c r="M15" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="O15" s="156">
+        <f>O12*0.1</f>
+        <v>7323669</v>
+      </c>
+      <c r="P15" s="156">
+        <f>P12-O15</f>
+        <v>8677621</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="15">
       <c r="C16" s="8"/>
-      <c r="D16" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="33">
-        <v>21000000</v>
-      </c>
-      <c r="G16" s="23">
-        <f t="shared" ref="G16" si="0">F16*E16</f>
-        <v>21000000</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="11"/>
       <c r="J16" s="9"/>
+      <c r="K16" s="156">
+        <f>K13-K15</f>
+        <v>10156540.333333334</v>
+      </c>
+      <c r="L16" s="156">
+        <f>L13-L15</f>
+        <v>9863940.3333333321</v>
+      </c>
     </row>
     <row r="17" spans="3:10" ht="15">
       <c r="C17" s="8"/>
-      <c r="D17" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="33">
-        <v>26971400</v>
-      </c>
-      <c r="G17" s="23">
-        <f>E17*F17</f>
-        <v>26971400</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="9"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="49">
+        <f>SUM(G12:G16)</f>
+        <v>57235400</v>
+      </c>
+      <c r="H17" s="50"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
+      <c r="D18" s="166" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="51"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="3:10" ht="15">
-      <c r="C19" s="8"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="3:10" ht="15">
-      <c r="C20" s="8"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="3:10" ht="15">
-      <c r="C21" s="8"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="3:10" s="40" customFormat="1" ht="15">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="3:10" ht="45">
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="42">
+        <f>(P15/3)</f>
+        <v>2892540.3333333335</v>
+      </c>
+      <c r="G19" s="44">
+        <f>F19</f>
+        <v>2892540.3333333335</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="3:10" ht="45">
+      <c r="C20" s="8">
+        <v>2</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="42">
+        <f>P15/3</f>
+        <v>2892540.3333333335</v>
+      </c>
+      <c r="G20" s="44">
+        <f t="shared" ref="G20:G21" si="1">F20</f>
+        <v>2892540.3333333335</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="3:10" ht="45">
+      <c r="C21" s="8">
+        <v>4</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="42">
+        <f>P15/3</f>
+        <v>2892540.3333333335</v>
+      </c>
+      <c r="G21" s="44">
+        <f t="shared" si="1"/>
+        <v>2892540.3333333335</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="3:10" ht="15">
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="45">
+        <f>SUM(G19:G22)</f>
+        <v>8677621</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
       <c r="C24" s="8"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="3:10" ht="15">
       <c r="C25" s="8"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="9"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="3:10" ht="15">
       <c r="C26" s="8"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="8"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="3:10" ht="15">
-      <c r="C30" s="8"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="8"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="58"/>
-    </row>
-    <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="8"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="49">
-        <f>SUM(G14:G33)</f>
-        <v>57235400</v>
-      </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" ht="15">
-      <c r="C35" s="8"/>
-      <c r="D35" s="166" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="3:10" ht="15">
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="28"/>
-    </row>
-    <row r="37" spans="3:10" ht="15">
-      <c r="C37" s="8">
-        <v>2</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="3:10" ht="15">
-      <c r="C38" s="8">
-        <v>3</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="3:10" ht="15">
-      <c r="C39" s="8">
-        <v>4</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="18"/>
-    </row>
-    <row r="40" spans="3:10" ht="15">
-      <c r="C40" s="8"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="18"/>
-    </row>
-    <row r="41" spans="3:10" ht="15">
-      <c r="C41" s="8"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="45">
-        <f>SUM(G36:G40)</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="3:10" ht="15">
-      <c r="C43" s="8"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="3:10" ht="15">
-      <c r="C44" s="8"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="43">
-        <f>G8-G12-G34</f>
-        <v>-57235400</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="25" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43">
+        <f>G10-G17-G23</f>
+        <v>-25.600000001490116</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6533,8 +6515,8 @@
   <mergeCells count="5">
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D18:G18"/>
     <mergeCell ref="D5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6856,7 +6838,7 @@
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
       <c r="D18" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="32">
         <v>1</v>
@@ -7080,7 +7062,7 @@
   <dimension ref="C2:J32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7555,10 +7537,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:J87"/>
+  <dimension ref="C2:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7572,7 +7554,9 @@
     <col min="8" max="8" width="12.85546875" style="139" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" style="139" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" style="111" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="111"/>
+    <col min="11" max="11" width="9.140625" style="111"/>
+    <col min="12" max="13" width="11.5703125" style="111" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="111"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
@@ -7850,7 +7834,7 @@
     <row r="17" spans="3:10" ht="15">
       <c r="C17" s="99"/>
       <c r="D17" s="116" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="117">
         <v>1</v>
@@ -7871,7 +7855,7 @@
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="99"/>
       <c r="D18" s="116" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E18" s="117">
         <v>1</v>
@@ -7892,7 +7876,7 @@
     <row r="19" spans="3:10" ht="15">
       <c r="C19" s="99"/>
       <c r="D19" s="116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E19" s="117">
         <v>1</v>
@@ -7984,7 +7968,7 @@
         <v>120000</v>
       </c>
       <c r="G24" s="118">
-        <f t="shared" ref="G24:G59" si="1">E24*F24</f>
+        <f t="shared" ref="G24:G60" si="1">E24*F24</f>
         <v>120000</v>
       </c>
       <c r="H24" s="116" t="s">
@@ -8260,7 +8244,7 @@
         <v>120000</v>
       </c>
       <c r="G36" s="118">
-        <f t="shared" si="1"/>
+        <f>E36*F36</f>
         <v>120000</v>
       </c>
       <c r="H36" s="116" t="s">
@@ -8537,7 +8521,7 @@
       <c r="I48" s="99"/>
       <c r="J48" s="99"/>
     </row>
-    <row r="49" spans="3:10" ht="15">
+    <row r="49" spans="3:13" ht="15">
       <c r="C49" s="99"/>
       <c r="D49" s="116" t="s">
         <v>143</v>
@@ -8558,7 +8542,7 @@
       <c r="I49" s="99"/>
       <c r="J49" s="99"/>
     </row>
-    <row r="50" spans="3:10" ht="15">
+    <row r="50" spans="3:13" ht="15">
       <c r="C50" s="99"/>
       <c r="D50" s="116" t="s">
         <v>145</v>
@@ -8579,7 +8563,7 @@
       <c r="I50" s="99"/>
       <c r="J50" s="99"/>
     </row>
-    <row r="51" spans="3:10" ht="15">
+    <row r="51" spans="3:13" ht="15">
       <c r="C51" s="99"/>
       <c r="D51" s="116" t="s">
         <v>177</v>
@@ -8600,7 +8584,7 @@
       <c r="I51" s="99"/>
       <c r="J51" s="99"/>
     </row>
-    <row r="52" spans="3:10" ht="15">
+    <row r="52" spans="3:13" ht="15">
       <c r="C52" s="99"/>
       <c r="D52" s="116" t="s">
         <v>178</v>
@@ -8621,7 +8605,7 @@
       <c r="I52" s="99"/>
       <c r="J52" s="99"/>
     </row>
-    <row r="53" spans="3:10" ht="15">
+    <row r="53" spans="3:13" ht="15">
       <c r="C53" s="99"/>
       <c r="D53" s="116" t="s">
         <v>185</v>
@@ -8642,7 +8626,7 @@
       <c r="I53" s="99"/>
       <c r="J53" s="99"/>
     </row>
-    <row r="54" spans="3:10" ht="15">
+    <row r="54" spans="3:13" ht="15">
       <c r="C54" s="99"/>
       <c r="D54" s="116" t="s">
         <v>186</v>
@@ -8663,7 +8647,7 @@
       <c r="I54" s="99"/>
       <c r="J54" s="99"/>
     </row>
-    <row r="55" spans="3:10" ht="15">
+    <row r="55" spans="3:13" ht="15">
       <c r="C55" s="99"/>
       <c r="D55" s="116" t="s">
         <v>194</v>
@@ -8684,10 +8668,10 @@
       <c r="I55" s="99"/>
       <c r="J55" s="99"/>
     </row>
-    <row r="56" spans="3:10" ht="15">
+    <row r="56" spans="3:13" ht="15">
       <c r="C56" s="99"/>
       <c r="D56" s="116" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E56" s="119">
         <v>1</v>
@@ -8705,10 +8689,10 @@
       <c r="I56" s="99"/>
       <c r="J56" s="99"/>
     </row>
-    <row r="57" spans="3:10" ht="15">
+    <row r="57" spans="3:13" ht="15">
       <c r="C57" s="99"/>
       <c r="D57" s="116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57" s="119">
         <v>1</v>
@@ -8726,10 +8710,10 @@
       <c r="I57" s="99"/>
       <c r="J57" s="99"/>
     </row>
-    <row r="58" spans="3:10" ht="15">
+    <row r="58" spans="3:13" ht="15">
       <c r="C58" s="99"/>
       <c r="D58" s="116" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E58" s="119">
         <v>1</v>
@@ -8747,10 +8731,10 @@
       <c r="I58" s="99"/>
       <c r="J58" s="99"/>
     </row>
-    <row r="59" spans="3:10" ht="15">
+    <row r="59" spans="3:13" ht="15">
       <c r="C59" s="99"/>
       <c r="D59" s="116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E59" s="119">
         <v>1</v>
@@ -8767,73 +8751,85 @@
       </c>
       <c r="I59" s="99"/>
       <c r="J59" s="99"/>
-    </row>
-    <row r="60" spans="3:10" ht="15">
+      <c r="L59" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="M59" s="111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" ht="15">
       <c r="C60" s="99"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="118"/>
-      <c r="G60" s="122">
+      <c r="D60" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="119">
+        <v>1</v>
+      </c>
+      <c r="F60" s="118">
+        <v>77000</v>
+      </c>
+      <c r="G60" s="118">
+        <f t="shared" si="1"/>
+        <v>77000</v>
+      </c>
+      <c r="H60" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+    </row>
+    <row r="61" spans="3:13" ht="15">
+      <c r="C61" s="99"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="118"/>
+      <c r="G61" s="122">
         <f>SUM(G23:G56)</f>
         <v>4818000</v>
       </c>
-      <c r="H60" s="123"/>
-      <c r="I60" s="124"/>
-      <c r="J60" s="27" t="s">
+      <c r="H61" s="123"/>
+      <c r="I61" s="124"/>
+      <c r="J61" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="3:10" ht="15">
-      <c r="C61" s="99"/>
-      <c r="D61" s="165" t="s">
+      <c r="L61" s="146">
+        <f>G21+SUM(G23:G38)+SUM(G43:G58)+G65+G71</f>
+        <v>17167000</v>
+      </c>
+      <c r="M61" s="146">
+        <f>SUM(G39:G42)+G59+G66+G63+G64+SUM(G72:G78)+G83</f>
+        <v>22283700</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" ht="15">
+      <c r="C62" s="99"/>
+      <c r="D62" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="103"/>
-      <c r="J61" s="99"/>
-    </row>
-    <row r="62" spans="3:10" ht="15">
-      <c r="C62" s="99">
-        <v>1</v>
-      </c>
-      <c r="D62" s="128" t="s">
+      <c r="E62" s="165"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="99"/>
+    </row>
+    <row r="63" spans="3:13" ht="15">
+      <c r="C63" s="99">
+        <v>1</v>
+      </c>
+      <c r="D63" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="119">
-        <v>1</v>
-      </c>
-      <c r="F62" s="120">
+      <c r="E63" s="119">
+        <v>1</v>
+      </c>
+      <c r="F63" s="120">
         <v>1800000</v>
-      </c>
-      <c r="G62" s="129">
-        <f>F62*E62</f>
-        <v>1800000</v>
-      </c>
-      <c r="H62" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="130"/>
-    </row>
-    <row r="63" spans="3:10" ht="15">
-      <c r="C63" s="99">
-        <v>2</v>
-      </c>
-      <c r="D63" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="119">
-        <v>1</v>
-      </c>
-      <c r="F63" s="120">
-        <v>5000000</v>
       </c>
       <c r="G63" s="129">
         <f>F63*E63</f>
-        <v>5000000</v>
+        <v>1800000</v>
       </c>
       <c r="H63" s="116" t="s">
         <v>21</v>
@@ -8841,201 +8837,203 @@
       <c r="I63" s="14"/>
       <c r="J63" s="130"/>
     </row>
-    <row r="64" spans="3:10" ht="15">
+    <row r="64" spans="3:13" ht="15">
       <c r="C64" s="99">
-        <v>3</v>
-      </c>
-      <c r="D64" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="116">
-        <v>1</v>
-      </c>
-      <c r="F64" s="118">
-        <v>2590000</v>
+        <v>2</v>
+      </c>
+      <c r="D64" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="119">
+        <v>1</v>
+      </c>
+      <c r="F64" s="120">
+        <v>5000000</v>
       </c>
       <c r="G64" s="129">
         <f>F64*E64</f>
+        <v>5000000</v>
+      </c>
+      <c r="H64" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="14"/>
+      <c r="J64" s="130"/>
+    </row>
+    <row r="65" spans="3:10" ht="15">
+      <c r="C65" s="99">
+        <v>3</v>
+      </c>
+      <c r="D65" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="116">
+        <v>1</v>
+      </c>
+      <c r="F65" s="118">
         <v>2590000</v>
-      </c>
-      <c r="H64" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="103"/>
-      <c r="J64" s="130"/>
-    </row>
-    <row r="65" spans="3:10" ht="15">
-      <c r="C65" s="99"/>
-      <c r="D65" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="98">
-        <v>1</v>
-      </c>
-      <c r="F65" s="101">
-        <v>410000</v>
       </c>
       <c r="G65" s="129">
         <f>F65*E65</f>
-        <v>410000</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="14"/>
+        <v>2590000</v>
+      </c>
+      <c r="H65" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="103"/>
       <c r="J65" s="130"/>
     </row>
     <row r="66" spans="3:10" ht="15">
       <c r="C66" s="99"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="98"/>
-      <c r="F66" s="101"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="14"/>
+      <c r="D66" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" s="98">
+        <v>1</v>
+      </c>
+      <c r="F66" s="101">
+        <v>410000</v>
+      </c>
+      <c r="G66" s="129">
+        <f>F66*E66</f>
+        <v>410000</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I66" s="14"/>
       <c r="J66" s="130"/>
     </row>
     <row r="67" spans="3:10" ht="15">
       <c r="C67" s="99"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="132"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="45">
-        <f>SUM(G62:G65)</f>
+      <c r="D67" s="15"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="130"/>
+    </row>
+    <row r="68" spans="3:10" ht="15">
+      <c r="C68" s="99"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="45">
+        <f>SUM(G63:G66)</f>
         <v>9800000</v>
       </c>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="27" t="s">
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="3:10">
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="101"/>
-      <c r="G68" s="101"/>
-      <c r="H68" s="105"/>
-      <c r="I68" s="105"/>
-      <c r="J68" s="99"/>
-    </row>
-    <row r="69" spans="3:10" ht="15">
+    <row r="69" spans="3:10">
       <c r="C69" s="99"/>
-      <c r="D69" s="165" t="s">
+      <c r="D69" s="99"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="99"/>
+    </row>
+    <row r="70" spans="3:10" ht="15">
+      <c r="C70" s="99"/>
+      <c r="D70" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="E69" s="165"/>
-      <c r="F69" s="165"/>
-      <c r="G69" s="165"/>
-      <c r="H69" s="127"/>
-      <c r="I69" s="103"/>
-      <c r="J69" s="99"/>
-    </row>
-    <row r="70" spans="3:10" ht="15">
-      <c r="C70" s="99">
-        <v>1</v>
-      </c>
-      <c r="D70" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="E70" s="119">
-        <v>1</v>
-      </c>
-      <c r="F70" s="118">
-        <v>2000000</v>
-      </c>
-      <c r="G70" s="129">
-        <f>F70*E70</f>
-        <v>2000000</v>
-      </c>
-      <c r="H70" s="133" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="14"/>
-      <c r="J70" s="130"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="127"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="99"/>
     </row>
     <row r="71" spans="3:10" ht="15">
       <c r="C71" s="99">
-        <v>2</v>
-      </c>
-      <c r="D71" s="108" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="D71" s="116" t="s">
+        <v>109</v>
       </c>
       <c r="E71" s="119">
         <v>1</v>
       </c>
-      <c r="F71" s="120">
-        <v>250000</v>
+      <c r="F71" s="118">
+        <v>2000000</v>
       </c>
       <c r="G71" s="129">
-        <f t="shared" ref="G71:G77" si="2">F71*E71</f>
-        <v>250000</v>
-      </c>
-      <c r="H71" s="134" t="s">
-        <v>114</v>
+        <f>F71*E71</f>
+        <v>2000000</v>
+      </c>
+      <c r="H71" s="133" t="s">
+        <v>9</v>
       </c>
       <c r="I71" s="14"/>
       <c r="J71" s="130"/>
     </row>
     <row r="72" spans="3:10" ht="15">
       <c r="C72" s="99">
+        <v>2</v>
+      </c>
+      <c r="D72" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="119">
+        <v>1</v>
+      </c>
+      <c r="F72" s="120">
+        <v>250000</v>
+      </c>
+      <c r="G72" s="129">
+        <f t="shared" ref="G72:G78" si="2">F72*E72</f>
+        <v>250000</v>
+      </c>
+      <c r="H72" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I72" s="14"/>
+      <c r="J72" s="130"/>
+    </row>
+    <row r="73" spans="3:10" ht="15">
+      <c r="C73" s="99">
         <v>3</v>
       </c>
-      <c r="D72" s="128" t="s">
+      <c r="D73" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="E72" s="116">
-        <v>1</v>
-      </c>
-      <c r="F72" s="120">
+      <c r="E73" s="116">
+        <v>1</v>
+      </c>
+      <c r="F73" s="120">
         <v>1000000</v>
       </c>
-      <c r="G72" s="129">
+      <c r="G73" s="129">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-      <c r="H72" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I72" s="103"/>
-      <c r="J72" s="130"/>
-    </row>
-    <row r="73" spans="3:10" ht="15">
-      <c r="C73" s="99"/>
-      <c r="D73" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="E73" s="116">
-        <v>1</v>
-      </c>
-      <c r="F73" s="120">
-        <v>1880000</v>
-      </c>
-      <c r="G73" s="129">
-        <f t="shared" si="2"/>
-        <v>1880000</v>
-      </c>
       <c r="H73" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="14"/>
+      <c r="I73" s="103"/>
       <c r="J73" s="130"/>
     </row>
     <row r="74" spans="3:10" ht="15">
       <c r="C74" s="99"/>
       <c r="D74" s="128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E74" s="116">
         <v>1</v>
       </c>
       <c r="F74" s="120">
-        <v>1200000</v>
+        <v>1880000</v>
       </c>
       <c r="G74" s="129">
         <f t="shared" si="2"/>
-        <v>1200000</v>
+        <v>1880000</v>
       </c>
       <c r="H74" s="134" t="s">
         <v>114</v>
@@ -9046,209 +9044,230 @@
     <row r="75" spans="3:10" ht="15">
       <c r="C75" s="99"/>
       <c r="D75" s="128" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="E75" s="116">
         <v>1</v>
       </c>
       <c r="F75" s="120">
-        <v>326700</v>
+        <v>1200000</v>
       </c>
       <c r="G75" s="129">
         <f t="shared" si="2"/>
-        <v>326700</v>
-      </c>
-      <c r="H75" s="14" t="s">
+        <v>1200000</v>
+      </c>
+      <c r="H75" s="134" t="s">
         <v>114</v>
       </c>
       <c r="I75" s="14"/>
-      <c r="J75" s="130" t="s">
-        <v>240</v>
-      </c>
+      <c r="J75" s="130"/>
     </row>
     <row r="76" spans="3:10" ht="15">
       <c r="C76" s="99"/>
       <c r="D76" s="128" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="E76" s="116">
         <v>1</v>
       </c>
       <c r="F76" s="120">
-        <v>1452000</v>
+        <v>326700</v>
       </c>
       <c r="G76" s="129">
         <f t="shared" si="2"/>
-        <v>1452000</v>
+        <v>326700</v>
       </c>
       <c r="H76" s="14" t="s">
         <v>114</v>
       </c>
       <c r="I76" s="14"/>
       <c r="J76" s="130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="3:10" ht="15">
       <c r="C77" s="99"/>
       <c r="D77" s="128" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E77" s="116">
         <v>1</v>
       </c>
       <c r="F77" s="120">
-        <v>560000</v>
+        <v>1452000</v>
       </c>
       <c r="G77" s="129">
         <f t="shared" si="2"/>
-        <v>560000</v>
+        <v>1452000</v>
       </c>
       <c r="H77" s="14" t="s">
         <v>114</v>
       </c>
       <c r="I77" s="14"/>
       <c r="J77" s="130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="3:10" ht="15">
       <c r="C78" s="99"/>
-      <c r="D78" s="128"/>
-      <c r="E78" s="116"/>
-      <c r="F78" s="120"/>
-      <c r="G78" s="129"/>
-      <c r="H78" s="14"/>
+      <c r="D78" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="E78" s="116">
+        <v>1</v>
+      </c>
+      <c r="F78" s="120">
+        <v>560000</v>
+      </c>
+      <c r="G78" s="129">
+        <f t="shared" si="2"/>
+        <v>560000</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="I78" s="14"/>
-      <c r="J78" s="130"/>
+      <c r="J78" s="130" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="79" spans="3:10" ht="15">
       <c r="C79" s="99"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="132"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="45">
-        <f>SUM(G70:G77)</f>
-        <v>8668700</v>
-      </c>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="D79" s="128"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="120"/>
+      <c r="G79" s="129"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="130"/>
     </row>
     <row r="80" spans="3:10" ht="15">
       <c r="C80" s="99"/>
       <c r="D80" s="131"/>
       <c r="E80" s="132"/>
       <c r="F80" s="54"/>
-      <c r="G80" s="54"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="56"/>
+      <c r="G80" s="45">
+        <f>SUM(G71:G78)</f>
+        <v>8668700</v>
+      </c>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="81" spans="3:10" ht="15">
       <c r="C81" s="99"/>
-      <c r="D81" s="165" t="s">
-        <v>115</v>
-      </c>
-      <c r="E81" s="165"/>
-      <c r="F81" s="165"/>
-      <c r="G81" s="165"/>
-      <c r="H81" s="127"/>
-      <c r="I81" s="103"/>
-      <c r="J81" s="99"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="132"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="56"/>
     </row>
     <row r="82" spans="3:10" ht="15">
       <c r="C82" s="99"/>
-      <c r="D82" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E82" s="119">
-        <v>1</v>
-      </c>
-      <c r="F82" s="118">
-        <v>7174000</v>
-      </c>
-      <c r="G82" s="129">
-        <f>F82*E82</f>
-        <v>7174000</v>
-      </c>
-      <c r="H82" s="133" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="14"/>
-      <c r="J82" s="130"/>
+      <c r="D82" s="165" t="s">
+        <v>115</v>
+      </c>
+      <c r="E82" s="165"/>
+      <c r="F82" s="165"/>
+      <c r="G82" s="165"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="103"/>
+      <c r="J82" s="99"/>
     </row>
     <row r="83" spans="3:10" ht="15">
       <c r="C83" s="99"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="119"/>
-      <c r="F83" s="120"/>
-      <c r="G83" s="129"/>
-      <c r="H83" s="134"/>
+      <c r="D83" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E83" s="119">
+        <v>1</v>
+      </c>
+      <c r="F83" s="118">
+        <v>7174000</v>
+      </c>
+      <c r="G83" s="129">
+        <f>F83*E83</f>
+        <v>7174000</v>
+      </c>
+      <c r="H83" s="133" t="s">
+        <v>21</v>
+      </c>
       <c r="I83" s="14"/>
       <c r="J83" s="130"/>
     </row>
     <row r="84" spans="3:10" ht="15">
       <c r="C84" s="99"/>
-      <c r="D84" s="128"/>
-      <c r="E84" s="116"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="119"/>
       <c r="F84" s="120"/>
       <c r="G84" s="129"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="134"/>
       <c r="I84" s="14"/>
       <c r="J84" s="130"/>
     </row>
     <row r="85" spans="3:10" ht="15">
       <c r="C85" s="99"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="132"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="45">
-        <f>SUM(G82:G83)</f>
-        <v>7174000</v>
-      </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="D85" s="128"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="120"/>
+      <c r="G85" s="129"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="130"/>
     </row>
     <row r="86" spans="3:10" ht="15">
       <c r="C86" s="99"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="98"/>
-      <c r="F86" s="101"/>
-      <c r="G86" s="135"/>
-      <c r="H86" s="99"/>
-      <c r="I86" s="99"/>
-      <c r="J86" s="99"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="54"/>
+      <c r="G86" s="45">
+        <f>SUM(G83:G84)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="87" spans="3:10" ht="15">
       <c r="C87" s="99"/>
       <c r="D87" s="15"/>
       <c r="E87" s="98"/>
       <c r="F87" s="101"/>
-      <c r="G87" s="43">
-        <f>G8-G21-G60-G67-G79-G85</f>
+      <c r="G87" s="135"/>
+      <c r="H87" s="99"/>
+      <c r="I87" s="99"/>
+      <c r="J87" s="99"/>
+    </row>
+    <row r="88" spans="3:10" ht="15">
+      <c r="C88" s="99"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="43">
+        <f>G8-G21-G61-G68-G80-G86</f>
         <v>-38960700</v>
       </c>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="136" t="s">
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="136" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D82:G82"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6943354F-121E-4685-AC3F-81E12C7DAF1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785AF069-E286-4714-ADAC-065929D40969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$26</definedName>
     <definedName name="sport1_p1.5" localSheetId="11">SoM_Dev!$G$47</definedName>
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$57</definedName>
-    <definedName name="sport1_p2">SPORT1_P2!$G$32</definedName>
+    <definedName name="sport1_p2">SPORT1_P2!$G$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="273">
   <si>
     <t>STT</t>
   </si>
@@ -892,6 +892,15 @@
   </si>
   <si>
     <t>Ngày 7/11, tài khoản cá nhân ACB Tuấn</t>
+  </si>
+  <si>
+    <t>Gửi xe tháng 10</t>
+  </si>
+  <si>
+    <t>Đã ck ngày 9/11 từ tk ACB cá nhân</t>
+  </si>
+  <si>
+    <t>Nợ 3tr</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1510,6 +1519,9 @@
     </xf>
     <xf numFmtId="4" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1853,12 +1865,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:11" ht="20.25">
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
     </row>
     <row r="3" spans="8:11" ht="15.75">
       <c r="H3" s="6" t="s">
@@ -1894,7 +1906,7 @@
       </c>
       <c r="J5" s="11">
         <f>Pega</f>
-        <v>-22004586</v>
+        <v>-22104586</v>
       </c>
       <c r="K5" s="9"/>
     </row>
@@ -1916,7 +1928,7 @@
       </c>
       <c r="J7" s="11">
         <f>sport1_p2</f>
-        <v>-6035000</v>
+        <v>-11215000</v>
       </c>
       <c r="K7" s="9"/>
     </row>
@@ -1954,7 +1966,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-73996966.400000006</v>
+        <v>-79276966.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -2487,16 +2499,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -2526,12 +2538,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="77"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2588,12 +2600,12 @@
     </row>
     <row r="10" spans="3:10" ht="15">
       <c r="C10" s="8"/>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
       <c r="H10" s="77"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
@@ -2714,12 +2726,12 @@
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="166" t="s">
+      <c r="D18" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
       <c r="H18" s="77"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
@@ -2921,12 +2933,12 @@
     </row>
     <row r="38" spans="3:10" ht="15">
       <c r="C38" s="8"/>
-      <c r="D38" s="166" t="s">
+      <c r="D38" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
       <c r="H38" s="51"/>
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
@@ -3065,7 +3077,7 @@
   <dimension ref="C2:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3083,16 +3095,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="15">
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="3:10" ht="15">
       <c r="C3" s="94" t="s">
@@ -3122,12 +3134,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="94"/>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="97"/>
       <c r="I4" s="94"/>
       <c r="J4" s="94"/>
@@ -3207,12 +3219,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="98"/>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="97"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -3555,7 +3567,7 @@
         <v>2685000</v>
       </c>
       <c r="G24" s="101">
-        <f t="shared" ref="G24:G33" si="3">E24*F24</f>
+        <f t="shared" ref="G24:G34" si="3">E24*F24</f>
         <v>2685000</v>
       </c>
       <c r="H24" s="102" t="s">
@@ -3772,12 +3784,25 @@
       <c r="J33" s="99"/>
     </row>
     <row r="34" spans="3:10">
-      <c r="C34" s="78"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="89"/>
+      <c r="C34" s="78">
+        <v>26</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E34" s="93">
+        <v>1</v>
+      </c>
+      <c r="F34" s="92">
+        <v>100000</v>
+      </c>
+      <c r="G34" s="79">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="H34" s="89" t="s">
+        <v>9</v>
+      </c>
       <c r="I34" s="80"/>
       <c r="J34" s="9"/>
     </row>
@@ -3787,8 +3812,8 @@
       <c r="E35" s="93"/>
       <c r="F35" s="91"/>
       <c r="G35" s="45">
-        <f>SUM(G10:G33)</f>
-        <v>40404586</v>
+        <f>SUM(G10:G34)</f>
+        <v>40504586</v>
       </c>
       <c r="H35" s="75"/>
       <c r="I35" s="83"/>
@@ -3808,12 +3833,12 @@
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="78"/>
-      <c r="D37" s="166" t="s">
+      <c r="D37" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="166"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="166"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
       <c r="H37" s="88"/>
       <c r="I37" s="80"/>
       <c r="J37" s="9"/>
@@ -3848,12 +3873,12 @@
     </row>
     <row r="40" spans="3:10" ht="15">
       <c r="C40" s="78"/>
-      <c r="D40" s="166" t="s">
+      <c r="D40" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
       <c r="H40" s="90"/>
       <c r="I40" s="80"/>
       <c r="J40" s="9"/>
@@ -3964,7 +3989,7 @@
       <c r="F49" s="79"/>
       <c r="G49" s="43">
         <f>G8-G35-G38-G46</f>
-        <v>-22004586</v>
+        <v>-22104586</v>
       </c>
       <c r="H49" s="73"/>
       <c r="I49" s="16"/>
@@ -3989,8 +4014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BE7A19-D435-4A51-A018-E212475E8992}">
   <dimension ref="C2:M57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4010,16 +4035,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="15">
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="3:10" ht="15">
       <c r="C3" s="94" t="s">
@@ -4049,12 +4074,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="94"/>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="115"/>
       <c r="I4" s="94"/>
       <c r="J4" s="94"/>
@@ -4139,12 +4164,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="99"/>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="115"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -4558,12 +4583,12 @@
     </row>
     <row r="30" spans="3:13" ht="15">
       <c r="C30" s="99"/>
-      <c r="D30" s="165" t="s">
+      <c r="D30" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
       <c r="H30" s="115"/>
       <c r="I30" s="103"/>
       <c r="J30" s="99"/>
@@ -4926,12 +4951,12 @@
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="99"/>
-      <c r="D48" s="165" t="s">
+      <c r="D48" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="165"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="165"/>
+      <c r="E48" s="166"/>
+      <c r="F48" s="166"/>
+      <c r="G48" s="166"/>
       <c r="H48" s="127"/>
       <c r="I48" s="103"/>
       <c r="J48" s="99"/>
@@ -5177,37 +5202,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
   <dimension ref="C2:P40"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="5"/>
     <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="20" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" style="46" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="5" customWidth="1"/>
     <col min="11" max="12" width="19.140625" style="5" customWidth="1"/>
     <col min="13" max="16" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="20.25">
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="164" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
     </row>
     <row r="3" spans="3:12" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -5237,12 +5262,12 @@
     </row>
     <row r="4" spans="3:12" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="60"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -5318,7 +5343,7 @@
       <c r="I7" s="11"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="3:12" ht="15">
+    <row r="8" spans="3:12" ht="30">
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
@@ -5350,12 +5375,12 @@
     </row>
     <row r="10" spans="3:12" ht="15">
       <c r="C10" s="8"/>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="167"/>
       <c r="H10" s="59"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
@@ -5492,12 +5517,12 @@
     </row>
     <row r="18" spans="3:16" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="166" t="s">
+      <c r="D18" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
       <c r="H18" s="59"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
@@ -5605,9 +5630,17 @@
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="9"/>
+      <c r="K21" s="156">
+        <f>K20+G33</f>
+        <v>24668762</v>
+      </c>
+      <c r="L21" s="156">
+        <f>L20+G32</f>
+        <v>9192418</v>
+      </c>
       <c r="N21" s="156"/>
     </row>
-    <row r="22" spans="3:16" ht="28.5">
+    <row r="22" spans="3:16" ht="15">
       <c r="C22" s="8"/>
       <c r="D22" s="1" t="s">
         <v>228</v>
@@ -5629,8 +5662,11 @@
       <c r="J22" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>259</v>
+      <c r="K22" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="M22" s="163">
+        <v>0.1</v>
       </c>
       <c r="N22" s="156">
         <f>N20*0.1</f>
@@ -5661,6 +5697,10 @@
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
+      <c r="K23" s="156">
+        <f>K21-3000000</f>
+        <v>21668762</v>
+      </c>
     </row>
     <row r="24" spans="3:16" ht="15">
       <c r="C24" s="8"/>
@@ -5728,7 +5768,7 @@
       <c r="I26" s="24"/>
       <c r="J26" s="15"/>
     </row>
-    <row r="27" spans="3:16" ht="30">
+    <row r="27" spans="3:16" ht="15">
       <c r="C27" s="8"/>
       <c r="D27" s="22" t="s">
         <v>249</v>
@@ -5812,17 +5852,17 @@
     </row>
     <row r="31" spans="3:16" ht="15">
       <c r="C31" s="8"/>
-      <c r="D31" s="166" t="s">
+      <c r="D31" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
       <c r="H31" s="51"/>
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="3:16" ht="15">
+    <row r="32" spans="3:16" ht="30">
       <c r="C32" s="8">
         <v>1</v>
       </c>
@@ -5841,10 +5881,12 @@
         <v>6789418</v>
       </c>
       <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="I32" s="14" t="s">
+        <v>271</v>
+      </c>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="3:10" ht="15">
+    <row r="33" spans="3:10" ht="30">
       <c r="C33" s="8">
         <v>2</v>
       </c>
@@ -5863,10 +5905,11 @@
         <v>6789418</v>
       </c>
       <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="3:10" ht="15">
+      <c r="I33" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="30">
       <c r="C34" s="8">
         <v>3</v>
       </c>
@@ -5885,10 +5928,12 @@
         <v>8147301.6000000006</v>
       </c>
       <c r="H34" s="14"/>
-      <c r="I34" s="11"/>
+      <c r="I34" s="14" t="s">
+        <v>271</v>
+      </c>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="3:10" ht="15">
+    <row r="35" spans="3:10" ht="45">
       <c r="C35" s="8">
         <v>4</v>
       </c>
@@ -5907,7 +5952,9 @@
         <v>5431534.4000000004</v>
       </c>
       <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="I35" s="14" t="s">
+        <v>271</v>
+      </c>
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="3:10" ht="15">
@@ -5987,8 +6034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A00FBF6-6528-4077-97A8-E7F8FA86DD30}">
   <dimension ref="C2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6010,16 +6057,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16" ht="20.25">
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="164" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
     </row>
     <row r="3" spans="3:16" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -6049,24 +6096,24 @@
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="57"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="3:16" ht="20.25">
       <c r="C5" s="7"/>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
       <c r="H5" s="60"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -6168,12 +6215,12 @@
     </row>
     <row r="11" spans="3:16" ht="15">
       <c r="C11" s="8"/>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="167"/>
+      <c r="G11" s="167"/>
       <c r="H11" s="57"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
@@ -6296,7 +6343,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="3:16" ht="15">
+    <row r="15" spans="3:16" ht="28.5">
       <c r="C15" s="8"/>
       <c r="D15" s="1" t="s">
         <v>248</v>
@@ -6322,7 +6369,7 @@
       <c r="L15" s="5">
         <v>20000000</v>
       </c>
-      <c r="M15" s="62" t="s">
+      <c r="N15" s="62" t="s">
         <v>259</v>
       </c>
       <c r="O15" s="156">
@@ -6369,12 +6416,12 @@
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="166" t="s">
+      <c r="D18" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
       <c r="H18" s="51"/>
       <c r="I18" s="11"/>
       <c r="J18" s="8"/>
@@ -6526,10 +6573,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
-  <dimension ref="C2:J32"/>
+  <dimension ref="C2:J34"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6547,16 +6594,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -6586,12 +6633,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="48"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -6649,12 +6696,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="48"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -6666,7 +6713,7 @@
       <c r="D10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="32">
         <v>1</v>
       </c>
       <c r="F10" s="23">
@@ -6688,7 +6735,7 @@
       <c r="D11" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="32">
         <v>1</v>
       </c>
       <c r="F11" s="23">
@@ -6710,7 +6757,7 @@
       <c r="D12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="32">
         <v>2</v>
       </c>
       <c r="F12" s="23">
@@ -6732,7 +6779,7 @@
       <c r="D13" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="32">
         <v>1</v>
       </c>
       <c r="F13" s="23">
@@ -6754,7 +6801,7 @@
       <c r="D14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="32">
         <v>2</v>
       </c>
       <c r="F14" s="23">
@@ -6776,7 +6823,7 @@
       <c r="D15" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="32">
         <v>1</v>
       </c>
       <c r="F15" s="23">
@@ -6861,25 +6908,18 @@
       <c r="D19" s="24"/>
       <c r="E19" s="32"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="49">
-        <f>SUM(G10:G16)</f>
-        <v>2435000</v>
-      </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="166" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="48"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
     </row>
@@ -6888,86 +6928,85 @@
       <c r="D21" s="24"/>
       <c r="E21" s="32"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="9"/>
+      <c r="G21" s="49">
+        <f>SUM(G10:G18)</f>
+        <v>7615000</v>
+      </c>
+      <c r="H21" s="50"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="49">
-        <f>SUM(G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="D22" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="166" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="8"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="49">
+        <f>SUM(G23)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="50"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="15">
+      <c r="C25" s="8"/>
+      <c r="D25" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="8">
-        <v>2</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="18"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="3:10" ht="15">
       <c r="C26" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="42"/>
       <c r="G26" s="44"/>
       <c r="H26" s="14"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="28"/>
     </row>
     <row r="27" spans="3:10" ht="15">
       <c r="C27" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="42"/>
@@ -6978,69 +7017,97 @@
     </row>
     <row r="28" spans="3:10" ht="15">
       <c r="C28" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="44">
-        <v>3600000</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="14"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="18"/>
     </row>
     <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="45">
-        <f>SUM(G24:G28)</f>
-        <v>3600000</v>
-      </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C29" s="8">
+        <v>4</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="3:10" ht="15">
+      <c r="C30" s="8">
+        <v>5</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="E30" s="10"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="8"/>
+      <c r="G30" s="44">
+        <v>3600000</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="3:10" ht="15">
       <c r="C31" s="8"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="45">
+        <f>SUM(G26:G30)</f>
+        <v>3600000</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10">
       <c r="C32" s="8"/>
-      <c r="D32" s="17"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="10"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="43">
-        <f>G8-G19-G22-G29</f>
-        <v>-6035000</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="25" t="s">
+      <c r="G32" s="42"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="8"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="8"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43">
+        <f>G8-G21-G24-G31</f>
+        <v>-11215000</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7049,8 +7116,8 @@
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7062,7 +7129,7 @@
   <dimension ref="C2:J32"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D10" sqref="D10:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7080,16 +7147,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -7119,12 +7186,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="48"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -7182,12 +7249,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="48"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -7359,12 +7426,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="166" t="s">
+      <c r="D20" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
       <c r="H20" s="48"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -7396,12 +7463,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="166" t="s">
+      <c r="D23" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
       <c r="H23" s="51"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -7539,8 +7606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
   <dimension ref="C2:M88"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7560,16 +7627,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="112" t="s">
@@ -7599,12 +7666,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="114"/>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
       <c r="H4" s="115"/>
       <c r="I4" s="114"/>
       <c r="J4" s="114"/>
@@ -7662,12 +7729,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="99"/>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="115"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -7921,12 +7988,12 @@
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="99"/>
-      <c r="D22" s="165" t="s">
+      <c r="D22" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
       <c r="H22" s="115"/>
       <c r="I22" s="103"/>
       <c r="J22" s="99"/>
@@ -8804,12 +8871,12 @@
     </row>
     <row r="62" spans="3:13" ht="15">
       <c r="C62" s="99"/>
-      <c r="D62" s="165" t="s">
+      <c r="D62" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
+      <c r="E62" s="166"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="166"/>
       <c r="H62" s="127"/>
       <c r="I62" s="103"/>
       <c r="J62" s="99"/>
@@ -8941,12 +9008,12 @@
     </row>
     <row r="70" spans="3:10" ht="15">
       <c r="C70" s="99"/>
-      <c r="D70" s="165" t="s">
+      <c r="D70" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="165"/>
-      <c r="F70" s="165"/>
-      <c r="G70" s="165"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="166"/>
+      <c r="G70" s="166"/>
       <c r="H70" s="127"/>
       <c r="I70" s="103"/>
       <c r="J70" s="99"/>
@@ -9168,12 +9235,12 @@
     </row>
     <row r="82" spans="3:10" ht="15">
       <c r="C82" s="99"/>
-      <c r="D82" s="165" t="s">
+      <c r="D82" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="E82" s="165"/>
-      <c r="F82" s="165"/>
-      <c r="G82" s="165"/>
+      <c r="E82" s="166"/>
+      <c r="F82" s="166"/>
+      <c r="G82" s="166"/>
       <c r="H82" s="127"/>
       <c r="I82" s="103"/>
       <c r="J82" s="99"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ViTechSolution_LTD\04.Team_Log\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03.ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785AF069-E286-4714-ADAC-065929D40969}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5944E1-ABB3-4C4A-A5C4-806A96524ECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
-    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$88</definedName>
+    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$110</definedName>
     <definedName name="Pega" localSheetId="10">PEGA!$G$47</definedName>
     <definedName name="Pega">PEGA!$G$49</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
@@ -62,13 +62,13 @@
     <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$88</definedName>
+    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$110</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
     <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$40</definedName>
     <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$26</definedName>
     <definedName name="sport1_p1.5" localSheetId="11">SoM_Dev!$G$47</definedName>
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$57</definedName>
-    <definedName name="sport1_p2">SPORT1_P2!$G$34</definedName>
+    <definedName name="sport1_p2">SPORT1_P2!$G$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="296">
   <si>
     <t>STT</t>
   </si>
@@ -901,6 +901,75 @@
   </si>
   <si>
     <t>Nợ 3tr</t>
+  </si>
+  <si>
+    <t>MyIR board</t>
+  </si>
+  <si>
+    <t>Liên hoan ngày 21/11</t>
+  </si>
+  <si>
+    <t>Tuấn cho cty vay 2tr để mạch</t>
+  </si>
+  <si>
+    <t>Linh kiện TTL-Rs485</t>
+  </si>
+  <si>
+    <t>Tiền ăn ngày 25/12</t>
+  </si>
+  <si>
+    <t>Tiền ăn ngày 26/12</t>
+  </si>
+  <si>
+    <t>Tiền liên hoan mời anh Hoàng sau Demo</t>
+  </si>
+  <si>
+    <t>Tiền taxi demo</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 11</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 12</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 1</t>
+  </si>
+  <si>
+    <t>Tiền ăn ngày 8/1</t>
+  </si>
+  <si>
+    <t>Linh kiện làm mạch nguồn</t>
+  </si>
+  <si>
+    <t>Giải ngân 10%</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 3</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 2</t>
+  </si>
+  <si>
+    <t>Sửa máy oscillo</t>
+  </si>
+  <si>
+    <t>Tiền cơm ngày 27</t>
+  </si>
+  <si>
+    <t>Tiền uống bia mời anh Hoàng</t>
+  </si>
+  <si>
+    <t>Mua bàn học</t>
+  </si>
+  <si>
+    <t>Mua oổ điên phòng học</t>
+  </si>
+  <si>
+    <t>Mua giấy dán phòng học</t>
+  </si>
+  <si>
+    <t>Linh kiện mạch nguồn ngyaf 16.4</t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1964,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-38960700</v>
+        <v>-41636700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -1966,7 +2035,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-79276966.400000006</v>
+        <v>-81952966.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -2121,7 +2190,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2480,7 +2549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D53FFD-EEE1-438D-A836-A7FF0F43615E}">
   <dimension ref="C2:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -5202,8 +5271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59F4560-1B60-4B5E-991D-A390F0A6ECED}">
   <dimension ref="C2:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5329,15 +5398,18 @@
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>159</v>
+        <v>286</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="156">
+        <f>N20*0.1</f>
+        <v>9582224</v>
+      </c>
       <c r="G7" s="42">
         <f>F7*E7</f>
-        <v>0</v>
+        <v>9582224</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -5350,7 +5422,7 @@
       <c r="F8" s="42"/>
       <c r="G8" s="43">
         <f>SUM(G5:G7)</f>
-        <v>86240030</v>
+        <v>95822254</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -5365,7 +5437,7 @@
       <c r="F9" s="42"/>
       <c r="G9" s="43">
         <f>G8-G30-G17</f>
-        <v>27157686</v>
+        <v>36739910</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -5933,7 +6005,7 @@
       </c>
       <c r="J34" s="18"/>
     </row>
-    <row r="35" spans="3:10" ht="45">
+    <row r="35" spans="3:10" ht="30">
       <c r="C35" s="8">
         <v>4</v>
       </c>
@@ -6009,7 +6081,7 @@
       <c r="F40" s="42"/>
       <c r="G40" s="43">
         <f>G8-G17-G30</f>
-        <v>27157686</v>
+        <v>36739910</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="16"/>
@@ -6035,7 +6107,7 @@
   <dimension ref="C2:P26"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:P15"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6179,10 +6251,13 @@
       <c r="E8" s="10">
         <v>1</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="42">
+        <f>O12*0.1</f>
+        <v>7323669</v>
+      </c>
       <c r="G8" s="42">
         <f>F8*E8</f>
-        <v>0</v>
+        <v>7323669</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -6205,7 +6280,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="43">
         <f>SUM(G6:G8)</f>
-        <v>65912995.399999999</v>
+        <v>73236664.400000006</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -6363,17 +6438,17 @@
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="5">
+      <c r="K15" s="156">
         <v>2000000</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="156">
         <v>20000000</v>
       </c>
       <c r="N15" s="62" t="s">
         <v>259</v>
       </c>
       <c r="O15" s="156">
-        <f>O12*0.1</f>
+        <f>F8</f>
         <v>7323669</v>
       </c>
       <c r="P15" s="156">
@@ -6550,7 +6625,7 @@
       <c r="F26" s="42"/>
       <c r="G26" s="43">
         <f>G10-G17-G23</f>
-        <v>-25.600000001490116</v>
+        <v>7323643.400000006</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="16"/>
@@ -6573,10 +6648,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
-  <dimension ref="C2:J34"/>
+  <dimension ref="C2:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6852,7 +6927,7 @@
         <v>15000</v>
       </c>
       <c r="G16" s="23">
-        <f>F16*E16</f>
+        <f t="shared" ref="G16:G22" si="0">F16*E16</f>
         <v>150000</v>
       </c>
       <c r="H16" s="34" t="s">
@@ -6873,7 +6948,7 @@
         <v>5000000</v>
       </c>
       <c r="G17" s="23">
-        <f>F17*E17</f>
+        <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
       <c r="H17" s="24" t="s">
@@ -6894,7 +6969,7 @@
         <v>180000</v>
       </c>
       <c r="G18" s="23">
-        <f>F18*E18</f>
+        <f t="shared" si="0"/>
         <v>180000</v>
       </c>
       <c r="H18" s="24" t="s">
@@ -6905,48 +6980,87 @@
     </row>
     <row r="19" spans="3:10" ht="15">
       <c r="C19" s="8"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="D19" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1</v>
+      </c>
+      <c r="F19" s="23">
+        <v>2337741</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" si="0"/>
+        <v>2337741</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
+      <c r="D20" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="E20" s="32">
+        <v>1</v>
+      </c>
+      <c r="F20" s="23">
+        <v>161000</v>
+      </c>
+      <c r="G20" s="23">
+        <f t="shared" si="0"/>
+        <v>161000</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="3:10" ht="15">
       <c r="C21" s="8"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="49">
-        <f>SUM(G10:G18)</f>
-        <v>7615000</v>
-      </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="D21" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="32">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23">
+        <v>122000</v>
+      </c>
+      <c r="G21" s="23">
+        <f t="shared" si="0"/>
+        <v>122000</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="3:10" ht="15">
       <c r="C22" s="8"/>
-      <c r="D22" s="167" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="48"/>
+      <c r="D22" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" s="32">
+        <v>1</v>
+      </c>
+      <c r="F22" s="23">
+        <v>208000</v>
+      </c>
+      <c r="G22" s="23">
+        <f t="shared" si="0"/>
+        <v>208000</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="9"/>
     </row>
@@ -6965,149 +7079,196 @@
       <c r="D24" s="24"/>
       <c r="E24" s="32"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="49">
-        <f>SUM(G23)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" ht="15">
       <c r="C25" s="8"/>
-      <c r="D25" s="167" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="49">
+        <f>SUM(G10:G18)</f>
+        <v>7615000</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="8"/>
+      <c r="D26" s="167" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="49">
+        <f>SUM(G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="3:10" ht="15">
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="8">
-        <v>2</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="18"/>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="8">
-        <v>3</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="18"/>
-    </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="8">
-        <v>4</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="18"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="8"/>
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="44">
-        <v>3600000</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="18"/>
+      <c r="J30" s="28"/>
     </row>
     <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="45">
-        <f>SUM(G26:G30)</f>
-        <v>3600000</v>
-      </c>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="8">
+        <v>3</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="E32" s="10"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="8"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="8"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="8">
+        <v>4</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="E33" s="10"/>
       <c r="F33" s="42"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="8"/>
-      <c r="D34" s="17"/>
+      <c r="C34" s="8">
+        <v>5</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="43">
-        <f>G8-G21-G24-G31</f>
+      <c r="G34" s="44">
+        <v>3600000</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="3:10" ht="15">
+      <c r="C35" s="8"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="45">
+        <f>SUM(G30:G34)</f>
+        <v>3600000</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
+      <c r="C37" s="8"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="3:10" ht="15">
+      <c r="C38" s="8"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43">
+        <f>G8-G25-G28-G35</f>
         <v>-11215000</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="25" t="s">
+      <c r="H38" s="12"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7116,8 +7277,8 @@
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7604,10 +7765,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:M88"/>
+  <dimension ref="C2:M110"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7963,218 +8124,180 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="99"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="116"/>
+      <c r="D20" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="117">
+        <v>1</v>
+      </c>
+      <c r="F20" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G20" s="118">
+        <f t="shared" ref="G20:G22" si="1">E20*F20</f>
+        <v>500000</v>
+      </c>
+      <c r="H20" s="116" t="s">
+        <v>9</v>
+      </c>
       <c r="I20" s="103"/>
       <c r="J20" s="99"/>
     </row>
     <row r="21" spans="3:10" ht="15">
       <c r="C21" s="99"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="122">
+      <c r="D21" s="116" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="117">
+        <v>1</v>
+      </c>
+      <c r="F21" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G21" s="118">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="H21" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="103"/>
+      <c r="J21" s="99"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
+      <c r="C22" s="99"/>
+      <c r="D22" s="116" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="117">
+        <v>1</v>
+      </c>
+      <c r="F22" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G22" s="118">
+        <f t="shared" si="1"/>
+        <v>500000</v>
+      </c>
+      <c r="H22" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="103"/>
+      <c r="J22" s="99"/>
+    </row>
+    <row r="23" spans="3:10" ht="15">
+      <c r="C23" s="99"/>
+      <c r="D23" s="116" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="117">
+        <v>1</v>
+      </c>
+      <c r="F23" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G23" s="118">
+        <v>500000</v>
+      </c>
+      <c r="H23" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="103"/>
+      <c r="J23" s="99"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="99"/>
+      <c r="D24" s="116" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="117">
+        <v>1</v>
+      </c>
+      <c r="F24" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G24" s="118">
+        <v>500000</v>
+      </c>
+      <c r="H24" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="J24" s="99"/>
+    </row>
+    <row r="25" spans="3:10" ht="15">
+      <c r="C25" s="99"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="99"/>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="99"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="99"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="99"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="99"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="99"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="122">
         <f>SUM(G10:G19)</f>
         <v>8500000</v>
       </c>
-      <c r="H21" s="123"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="27" t="s">
+      <c r="H28" s="123"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="15">
-      <c r="C22" s="99"/>
-      <c r="D22" s="166" t="s">
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="99"/>
+      <c r="D29" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="99"/>
-    </row>
-    <row r="23" spans="3:10" ht="15">
-      <c r="C23" s="99">
-        <v>1</v>
-      </c>
-      <c r="D23" s="125" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="119">
-        <v>1</v>
-      </c>
-      <c r="F23" s="118">
-        <v>40000</v>
-      </c>
-      <c r="G23" s="118">
-        <f>E23*F23</f>
-        <v>40000</v>
-      </c>
-      <c r="H23" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="103"/>
-      <c r="J23" s="99"/>
-    </row>
-    <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="99">
-        <v>2</v>
-      </c>
-      <c r="D24" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="119">
-        <v>1</v>
-      </c>
-      <c r="F24" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G24" s="118">
-        <f t="shared" ref="G24:G60" si="1">E24*F24</f>
-        <v>120000</v>
-      </c>
-      <c r="H24" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="103"/>
-      <c r="J24" s="99"/>
-    </row>
-    <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="99">
-        <v>3</v>
-      </c>
-      <c r="D25" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="119">
-        <v>1</v>
-      </c>
-      <c r="F25" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G25" s="118">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H25" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" s="103"/>
-      <c r="J25" s="99"/>
-    </row>
-    <row r="26" spans="3:10" ht="15">
-      <c r="C26" s="99">
-        <v>4</v>
-      </c>
-      <c r="D26" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" s="119">
-        <v>1</v>
-      </c>
-      <c r="F26" s="118">
-        <v>40000</v>
-      </c>
-      <c r="G26" s="118">
-        <f t="shared" si="1"/>
-        <v>40000</v>
-      </c>
-      <c r="H26" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" s="103"/>
-      <c r="J26" s="99"/>
-    </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="99">
-        <v>5</v>
-      </c>
-      <c r="D27" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="119">
-        <v>1</v>
-      </c>
-      <c r="F27" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G27" s="118">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H27" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="103"/>
-      <c r="J27" s="99"/>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="99">
-        <v>6</v>
-      </c>
-      <c r="D28" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="119">
-        <v>1</v>
-      </c>
-      <c r="F28" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G28" s="118">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H28" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" s="103"/>
-      <c r="J28" s="99"/>
-    </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="99">
-        <v>7</v>
-      </c>
-      <c r="D29" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="119">
-        <v>1</v>
-      </c>
-      <c r="F29" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G29" s="118">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H29" s="116" t="s">
-        <v>9</v>
-      </c>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="115"/>
       <c r="I29" s="103"/>
       <c r="J29" s="99"/>
     </row>
     <row r="30" spans="3:10" ht="15">
       <c r="C30" s="99">
-        <v>8</v>
-      </c>
-      <c r="D30" s="116" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="D30" s="125" t="s">
+        <v>83</v>
       </c>
       <c r="E30" s="119">
         <v>1</v>
       </c>
       <c r="F30" s="118">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="118">
-        <f t="shared" si="1"/>
-        <v>80000</v>
+        <f>E30*F30</f>
+        <v>40000</v>
       </c>
       <c r="H30" s="116" t="s">
         <v>9</v>
@@ -8184,10 +8307,10 @@
     </row>
     <row r="31" spans="3:10" ht="15">
       <c r="C31" s="99">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D31" s="116" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E31" s="119">
         <v>1</v>
@@ -8196,7 +8319,7 @@
         <v>120000</v>
       </c>
       <c r="G31" s="118">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G31:G75" si="2">E31*F31</f>
         <v>120000</v>
       </c>
       <c r="H31" s="116" t="s">
@@ -8207,20 +8330,20 @@
     </row>
     <row r="32" spans="3:10" ht="15">
       <c r="C32" s="99">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D32" s="116" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E32" s="119">
         <v>1</v>
       </c>
       <c r="F32" s="118">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G32" s="118">
-        <f t="shared" si="1"/>
-        <v>200000</v>
+        <f t="shared" si="2"/>
+        <v>120000</v>
       </c>
       <c r="H32" s="116" t="s">
         <v>9</v>
@@ -8230,20 +8353,20 @@
     </row>
     <row r="33" spans="3:10" ht="15">
       <c r="C33" s="99">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D33" s="116" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E33" s="119">
         <v>1</v>
       </c>
       <c r="F33" s="118">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="118">
-        <f t="shared" si="1"/>
-        <v>80000</v>
+        <f t="shared" si="2"/>
+        <v>40000</v>
       </c>
       <c r="H33" s="116" t="s">
         <v>9</v>
@@ -8253,10 +8376,10 @@
     </row>
     <row r="34" spans="3:10" ht="15">
       <c r="C34" s="99">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D34" s="116" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E34" s="119">
         <v>1</v>
@@ -8265,7 +8388,7 @@
         <v>120000</v>
       </c>
       <c r="G34" s="118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
       <c r="H34" s="116" t="s">
@@ -8276,10 +8399,10 @@
     </row>
     <row r="35" spans="3:10" ht="15">
       <c r="C35" s="99">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D35" s="116" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E35" s="119">
         <v>1</v>
@@ -8288,7 +8411,7 @@
         <v>120000</v>
       </c>
       <c r="G35" s="118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
       <c r="H35" s="116" t="s">
@@ -8299,10 +8422,10 @@
     </row>
     <row r="36" spans="3:10" ht="15">
       <c r="C36" s="99">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E36" s="119">
         <v>1</v>
@@ -8311,7 +8434,7 @@
         <v>120000</v>
       </c>
       <c r="G36" s="118">
-        <f>E36*F36</f>
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
       <c r="H36" s="116" t="s">
@@ -8322,20 +8445,20 @@
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="99">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D37" s="116" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E37" s="119">
         <v>1</v>
       </c>
       <c r="F37" s="118">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="G37" s="118">
-        <f t="shared" si="1"/>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="H37" s="116" t="s">
         <v>9</v>
@@ -8345,20 +8468,20 @@
     </row>
     <row r="38" spans="3:10" ht="15">
       <c r="C38" s="99">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E38" s="119">
         <v>1</v>
       </c>
       <c r="F38" s="118">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G38" s="118">
-        <f t="shared" si="1"/>
-        <v>200000</v>
+        <f t="shared" si="2"/>
+        <v>120000</v>
       </c>
       <c r="H38" s="116" t="s">
         <v>9</v>
@@ -8368,282 +8491,296 @@
     </row>
     <row r="39" spans="3:10" ht="15">
       <c r="C39" s="99">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D39" s="116" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E39" s="119">
         <v>1</v>
       </c>
-      <c r="F39" s="120">
-        <v>360000</v>
+      <c r="F39" s="118">
+        <v>200000</v>
       </c>
       <c r="G39" s="118">
-        <f t="shared" si="1"/>
-        <v>360000</v>
-      </c>
-      <c r="H39" s="126" t="s">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="H39" s="116" t="s">
+        <v>9</v>
       </c>
       <c r="I39" s="103"/>
       <c r="J39" s="99"/>
     </row>
     <row r="40" spans="3:10" ht="15">
       <c r="C40" s="99">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D40" s="116" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E40" s="119">
         <v>1</v>
       </c>
-      <c r="F40" s="120">
-        <v>170000</v>
+      <c r="F40" s="118">
+        <v>80000</v>
       </c>
       <c r="G40" s="118">
-        <f t="shared" si="1"/>
-        <v>170000</v>
-      </c>
-      <c r="H40" s="126" t="s">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="H40" s="116" t="s">
+        <v>9</v>
       </c>
       <c r="I40" s="103"/>
       <c r="J40" s="99"/>
     </row>
     <row r="41" spans="3:10" ht="15">
       <c r="C41" s="99">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D41" s="116" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E41" s="119">
         <v>1</v>
       </c>
       <c r="F41" s="118">
-        <v>204000</v>
+        <v>120000</v>
       </c>
       <c r="G41" s="118">
-        <f t="shared" si="1"/>
-        <v>204000</v>
+        <f t="shared" si="2"/>
+        <v>120000</v>
       </c>
       <c r="H41" s="116" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I41" s="103"/>
       <c r="J41" s="99"/>
     </row>
     <row r="42" spans="3:10" ht="15">
       <c r="C42" s="99">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E42" s="119">
         <v>1</v>
       </c>
       <c r="F42" s="118">
-        <v>227000</v>
+        <v>120000</v>
       </c>
       <c r="G42" s="118">
-        <f t="shared" si="1"/>
-        <v>227000</v>
+        <f t="shared" si="2"/>
+        <v>120000</v>
       </c>
       <c r="H42" s="116" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I42" s="103"/>
       <c r="J42" s="99"/>
     </row>
     <row r="43" spans="3:10" ht="15">
       <c r="C43" s="99">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D43" s="116" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E43" s="119">
         <v>1</v>
       </c>
       <c r="F43" s="118">
-        <v>287000</v>
+        <v>120000</v>
       </c>
       <c r="G43" s="118">
-        <f t="shared" si="1"/>
-        <v>287000</v>
+        <f>E43*F43</f>
+        <v>120000</v>
       </c>
       <c r="H43" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="99"/>
+      <c r="I43" s="103"/>
       <c r="J43" s="99"/>
     </row>
     <row r="44" spans="3:10" ht="15">
       <c r="C44" s="99">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E44" s="119">
         <v>1</v>
       </c>
       <c r="F44" s="118">
-        <v>81000</v>
+        <v>120000</v>
       </c>
       <c r="G44" s="118">
-        <f t="shared" si="1"/>
-        <v>81000</v>
-      </c>
-      <c r="H44" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="99"/>
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H44" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="103"/>
       <c r="J44" s="99"/>
     </row>
     <row r="45" spans="3:10" ht="15">
-      <c r="C45" s="99"/>
+      <c r="C45" s="99">
+        <v>16</v>
+      </c>
       <c r="D45" s="116" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E45" s="119">
         <v>1</v>
       </c>
       <c r="F45" s="118">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="G45" s="118">
-        <f t="shared" si="1"/>
-        <v>300000</v>
-      </c>
-      <c r="H45" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="99"/>
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="H45" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="103"/>
       <c r="J45" s="99"/>
     </row>
     <row r="46" spans="3:10" ht="15">
-      <c r="C46" s="99"/>
+      <c r="C46" s="99">
+        <v>17</v>
+      </c>
       <c r="D46" s="116" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E46" s="119">
         <v>1</v>
       </c>
-      <c r="F46" s="118">
-        <v>147000</v>
+      <c r="F46" s="120">
+        <v>360000</v>
       </c>
       <c r="G46" s="118">
-        <f t="shared" si="1"/>
-        <v>147000</v>
-      </c>
-      <c r="H46" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" s="99"/>
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+      <c r="H46" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="103"/>
       <c r="J46" s="99"/>
     </row>
     <row r="47" spans="3:10" ht="15">
-      <c r="C47" s="99"/>
+      <c r="C47" s="99">
+        <v>18</v>
+      </c>
       <c r="D47" s="116" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="E47" s="119">
         <v>1</v>
       </c>
-      <c r="F47" s="118">
-        <v>160000</v>
+      <c r="F47" s="120">
+        <v>170000</v>
       </c>
       <c r="G47" s="118">
-        <f t="shared" si="1"/>
-        <v>160000</v>
-      </c>
-      <c r="H47" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="99"/>
+        <f t="shared" si="2"/>
+        <v>170000</v>
+      </c>
+      <c r="H47" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="103"/>
       <c r="J47" s="99"/>
     </row>
     <row r="48" spans="3:10" ht="15">
-      <c r="C48" s="99"/>
+      <c r="C48" s="99">
+        <v>19</v>
+      </c>
       <c r="D48" s="116" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="E48" s="119">
         <v>1</v>
       </c>
       <c r="F48" s="118">
-        <v>76000</v>
+        <v>204000</v>
       </c>
       <c r="G48" s="118">
-        <f t="shared" si="1"/>
-        <v>76000</v>
-      </c>
-      <c r="H48" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="99"/>
+        <f t="shared" si="2"/>
+        <v>204000</v>
+      </c>
+      <c r="H48" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="103"/>
       <c r="J48" s="99"/>
     </row>
-    <row r="49" spans="3:13" ht="15">
-      <c r="C49" s="99"/>
+    <row r="49" spans="3:10" ht="15">
+      <c r="C49" s="99">
+        <v>20</v>
+      </c>
       <c r="D49" s="116" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="E49" s="119">
         <v>1</v>
       </c>
       <c r="F49" s="118">
-        <v>150000</v>
+        <v>227000</v>
       </c>
       <c r="G49" s="118">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="H49" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="99"/>
+        <f t="shared" si="2"/>
+        <v>227000</v>
+      </c>
+      <c r="H49" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="103"/>
       <c r="J49" s="99"/>
     </row>
-    <row r="50" spans="3:13" ht="15">
-      <c r="C50" s="99"/>
+    <row r="50" spans="3:10" ht="15">
+      <c r="C50" s="99">
+        <v>21</v>
+      </c>
       <c r="D50" s="116" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="E50" s="119">
         <v>1</v>
       </c>
       <c r="F50" s="118">
-        <v>96000</v>
+        <v>287000</v>
       </c>
       <c r="G50" s="118">
-        <f t="shared" si="1"/>
-        <v>96000</v>
-      </c>
-      <c r="H50" s="99" t="s">
+        <f t="shared" si="2"/>
+        <v>287000</v>
+      </c>
+      <c r="H50" s="116" t="s">
         <v>9</v>
       </c>
       <c r="I50" s="99"/>
       <c r="J50" s="99"/>
     </row>
-    <row r="51" spans="3:13" ht="15">
-      <c r="C51" s="99"/>
+    <row r="51" spans="3:10" ht="15">
+      <c r="C51" s="99">
+        <v>22</v>
+      </c>
       <c r="D51" s="116" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="E51" s="119">
         <v>1</v>
       </c>
       <c r="F51" s="118">
-        <v>250000</v>
+        <v>81000</v>
       </c>
       <c r="G51" s="118">
-        <f t="shared" si="1"/>
-        <v>250000</v>
+        <f t="shared" si="2"/>
+        <v>81000</v>
       </c>
       <c r="H51" s="99" t="s">
         <v>9</v>
@@ -8651,20 +8788,20 @@
       <c r="I51" s="99"/>
       <c r="J51" s="99"/>
     </row>
-    <row r="52" spans="3:13" ht="15">
+    <row r="52" spans="3:10" ht="15">
       <c r="C52" s="99"/>
       <c r="D52" s="116" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="E52" s="119">
         <v>1</v>
       </c>
       <c r="F52" s="118">
-        <v>80000</v>
+        <v>300000</v>
       </c>
       <c r="G52" s="118">
-        <f t="shared" si="1"/>
-        <v>80000</v>
+        <f t="shared" si="2"/>
+        <v>300000</v>
       </c>
       <c r="H52" s="99" t="s">
         <v>9</v>
@@ -8672,20 +8809,20 @@
       <c r="I52" s="99"/>
       <c r="J52" s="99"/>
     </row>
-    <row r="53" spans="3:13" ht="15">
+    <row r="53" spans="3:10" ht="15">
       <c r="C53" s="99"/>
       <c r="D53" s="116" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="E53" s="119">
         <v>1</v>
       </c>
       <c r="F53" s="118">
-        <v>80000</v>
+        <v>147000</v>
       </c>
       <c r="G53" s="118">
-        <f t="shared" si="1"/>
-        <v>80000</v>
+        <f t="shared" si="2"/>
+        <v>147000</v>
       </c>
       <c r="H53" s="99" t="s">
         <v>9</v>
@@ -8693,20 +8830,20 @@
       <c r="I53" s="99"/>
       <c r="J53" s="99"/>
     </row>
-    <row r="54" spans="3:13" ht="15">
+    <row r="54" spans="3:10" ht="15">
       <c r="C54" s="99"/>
       <c r="D54" s="116" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="E54" s="119">
         <v>1</v>
       </c>
       <c r="F54" s="118">
-        <v>100000</v>
+        <v>160000</v>
       </c>
       <c r="G54" s="118">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <f t="shared" si="2"/>
+        <v>160000</v>
       </c>
       <c r="H54" s="99" t="s">
         <v>9</v>
@@ -8714,20 +8851,20 @@
       <c r="I54" s="99"/>
       <c r="J54" s="99"/>
     </row>
-    <row r="55" spans="3:13" ht="15">
+    <row r="55" spans="3:10" ht="15">
       <c r="C55" s="99"/>
       <c r="D55" s="116" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="E55" s="119">
         <v>1</v>
       </c>
       <c r="F55" s="118">
-        <v>60000</v>
+        <v>76000</v>
       </c>
       <c r="G55" s="118">
-        <f t="shared" si="1"/>
-        <v>60000</v>
+        <f t="shared" si="2"/>
+        <v>76000</v>
       </c>
       <c r="H55" s="99" t="s">
         <v>9</v>
@@ -8735,10 +8872,10 @@
       <c r="I55" s="99"/>
       <c r="J55" s="99"/>
     </row>
-    <row r="56" spans="3:13" ht="15">
+    <row r="56" spans="3:10" ht="15">
       <c r="C56" s="99"/>
       <c r="D56" s="116" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="E56" s="119">
         <v>1</v>
@@ -8747,7 +8884,7 @@
         <v>150000</v>
       </c>
       <c r="G56" s="118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
       <c r="H56" s="99" t="s">
@@ -8756,20 +8893,20 @@
       <c r="I56" s="99"/>
       <c r="J56" s="99"/>
     </row>
-    <row r="57" spans="3:13" ht="15">
+    <row r="57" spans="3:10" ht="15">
       <c r="C57" s="99"/>
       <c r="D57" s="116" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="E57" s="119">
         <v>1</v>
       </c>
       <c r="F57" s="118">
-        <v>120000</v>
+        <v>96000</v>
       </c>
       <c r="G57" s="118">
-        <f t="shared" si="1"/>
-        <v>120000</v>
+        <f t="shared" si="2"/>
+        <v>96000</v>
       </c>
       <c r="H57" s="99" t="s">
         <v>9</v>
@@ -8777,20 +8914,20 @@
       <c r="I57" s="99"/>
       <c r="J57" s="99"/>
     </row>
-    <row r="58" spans="3:13" ht="15">
+    <row r="58" spans="3:10" ht="15">
       <c r="C58" s="99"/>
       <c r="D58" s="116" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="E58" s="119">
         <v>1</v>
       </c>
       <c r="F58" s="118">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="G58" s="118">
-        <f t="shared" si="1"/>
-        <v>100000</v>
+        <f t="shared" si="2"/>
+        <v>250000</v>
       </c>
       <c r="H58" s="99" t="s">
         <v>9</v>
@@ -8798,469 +8935,509 @@
       <c r="I58" s="99"/>
       <c r="J58" s="99"/>
     </row>
-    <row r="59" spans="3:13" ht="15">
+    <row r="59" spans="3:10" ht="15">
       <c r="C59" s="99"/>
       <c r="D59" s="116" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="E59" s="119">
         <v>1</v>
       </c>
       <c r="F59" s="118">
-        <v>270000</v>
+        <v>80000</v>
       </c>
       <c r="G59" s="118">
-        <f t="shared" si="1"/>
-        <v>270000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="H59" s="99" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I59" s="99"/>
       <c r="J59" s="99"/>
-      <c r="L59" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="M59" s="111" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13" ht="15">
+    </row>
+    <row r="60" spans="3:10" ht="15">
       <c r="C60" s="99"/>
       <c r="D60" s="116" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="E60" s="119">
         <v>1</v>
       </c>
       <c r="F60" s="118">
-        <v>77000</v>
+        <v>80000</v>
       </c>
       <c r="G60" s="118">
-        <f t="shared" si="1"/>
-        <v>77000</v>
+        <f t="shared" si="2"/>
+        <v>80000</v>
       </c>
       <c r="H60" s="99" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I60" s="99"/>
       <c r="J60" s="99"/>
     </row>
-    <row r="61" spans="3:13" ht="15">
+    <row r="61" spans="3:10" ht="15">
       <c r="C61" s="99"/>
-      <c r="D61" s="116"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="118"/>
-      <c r="G61" s="122">
-        <f>SUM(G23:G56)</f>
+      <c r="D61" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="119">
+        <v>1</v>
+      </c>
+      <c r="F61" s="118">
+        <v>100000</v>
+      </c>
+      <c r="G61" s="118">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="H61" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+    </row>
+    <row r="62" spans="3:10" ht="15">
+      <c r="C62" s="99"/>
+      <c r="D62" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="119">
+        <v>1</v>
+      </c>
+      <c r="F62" s="118">
+        <v>60000</v>
+      </c>
+      <c r="G62" s="118">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="H62" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+    </row>
+    <row r="63" spans="3:10" ht="15">
+      <c r="C63" s="99"/>
+      <c r="D63" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" s="119">
+        <v>1</v>
+      </c>
+      <c r="F63" s="118">
+        <v>150000</v>
+      </c>
+      <c r="G63" s="118">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="H63" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+    </row>
+    <row r="64" spans="3:10" ht="15">
+      <c r="C64" s="99"/>
+      <c r="D64" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="119">
+        <v>1</v>
+      </c>
+      <c r="F64" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G64" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H64" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+    </row>
+    <row r="65" spans="3:13" ht="15">
+      <c r="C65" s="99"/>
+      <c r="D65" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="E65" s="119">
+        <v>1</v>
+      </c>
+      <c r="F65" s="118">
+        <v>100000</v>
+      </c>
+      <c r="G65" s="118">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="H65" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="99"/>
+      <c r="J65" s="99"/>
+    </row>
+    <row r="66" spans="3:13" ht="15">
+      <c r="C66" s="99"/>
+      <c r="D66" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="119">
+        <v>1</v>
+      </c>
+      <c r="F66" s="118">
+        <v>270000</v>
+      </c>
+      <c r="G66" s="118">
+        <f t="shared" si="2"/>
+        <v>270000</v>
+      </c>
+      <c r="H66" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="99"/>
+      <c r="J66" s="99"/>
+      <c r="L66" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="M66" s="111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13" ht="15">
+      <c r="C67" s="99"/>
+      <c r="D67" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" s="119">
+        <v>1</v>
+      </c>
+      <c r="F67" s="118">
+        <v>77000</v>
+      </c>
+      <c r="G67" s="118">
+        <f t="shared" si="2"/>
+        <v>77000</v>
+      </c>
+      <c r="H67" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="99"/>
+      <c r="J67" s="99"/>
+    </row>
+    <row r="68" spans="3:13" ht="15">
+      <c r="C68" s="99"/>
+      <c r="D68" s="116" t="s">
+        <v>274</v>
+      </c>
+      <c r="E68" s="119">
+        <v>1</v>
+      </c>
+      <c r="F68" s="118">
+        <v>1645000</v>
+      </c>
+      <c r="G68" s="118">
+        <f t="shared" si="2"/>
+        <v>1645000</v>
+      </c>
+      <c r="H68" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+    </row>
+    <row r="69" spans="3:13" ht="15">
+      <c r="C69" s="99"/>
+      <c r="D69" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="E69" s="119">
+        <v>1</v>
+      </c>
+      <c r="F69" s="118">
+        <v>100000</v>
+      </c>
+      <c r="G69" s="118">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="H69" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="99"/>
+      <c r="J69" s="99"/>
+    </row>
+    <row r="70" spans="3:13" ht="15">
+      <c r="C70" s="99"/>
+      <c r="D70" s="116" t="s">
+        <v>278</v>
+      </c>
+      <c r="E70" s="119">
+        <v>1</v>
+      </c>
+      <c r="F70" s="118">
+        <v>86000</v>
+      </c>
+      <c r="G70" s="118">
+        <f t="shared" si="2"/>
+        <v>86000</v>
+      </c>
+      <c r="H70" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+    </row>
+    <row r="71" spans="3:13" ht="15">
+      <c r="C71" s="99"/>
+      <c r="D71" s="116" t="s">
+        <v>279</v>
+      </c>
+      <c r="E71" s="119">
+        <v>1</v>
+      </c>
+      <c r="F71" s="118">
+        <v>450000</v>
+      </c>
+      <c r="G71" s="118">
+        <f t="shared" si="2"/>
+        <v>450000</v>
+      </c>
+      <c r="H71" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+    </row>
+    <row r="72" spans="3:13" ht="15">
+      <c r="C72" s="99"/>
+      <c r="D72" s="116" t="s">
+        <v>280</v>
+      </c>
+      <c r="E72" s="119">
+        <v>1</v>
+      </c>
+      <c r="F72" s="118">
+        <v>200000</v>
+      </c>
+      <c r="G72" s="118">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="H72" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="99"/>
+      <c r="J72" s="99"/>
+    </row>
+    <row r="73" spans="3:13" ht="15">
+      <c r="C73" s="99"/>
+      <c r="D73" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="E73" s="119">
+        <v>1</v>
+      </c>
+      <c r="F73" s="118">
+        <v>157000</v>
+      </c>
+      <c r="G73" s="118">
+        <f t="shared" si="2"/>
+        <v>157000</v>
+      </c>
+      <c r="H73" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="99"/>
+      <c r="J73" s="99"/>
+    </row>
+    <row r="74" spans="3:13" ht="15">
+      <c r="C74" s="99"/>
+      <c r="D74" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="E74" s="119">
+        <v>1</v>
+      </c>
+      <c r="F74" s="118">
+        <v>65000</v>
+      </c>
+      <c r="G74" s="118">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+      <c r="H74" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+    </row>
+    <row r="75" spans="3:13" ht="15">
+      <c r="C75" s="99"/>
+      <c r="D75" s="116" t="s">
+        <v>291</v>
+      </c>
+      <c r="E75" s="119">
+        <v>1</v>
+      </c>
+      <c r="F75" s="118">
+        <v>608000</v>
+      </c>
+      <c r="G75" s="118">
+        <f t="shared" si="2"/>
+        <v>608000</v>
+      </c>
+      <c r="H75" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+    </row>
+    <row r="76" spans="3:13" ht="15">
+      <c r="C76" s="99"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="99"/>
+      <c r="J76" s="99"/>
+    </row>
+    <row r="77" spans="3:13" ht="15">
+      <c r="C77" s="99"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="119"/>
+      <c r="F77" s="118"/>
+      <c r="G77" s="118"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="99"/>
+    </row>
+    <row r="78" spans="3:13" ht="15">
+      <c r="C78" s="99"/>
+      <c r="D78" s="116"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="122">
+        <f>SUM(G30:G63)</f>
         <v>4818000</v>
       </c>
-      <c r="H61" s="123"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="27" t="s">
+      <c r="H78" s="123"/>
+      <c r="I78" s="124"/>
+      <c r="J78" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L61" s="146">
-        <f>G21+SUM(G23:G38)+SUM(G43:G58)+G65+G71</f>
+      <c r="L78" s="146">
+        <f>G28+SUM(G30:G45)+SUM(G50:G65)+G82+G93</f>
         <v>17167000</v>
       </c>
-      <c r="M61" s="146">
-        <f>SUM(G39:G42)+G59+G66+G63+G64+SUM(G72:G78)+G83</f>
+      <c r="M78" s="146">
+        <f>SUM(G46:G49)+G66+G83+G80+G81+SUM(G94:G100)+G105</f>
         <v>22283700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" ht="15">
-      <c r="C62" s="99"/>
-      <c r="D62" s="166" t="s">
+    <row r="79" spans="3:13" ht="15">
+      <c r="C79" s="99"/>
+      <c r="D79" s="166" t="s">
         <v>104</v>
       </c>
-      <c r="E62" s="166"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="166"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="99"/>
-    </row>
-    <row r="63" spans="3:13" ht="15">
-      <c r="C63" s="99">
-        <v>1</v>
-      </c>
-      <c r="D63" s="128" t="s">
+      <c r="E79" s="166"/>
+      <c r="F79" s="166"/>
+      <c r="G79" s="166"/>
+      <c r="H79" s="127"/>
+      <c r="I79" s="103"/>
+      <c r="J79" s="99"/>
+    </row>
+    <row r="80" spans="3:13" ht="15">
+      <c r="C80" s="99">
+        <v>1</v>
+      </c>
+      <c r="D80" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="E63" s="119">
-        <v>1</v>
-      </c>
-      <c r="F63" s="120">
+      <c r="E80" s="119">
+        <v>1</v>
+      </c>
+      <c r="F80" s="120">
         <v>1800000</v>
       </c>
-      <c r="G63" s="129">
-        <f>F63*E63</f>
+      <c r="G80" s="129">
+        <f>F80*E80</f>
         <v>1800000</v>
       </c>
-      <c r="H63" s="116" t="s">
+      <c r="H80" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="130"/>
-    </row>
-    <row r="64" spans="3:13" ht="15">
-      <c r="C64" s="99">
+      <c r="I80" s="14"/>
+      <c r="J80" s="130"/>
+    </row>
+    <row r="81" spans="3:10" ht="15">
+      <c r="C81" s="99">
         <v>2</v>
       </c>
-      <c r="D64" s="128" t="s">
+      <c r="D81" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="E64" s="119">
-        <v>1</v>
-      </c>
-      <c r="F64" s="120">
+      <c r="E81" s="119">
+        <v>1</v>
+      </c>
+      <c r="F81" s="120">
         <v>5000000</v>
       </c>
-      <c r="G64" s="129">
-        <f>F64*E64</f>
+      <c r="G81" s="129">
+        <f>F81*E81</f>
         <v>5000000</v>
       </c>
-      <c r="H64" s="116" t="s">
+      <c r="H81" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="130"/>
-    </row>
-    <row r="65" spans="3:10" ht="15">
-      <c r="C65" s="99">
+      <c r="I81" s="14"/>
+      <c r="J81" s="130"/>
+    </row>
+    <row r="82" spans="3:10" ht="15">
+      <c r="C82" s="99">
         <v>3</v>
       </c>
-      <c r="D65" s="116" t="s">
+      <c r="D82" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="E65" s="116">
-        <v>1</v>
-      </c>
-      <c r="F65" s="118">
+      <c r="E82" s="116">
+        <v>1</v>
+      </c>
+      <c r="F82" s="118">
         <v>2590000</v>
       </c>
-      <c r="G65" s="129">
-        <f>F65*E65</f>
+      <c r="G82" s="129">
+        <f>F82*E82</f>
         <v>2590000</v>
       </c>
-      <c r="H65" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="103"/>
-      <c r="J65" s="130"/>
-    </row>
-    <row r="66" spans="3:10" ht="15">
-      <c r="C66" s="99"/>
-      <c r="D66" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="98">
-        <v>1</v>
-      </c>
-      <c r="F66" s="101">
-        <v>410000</v>
-      </c>
-      <c r="G66" s="129">
-        <f>F66*E66</f>
-        <v>410000</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="130"/>
-    </row>
-    <row r="67" spans="3:10" ht="15">
-      <c r="C67" s="99"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="130"/>
-    </row>
-    <row r="68" spans="3:10" ht="15">
-      <c r="C68" s="99"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="132"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="45">
-        <f>SUM(G63:G66)</f>
-        <v>9800000</v>
-      </c>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="3:10">
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="98"/>
-      <c r="F69" s="101"/>
-      <c r="G69" s="101"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="99"/>
-    </row>
-    <row r="70" spans="3:10" ht="15">
-      <c r="C70" s="99"/>
-      <c r="D70" s="166" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="166"/>
-      <c r="F70" s="166"/>
-      <c r="G70" s="166"/>
-      <c r="H70" s="127"/>
-      <c r="I70" s="103"/>
-      <c r="J70" s="99"/>
-    </row>
-    <row r="71" spans="3:10" ht="15">
-      <c r="C71" s="99">
-        <v>1</v>
-      </c>
-      <c r="D71" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="E71" s="119">
-        <v>1</v>
-      </c>
-      <c r="F71" s="118">
-        <v>2000000</v>
-      </c>
-      <c r="G71" s="129">
-        <f>F71*E71</f>
-        <v>2000000</v>
-      </c>
-      <c r="H71" s="133" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="130"/>
-    </row>
-    <row r="72" spans="3:10" ht="15">
-      <c r="C72" s="99">
-        <v>2</v>
-      </c>
-      <c r="D72" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" s="119">
-        <v>1</v>
-      </c>
-      <c r="F72" s="120">
-        <v>250000</v>
-      </c>
-      <c r="G72" s="129">
-        <f t="shared" ref="G72:G78" si="2">F72*E72</f>
-        <v>250000</v>
-      </c>
-      <c r="H72" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="130"/>
-    </row>
-    <row r="73" spans="3:10" ht="15">
-      <c r="C73" s="99">
-        <v>3</v>
-      </c>
-      <c r="D73" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="E73" s="116">
-        <v>1</v>
-      </c>
-      <c r="F73" s="120">
-        <v>1000000</v>
-      </c>
-      <c r="G73" s="129">
-        <f t="shared" si="2"/>
-        <v>1000000</v>
-      </c>
-      <c r="H73" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I73" s="103"/>
-      <c r="J73" s="130"/>
-    </row>
-    <row r="74" spans="3:10" ht="15">
-      <c r="C74" s="99"/>
-      <c r="D74" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="E74" s="116">
-        <v>1</v>
-      </c>
-      <c r="F74" s="120">
-        <v>1880000</v>
-      </c>
-      <c r="G74" s="129">
-        <f t="shared" si="2"/>
-        <v>1880000</v>
-      </c>
-      <c r="H74" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I74" s="14"/>
-      <c r="J74" s="130"/>
-    </row>
-    <row r="75" spans="3:10" ht="15">
-      <c r="C75" s="99"/>
-      <c r="D75" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="E75" s="116">
-        <v>1</v>
-      </c>
-      <c r="F75" s="120">
-        <v>1200000</v>
-      </c>
-      <c r="G75" s="129">
-        <f t="shared" si="2"/>
-        <v>1200000</v>
-      </c>
-      <c r="H75" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="130"/>
-    </row>
-    <row r="76" spans="3:10" ht="15">
-      <c r="C76" s="99"/>
-      <c r="D76" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="E76" s="116">
-        <v>1</v>
-      </c>
-      <c r="F76" s="120">
-        <v>326700</v>
-      </c>
-      <c r="G76" s="129">
-        <f t="shared" si="2"/>
-        <v>326700</v>
-      </c>
-      <c r="H76" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="77" spans="3:10" ht="15">
-      <c r="C77" s="99"/>
-      <c r="D77" s="128" t="s">
-        <v>237</v>
-      </c>
-      <c r="E77" s="116">
-        <v>1</v>
-      </c>
-      <c r="F77" s="120">
-        <v>1452000</v>
-      </c>
-      <c r="G77" s="129">
-        <f t="shared" si="2"/>
-        <v>1452000</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="3:10" ht="15">
-      <c r="C78" s="99"/>
-      <c r="D78" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="E78" s="116">
-        <v>1</v>
-      </c>
-      <c r="F78" s="120">
-        <v>560000</v>
-      </c>
-      <c r="G78" s="129">
-        <f t="shared" si="2"/>
-        <v>560000</v>
-      </c>
-      <c r="H78" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I78" s="14"/>
-      <c r="J78" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="3:10" ht="15">
-      <c r="C79" s="99"/>
-      <c r="D79" s="128"/>
-      <c r="E79" s="116"/>
-      <c r="F79" s="120"/>
-      <c r="G79" s="129"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="130"/>
-    </row>
-    <row r="80" spans="3:10" ht="15">
-      <c r="C80" s="99"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="132"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="45">
-        <f>SUM(G71:G78)</f>
-        <v>8668700</v>
-      </c>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="3:10" ht="15">
-      <c r="C81" s="99"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="132"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="56"/>
-    </row>
-    <row r="82" spans="3:10" ht="15">
-      <c r="C82" s="99"/>
-      <c r="D82" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="E82" s="166"/>
-      <c r="F82" s="166"/>
-      <c r="G82" s="166"/>
-      <c r="H82" s="127"/>
+      <c r="H82" s="116" t="s">
+        <v>9</v>
+      </c>
       <c r="I82" s="103"/>
-      <c r="J82" s="99"/>
+      <c r="J82" s="130"/>
     </row>
     <row r="83" spans="3:10" ht="15">
       <c r="C83" s="99"/>
-      <c r="D83" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" s="119">
-        <v>1</v>
-      </c>
-      <c r="F83" s="118">
-        <v>7174000</v>
+      <c r="D83" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="98">
+        <v>1</v>
+      </c>
+      <c r="F83" s="101">
+        <v>410000</v>
       </c>
       <c r="G83" s="129">
         <f>F83*E83</f>
-        <v>7174000</v>
-      </c>
-      <c r="H83" s="133" t="s">
+        <v>410000</v>
+      </c>
+      <c r="H83" s="14" t="s">
         <v>21</v>
       </c>
       <c r="I83" s="14"/>
@@ -9268,73 +9445,462 @@
     </row>
     <row r="84" spans="3:10" ht="15">
       <c r="C84" s="99"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="119"/>
-      <c r="F84" s="120"/>
-      <c r="G84" s="129"/>
-      <c r="H84" s="134"/>
+      <c r="D84" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E84" s="98">
+        <v>1</v>
+      </c>
+      <c r="F84" s="101">
+        <v>1500000</v>
+      </c>
+      <c r="G84" s="44">
+        <f>E84*F84</f>
+        <v>1500000</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="I84" s="14"/>
       <c r="J84" s="130"/>
     </row>
     <row r="85" spans="3:10" ht="15">
       <c r="C85" s="99"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="116"/>
-      <c r="F85" s="120"/>
-      <c r="G85" s="129"/>
-      <c r="H85" s="14"/>
+      <c r="D85" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E85" s="98">
+        <v>1</v>
+      </c>
+      <c r="F85" s="101">
+        <v>750000</v>
+      </c>
+      <c r="G85" s="44">
+        <f t="shared" ref="G85:G87" si="3">E85*F85</f>
+        <v>750000</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="I85" s="14"/>
       <c r="J85" s="130"/>
     </row>
     <row r="86" spans="3:10" ht="15">
       <c r="C86" s="99"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="132"/>
-      <c r="F86" s="54"/>
-      <c r="G86" s="45">
-        <f>SUM(G83:G84)</f>
-        <v>7174000</v>
-      </c>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="D86" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E86" s="98">
+        <v>1</v>
+      </c>
+      <c r="F86" s="101">
+        <v>200000</v>
+      </c>
+      <c r="G86" s="44">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" s="14"/>
+      <c r="J86" s="130"/>
     </row>
     <row r="87" spans="3:10" ht="15">
       <c r="C87" s="99"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="101"/>
-      <c r="G87" s="135"/>
-      <c r="H87" s="99"/>
-      <c r="I87" s="99"/>
-      <c r="J87" s="99"/>
+      <c r="D87" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E87" s="98">
+        <v>1</v>
+      </c>
+      <c r="F87" s="101">
+        <v>226000</v>
+      </c>
+      <c r="G87" s="44">
+        <f t="shared" si="3"/>
+        <v>226000</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="14"/>
+      <c r="J87" s="130"/>
     </row>
     <row r="88" spans="3:10" ht="15">
       <c r="C88" s="99"/>
       <c r="D88" s="15"/>
       <c r="E88" s="98"/>
       <c r="F88" s="101"/>
-      <c r="G88" s="43">
-        <f>G8-G21-G61-G68-G80-G86</f>
-        <v>-38960700</v>
-      </c>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="136" t="s">
+      <c r="G88" s="44"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="130"/>
+    </row>
+    <row r="89" spans="3:10" ht="15">
+      <c r="C89" s="99"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="101"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="130"/>
+    </row>
+    <row r="90" spans="3:10" ht="15">
+      <c r="C90" s="99"/>
+      <c r="D90" s="131"/>
+      <c r="E90" s="132"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="45">
+        <f>SUM(G80:G87)</f>
+        <v>12476000</v>
+      </c>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10">
+      <c r="C91" s="99"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="101"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="105"/>
+      <c r="J91" s="99"/>
+    </row>
+    <row r="92" spans="3:10" ht="15">
+      <c r="C92" s="99"/>
+      <c r="D92" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="166"/>
+      <c r="F92" s="166"/>
+      <c r="G92" s="166"/>
+      <c r="H92" s="127"/>
+      <c r="I92" s="103"/>
+      <c r="J92" s="99"/>
+    </row>
+    <row r="93" spans="3:10" ht="15">
+      <c r="C93" s="99">
+        <v>1</v>
+      </c>
+      <c r="D93" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="119">
+        <v>1</v>
+      </c>
+      <c r="F93" s="118">
+        <v>2000000</v>
+      </c>
+      <c r="G93" s="129">
+        <f>F93*E93</f>
+        <v>2000000</v>
+      </c>
+      <c r="H93" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="14"/>
+      <c r="J93" s="130"/>
+    </row>
+    <row r="94" spans="3:10" ht="15">
+      <c r="C94" s="99">
+        <v>2</v>
+      </c>
+      <c r="D94" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="119">
+        <v>1</v>
+      </c>
+      <c r="F94" s="120">
+        <v>250000</v>
+      </c>
+      <c r="G94" s="129">
+        <f t="shared" ref="G94:G100" si="4">F94*E94</f>
+        <v>250000</v>
+      </c>
+      <c r="H94" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I94" s="14"/>
+      <c r="J94" s="130"/>
+    </row>
+    <row r="95" spans="3:10" ht="15">
+      <c r="C95" s="99">
+        <v>3</v>
+      </c>
+      <c r="D95" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="116">
+        <v>1</v>
+      </c>
+      <c r="F95" s="120">
+        <v>1000000</v>
+      </c>
+      <c r="G95" s="129">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="H95" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I95" s="103"/>
+      <c r="J95" s="130"/>
+    </row>
+    <row r="96" spans="3:10" ht="15">
+      <c r="C96" s="99"/>
+      <c r="D96" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="E96" s="116">
+        <v>1</v>
+      </c>
+      <c r="F96" s="120">
+        <v>1880000</v>
+      </c>
+      <c r="G96" s="129">
+        <f t="shared" si="4"/>
+        <v>1880000</v>
+      </c>
+      <c r="H96" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I96" s="14"/>
+      <c r="J96" s="130"/>
+    </row>
+    <row r="97" spans="3:10" ht="15">
+      <c r="C97" s="99"/>
+      <c r="D97" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="E97" s="116">
+        <v>1</v>
+      </c>
+      <c r="F97" s="120">
+        <v>1200000</v>
+      </c>
+      <c r="G97" s="129">
+        <f t="shared" si="4"/>
+        <v>1200000</v>
+      </c>
+      <c r="H97" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I97" s="14"/>
+      <c r="J97" s="130"/>
+    </row>
+    <row r="98" spans="3:10" ht="15">
+      <c r="C98" s="99"/>
+      <c r="D98" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" s="116">
+        <v>1</v>
+      </c>
+      <c r="F98" s="120">
+        <v>326700</v>
+      </c>
+      <c r="G98" s="129">
+        <f t="shared" si="4"/>
+        <v>326700</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I98" s="14"/>
+      <c r="J98" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="3:10" ht="15">
+      <c r="C99" s="99"/>
+      <c r="D99" s="128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E99" s="116">
+        <v>1</v>
+      </c>
+      <c r="F99" s="120">
+        <v>1452000</v>
+      </c>
+      <c r="G99" s="129">
+        <f t="shared" si="4"/>
+        <v>1452000</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I99" s="14"/>
+      <c r="J99" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10" ht="15">
+      <c r="C100" s="99"/>
+      <c r="D100" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="E100" s="116">
+        <v>1</v>
+      </c>
+      <c r="F100" s="120">
+        <v>560000</v>
+      </c>
+      <c r="G100" s="129">
+        <f t="shared" si="4"/>
+        <v>560000</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I100" s="14"/>
+      <c r="J100" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="3:10" ht="15">
+      <c r="C101" s="99"/>
+      <c r="D101" s="128"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="120"/>
+      <c r="G101" s="129"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="130"/>
+    </row>
+    <row r="102" spans="3:10" ht="15">
+      <c r="C102" s="99"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="132"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="45">
+        <f>SUM(G93:G100)</f>
+        <v>8668700</v>
+      </c>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" ht="15">
+      <c r="C103" s="99"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="132"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="55"/>
+      <c r="J103" s="56"/>
+    </row>
+    <row r="104" spans="3:10" ht="15">
+      <c r="C104" s="99"/>
+      <c r="D104" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="E104" s="166"/>
+      <c r="F104" s="166"/>
+      <c r="G104" s="166"/>
+      <c r="H104" s="127"/>
+      <c r="I104" s="103"/>
+      <c r="J104" s="99"/>
+    </row>
+    <row r="105" spans="3:10" ht="15">
+      <c r="C105" s="99"/>
+      <c r="D105" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E105" s="119">
+        <v>1</v>
+      </c>
+      <c r="F105" s="118">
+        <v>7174000</v>
+      </c>
+      <c r="G105" s="129">
+        <f>F105*E105</f>
+        <v>7174000</v>
+      </c>
+      <c r="H105" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I105" s="14"/>
+      <c r="J105" s="130"/>
+    </row>
+    <row r="106" spans="3:10" ht="15">
+      <c r="C106" s="99"/>
+      <c r="D106" s="108"/>
+      <c r="E106" s="119"/>
+      <c r="F106" s="120"/>
+      <c r="G106" s="129"/>
+      <c r="H106" s="134"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="130"/>
+    </row>
+    <row r="107" spans="3:10" ht="15">
+      <c r="C107" s="99"/>
+      <c r="D107" s="128"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="120"/>
+      <c r="G107" s="129"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="130"/>
+    </row>
+    <row r="108" spans="3:10" ht="15">
+      <c r="C108" s="99"/>
+      <c r="D108" s="131"/>
+      <c r="E108" s="132"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="45">
+        <f>SUM(G105:G106)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="3:10" ht="15">
+      <c r="C109" s="99"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="98"/>
+      <c r="F109" s="101"/>
+      <c r="G109" s="135"/>
+      <c r="H109" s="99"/>
+      <c r="I109" s="99"/>
+      <c r="J109" s="99"/>
+    </row>
+    <row r="110" spans="3:10" ht="15">
+      <c r="C110" s="99"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="98"/>
+      <c r="F110" s="101"/>
+      <c r="G110" s="43">
+        <f>G8-G28-G78-G90-G102-G108</f>
+        <v>-41636700</v>
+      </c>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="136" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D104:G104"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D79:G79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03.ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5944E1-ABB3-4C4A-A5C4-806A96524ECD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866B8AB4-5AB6-4B56-BFD3-AB6AF51D5EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -20,54 +20,59 @@
     <sheet name="160_Zeus" sheetId="12" r:id="rId5"/>
     <sheet name="270_Hecquyn" sheetId="10" r:id="rId6"/>
     <sheet name="SPORT1_P2" sheetId="4" r:id="rId7"/>
-    <sheet name="SMARTHOME" sheetId="5" r:id="rId8"/>
-    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId9"/>
-    <sheet name="Quản lý tài khoản CT" sheetId="14" r:id="rId10"/>
-    <sheet name="Quản lý tiền vào ra tài khoản" sheetId="16" r:id="rId11"/>
-    <sheet name="SoM_Dev" sheetId="18" r:id="rId12"/>
+    <sheet name="BaoTangQS" sheetId="19" r:id="rId8"/>
+    <sheet name="SMARTHOME" sheetId="5" r:id="rId9"/>
+    <sheet name="Chi Phí Công ty" sheetId="8" r:id="rId10"/>
+    <sheet name="Quản lý tài khoản CT" sheetId="14" r:id="rId11"/>
+    <sheet name="Quản lý tiền vào ra tài khoản" sheetId="16" r:id="rId12"/>
+    <sheet name="SoM_Dev" sheetId="18" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$110</definedName>
-    <definedName name="Pega" localSheetId="10">PEGA!$G$47</definedName>
+    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$114</definedName>
+    <definedName name="Pega" localSheetId="11">PEGA!$G$47</definedName>
     <definedName name="Pega">PEGA!$G$49</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="5">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="7">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="9">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="11">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="8">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="1">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="10">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="7">#REF!</definedName>
-    <definedName name="RowTitleRegion1..C7" localSheetId="11">#REF!</definedName>
+    <definedName name="RowTitleRegion1..C7" localSheetId="12">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="6">#REF!</definedName>
     <definedName name="RowTitleRegion1..C7">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="4">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="5">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="7">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="9">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="11">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="8">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="1">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="10">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="7">#REF!</definedName>
-    <definedName name="RowTitleRegion2..G5" localSheetId="11">#REF!</definedName>
+    <definedName name="RowTitleRegion2..G5" localSheetId="12">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="2">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5" localSheetId="6">#REF!</definedName>
     <definedName name="RowTitleRegion2..G5">#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="4">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="5">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="7">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="9">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="8">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="1">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="7">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="RowTitleRegion3..G26" localSheetId="11">[1]Effort_08062020!#REF!</definedName>
+    <definedName name="RowTitleRegion3..G26" localSheetId="12">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="8">'Chi Phí Công ty'!$G$110</definedName>
+    <definedName name="smarthome" localSheetId="9">'Chi Phí Công ty'!$G$114</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
     <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$40</definedName>
     <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$26</definedName>
-    <definedName name="sport1_p1.5" localSheetId="11">SoM_Dev!$G$47</definedName>
+    <definedName name="sport1_p1.5" localSheetId="12">SoM_Dev!$G$47</definedName>
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$57</definedName>
+    <definedName name="sport1_p2" localSheetId="7">BaoTangQS!$G$37</definedName>
     <definedName name="sport1_p2">SPORT1_P2!$G$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -75,12 +80,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="308">
   <si>
     <t>STT</t>
   </si>
@@ -969,7 +982,43 @@
     <t>Mua giấy dán phòng học</t>
   </si>
   <si>
-    <t>Linh kiện mạch nguồn ngyaf 16.4</t>
+    <t>Linh kiện mạch nguồn ngày 16.4</t>
+  </si>
+  <si>
+    <t>Giấy dán phòng học 2</t>
+  </si>
+  <si>
+    <t>Tiền ăn trưa ngày 16/17-4</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 4</t>
+  </si>
+  <si>
+    <t>Ăn trưa ngày 22-4</t>
+  </si>
+  <si>
+    <t>Ăn trưa ngày 19/09</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 5</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 6</t>
+  </si>
+  <si>
+    <t>Tổng hợp chi phí dự án Bảo Tàng Quân Sự</t>
+  </si>
+  <si>
+    <t>Tiền chuyển hợp đồng</t>
+  </si>
+  <si>
+    <t>Linh kiện hàn mạch ngày 8.7</t>
+  </si>
+  <si>
+    <t>Gia hạn cks 27.7</t>
+  </si>
+  <si>
+    <t>Nhận ứng trước 30.7</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1591,6 +1640,9 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1934,12 +1986,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="8:11" ht="20.25">
-      <c r="H2" s="164" t="s">
+      <c r="H2" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
     </row>
     <row r="3" spans="8:11" ht="15.75">
       <c r="H3" s="6" t="s">
@@ -1964,7 +2016,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-41636700</v>
+        <v>-42906700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -2035,7 +2087,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-81952966.400000006</v>
+        <v>-83222966.400000006</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -2050,6 +2102,2280 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
+  <dimension ref="C2:M114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="111"/>
+    <col min="3" max="3" width="8.42578125" style="111" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="111" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="137" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="138" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="138" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="139" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="139" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="111" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="111"/>
+    <col min="12" max="13" width="11.5703125" style="111" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="111"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="20.25">
+      <c r="C2" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75">
+      <c r="C3" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C4" s="114"/>
+      <c r="D4" s="167" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="99">
+        <v>1</v>
+      </c>
+      <c r="D5" s="99"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="99"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="99">
+        <v>2</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="99"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="99">
+        <v>3</v>
+      </c>
+      <c r="D7" s="99"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="99"/>
+    </row>
+    <row r="8" spans="3:10" ht="15">
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="43">
+        <f>SUM(G5:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15">
+      <c r="C9" s="99"/>
+      <c r="D9" s="167" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="99">
+        <v>1</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="117">
+        <v>1</v>
+      </c>
+      <c r="F10" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G10" s="118">
+        <f>E10*F10</f>
+        <v>500000</v>
+      </c>
+      <c r="H10" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="103"/>
+      <c r="J10" s="99"/>
+    </row>
+    <row r="11" spans="3:10" ht="15">
+      <c r="C11" s="99">
+        <v>2</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="117">
+        <v>1</v>
+      </c>
+      <c r="F11" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G11" s="118">
+        <f t="shared" ref="G11:G25" si="0">E11*F11</f>
+        <v>500000</v>
+      </c>
+      <c r="H11" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="J11" s="99"/>
+    </row>
+    <row r="12" spans="3:10" ht="15">
+      <c r="C12" s="99">
+        <v>3</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="117">
+        <v>1</v>
+      </c>
+      <c r="F12" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G12" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H12" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="J12" s="99"/>
+    </row>
+    <row r="13" spans="3:10" ht="15">
+      <c r="C13" s="99">
+        <v>4</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="117">
+        <v>1</v>
+      </c>
+      <c r="F13" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G13" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H13" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="103"/>
+      <c r="J13" s="99"/>
+    </row>
+    <row r="14" spans="3:10" ht="15">
+      <c r="C14" s="99">
+        <v>5</v>
+      </c>
+      <c r="D14" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="117">
+        <v>1</v>
+      </c>
+      <c r="F14" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G14" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H14" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="105"/>
+      <c r="J14" s="99"/>
+    </row>
+    <row r="15" spans="3:10" ht="15">
+      <c r="C15" s="99">
+        <v>6</v>
+      </c>
+      <c r="D15" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="117">
+        <v>1</v>
+      </c>
+      <c r="F15" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G15" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H15" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="103"/>
+      <c r="J15" s="99"/>
+    </row>
+    <row r="16" spans="3:10" ht="15">
+      <c r="C16" s="99"/>
+      <c r="D16" s="116" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="119">
+        <v>1</v>
+      </c>
+      <c r="F16" s="120">
+        <v>1000000</v>
+      </c>
+      <c r="G16" s="118">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="121" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="103"/>
+      <c r="J16" s="99"/>
+    </row>
+    <row r="17" spans="3:10" ht="15">
+      <c r="C17" s="99"/>
+      <c r="D17" s="116" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="117">
+        <v>1</v>
+      </c>
+      <c r="F17" s="118">
+        <v>1000000</v>
+      </c>
+      <c r="G17" s="118">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="103"/>
+      <c r="J17" s="99"/>
+    </row>
+    <row r="18" spans="3:10" ht="15">
+      <c r="C18" s="99"/>
+      <c r="D18" s="116" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="117">
+        <v>1</v>
+      </c>
+      <c r="F18" s="118">
+        <v>3000000</v>
+      </c>
+      <c r="G18" s="118">
+        <f t="shared" si="0"/>
+        <v>3000000</v>
+      </c>
+      <c r="H18" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="103"/>
+      <c r="J18" s="99"/>
+    </row>
+    <row r="19" spans="3:10" ht="15">
+      <c r="C19" s="99"/>
+      <c r="D19" s="116" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="117">
+        <v>1</v>
+      </c>
+      <c r="F19" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G19" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H19" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="103"/>
+      <c r="J19" s="99"/>
+    </row>
+    <row r="20" spans="3:10" ht="15">
+      <c r="C20" s="99"/>
+      <c r="D20" s="116" t="s">
+        <v>281</v>
+      </c>
+      <c r="E20" s="117">
+        <v>1</v>
+      </c>
+      <c r="F20" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G20" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H20" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="103"/>
+      <c r="J20" s="99"/>
+    </row>
+    <row r="21" spans="3:10" ht="15">
+      <c r="C21" s="99"/>
+      <c r="D21" s="116" t="s">
+        <v>282</v>
+      </c>
+      <c r="E21" s="117">
+        <v>1</v>
+      </c>
+      <c r="F21" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G21" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H21" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="103"/>
+      <c r="J21" s="99"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
+      <c r="C22" s="99"/>
+      <c r="D22" s="116" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="117">
+        <v>1</v>
+      </c>
+      <c r="F22" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G22" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H22" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="103"/>
+      <c r="J22" s="99"/>
+    </row>
+    <row r="23" spans="3:10" ht="15">
+      <c r="C23" s="99"/>
+      <c r="D23" s="116" t="s">
+        <v>288</v>
+      </c>
+      <c r="E23" s="117">
+        <v>1</v>
+      </c>
+      <c r="F23" s="118">
+        <v>500000</v>
+      </c>
+      <c r="G23" s="118">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="H23" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="103"/>
+      <c r="J23" s="99"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="99"/>
+      <c r="D24" s="116" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="117">
+        <v>1</v>
+      </c>
+      <c r="F24" s="118">
+        <v>3500000</v>
+      </c>
+      <c r="G24" s="118">
+        <f t="shared" si="0"/>
+        <v>3500000</v>
+      </c>
+      <c r="H24" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="J24" s="99"/>
+    </row>
+    <row r="25" spans="3:10" ht="15">
+      <c r="C25" s="99"/>
+      <c r="D25" s="116" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25" s="117">
+        <v>1</v>
+      </c>
+      <c r="F25" s="118">
+        <v>3500000</v>
+      </c>
+      <c r="G25" s="118">
+        <f t="shared" si="0"/>
+        <v>3500000</v>
+      </c>
+      <c r="H25" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="103"/>
+      <c r="J25" s="99"/>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="99"/>
+      <c r="D26" s="116" t="s">
+        <v>301</v>
+      </c>
+      <c r="E26" s="117">
+        <v>1</v>
+      </c>
+      <c r="F26" s="118">
+        <v>3500000</v>
+      </c>
+      <c r="G26" s="118">
+        <f t="shared" ref="G26:G27" si="1">E26*F26</f>
+        <v>3500000</v>
+      </c>
+      <c r="H26" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="103"/>
+      <c r="J26" s="99"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="99"/>
+      <c r="D27" s="116" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" s="117">
+        <v>1</v>
+      </c>
+      <c r="F27" s="118">
+        <v>3500000</v>
+      </c>
+      <c r="G27" s="118">
+        <f t="shared" si="1"/>
+        <v>3500000</v>
+      </c>
+      <c r="H27" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="103"/>
+      <c r="J27" s="99"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="99"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="99"/>
+    </row>
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="99"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="99"/>
+    </row>
+    <row r="30" spans="3:10" ht="15">
+      <c r="C30" s="99"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="122">
+        <f>SUM(G10:G19)</f>
+        <v>8500000</v>
+      </c>
+      <c r="H30" s="123"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="15">
+      <c r="C31" s="99"/>
+      <c r="D31" s="167" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="99"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="99">
+        <v>1</v>
+      </c>
+      <c r="D32" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="119">
+        <v>1</v>
+      </c>
+      <c r="F32" s="118">
+        <v>40000</v>
+      </c>
+      <c r="G32" s="118">
+        <f>E32*F32</f>
+        <v>40000</v>
+      </c>
+      <c r="H32" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="103"/>
+      <c r="J32" s="99"/>
+    </row>
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="99">
+        <v>2</v>
+      </c>
+      <c r="D33" s="116" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="119">
+        <v>1</v>
+      </c>
+      <c r="F33" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G33" s="118">
+        <f t="shared" ref="G33:G80" si="2">E33*F33</f>
+        <v>120000</v>
+      </c>
+      <c r="H33" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" s="103"/>
+      <c r="J33" s="99"/>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="99">
+        <v>3</v>
+      </c>
+      <c r="D34" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="119">
+        <v>1</v>
+      </c>
+      <c r="F34" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G34" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H34" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="103"/>
+      <c r="J34" s="99"/>
+    </row>
+    <row r="35" spans="3:10" ht="15">
+      <c r="C35" s="99">
+        <v>4</v>
+      </c>
+      <c r="D35" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="119">
+        <v>1</v>
+      </c>
+      <c r="F35" s="118">
+        <v>40000</v>
+      </c>
+      <c r="G35" s="118">
+        <f t="shared" si="2"/>
+        <v>40000</v>
+      </c>
+      <c r="H35" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="103"/>
+      <c r="J35" s="99"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
+      <c r="C36" s="99">
+        <v>5</v>
+      </c>
+      <c r="D36" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="119">
+        <v>1</v>
+      </c>
+      <c r="F36" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G36" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H36" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="103"/>
+      <c r="J36" s="99"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
+      <c r="C37" s="99">
+        <v>6</v>
+      </c>
+      <c r="D37" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="119">
+        <v>1</v>
+      </c>
+      <c r="F37" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G37" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H37" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="103"/>
+      <c r="J37" s="99"/>
+    </row>
+    <row r="38" spans="3:10" ht="15">
+      <c r="C38" s="99">
+        <v>7</v>
+      </c>
+      <c r="D38" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="119">
+        <v>1</v>
+      </c>
+      <c r="F38" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G38" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H38" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I38" s="103"/>
+      <c r="J38" s="99"/>
+    </row>
+    <row r="39" spans="3:10" ht="15">
+      <c r="C39" s="99">
+        <v>8</v>
+      </c>
+      <c r="D39" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="119">
+        <v>1</v>
+      </c>
+      <c r="F39" s="118">
+        <v>80000</v>
+      </c>
+      <c r="G39" s="118">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="H39" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="103"/>
+      <c r="J39" s="99"/>
+    </row>
+    <row r="40" spans="3:10" ht="15">
+      <c r="C40" s="99">
+        <v>9</v>
+      </c>
+      <c r="D40" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="119">
+        <v>1</v>
+      </c>
+      <c r="F40" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G40" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H40" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I40" s="103"/>
+      <c r="J40" s="99"/>
+    </row>
+    <row r="41" spans="3:10" ht="15">
+      <c r="C41" s="99">
+        <v>10</v>
+      </c>
+      <c r="D41" s="116" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="119">
+        <v>1</v>
+      </c>
+      <c r="F41" s="118">
+        <v>200000</v>
+      </c>
+      <c r="G41" s="118">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="H41" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="103"/>
+      <c r="J41" s="99"/>
+    </row>
+    <row r="42" spans="3:10" ht="15">
+      <c r="C42" s="99">
+        <v>11</v>
+      </c>
+      <c r="D42" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="119">
+        <v>1</v>
+      </c>
+      <c r="F42" s="118">
+        <v>80000</v>
+      </c>
+      <c r="G42" s="118">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="H42" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="103"/>
+      <c r="J42" s="99"/>
+    </row>
+    <row r="43" spans="3:10" ht="15">
+      <c r="C43" s="99">
+        <v>12</v>
+      </c>
+      <c r="D43" s="116" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="119">
+        <v>1</v>
+      </c>
+      <c r="F43" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G43" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H43" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" s="103"/>
+      <c r="J43" s="99"/>
+    </row>
+    <row r="44" spans="3:10" ht="15">
+      <c r="C44" s="99">
+        <v>13</v>
+      </c>
+      <c r="D44" s="116" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="119">
+        <v>1</v>
+      </c>
+      <c r="F44" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G44" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H44" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" s="103"/>
+      <c r="J44" s="99"/>
+    </row>
+    <row r="45" spans="3:10" ht="15">
+      <c r="C45" s="99">
+        <v>14</v>
+      </c>
+      <c r="D45" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="119">
+        <v>1</v>
+      </c>
+      <c r="F45" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G45" s="118">
+        <f>E45*F45</f>
+        <v>120000</v>
+      </c>
+      <c r="H45" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" s="103"/>
+      <c r="J45" s="99"/>
+    </row>
+    <row r="46" spans="3:10" ht="15">
+      <c r="C46" s="99">
+        <v>15</v>
+      </c>
+      <c r="D46" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="119">
+        <v>1</v>
+      </c>
+      <c r="F46" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G46" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H46" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" s="103"/>
+      <c r="J46" s="99"/>
+    </row>
+    <row r="47" spans="3:10" ht="15">
+      <c r="C47" s="99">
+        <v>16</v>
+      </c>
+      <c r="D47" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="119">
+        <v>1</v>
+      </c>
+      <c r="F47" s="118">
+        <v>200000</v>
+      </c>
+      <c r="G47" s="118">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="H47" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" s="103"/>
+      <c r="J47" s="99"/>
+    </row>
+    <row r="48" spans="3:10" ht="15">
+      <c r="C48" s="99">
+        <v>17</v>
+      </c>
+      <c r="D48" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="119">
+        <v>1</v>
+      </c>
+      <c r="F48" s="120">
+        <v>360000</v>
+      </c>
+      <c r="G48" s="118">
+        <f t="shared" si="2"/>
+        <v>360000</v>
+      </c>
+      <c r="H48" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="103"/>
+      <c r="J48" s="99"/>
+    </row>
+    <row r="49" spans="3:10" ht="15">
+      <c r="C49" s="99">
+        <v>18</v>
+      </c>
+      <c r="D49" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="119">
+        <v>1</v>
+      </c>
+      <c r="F49" s="120">
+        <v>170000</v>
+      </c>
+      <c r="G49" s="118">
+        <f t="shared" si="2"/>
+        <v>170000</v>
+      </c>
+      <c r="H49" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="103"/>
+      <c r="J49" s="99"/>
+    </row>
+    <row r="50" spans="3:10" ht="15">
+      <c r="C50" s="99">
+        <v>19</v>
+      </c>
+      <c r="D50" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="119">
+        <v>1</v>
+      </c>
+      <c r="F50" s="118">
+        <v>204000</v>
+      </c>
+      <c r="G50" s="118">
+        <f t="shared" si="2"/>
+        <v>204000</v>
+      </c>
+      <c r="H50" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="103"/>
+      <c r="J50" s="99"/>
+    </row>
+    <row r="51" spans="3:10" ht="15">
+      <c r="C51" s="99">
+        <v>20</v>
+      </c>
+      <c r="D51" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="119">
+        <v>1</v>
+      </c>
+      <c r="F51" s="118">
+        <v>227000</v>
+      </c>
+      <c r="G51" s="118">
+        <f t="shared" si="2"/>
+        <v>227000</v>
+      </c>
+      <c r="H51" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="103"/>
+      <c r="J51" s="99"/>
+    </row>
+    <row r="52" spans="3:10" ht="15">
+      <c r="C52" s="99">
+        <v>21</v>
+      </c>
+      <c r="D52" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="119">
+        <v>1</v>
+      </c>
+      <c r="F52" s="118">
+        <v>287000</v>
+      </c>
+      <c r="G52" s="118">
+        <f t="shared" si="2"/>
+        <v>287000</v>
+      </c>
+      <c r="H52" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+    </row>
+    <row r="53" spans="3:10" ht="15">
+      <c r="C53" s="99">
+        <v>22</v>
+      </c>
+      <c r="D53" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="119">
+        <v>1</v>
+      </c>
+      <c r="F53" s="118">
+        <v>81000</v>
+      </c>
+      <c r="G53" s="118">
+        <f t="shared" si="2"/>
+        <v>81000</v>
+      </c>
+      <c r="H53" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+    </row>
+    <row r="54" spans="3:10" ht="15">
+      <c r="C54" s="99"/>
+      <c r="D54" s="116" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="119">
+        <v>1</v>
+      </c>
+      <c r="F54" s="118">
+        <v>300000</v>
+      </c>
+      <c r="G54" s="118">
+        <f t="shared" si="2"/>
+        <v>300000</v>
+      </c>
+      <c r="H54" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+    </row>
+    <row r="55" spans="3:10" ht="15">
+      <c r="C55" s="99"/>
+      <c r="D55" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="119">
+        <v>1</v>
+      </c>
+      <c r="F55" s="118">
+        <v>147000</v>
+      </c>
+      <c r="G55" s="118">
+        <f t="shared" si="2"/>
+        <v>147000</v>
+      </c>
+      <c r="H55" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
+    </row>
+    <row r="56" spans="3:10" ht="15">
+      <c r="C56" s="99"/>
+      <c r="D56" s="116" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="119">
+        <v>1</v>
+      </c>
+      <c r="F56" s="118">
+        <v>160000</v>
+      </c>
+      <c r="G56" s="118">
+        <f t="shared" si="2"/>
+        <v>160000</v>
+      </c>
+      <c r="H56" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="99"/>
+      <c r="J56" s="99"/>
+    </row>
+    <row r="57" spans="3:10" ht="15">
+      <c r="C57" s="99"/>
+      <c r="D57" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="119">
+        <v>1</v>
+      </c>
+      <c r="F57" s="118">
+        <v>76000</v>
+      </c>
+      <c r="G57" s="118">
+        <f t="shared" si="2"/>
+        <v>76000</v>
+      </c>
+      <c r="H57" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="99"/>
+      <c r="J57" s="99"/>
+    </row>
+    <row r="58" spans="3:10" ht="15">
+      <c r="C58" s="99"/>
+      <c r="D58" s="116" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="119">
+        <v>1</v>
+      </c>
+      <c r="F58" s="118">
+        <v>150000</v>
+      </c>
+      <c r="G58" s="118">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="H58" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" s="99"/>
+      <c r="J58" s="99"/>
+    </row>
+    <row r="59" spans="3:10" ht="15">
+      <c r="C59" s="99"/>
+      <c r="D59" s="116" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="119">
+        <v>1</v>
+      </c>
+      <c r="F59" s="118">
+        <v>96000</v>
+      </c>
+      <c r="G59" s="118">
+        <f t="shared" si="2"/>
+        <v>96000</v>
+      </c>
+      <c r="H59" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="99"/>
+      <c r="J59" s="99"/>
+    </row>
+    <row r="60" spans="3:10" ht="15">
+      <c r="C60" s="99"/>
+      <c r="D60" s="116" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="119">
+        <v>1</v>
+      </c>
+      <c r="F60" s="118">
+        <v>250000</v>
+      </c>
+      <c r="G60" s="118">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="H60" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="99"/>
+      <c r="J60" s="99"/>
+    </row>
+    <row r="61" spans="3:10" ht="15">
+      <c r="C61" s="99"/>
+      <c r="D61" s="116" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="119">
+        <v>1</v>
+      </c>
+      <c r="F61" s="118">
+        <v>80000</v>
+      </c>
+      <c r="G61" s="118">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="H61" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="99"/>
+      <c r="J61" s="99"/>
+    </row>
+    <row r="62" spans="3:10" ht="15">
+      <c r="C62" s="99"/>
+      <c r="D62" s="116" t="s">
+        <v>185</v>
+      </c>
+      <c r="E62" s="119">
+        <v>1</v>
+      </c>
+      <c r="F62" s="118">
+        <v>80000</v>
+      </c>
+      <c r="G62" s="118">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="H62" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+    </row>
+    <row r="63" spans="3:10" ht="15">
+      <c r="C63" s="99"/>
+      <c r="D63" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="119">
+        <v>1</v>
+      </c>
+      <c r="F63" s="118">
+        <v>100000</v>
+      </c>
+      <c r="G63" s="118">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="H63" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="99"/>
+      <c r="J63" s="99"/>
+    </row>
+    <row r="64" spans="3:10" ht="15">
+      <c r="C64" s="99"/>
+      <c r="D64" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="119">
+        <v>1</v>
+      </c>
+      <c r="F64" s="118">
+        <v>60000</v>
+      </c>
+      <c r="G64" s="118">
+        <f t="shared" si="2"/>
+        <v>60000</v>
+      </c>
+      <c r="H64" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" s="99"/>
+      <c r="J64" s="99"/>
+    </row>
+    <row r="65" spans="3:13" ht="15">
+      <c r="C65" s="99"/>
+      <c r="D65" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="119">
+        <v>1</v>
+      </c>
+      <c r="F65" s="118">
+        <v>150000</v>
+      </c>
+      <c r="G65" s="118">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="H65" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="99"/>
+      <c r="J65" s="99"/>
+    </row>
+    <row r="66" spans="3:13" ht="15">
+      <c r="C66" s="99"/>
+      <c r="D66" s="116" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="119">
+        <v>1</v>
+      </c>
+      <c r="F66" s="118">
+        <v>120000</v>
+      </c>
+      <c r="G66" s="118">
+        <f t="shared" si="2"/>
+        <v>120000</v>
+      </c>
+      <c r="H66" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="99"/>
+      <c r="J66" s="99"/>
+    </row>
+    <row r="67" spans="3:13" ht="15">
+      <c r="C67" s="99"/>
+      <c r="D67" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" s="119">
+        <v>1</v>
+      </c>
+      <c r="F67" s="118">
+        <v>100000</v>
+      </c>
+      <c r="G67" s="118">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="H67" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" s="99"/>
+      <c r="J67" s="99"/>
+    </row>
+    <row r="68" spans="3:13" ht="15">
+      <c r="C68" s="99"/>
+      <c r="D68" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="119">
+        <v>1</v>
+      </c>
+      <c r="F68" s="118">
+        <v>270000</v>
+      </c>
+      <c r="G68" s="118">
+        <f t="shared" si="2"/>
+        <v>270000</v>
+      </c>
+      <c r="H68" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="99"/>
+      <c r="J68" s="99"/>
+      <c r="L68" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="M68" s="111" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13" ht="15">
+      <c r="C69" s="99"/>
+      <c r="D69" s="116" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="119">
+        <v>1</v>
+      </c>
+      <c r="F69" s="118">
+        <v>77000</v>
+      </c>
+      <c r="G69" s="118">
+        <f t="shared" si="2"/>
+        <v>77000</v>
+      </c>
+      <c r="H69" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="99"/>
+      <c r="J69" s="99"/>
+    </row>
+    <row r="70" spans="3:13" ht="15">
+      <c r="C70" s="99"/>
+      <c r="D70" s="116" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="119">
+        <v>1</v>
+      </c>
+      <c r="F70" s="118">
+        <v>1645000</v>
+      </c>
+      <c r="G70" s="118">
+        <f t="shared" si="2"/>
+        <v>1645000</v>
+      </c>
+      <c r="H70" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+    </row>
+    <row r="71" spans="3:13" ht="15">
+      <c r="C71" s="99"/>
+      <c r="D71" s="116" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" s="119">
+        <v>1</v>
+      </c>
+      <c r="F71" s="118">
+        <v>100000</v>
+      </c>
+      <c r="G71" s="118">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="H71" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="99"/>
+      <c r="J71" s="99"/>
+    </row>
+    <row r="72" spans="3:13" ht="15">
+      <c r="C72" s="99"/>
+      <c r="D72" s="116" t="s">
+        <v>278</v>
+      </c>
+      <c r="E72" s="119">
+        <v>1</v>
+      </c>
+      <c r="F72" s="118">
+        <v>86000</v>
+      </c>
+      <c r="G72" s="118">
+        <f t="shared" si="2"/>
+        <v>86000</v>
+      </c>
+      <c r="H72" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="99"/>
+      <c r="J72" s="99"/>
+    </row>
+    <row r="73" spans="3:13" ht="15">
+      <c r="C73" s="99"/>
+      <c r="D73" s="116" t="s">
+        <v>279</v>
+      </c>
+      <c r="E73" s="119">
+        <v>1</v>
+      </c>
+      <c r="F73" s="118">
+        <v>450000</v>
+      </c>
+      <c r="G73" s="118">
+        <f t="shared" si="2"/>
+        <v>450000</v>
+      </c>
+      <c r="H73" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" s="99"/>
+      <c r="J73" s="99"/>
+    </row>
+    <row r="74" spans="3:13" ht="15">
+      <c r="C74" s="99"/>
+      <c r="D74" s="116" t="s">
+        <v>280</v>
+      </c>
+      <c r="E74" s="119">
+        <v>1</v>
+      </c>
+      <c r="F74" s="118">
+        <v>200000</v>
+      </c>
+      <c r="G74" s="118">
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="H74" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+    </row>
+    <row r="75" spans="3:13" ht="15">
+      <c r="C75" s="99"/>
+      <c r="D75" s="116" t="s">
+        <v>284</v>
+      </c>
+      <c r="E75" s="119">
+        <v>1</v>
+      </c>
+      <c r="F75" s="118">
+        <v>157000</v>
+      </c>
+      <c r="G75" s="118">
+        <f t="shared" si="2"/>
+        <v>157000</v>
+      </c>
+      <c r="H75" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="99"/>
+      <c r="J75" s="99"/>
+    </row>
+    <row r="76" spans="3:13" ht="15">
+      <c r="C76" s="99"/>
+      <c r="D76" s="116" t="s">
+        <v>290</v>
+      </c>
+      <c r="E76" s="119">
+        <v>1</v>
+      </c>
+      <c r="F76" s="118">
+        <v>65000</v>
+      </c>
+      <c r="G76" s="118">
+        <f t="shared" si="2"/>
+        <v>65000</v>
+      </c>
+      <c r="H76" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="99"/>
+      <c r="J76" s="99"/>
+    </row>
+    <row r="77" spans="3:13" ht="15">
+      <c r="C77" s="99"/>
+      <c r="D77" s="116" t="s">
+        <v>291</v>
+      </c>
+      <c r="E77" s="119">
+        <v>1</v>
+      </c>
+      <c r="F77" s="118">
+        <v>608000</v>
+      </c>
+      <c r="G77" s="118">
+        <f t="shared" si="2"/>
+        <v>608000</v>
+      </c>
+      <c r="H77" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="99"/>
+      <c r="J77" s="99"/>
+    </row>
+    <row r="78" spans="3:13" ht="15">
+      <c r="C78" s="99"/>
+      <c r="D78" s="116" t="s">
+        <v>297</v>
+      </c>
+      <c r="E78" s="119">
+        <v>1</v>
+      </c>
+      <c r="F78" s="118">
+        <v>250000</v>
+      </c>
+      <c r="G78" s="118">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="H78" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="99"/>
+      <c r="J78" s="99"/>
+    </row>
+    <row r="79" spans="3:13" ht="15">
+      <c r="C79" s="99"/>
+      <c r="D79" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="E79" s="119">
+        <v>1</v>
+      </c>
+      <c r="F79" s="118">
+        <v>155000</v>
+      </c>
+      <c r="G79" s="118">
+        <f t="shared" si="2"/>
+        <v>155000</v>
+      </c>
+      <c r="H79" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="99"/>
+      <c r="J79" s="99"/>
+    </row>
+    <row r="80" spans="3:13" ht="15">
+      <c r="C80" s="99"/>
+      <c r="D80" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="E80" s="119">
+        <v>1</v>
+      </c>
+      <c r="F80" s="118">
+        <v>150000</v>
+      </c>
+      <c r="G80" s="118">
+        <f t="shared" si="2"/>
+        <v>150000</v>
+      </c>
+      <c r="H80" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="99"/>
+      <c r="J80" s="99"/>
+    </row>
+    <row r="81" spans="3:13" ht="15">
+      <c r="C81" s="99"/>
+      <c r="D81" s="116"/>
+      <c r="E81" s="119"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="99"/>
+      <c r="I81" s="99"/>
+      <c r="J81" s="99"/>
+    </row>
+    <row r="82" spans="3:13" ht="15">
+      <c r="C82" s="99"/>
+      <c r="D82" s="116"/>
+      <c r="E82" s="117"/>
+      <c r="F82" s="118"/>
+      <c r="G82" s="122">
+        <f>SUM(G32:G65)</f>
+        <v>4818000</v>
+      </c>
+      <c r="H82" s="123"/>
+      <c r="I82" s="124"/>
+      <c r="J82" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L82" s="146">
+        <f>G30+SUM(G32:G47)+SUM(G52:G67)+G86+G97</f>
+        <v>17167000</v>
+      </c>
+      <c r="M82" s="146">
+        <f>SUM(G48:G51)+G68+G87+G84+G85+SUM(G98:G104)+G109</f>
+        <v>22283700</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" ht="15">
+      <c r="C83" s="99"/>
+      <c r="D83" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="167"/>
+      <c r="F83" s="167"/>
+      <c r="G83" s="167"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="99"/>
+    </row>
+    <row r="84" spans="3:13" ht="15">
+      <c r="C84" s="99">
+        <v>1</v>
+      </c>
+      <c r="D84" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" s="119">
+        <v>1</v>
+      </c>
+      <c r="F84" s="120">
+        <v>1800000</v>
+      </c>
+      <c r="G84" s="129">
+        <f>F84*E84</f>
+        <v>1800000</v>
+      </c>
+      <c r="H84" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="14"/>
+      <c r="J84" s="130"/>
+    </row>
+    <row r="85" spans="3:13" ht="15">
+      <c r="C85" s="99">
+        <v>2</v>
+      </c>
+      <c r="D85" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85" s="119">
+        <v>1</v>
+      </c>
+      <c r="F85" s="120">
+        <v>5000000</v>
+      </c>
+      <c r="G85" s="129">
+        <f>F85*E85</f>
+        <v>5000000</v>
+      </c>
+      <c r="H85" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="14"/>
+      <c r="J85" s="130"/>
+    </row>
+    <row r="86" spans="3:13" ht="15">
+      <c r="C86" s="99">
+        <v>3</v>
+      </c>
+      <c r="D86" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="116">
+        <v>1</v>
+      </c>
+      <c r="F86" s="118">
+        <v>2590000</v>
+      </c>
+      <c r="G86" s="129">
+        <f>F86*E86</f>
+        <v>2590000</v>
+      </c>
+      <c r="H86" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" s="103"/>
+      <c r="J86" s="130"/>
+    </row>
+    <row r="87" spans="3:13" ht="15">
+      <c r="C87" s="99"/>
+      <c r="D87" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="98">
+        <v>1</v>
+      </c>
+      <c r="F87" s="101">
+        <v>410000</v>
+      </c>
+      <c r="G87" s="129">
+        <f>F87*E87</f>
+        <v>410000</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="14"/>
+      <c r="J87" s="130"/>
+    </row>
+    <row r="88" spans="3:13" ht="15">
+      <c r="C88" s="99"/>
+      <c r="D88" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E88" s="98">
+        <v>1</v>
+      </c>
+      <c r="F88" s="101">
+        <v>1500000</v>
+      </c>
+      <c r="G88" s="44">
+        <f>E88*F88</f>
+        <v>1500000</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="14"/>
+      <c r="J88" s="130"/>
+    </row>
+    <row r="89" spans="3:13" ht="15">
+      <c r="C89" s="99"/>
+      <c r="D89" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E89" s="98">
+        <v>1</v>
+      </c>
+      <c r="F89" s="101">
+        <v>750000</v>
+      </c>
+      <c r="G89" s="44">
+        <f t="shared" ref="G89:G92" si="3">E89*F89</f>
+        <v>750000</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" s="14"/>
+      <c r="J89" s="130"/>
+    </row>
+    <row r="90" spans="3:13" ht="15">
+      <c r="C90" s="99"/>
+      <c r="D90" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E90" s="98">
+        <v>1</v>
+      </c>
+      <c r="F90" s="101">
+        <v>200000</v>
+      </c>
+      <c r="G90" s="44">
+        <f t="shared" si="3"/>
+        <v>200000</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I90" s="14"/>
+      <c r="J90" s="130"/>
+    </row>
+    <row r="91" spans="3:13" ht="15">
+      <c r="C91" s="99"/>
+      <c r="D91" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" s="98">
+        <v>1</v>
+      </c>
+      <c r="F91" s="101">
+        <v>226000</v>
+      </c>
+      <c r="G91" s="44">
+        <f t="shared" si="3"/>
+        <v>226000</v>
+      </c>
+      <c r="H91" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="14"/>
+      <c r="J91" s="130"/>
+    </row>
+    <row r="92" spans="3:13" ht="15">
+      <c r="C92" s="99"/>
+      <c r="D92" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E92" s="98">
+        <v>1</v>
+      </c>
+      <c r="F92" s="101">
+        <v>390000</v>
+      </c>
+      <c r="G92" s="44">
+        <f t="shared" si="3"/>
+        <v>390000</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I92" s="14"/>
+      <c r="J92" s="130"/>
+    </row>
+    <row r="93" spans="3:13" ht="15">
+      <c r="C93" s="99"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="101"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="130"/>
+    </row>
+    <row r="94" spans="3:13" ht="15">
+      <c r="C94" s="99"/>
+      <c r="D94" s="131"/>
+      <c r="E94" s="132"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="45">
+        <f>SUM(G84:G92)</f>
+        <v>12866000</v>
+      </c>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13">
+      <c r="C95" s="99"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="101"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="105"/>
+      <c r="I95" s="105"/>
+      <c r="J95" s="99"/>
+    </row>
+    <row r="96" spans="3:13" ht="15">
+      <c r="C96" s="99"/>
+      <c r="D96" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="167"/>
+      <c r="F96" s="167"/>
+      <c r="G96" s="167"/>
+      <c r="H96" s="127"/>
+      <c r="I96" s="103"/>
+      <c r="J96" s="99"/>
+    </row>
+    <row r="97" spans="3:10" ht="15">
+      <c r="C97" s="99">
+        <v>1</v>
+      </c>
+      <c r="D97" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="E97" s="119">
+        <v>1</v>
+      </c>
+      <c r="F97" s="118">
+        <v>2000000</v>
+      </c>
+      <c r="G97" s="129">
+        <f>F97*E97</f>
+        <v>2000000</v>
+      </c>
+      <c r="H97" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="I97" s="14"/>
+      <c r="J97" s="130"/>
+    </row>
+    <row r="98" spans="3:10" ht="15">
+      <c r="C98" s="99">
+        <v>2</v>
+      </c>
+      <c r="D98" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="119">
+        <v>1</v>
+      </c>
+      <c r="F98" s="120">
+        <v>250000</v>
+      </c>
+      <c r="G98" s="129">
+        <f t="shared" ref="G98:G105" si="4">F98*E98</f>
+        <v>250000</v>
+      </c>
+      <c r="H98" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I98" s="14"/>
+      <c r="J98" s="130"/>
+    </row>
+    <row r="99" spans="3:10" ht="15">
+      <c r="C99" s="99">
+        <v>3</v>
+      </c>
+      <c r="D99" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" s="116">
+        <v>1</v>
+      </c>
+      <c r="F99" s="120">
+        <v>1000000</v>
+      </c>
+      <c r="G99" s="129">
+        <f t="shared" si="4"/>
+        <v>1000000</v>
+      </c>
+      <c r="H99" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I99" s="103"/>
+      <c r="J99" s="130"/>
+    </row>
+    <row r="100" spans="3:10" ht="15">
+      <c r="C100" s="99"/>
+      <c r="D100" s="128" t="s">
+        <v>112</v>
+      </c>
+      <c r="E100" s="116">
+        <v>1</v>
+      </c>
+      <c r="F100" s="120">
+        <v>1880000</v>
+      </c>
+      <c r="G100" s="129">
+        <f t="shared" si="4"/>
+        <v>1880000</v>
+      </c>
+      <c r="H100" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I100" s="14"/>
+      <c r="J100" s="130"/>
+    </row>
+    <row r="101" spans="3:10" ht="15">
+      <c r="C101" s="99"/>
+      <c r="D101" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="E101" s="116">
+        <v>1</v>
+      </c>
+      <c r="F101" s="120">
+        <v>1200000</v>
+      </c>
+      <c r="G101" s="129">
+        <f t="shared" si="4"/>
+        <v>1200000</v>
+      </c>
+      <c r="H101" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I101" s="14"/>
+      <c r="J101" s="130"/>
+    </row>
+    <row r="102" spans="3:10" ht="15">
+      <c r="C102" s="99"/>
+      <c r="D102" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="E102" s="116">
+        <v>1</v>
+      </c>
+      <c r="F102" s="120">
+        <v>326700</v>
+      </c>
+      <c r="G102" s="129">
+        <f t="shared" si="4"/>
+        <v>326700</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I102" s="14"/>
+      <c r="J102" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="3:10" ht="15">
+      <c r="C103" s="99"/>
+      <c r="D103" s="128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" s="116">
+        <v>1</v>
+      </c>
+      <c r="F103" s="120">
+        <v>1452000</v>
+      </c>
+      <c r="G103" s="129">
+        <f t="shared" si="4"/>
+        <v>1452000</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I103" s="14"/>
+      <c r="J103" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="3:10" ht="15">
+      <c r="C104" s="99"/>
+      <c r="D104" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="E104" s="116">
+        <v>1</v>
+      </c>
+      <c r="F104" s="120">
+        <v>560000</v>
+      </c>
+      <c r="G104" s="129">
+        <f t="shared" si="4"/>
+        <v>560000</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I104" s="14"/>
+      <c r="J104" s="130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="3:10" ht="15">
+      <c r="C105" s="99"/>
+      <c r="D105" s="128" t="s">
+        <v>306</v>
+      </c>
+      <c r="E105" s="116">
+        <v>1</v>
+      </c>
+      <c r="F105" s="120">
+        <v>880000</v>
+      </c>
+      <c r="G105" s="129">
+        <f t="shared" si="4"/>
+        <v>880000</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I105" s="14"/>
+      <c r="J105" s="130"/>
+    </row>
+    <row r="106" spans="3:10" ht="15">
+      <c r="C106" s="99"/>
+      <c r="D106" s="131"/>
+      <c r="E106" s="132"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="45">
+        <f>SUM(G97:G105)</f>
+        <v>9548700</v>
+      </c>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="3:10" ht="15">
+      <c r="C107" s="99"/>
+      <c r="D107" s="131"/>
+      <c r="E107" s="132"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="56"/>
+    </row>
+    <row r="108" spans="3:10" ht="15">
+      <c r="C108" s="99"/>
+      <c r="D108" s="167" t="s">
+        <v>115</v>
+      </c>
+      <c r="E108" s="167"/>
+      <c r="F108" s="167"/>
+      <c r="G108" s="167"/>
+      <c r="H108" s="127"/>
+      <c r="I108" s="103"/>
+      <c r="J108" s="99"/>
+    </row>
+    <row r="109" spans="3:10" ht="15">
+      <c r="C109" s="99"/>
+      <c r="D109" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E109" s="119">
+        <v>1</v>
+      </c>
+      <c r="F109" s="118">
+        <v>7174000</v>
+      </c>
+      <c r="G109" s="129">
+        <f>F109*E109</f>
+        <v>7174000</v>
+      </c>
+      <c r="H109" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I109" s="14"/>
+      <c r="J109" s="130"/>
+    </row>
+    <row r="110" spans="3:10" ht="15">
+      <c r="C110" s="99"/>
+      <c r="D110" s="108"/>
+      <c r="E110" s="119"/>
+      <c r="F110" s="120"/>
+      <c r="G110" s="129"/>
+      <c r="H110" s="134"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="130"/>
+    </row>
+    <row r="111" spans="3:10" ht="15">
+      <c r="C111" s="99"/>
+      <c r="D111" s="128"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="120"/>
+      <c r="G111" s="129"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="130"/>
+    </row>
+    <row r="112" spans="3:10" ht="15">
+      <c r="C112" s="99"/>
+      <c r="D112" s="131"/>
+      <c r="E112" s="132"/>
+      <c r="F112" s="54"/>
+      <c r="G112" s="45">
+        <f>SUM(G109:G110)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="3:10" ht="15">
+      <c r="C113" s="99"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="98"/>
+      <c r="F113" s="101"/>
+      <c r="G113" s="135"/>
+      <c r="H113" s="99"/>
+      <c r="I113" s="99"/>
+      <c r="J113" s="99"/>
+    </row>
+    <row r="114" spans="3:10" ht="15">
+      <c r="C114" s="99"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="98"/>
+      <c r="F114" s="101"/>
+      <c r="G114" s="43">
+        <f>G8-G30-G82-G94-G106-G112</f>
+        <v>-42906700</v>
+      </c>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D83:G83"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E1739C-0CA9-4D70-99CB-9453E6E8DAF2}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -2185,7 +4511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9372CB-71CC-4641-8BE0-54E7DBA302DF}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -2545,11 +4871,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D53FFD-EEE1-438D-A836-A7FF0F43615E}">
   <dimension ref="C2:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2568,16 +4894,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="165" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -2607,12 +4933,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
       <c r="H4" s="77"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -2669,12 +4995,12 @@
     </row>
     <row r="10" spans="3:10" ht="15">
       <c r="C10" s="8"/>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
       <c r="H10" s="77"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
@@ -2795,12 +5121,12 @@
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="77"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
@@ -3002,12 +5328,12 @@
     </row>
     <row r="38" spans="3:10" ht="15">
       <c r="C38" s="8"/>
-      <c r="D38" s="167" t="s">
+      <c r="D38" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
       <c r="H38" s="51"/>
       <c r="I38" s="11"/>
       <c r="J38" s="8"/>
@@ -3164,16 +5490,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="15">
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
     </row>
     <row r="3" spans="3:10" ht="15">
       <c r="C3" s="94" t="s">
@@ -3203,12 +5529,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="94"/>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="97"/>
       <c r="I4" s="94"/>
       <c r="J4" s="94"/>
@@ -3288,12 +5614,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="98"/>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="97"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -3902,12 +6228,12 @@
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="78"/>
-      <c r="D37" s="167" t="s">
+      <c r="D37" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="168"/>
       <c r="H37" s="88"/>
       <c r="I37" s="80"/>
       <c r="J37" s="9"/>
@@ -3942,12 +6268,12 @@
     </row>
     <row r="40" spans="3:10" ht="15">
       <c r="C40" s="78"/>
-      <c r="D40" s="167" t="s">
+      <c r="D40" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
       <c r="H40" s="90"/>
       <c r="I40" s="80"/>
       <c r="J40" s="9"/>
@@ -4104,16 +6430,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="15">
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
     </row>
     <row r="3" spans="3:10" ht="15">
       <c r="C3" s="94" t="s">
@@ -4143,12 +6469,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="94"/>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
       <c r="H4" s="115"/>
       <c r="I4" s="94"/>
       <c r="J4" s="94"/>
@@ -4233,12 +6559,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="99"/>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
       <c r="H9" s="115"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -4652,12 +6978,12 @@
     </row>
     <row r="30" spans="3:13" ht="15">
       <c r="C30" s="99"/>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="167" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
       <c r="H30" s="115"/>
       <c r="I30" s="103"/>
       <c r="J30" s="99"/>
@@ -5020,12 +7346,12 @@
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="99"/>
-      <c r="D48" s="166" t="s">
+      <c r="D48" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="166"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="166"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
       <c r="H48" s="127"/>
       <c r="I48" s="103"/>
       <c r="J48" s="99"/>
@@ -5292,16 +7618,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" ht="20.25">
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="165" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="3:12" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -5331,12 +7657,12 @@
     </row>
     <row r="4" spans="3:12" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
       <c r="H4" s="60"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -5447,12 +7773,12 @@
     </row>
     <row r="10" spans="3:12" ht="15">
       <c r="C10" s="8"/>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
       <c r="H10" s="59"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
@@ -5589,12 +7915,12 @@
     </row>
     <row r="18" spans="3:16" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="59"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9"/>
@@ -5924,12 +8250,12 @@
     </row>
     <row r="31" spans="3:16" ht="15">
       <c r="C31" s="8"/>
-      <c r="D31" s="167" t="s">
+      <c r="D31" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
       <c r="H31" s="51"/>
       <c r="I31" s="11"/>
       <c r="J31" s="8"/>
@@ -6129,16 +8455,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16" ht="20.25">
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="3:16" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -6168,24 +8494,24 @@
     </row>
     <row r="4" spans="3:16" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
       <c r="H4" s="57"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="3:16" ht="20.25">
       <c r="C5" s="7"/>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
       <c r="H5" s="60"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -6290,12 +8616,12 @@
     </row>
     <row r="11" spans="3:16" ht="15">
       <c r="C11" s="8"/>
-      <c r="D11" s="167" t="s">
+      <c r="D11" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
       <c r="H11" s="57"/>
       <c r="I11" s="11"/>
       <c r="J11" s="9"/>
@@ -6491,12 +8817,12 @@
     </row>
     <row r="18" spans="3:10" ht="15">
       <c r="C18" s="8"/>
-      <c r="D18" s="167" t="s">
+      <c r="D18" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
       <c r="H18" s="51"/>
       <c r="I18" s="11"/>
       <c r="J18" s="8"/>
@@ -6650,8 +8976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
   <dimension ref="C2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6669,16 +8995,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -6708,12 +9034,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
       <c r="H4" s="48"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -6771,12 +9097,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="48"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -6927,7 +9253,7 @@
         <v>15000</v>
       </c>
       <c r="G16" s="23">
-        <f t="shared" ref="G16:G22" si="0">F16*E16</f>
+        <f t="shared" ref="G16:G23" si="0">F16*E16</f>
         <v>150000</v>
       </c>
       <c r="H16" s="34" t="s">
@@ -7066,11 +9392,22 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
+      <c r="D23" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23">
+        <v>100000</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="9"/>
     </row>
@@ -7101,12 +9438,12 @@
     </row>
     <row r="26" spans="3:10" ht="15">
       <c r="C26" s="8"/>
-      <c r="D26" s="167" t="s">
+      <c r="D26" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
       <c r="H26" s="48"/>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
@@ -7138,12 +9475,12 @@
     </row>
     <row r="29" spans="3:10" ht="15">
       <c r="C29" s="8"/>
-      <c r="D29" s="167" t="s">
+      <c r="D29" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
       <c r="H29" s="51"/>
       <c r="I29" s="11"/>
       <c r="J29" s="8"/>
@@ -7286,6 +9623,503 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76B0C4E-BB10-4A27-93F6-ECDC21CDE865}">
+  <dimension ref="C2:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="8.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" style="46" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" ht="20.25">
+      <c r="C2" s="165" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+    </row>
+    <row r="3" spans="3:10" ht="15.75">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="15.75" customHeight="1">
+      <c r="C4" s="7"/>
+      <c r="D4" s="168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="42">
+        <v>25000000</v>
+      </c>
+      <c r="G5" s="42">
+        <f>F5*E5</f>
+        <v>25000000</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="3:10" ht="15">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43">
+        <f>SUM(G5:G7)</f>
+        <v>25000000</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" ht="15">
+      <c r="C9" s="8"/>
+      <c r="D9" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="3:10" ht="15">
+      <c r="C10" s="8"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="3:10" ht="15">
+      <c r="C11" s="8"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="3:10" ht="15">
+      <c r="C12" s="8"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="3:10" ht="15">
+      <c r="C13" s="8"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="3:10" ht="15">
+      <c r="C14" s="8"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="3:10" ht="15">
+      <c r="C15" s="8"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="3:10" ht="15">
+      <c r="C16" s="8"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="3:10" ht="15">
+      <c r="C17" s="8"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="3:10" ht="15">
+      <c r="C18" s="8"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="3:10" ht="15">
+      <c r="C19" s="8"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="3:10" ht="15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="3:10" ht="15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:10" ht="15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:10" ht="15">
+      <c r="C23" s="8"/>
+      <c r="D23" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23">
+        <v>210000</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" ref="G23" si="0">F23*E23</f>
+        <v>210000</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="11"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10" ht="15">
+      <c r="C24" s="8"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="3:10" ht="15">
+      <c r="C25" s="8"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="49">
+        <f>SUM(G10:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="50"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="15">
+      <c r="C26" s="8"/>
+      <c r="D26" s="168" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:10" ht="15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="3:10" ht="15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="49">
+        <f>SUM(G27)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="50"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="3:10" ht="15">
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="28"/>
+    </row>
+    <row r="31" spans="3:10" ht="15">
+      <c r="C31" s="8">
+        <v>2</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="42">
+        <v>5000000</v>
+      </c>
+      <c r="G31" s="44"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="3:10" ht="15">
+      <c r="C32" s="8">
+        <v>3</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="42">
+        <v>20000000</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="3:10" ht="15">
+      <c r="C33" s="8">
+        <v>4</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="3:10" ht="15">
+      <c r="C34" s="8"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="45">
+        <f>SUM(G30:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
+      <c r="C36" s="8"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="3:10" ht="15">
+      <c r="C37" s="8"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43">
+        <f>G8-G25-G28-G34</f>
+        <v>25000000</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D29:G29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F130950-C7C5-472A-9BC1-443D40499FE8}">
   <dimension ref="C2:J32"/>
   <sheetViews>
@@ -7308,16 +10142,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
     </row>
     <row r="3" spans="3:10" ht="15.75">
       <c r="C3" s="6" t="s">
@@ -7347,12 +10181,12 @@
     </row>
     <row r="4" spans="3:10" ht="15.75" customHeight="1">
       <c r="C4" s="7"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
       <c r="H4" s="48"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -7410,12 +10244,12 @@
     </row>
     <row r="9" spans="3:10" ht="15">
       <c r="C9" s="8"/>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
       <c r="H9" s="48"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
@@ -7587,12 +10421,12 @@
     </row>
     <row r="20" spans="3:10" ht="15">
       <c r="C20" s="8"/>
-      <c r="D20" s="167" t="s">
+      <c r="D20" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
       <c r="H20" s="48"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9"/>
@@ -7624,12 +10458,12 @@
     </row>
     <row r="23" spans="3:10" ht="15">
       <c r="C23" s="8"/>
-      <c r="D23" s="167" t="s">
+      <c r="D23" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
       <c r="H23" s="51"/>
       <c r="I23" s="11"/>
       <c r="J23" s="8"/>
@@ -7761,2148 +10595,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:M110"/>
-  <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="2" width="9.140625" style="111"/>
-    <col min="3" max="3" width="8.42578125" style="111" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="111" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="137" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="138" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="138" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="139" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="139" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" style="111" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="111"/>
-    <col min="12" max="13" width="11.5703125" style="111" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="111"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:10" ht="20.25">
-      <c r="C2" s="168" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-    </row>
-    <row r="3" spans="3:10" ht="15.75">
-      <c r="C3" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="113" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="112" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C4" s="114"/>
-      <c r="D4" s="166" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-    </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="99">
-        <v>1</v>
-      </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="99"/>
-    </row>
-    <row r="6" spans="3:10">
-      <c r="C6" s="99">
-        <v>2</v>
-      </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="99"/>
-    </row>
-    <row r="7" spans="3:10">
-      <c r="C7" s="99">
-        <v>3</v>
-      </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="99"/>
-    </row>
-    <row r="8" spans="3:10" ht="15">
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="43">
-        <f>SUM(G5:G7)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" ht="15">
-      <c r="C9" s="99"/>
-      <c r="D9" s="166" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="3:10" ht="15">
-      <c r="C10" s="99">
-        <v>1</v>
-      </c>
-      <c r="D10" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="117">
-        <v>1</v>
-      </c>
-      <c r="F10" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G10" s="118">
-        <f>E10*F10</f>
-        <v>500000</v>
-      </c>
-      <c r="H10" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="103"/>
-      <c r="J10" s="99"/>
-    </row>
-    <row r="11" spans="3:10" ht="15">
-      <c r="C11" s="99">
-        <v>2</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="117">
-        <v>1</v>
-      </c>
-      <c r="F11" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G11" s="118">
-        <f t="shared" ref="G11:G19" si="0">E11*F11</f>
-        <v>500000</v>
-      </c>
-      <c r="H11" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="103"/>
-      <c r="J11" s="99"/>
-    </row>
-    <row r="12" spans="3:10" ht="15">
-      <c r="C12" s="99">
-        <v>3</v>
-      </c>
-      <c r="D12" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="117">
-        <v>1</v>
-      </c>
-      <c r="F12" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G12" s="118">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H12" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="103"/>
-      <c r="J12" s="99"/>
-    </row>
-    <row r="13" spans="3:10" ht="15">
-      <c r="C13" s="99">
-        <v>4</v>
-      </c>
-      <c r="D13" s="116" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="117">
-        <v>1</v>
-      </c>
-      <c r="F13" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G13" s="118">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H13" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="103"/>
-      <c r="J13" s="99"/>
-    </row>
-    <row r="14" spans="3:10" ht="15">
-      <c r="C14" s="99">
-        <v>5</v>
-      </c>
-      <c r="D14" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="117">
-        <v>1</v>
-      </c>
-      <c r="F14" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G14" s="118">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H14" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="105"/>
-      <c r="J14" s="99"/>
-    </row>
-    <row r="15" spans="3:10" ht="15">
-      <c r="C15" s="99">
-        <v>6</v>
-      </c>
-      <c r="D15" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="117">
-        <v>1</v>
-      </c>
-      <c r="F15" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G15" s="118">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H15" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="103"/>
-      <c r="J15" s="99"/>
-    </row>
-    <row r="16" spans="3:10" ht="15">
-      <c r="C16" s="99"/>
-      <c r="D16" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="119">
-        <v>1</v>
-      </c>
-      <c r="F16" s="120">
-        <v>1000000</v>
-      </c>
-      <c r="G16" s="118">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="H16" s="121" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="103"/>
-      <c r="J16" s="99"/>
-    </row>
-    <row r="17" spans="3:10" ht="15">
-      <c r="C17" s="99"/>
-      <c r="D17" s="116" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" s="117">
-        <v>1</v>
-      </c>
-      <c r="F17" s="118">
-        <v>1000000</v>
-      </c>
-      <c r="G17" s="118">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="H17" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="103"/>
-      <c r="J17" s="99"/>
-    </row>
-    <row r="18" spans="3:10" ht="15">
-      <c r="C18" s="99"/>
-      <c r="D18" s="116" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="117">
-        <v>1</v>
-      </c>
-      <c r="F18" s="118">
-        <v>3000000</v>
-      </c>
-      <c r="G18" s="118">
-        <f t="shared" si="0"/>
-        <v>3000000</v>
-      </c>
-      <c r="H18" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="103"/>
-      <c r="J18" s="99"/>
-    </row>
-    <row r="19" spans="3:10" ht="15">
-      <c r="C19" s="99"/>
-      <c r="D19" s="116" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="117">
-        <v>1</v>
-      </c>
-      <c r="F19" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G19" s="118">
-        <f t="shared" si="0"/>
-        <v>500000</v>
-      </c>
-      <c r="H19" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="103"/>
-      <c r="J19" s="99"/>
-    </row>
-    <row r="20" spans="3:10" ht="15">
-      <c r="C20" s="99"/>
-      <c r="D20" s="116" t="s">
-        <v>281</v>
-      </c>
-      <c r="E20" s="117">
-        <v>1</v>
-      </c>
-      <c r="F20" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G20" s="118">
-        <f t="shared" ref="G20:G22" si="1">E20*F20</f>
-        <v>500000</v>
-      </c>
-      <c r="H20" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="103"/>
-      <c r="J20" s="99"/>
-    </row>
-    <row r="21" spans="3:10" ht="15">
-      <c r="C21" s="99"/>
-      <c r="D21" s="116" t="s">
-        <v>282</v>
-      </c>
-      <c r="E21" s="117">
-        <v>1</v>
-      </c>
-      <c r="F21" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G21" s="118">
-        <f t="shared" si="1"/>
-        <v>500000</v>
-      </c>
-      <c r="H21" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="103"/>
-      <c r="J21" s="99"/>
-    </row>
-    <row r="22" spans="3:10" ht="15">
-      <c r="C22" s="99"/>
-      <c r="D22" s="116" t="s">
-        <v>283</v>
-      </c>
-      <c r="E22" s="117">
-        <v>1</v>
-      </c>
-      <c r="F22" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G22" s="118">
-        <f t="shared" si="1"/>
-        <v>500000</v>
-      </c>
-      <c r="H22" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="103"/>
-      <c r="J22" s="99"/>
-    </row>
-    <row r="23" spans="3:10" ht="15">
-      <c r="C23" s="99"/>
-      <c r="D23" s="116" t="s">
-        <v>288</v>
-      </c>
-      <c r="E23" s="117">
-        <v>1</v>
-      </c>
-      <c r="F23" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G23" s="118">
-        <v>500000</v>
-      </c>
-      <c r="H23" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="103"/>
-      <c r="J23" s="99"/>
-    </row>
-    <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="99"/>
-      <c r="D24" s="116" t="s">
-        <v>287</v>
-      </c>
-      <c r="E24" s="117">
-        <v>1</v>
-      </c>
-      <c r="F24" s="118">
-        <v>500000</v>
-      </c>
-      <c r="G24" s="118">
-        <v>500000</v>
-      </c>
-      <c r="H24" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" s="103"/>
-      <c r="J24" s="99"/>
-    </row>
-    <row r="25" spans="3:10" ht="15">
-      <c r="C25" s="99"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="99"/>
-    </row>
-    <row r="26" spans="3:10" ht="15">
-      <c r="C26" s="99"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="99"/>
-    </row>
-    <row r="27" spans="3:10" ht="15">
-      <c r="C27" s="99"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="99"/>
-    </row>
-    <row r="28" spans="3:10" ht="15">
-      <c r="C28" s="99"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="122">
-        <f>SUM(G10:G19)</f>
-        <v>8500000</v>
-      </c>
-      <c r="H28" s="123"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" ht="15">
-      <c r="C29" s="99"/>
-      <c r="D29" s="166" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="99"/>
-    </row>
-    <row r="30" spans="3:10" ht="15">
-      <c r="C30" s="99">
-        <v>1</v>
-      </c>
-      <c r="D30" s="125" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="119">
-        <v>1</v>
-      </c>
-      <c r="F30" s="118">
-        <v>40000</v>
-      </c>
-      <c r="G30" s="118">
-        <f>E30*F30</f>
-        <v>40000</v>
-      </c>
-      <c r="H30" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" s="103"/>
-      <c r="J30" s="99"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="99">
-        <v>2</v>
-      </c>
-      <c r="D31" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="119">
-        <v>1</v>
-      </c>
-      <c r="F31" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G31" s="118">
-        <f t="shared" ref="G31:G75" si="2">E31*F31</f>
-        <v>120000</v>
-      </c>
-      <c r="H31" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" s="103"/>
-      <c r="J31" s="99"/>
-    </row>
-    <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="99">
-        <v>3</v>
-      </c>
-      <c r="D32" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="119">
-        <v>1</v>
-      </c>
-      <c r="F32" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G32" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H32" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" s="103"/>
-      <c r="J32" s="99"/>
-    </row>
-    <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="99">
-        <v>4</v>
-      </c>
-      <c r="D33" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="119">
-        <v>1</v>
-      </c>
-      <c r="F33" s="118">
-        <v>40000</v>
-      </c>
-      <c r="G33" s="118">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="H33" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="103"/>
-      <c r="J33" s="99"/>
-    </row>
-    <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="99">
-        <v>5</v>
-      </c>
-      <c r="D34" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="119">
-        <v>1</v>
-      </c>
-      <c r="F34" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G34" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H34" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="103"/>
-      <c r="J34" s="99"/>
-    </row>
-    <row r="35" spans="3:10" ht="15">
-      <c r="C35" s="99">
-        <v>6</v>
-      </c>
-      <c r="D35" s="116" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="119">
-        <v>1</v>
-      </c>
-      <c r="F35" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G35" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H35" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" s="103"/>
-      <c r="J35" s="99"/>
-    </row>
-    <row r="36" spans="3:10" ht="15">
-      <c r="C36" s="99">
-        <v>7</v>
-      </c>
-      <c r="D36" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="119">
-        <v>1</v>
-      </c>
-      <c r="F36" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G36" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H36" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" s="103"/>
-      <c r="J36" s="99"/>
-    </row>
-    <row r="37" spans="3:10" ht="15">
-      <c r="C37" s="99">
-        <v>8</v>
-      </c>
-      <c r="D37" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="119">
-        <v>1</v>
-      </c>
-      <c r="F37" s="118">
-        <v>80000</v>
-      </c>
-      <c r="G37" s="118">
-        <f t="shared" si="2"/>
-        <v>80000</v>
-      </c>
-      <c r="H37" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" s="103"/>
-      <c r="J37" s="99"/>
-    </row>
-    <row r="38" spans="3:10" ht="15">
-      <c r="C38" s="99">
-        <v>9</v>
-      </c>
-      <c r="D38" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="119">
-        <v>1</v>
-      </c>
-      <c r="F38" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G38" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H38" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" s="103"/>
-      <c r="J38" s="99"/>
-    </row>
-    <row r="39" spans="3:10" ht="15">
-      <c r="C39" s="99">
-        <v>10</v>
-      </c>
-      <c r="D39" s="116" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="119">
-        <v>1</v>
-      </c>
-      <c r="F39" s="118">
-        <v>200000</v>
-      </c>
-      <c r="G39" s="118">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="H39" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" s="103"/>
-      <c r="J39" s="99"/>
-    </row>
-    <row r="40" spans="3:10" ht="15">
-      <c r="C40" s="99">
-        <v>11</v>
-      </c>
-      <c r="D40" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="119">
-        <v>1</v>
-      </c>
-      <c r="F40" s="118">
-        <v>80000</v>
-      </c>
-      <c r="G40" s="118">
-        <f t="shared" si="2"/>
-        <v>80000</v>
-      </c>
-      <c r="H40" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="103"/>
-      <c r="J40" s="99"/>
-    </row>
-    <row r="41" spans="3:10" ht="15">
-      <c r="C41" s="99">
-        <v>12</v>
-      </c>
-      <c r="D41" s="116" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="119">
-        <v>1</v>
-      </c>
-      <c r="F41" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G41" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H41" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" s="103"/>
-      <c r="J41" s="99"/>
-    </row>
-    <row r="42" spans="3:10" ht="15">
-      <c r="C42" s="99">
-        <v>13</v>
-      </c>
-      <c r="D42" s="116" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="119">
-        <v>1</v>
-      </c>
-      <c r="F42" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G42" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H42" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" s="103"/>
-      <c r="J42" s="99"/>
-    </row>
-    <row r="43" spans="3:10" ht="15">
-      <c r="C43" s="99">
-        <v>14</v>
-      </c>
-      <c r="D43" s="116" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="119">
-        <v>1</v>
-      </c>
-      <c r="F43" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G43" s="118">
-        <f>E43*F43</f>
-        <v>120000</v>
-      </c>
-      <c r="H43" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" s="103"/>
-      <c r="J43" s="99"/>
-    </row>
-    <row r="44" spans="3:10" ht="15">
-      <c r="C44" s="99">
-        <v>15</v>
-      </c>
-      <c r="D44" s="116" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="119">
-        <v>1</v>
-      </c>
-      <c r="F44" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G44" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H44" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" s="103"/>
-      <c r="J44" s="99"/>
-    </row>
-    <row r="45" spans="3:10" ht="15">
-      <c r="C45" s="99">
-        <v>16</v>
-      </c>
-      <c r="D45" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="119">
-        <v>1</v>
-      </c>
-      <c r="F45" s="118">
-        <v>200000</v>
-      </c>
-      <c r="G45" s="118">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="H45" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" s="103"/>
-      <c r="J45" s="99"/>
-    </row>
-    <row r="46" spans="3:10" ht="15">
-      <c r="C46" s="99">
-        <v>17</v>
-      </c>
-      <c r="D46" s="116" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="119">
-        <v>1</v>
-      </c>
-      <c r="F46" s="120">
-        <v>360000</v>
-      </c>
-      <c r="G46" s="118">
-        <f t="shared" si="2"/>
-        <v>360000</v>
-      </c>
-      <c r="H46" s="126" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="103"/>
-      <c r="J46" s="99"/>
-    </row>
-    <row r="47" spans="3:10" ht="15">
-      <c r="C47" s="99">
-        <v>18</v>
-      </c>
-      <c r="D47" s="116" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="119">
-        <v>1</v>
-      </c>
-      <c r="F47" s="120">
-        <v>170000</v>
-      </c>
-      <c r="G47" s="118">
-        <f t="shared" si="2"/>
-        <v>170000</v>
-      </c>
-      <c r="H47" s="126" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="103"/>
-      <c r="J47" s="99"/>
-    </row>
-    <row r="48" spans="3:10" ht="15">
-      <c r="C48" s="99">
-        <v>19</v>
-      </c>
-      <c r="D48" s="116" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="119">
-        <v>1</v>
-      </c>
-      <c r="F48" s="118">
-        <v>204000</v>
-      </c>
-      <c r="G48" s="118">
-        <f t="shared" si="2"/>
-        <v>204000</v>
-      </c>
-      <c r="H48" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="103"/>
-      <c r="J48" s="99"/>
-    </row>
-    <row r="49" spans="3:10" ht="15">
-      <c r="C49" s="99">
-        <v>20</v>
-      </c>
-      <c r="D49" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="119">
-        <v>1</v>
-      </c>
-      <c r="F49" s="118">
-        <v>227000</v>
-      </c>
-      <c r="G49" s="118">
-        <f t="shared" si="2"/>
-        <v>227000</v>
-      </c>
-      <c r="H49" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="103"/>
-      <c r="J49" s="99"/>
-    </row>
-    <row r="50" spans="3:10" ht="15">
-      <c r="C50" s="99">
-        <v>21</v>
-      </c>
-      <c r="D50" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="119">
-        <v>1</v>
-      </c>
-      <c r="F50" s="118">
-        <v>287000</v>
-      </c>
-      <c r="G50" s="118">
-        <f t="shared" si="2"/>
-        <v>287000</v>
-      </c>
-      <c r="H50" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-    </row>
-    <row r="51" spans="3:10" ht="15">
-      <c r="C51" s="99">
-        <v>22</v>
-      </c>
-      <c r="D51" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="119">
-        <v>1</v>
-      </c>
-      <c r="F51" s="118">
-        <v>81000</v>
-      </c>
-      <c r="G51" s="118">
-        <f t="shared" si="2"/>
-        <v>81000</v>
-      </c>
-      <c r="H51" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
-    </row>
-    <row r="52" spans="3:10" ht="15">
-      <c r="C52" s="99"/>
-      <c r="D52" s="116" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" s="119">
-        <v>1</v>
-      </c>
-      <c r="F52" s="118">
-        <v>300000</v>
-      </c>
-      <c r="G52" s="118">
-        <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="H52" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
-    </row>
-    <row r="53" spans="3:10" ht="15">
-      <c r="C53" s="99"/>
-      <c r="D53" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="119">
-        <v>1</v>
-      </c>
-      <c r="F53" s="118">
-        <v>147000</v>
-      </c>
-      <c r="G53" s="118">
-        <f t="shared" si="2"/>
-        <v>147000</v>
-      </c>
-      <c r="H53" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-    </row>
-    <row r="54" spans="3:10" ht="15">
-      <c r="C54" s="99"/>
-      <c r="D54" s="116" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="119">
-        <v>1</v>
-      </c>
-      <c r="F54" s="118">
-        <v>160000</v>
-      </c>
-      <c r="G54" s="118">
-        <f t="shared" si="2"/>
-        <v>160000</v>
-      </c>
-      <c r="H54" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-    </row>
-    <row r="55" spans="3:10" ht="15">
-      <c r="C55" s="99"/>
-      <c r="D55" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="119">
-        <v>1</v>
-      </c>
-      <c r="F55" s="118">
-        <v>76000</v>
-      </c>
-      <c r="G55" s="118">
-        <f t="shared" si="2"/>
-        <v>76000</v>
-      </c>
-      <c r="H55" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="99"/>
-      <c r="J55" s="99"/>
-    </row>
-    <row r="56" spans="3:10" ht="15">
-      <c r="C56" s="99"/>
-      <c r="D56" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="119">
-        <v>1</v>
-      </c>
-      <c r="F56" s="118">
-        <v>150000</v>
-      </c>
-      <c r="G56" s="118">
-        <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-      <c r="H56" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="99"/>
-      <c r="J56" s="99"/>
-    </row>
-    <row r="57" spans="3:10" ht="15">
-      <c r="C57" s="99"/>
-      <c r="D57" s="116" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="119">
-        <v>1</v>
-      </c>
-      <c r="F57" s="118">
-        <v>96000</v>
-      </c>
-      <c r="G57" s="118">
-        <f t="shared" si="2"/>
-        <v>96000</v>
-      </c>
-      <c r="H57" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" s="99"/>
-      <c r="J57" s="99"/>
-    </row>
-    <row r="58" spans="3:10" ht="15">
-      <c r="C58" s="99"/>
-      <c r="D58" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" s="119">
-        <v>1</v>
-      </c>
-      <c r="F58" s="118">
-        <v>250000</v>
-      </c>
-      <c r="G58" s="118">
-        <f t="shared" si="2"/>
-        <v>250000</v>
-      </c>
-      <c r="H58" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" s="99"/>
-      <c r="J58" s="99"/>
-    </row>
-    <row r="59" spans="3:10" ht="15">
-      <c r="C59" s="99"/>
-      <c r="D59" s="116" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="119">
-        <v>1</v>
-      </c>
-      <c r="F59" s="118">
-        <v>80000</v>
-      </c>
-      <c r="G59" s="118">
-        <f t="shared" si="2"/>
-        <v>80000</v>
-      </c>
-      <c r="H59" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="99"/>
-      <c r="J59" s="99"/>
-    </row>
-    <row r="60" spans="3:10" ht="15">
-      <c r="C60" s="99"/>
-      <c r="D60" s="116" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="119">
-        <v>1</v>
-      </c>
-      <c r="F60" s="118">
-        <v>80000</v>
-      </c>
-      <c r="G60" s="118">
-        <f t="shared" si="2"/>
-        <v>80000</v>
-      </c>
-      <c r="H60" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="99"/>
-      <c r="J60" s="99"/>
-    </row>
-    <row r="61" spans="3:10" ht="15">
-      <c r="C61" s="99"/>
-      <c r="D61" s="116" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="119">
-        <v>1</v>
-      </c>
-      <c r="F61" s="118">
-        <v>100000</v>
-      </c>
-      <c r="G61" s="118">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="H61" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-    </row>
-    <row r="62" spans="3:10" ht="15">
-      <c r="C62" s="99"/>
-      <c r="D62" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="119">
-        <v>1</v>
-      </c>
-      <c r="F62" s="118">
-        <v>60000</v>
-      </c>
-      <c r="G62" s="118">
-        <f t="shared" si="2"/>
-        <v>60000</v>
-      </c>
-      <c r="H62" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-    </row>
-    <row r="63" spans="3:10" ht="15">
-      <c r="C63" s="99"/>
-      <c r="D63" s="116" t="s">
-        <v>220</v>
-      </c>
-      <c r="E63" s="119">
-        <v>1</v>
-      </c>
-      <c r="F63" s="118">
-        <v>150000</v>
-      </c>
-      <c r="G63" s="118">
-        <f t="shared" si="2"/>
-        <v>150000</v>
-      </c>
-      <c r="H63" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-    </row>
-    <row r="64" spans="3:10" ht="15">
-      <c r="C64" s="99"/>
-      <c r="D64" s="116" t="s">
-        <v>221</v>
-      </c>
-      <c r="E64" s="119">
-        <v>1</v>
-      </c>
-      <c r="F64" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G64" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H64" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-    </row>
-    <row r="65" spans="3:13" ht="15">
-      <c r="C65" s="99"/>
-      <c r="D65" s="116" t="s">
-        <v>250</v>
-      </c>
-      <c r="E65" s="119">
-        <v>1</v>
-      </c>
-      <c r="F65" s="118">
-        <v>100000</v>
-      </c>
-      <c r="G65" s="118">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="H65" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="99"/>
-      <c r="J65" s="99"/>
-    </row>
-    <row r="66" spans="3:13" ht="15">
-      <c r="C66" s="99"/>
-      <c r="D66" s="116" t="s">
-        <v>252</v>
-      </c>
-      <c r="E66" s="119">
-        <v>1</v>
-      </c>
-      <c r="F66" s="118">
-        <v>270000</v>
-      </c>
-      <c r="G66" s="118">
-        <f t="shared" si="2"/>
-        <v>270000</v>
-      </c>
-      <c r="H66" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
-      <c r="L66" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="M66" s="111" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13" ht="15">
-      <c r="C67" s="99"/>
-      <c r="D67" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="E67" s="119">
-        <v>1</v>
-      </c>
-      <c r="F67" s="118">
-        <v>77000</v>
-      </c>
-      <c r="G67" s="118">
-        <f t="shared" si="2"/>
-        <v>77000</v>
-      </c>
-      <c r="H67" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="99"/>
-      <c r="J67" s="99"/>
-    </row>
-    <row r="68" spans="3:13" ht="15">
-      <c r="C68" s="99"/>
-      <c r="D68" s="116" t="s">
-        <v>274</v>
-      </c>
-      <c r="E68" s="119">
-        <v>1</v>
-      </c>
-      <c r="F68" s="118">
-        <v>1645000</v>
-      </c>
-      <c r="G68" s="118">
-        <f t="shared" si="2"/>
-        <v>1645000</v>
-      </c>
-      <c r="H68" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="99"/>
-      <c r="J68" s="99"/>
-    </row>
-    <row r="69" spans="3:13" ht="15">
-      <c r="C69" s="99"/>
-      <c r="D69" s="116" t="s">
-        <v>277</v>
-      </c>
-      <c r="E69" s="119">
-        <v>1</v>
-      </c>
-      <c r="F69" s="118">
-        <v>100000</v>
-      </c>
-      <c r="G69" s="118">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="H69" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="99"/>
-      <c r="J69" s="99"/>
-    </row>
-    <row r="70" spans="3:13" ht="15">
-      <c r="C70" s="99"/>
-      <c r="D70" s="116" t="s">
-        <v>278</v>
-      </c>
-      <c r="E70" s="119">
-        <v>1</v>
-      </c>
-      <c r="F70" s="118">
-        <v>86000</v>
-      </c>
-      <c r="G70" s="118">
-        <f t="shared" si="2"/>
-        <v>86000</v>
-      </c>
-      <c r="H70" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99"/>
-    </row>
-    <row r="71" spans="3:13" ht="15">
-      <c r="C71" s="99"/>
-      <c r="D71" s="116" t="s">
-        <v>279</v>
-      </c>
-      <c r="E71" s="119">
-        <v>1</v>
-      </c>
-      <c r="F71" s="118">
-        <v>450000</v>
-      </c>
-      <c r="G71" s="118">
-        <f t="shared" si="2"/>
-        <v>450000</v>
-      </c>
-      <c r="H71" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" s="99"/>
-      <c r="J71" s="99"/>
-    </row>
-    <row r="72" spans="3:13" ht="15">
-      <c r="C72" s="99"/>
-      <c r="D72" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="E72" s="119">
-        <v>1</v>
-      </c>
-      <c r="F72" s="118">
-        <v>200000</v>
-      </c>
-      <c r="G72" s="118">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="H72" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99"/>
-    </row>
-    <row r="73" spans="3:13" ht="15">
-      <c r="C73" s="99"/>
-      <c r="D73" s="116" t="s">
-        <v>284</v>
-      </c>
-      <c r="E73" s="119">
-        <v>1</v>
-      </c>
-      <c r="F73" s="118">
-        <v>157000</v>
-      </c>
-      <c r="G73" s="118">
-        <f t="shared" si="2"/>
-        <v>157000</v>
-      </c>
-      <c r="H73" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="99"/>
-      <c r="J73" s="99"/>
-    </row>
-    <row r="74" spans="3:13" ht="15">
-      <c r="C74" s="99"/>
-      <c r="D74" s="116" t="s">
-        <v>290</v>
-      </c>
-      <c r="E74" s="119">
-        <v>1</v>
-      </c>
-      <c r="F74" s="118">
-        <v>65000</v>
-      </c>
-      <c r="G74" s="118">
-        <f t="shared" si="2"/>
-        <v>65000</v>
-      </c>
-      <c r="H74" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
-    </row>
-    <row r="75" spans="3:13" ht="15">
-      <c r="C75" s="99"/>
-      <c r="D75" s="116" t="s">
-        <v>291</v>
-      </c>
-      <c r="E75" s="119">
-        <v>1</v>
-      </c>
-      <c r="F75" s="118">
-        <v>608000</v>
-      </c>
-      <c r="G75" s="118">
-        <f t="shared" si="2"/>
-        <v>608000</v>
-      </c>
-      <c r="H75" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
-    </row>
-    <row r="76" spans="3:13" ht="15">
-      <c r="C76" s="99"/>
-      <c r="D76" s="116"/>
-      <c r="E76" s="119"/>
-      <c r="F76" s="118"/>
-      <c r="G76" s="118"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="99"/>
-    </row>
-    <row r="77" spans="3:13" ht="15">
-      <c r="C77" s="99"/>
-      <c r="D77" s="116"/>
-      <c r="E77" s="119"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="99"/>
-    </row>
-    <row r="78" spans="3:13" ht="15">
-      <c r="C78" s="99"/>
-      <c r="D78" s="116"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="118"/>
-      <c r="G78" s="122">
-        <f>SUM(G30:G63)</f>
-        <v>4818000</v>
-      </c>
-      <c r="H78" s="123"/>
-      <c r="I78" s="124"/>
-      <c r="J78" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="L78" s="146">
-        <f>G28+SUM(G30:G45)+SUM(G50:G65)+G82+G93</f>
-        <v>17167000</v>
-      </c>
-      <c r="M78" s="146">
-        <f>SUM(G46:G49)+G66+G83+G80+G81+SUM(G94:G100)+G105</f>
-        <v>22283700</v>
-      </c>
-    </row>
-    <row r="79" spans="3:13" ht="15">
-      <c r="C79" s="99"/>
-      <c r="D79" s="166" t="s">
-        <v>104</v>
-      </c>
-      <c r="E79" s="166"/>
-      <c r="F79" s="166"/>
-      <c r="G79" s="166"/>
-      <c r="H79" s="127"/>
-      <c r="I79" s="103"/>
-      <c r="J79" s="99"/>
-    </row>
-    <row r="80" spans="3:13" ht="15">
-      <c r="C80" s="99">
-        <v>1</v>
-      </c>
-      <c r="D80" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" s="119">
-        <v>1</v>
-      </c>
-      <c r="F80" s="120">
-        <v>1800000</v>
-      </c>
-      <c r="G80" s="129">
-        <f>F80*E80</f>
-        <v>1800000</v>
-      </c>
-      <c r="H80" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="14"/>
-      <c r="J80" s="130"/>
-    </row>
-    <row r="81" spans="3:10" ht="15">
-      <c r="C81" s="99">
-        <v>2</v>
-      </c>
-      <c r="D81" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="E81" s="119">
-        <v>1</v>
-      </c>
-      <c r="F81" s="120">
-        <v>5000000</v>
-      </c>
-      <c r="G81" s="129">
-        <f>F81*E81</f>
-        <v>5000000</v>
-      </c>
-      <c r="H81" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="14"/>
-      <c r="J81" s="130"/>
-    </row>
-    <row r="82" spans="3:10" ht="15">
-      <c r="C82" s="99">
-        <v>3</v>
-      </c>
-      <c r="D82" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="116">
-        <v>1</v>
-      </c>
-      <c r="F82" s="118">
-        <v>2590000</v>
-      </c>
-      <c r="G82" s="129">
-        <f>F82*E82</f>
-        <v>2590000</v>
-      </c>
-      <c r="H82" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" s="103"/>
-      <c r="J82" s="130"/>
-    </row>
-    <row r="83" spans="3:10" ht="15">
-      <c r="C83" s="99"/>
-      <c r="D83" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E83" s="98">
-        <v>1</v>
-      </c>
-      <c r="F83" s="101">
-        <v>410000</v>
-      </c>
-      <c r="G83" s="129">
-        <f>F83*E83</f>
-        <v>410000</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I83" s="14"/>
-      <c r="J83" s="130"/>
-    </row>
-    <row r="84" spans="3:10" ht="15">
-      <c r="C84" s="99"/>
-      <c r="D84" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="E84" s="98">
-        <v>1</v>
-      </c>
-      <c r="F84" s="101">
-        <v>1500000</v>
-      </c>
-      <c r="G84" s="44">
-        <f>E84*F84</f>
-        <v>1500000</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="14"/>
-      <c r="J84" s="130"/>
-    </row>
-    <row r="85" spans="3:10" ht="15">
-      <c r="C85" s="99"/>
-      <c r="D85" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E85" s="98">
-        <v>1</v>
-      </c>
-      <c r="F85" s="101">
-        <v>750000</v>
-      </c>
-      <c r="G85" s="44">
-        <f t="shared" ref="G85:G87" si="3">E85*F85</f>
-        <v>750000</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="130"/>
-    </row>
-    <row r="86" spans="3:10" ht="15">
-      <c r="C86" s="99"/>
-      <c r="D86" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E86" s="98">
-        <v>1</v>
-      </c>
-      <c r="F86" s="101">
-        <v>200000</v>
-      </c>
-      <c r="G86" s="44">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-      <c r="H86" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="130"/>
-    </row>
-    <row r="87" spans="3:10" ht="15">
-      <c r="C87" s="99"/>
-      <c r="D87" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E87" s="98">
-        <v>1</v>
-      </c>
-      <c r="F87" s="101">
-        <v>226000</v>
-      </c>
-      <c r="G87" s="44">
-        <f t="shared" si="3"/>
-        <v>226000</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="130"/>
-    </row>
-    <row r="88" spans="3:10" ht="15">
-      <c r="C88" s="99"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="98"/>
-      <c r="F88" s="101"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="130"/>
-    </row>
-    <row r="89" spans="3:10" ht="15">
-      <c r="C89" s="99"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="98"/>
-      <c r="F89" s="101"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="130"/>
-    </row>
-    <row r="90" spans="3:10" ht="15">
-      <c r="C90" s="99"/>
-      <c r="D90" s="131"/>
-      <c r="E90" s="132"/>
-      <c r="F90" s="54"/>
-      <c r="G90" s="45">
-        <f>SUM(G80:G87)</f>
-        <v>12476000</v>
-      </c>
-      <c r="H90" s="26"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="3:10">
-      <c r="C91" s="99"/>
-      <c r="D91" s="99"/>
-      <c r="E91" s="98"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="105"/>
-      <c r="I91" s="105"/>
-      <c r="J91" s="99"/>
-    </row>
-    <row r="92" spans="3:10" ht="15">
-      <c r="C92" s="99"/>
-      <c r="D92" s="166" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" s="166"/>
-      <c r="F92" s="166"/>
-      <c r="G92" s="166"/>
-      <c r="H92" s="127"/>
-      <c r="I92" s="103"/>
-      <c r="J92" s="99"/>
-    </row>
-    <row r="93" spans="3:10" ht="15">
-      <c r="C93" s="99">
-        <v>1</v>
-      </c>
-      <c r="D93" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="E93" s="119">
-        <v>1</v>
-      </c>
-      <c r="F93" s="118">
-        <v>2000000</v>
-      </c>
-      <c r="G93" s="129">
-        <f>F93*E93</f>
-        <v>2000000</v>
-      </c>
-      <c r="H93" s="133" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="14"/>
-      <c r="J93" s="130"/>
-    </row>
-    <row r="94" spans="3:10" ht="15">
-      <c r="C94" s="99">
-        <v>2</v>
-      </c>
-      <c r="D94" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" s="119">
-        <v>1</v>
-      </c>
-      <c r="F94" s="120">
-        <v>250000</v>
-      </c>
-      <c r="G94" s="129">
-        <f t="shared" ref="G94:G100" si="4">F94*E94</f>
-        <v>250000</v>
-      </c>
-      <c r="H94" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I94" s="14"/>
-      <c r="J94" s="130"/>
-    </row>
-    <row r="95" spans="3:10" ht="15">
-      <c r="C95" s="99">
-        <v>3</v>
-      </c>
-      <c r="D95" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="E95" s="116">
-        <v>1</v>
-      </c>
-      <c r="F95" s="120">
-        <v>1000000</v>
-      </c>
-      <c r="G95" s="129">
-        <f t="shared" si="4"/>
-        <v>1000000</v>
-      </c>
-      <c r="H95" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I95" s="103"/>
-      <c r="J95" s="130"/>
-    </row>
-    <row r="96" spans="3:10" ht="15">
-      <c r="C96" s="99"/>
-      <c r="D96" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="E96" s="116">
-        <v>1</v>
-      </c>
-      <c r="F96" s="120">
-        <v>1880000</v>
-      </c>
-      <c r="G96" s="129">
-        <f t="shared" si="4"/>
-        <v>1880000</v>
-      </c>
-      <c r="H96" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I96" s="14"/>
-      <c r="J96" s="130"/>
-    </row>
-    <row r="97" spans="3:10" ht="15">
-      <c r="C97" s="99"/>
-      <c r="D97" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" s="116">
-        <v>1</v>
-      </c>
-      <c r="F97" s="120">
-        <v>1200000</v>
-      </c>
-      <c r="G97" s="129">
-        <f t="shared" si="4"/>
-        <v>1200000</v>
-      </c>
-      <c r="H97" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I97" s="14"/>
-      <c r="J97" s="130"/>
-    </row>
-    <row r="98" spans="3:10" ht="15">
-      <c r="C98" s="99"/>
-      <c r="D98" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="E98" s="116">
-        <v>1</v>
-      </c>
-      <c r="F98" s="120">
-        <v>326700</v>
-      </c>
-      <c r="G98" s="129">
-        <f t="shared" si="4"/>
-        <v>326700</v>
-      </c>
-      <c r="H98" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I98" s="14"/>
-      <c r="J98" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="99" spans="3:10" ht="15">
-      <c r="C99" s="99"/>
-      <c r="D99" s="128" t="s">
-        <v>237</v>
-      </c>
-      <c r="E99" s="116">
-        <v>1</v>
-      </c>
-      <c r="F99" s="120">
-        <v>1452000</v>
-      </c>
-      <c r="G99" s="129">
-        <f t="shared" si="4"/>
-        <v>1452000</v>
-      </c>
-      <c r="H99" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I99" s="14"/>
-      <c r="J99" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="100" spans="3:10" ht="15">
-      <c r="C100" s="99"/>
-      <c r="D100" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="E100" s="116">
-        <v>1</v>
-      </c>
-      <c r="F100" s="120">
-        <v>560000</v>
-      </c>
-      <c r="G100" s="129">
-        <f t="shared" si="4"/>
-        <v>560000</v>
-      </c>
-      <c r="H100" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I100" s="14"/>
-      <c r="J100" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="101" spans="3:10" ht="15">
-      <c r="C101" s="99"/>
-      <c r="D101" s="128"/>
-      <c r="E101" s="116"/>
-      <c r="F101" s="120"/>
-      <c r="G101" s="129"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="130"/>
-    </row>
-    <row r="102" spans="3:10" ht="15">
-      <c r="C102" s="99"/>
-      <c r="D102" s="131"/>
-      <c r="E102" s="132"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="45">
-        <f>SUM(G93:G100)</f>
-        <v>8668700</v>
-      </c>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="3:10" ht="15">
-      <c r="C103" s="99"/>
-      <c r="D103" s="131"/>
-      <c r="E103" s="132"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="55"/>
-      <c r="I103" s="55"/>
-      <c r="J103" s="56"/>
-    </row>
-    <row r="104" spans="3:10" ht="15">
-      <c r="C104" s="99"/>
-      <c r="D104" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="E104" s="166"/>
-      <c r="F104" s="166"/>
-      <c r="G104" s="166"/>
-      <c r="H104" s="127"/>
-      <c r="I104" s="103"/>
-      <c r="J104" s="99"/>
-    </row>
-    <row r="105" spans="3:10" ht="15">
-      <c r="C105" s="99"/>
-      <c r="D105" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E105" s="119">
-        <v>1</v>
-      </c>
-      <c r="F105" s="118">
-        <v>7174000</v>
-      </c>
-      <c r="G105" s="129">
-        <f>F105*E105</f>
-        <v>7174000</v>
-      </c>
-      <c r="H105" s="133" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" s="14"/>
-      <c r="J105" s="130"/>
-    </row>
-    <row r="106" spans="3:10" ht="15">
-      <c r="C106" s="99"/>
-      <c r="D106" s="108"/>
-      <c r="E106" s="119"/>
-      <c r="F106" s="120"/>
-      <c r="G106" s="129"/>
-      <c r="H106" s="134"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="130"/>
-    </row>
-    <row r="107" spans="3:10" ht="15">
-      <c r="C107" s="99"/>
-      <c r="D107" s="128"/>
-      <c r="E107" s="116"/>
-      <c r="F107" s="120"/>
-      <c r="G107" s="129"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="130"/>
-    </row>
-    <row r="108" spans="3:10" ht="15">
-      <c r="C108" s="99"/>
-      <c r="D108" s="131"/>
-      <c r="E108" s="132"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="45">
-        <f>SUM(G105:G106)</f>
-        <v>7174000</v>
-      </c>
-      <c r="H108" s="26"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="3:10" ht="15">
-      <c r="C109" s="99"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="101"/>
-      <c r="G109" s="135"/>
-      <c r="H109" s="99"/>
-      <c r="I109" s="99"/>
-      <c r="J109" s="99"/>
-    </row>
-    <row r="110" spans="3:10" ht="15">
-      <c r="C110" s="99"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="98"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="43">
-        <f>G8-G28-G78-G90-G102-G108</f>
-        <v>-41636700</v>
-      </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="136" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D79:G79"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03.ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866B8AB4-5AB6-4B56-BFD3-AB6AF51D5EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EA1803-E9FF-49A2-92D7-C4D17DEB159A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$114</definedName>
+    <definedName name="chi_phi_cong_ty">'Chi Phí Công ty'!$G$119</definedName>
     <definedName name="Pega" localSheetId="11">PEGA!$G$47</definedName>
     <definedName name="Pega">PEGA!$G$49</definedName>
     <definedName name="RowTitleRegion1..C7" localSheetId="4">#REF!</definedName>
@@ -66,7 +66,7 @@
     <definedName name="RowTitleRegion3..G26" localSheetId="2">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26" localSheetId="6">[1]Effort_08062020!#REF!</definedName>
     <definedName name="RowTitleRegion3..G26">[1]Effort_08062020!#REF!</definedName>
-    <definedName name="smarthome" localSheetId="9">'Chi Phí Công ty'!$G$114</definedName>
+    <definedName name="smarthome" localSheetId="9">'Chi Phí Công ty'!$G$119</definedName>
     <definedName name="smarthome">SMARTHOME!$G$32</definedName>
     <definedName name="sport1_p1.5" localSheetId="4">'160_Zeus'!$G$40</definedName>
     <definedName name="sport1_p1.5" localSheetId="5">'270_Hecquyn'!$G$26</definedName>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="311">
   <si>
     <t>STT</t>
   </si>
@@ -1019,6 +1019,15 @@
   </si>
   <si>
     <t>Nhận ứng trước 30.7</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 7</t>
+  </si>
+  <si>
+    <t>Chi phí văn phòng điện mạng tháng 8</t>
+  </si>
+  <si>
+    <t>Chuyển đồ sang văn phòng mới</t>
   </si>
 </sst>
 </file>
@@ -2016,7 +2025,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-42906700</v>
+        <v>-65906700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -2087,7 +2096,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-83222966.400000006</v>
+        <v>-106222966.40000001</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -2103,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
-  <dimension ref="C2:M114"/>
+  <dimension ref="C2:M119"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2630,21 +2639,43 @@
     </row>
     <row r="28" spans="3:10" ht="15">
       <c r="C28" s="99"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="116"/>
+      <c r="D28" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" s="117">
+        <v>1</v>
+      </c>
+      <c r="F28" s="118">
+        <v>3500000</v>
+      </c>
+      <c r="G28" s="118">
+        <f t="shared" ref="G28:G29" si="2">E28*F28</f>
+        <v>3500000</v>
+      </c>
+      <c r="H28" s="116" t="s">
+        <v>9</v>
+      </c>
       <c r="I28" s="103"/>
       <c r="J28" s="99"/>
     </row>
     <row r="29" spans="3:10" ht="15">
       <c r="C29" s="99"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="118"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="116"/>
+      <c r="D29" s="116" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" s="117">
+        <v>1</v>
+      </c>
+      <c r="F29" s="118">
+        <v>3500000</v>
+      </c>
+      <c r="G29" s="118">
+        <f t="shared" si="2"/>
+        <v>3500000</v>
+      </c>
+      <c r="H29" s="116" t="s">
+        <v>9</v>
+      </c>
       <c r="I29" s="103"/>
       <c r="J29" s="99"/>
     </row>
@@ -2653,103 +2684,64 @@
       <c r="D30" s="116"/>
       <c r="E30" s="117"/>
       <c r="F30" s="118"/>
-      <c r="G30" s="122">
-        <f>SUM(G10:G19)</f>
-        <v>8500000</v>
-      </c>
-      <c r="H30" s="123"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="G30" s="118"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="99"/>
     </row>
     <row r="31" spans="3:10" ht="15">
       <c r="C31" s="99"/>
-      <c r="D31" s="167" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="115"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="116"/>
       <c r="I31" s="103"/>
       <c r="J31" s="99"/>
     </row>
     <row r="32" spans="3:10" ht="15">
-      <c r="C32" s="99">
-        <v>1</v>
-      </c>
-      <c r="D32" s="125" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="119">
-        <v>1</v>
-      </c>
-      <c r="F32" s="118">
-        <v>40000</v>
-      </c>
-      <c r="G32" s="118">
-        <f>E32*F32</f>
-        <v>40000</v>
-      </c>
-      <c r="H32" s="116" t="s">
-        <v>9</v>
-      </c>
+      <c r="C32" s="99"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="118"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="116"/>
       <c r="I32" s="103"/>
       <c r="J32" s="99"/>
     </row>
     <row r="33" spans="3:10" ht="15">
-      <c r="C33" s="99">
-        <v>2</v>
-      </c>
-      <c r="D33" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="119">
-        <v>1</v>
-      </c>
-      <c r="F33" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G33" s="118">
-        <f t="shared" ref="G33:G80" si="2">E33*F33</f>
-        <v>120000</v>
-      </c>
-      <c r="H33" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="103"/>
-      <c r="J33" s="99"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="122">
+        <f>SUM(G10:G29)</f>
+        <v>31500000</v>
+      </c>
+      <c r="H33" s="123"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="3:10" ht="15">
-      <c r="C34" s="99">
-        <v>3</v>
-      </c>
-      <c r="D34" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="119">
-        <v>1</v>
-      </c>
-      <c r="F34" s="118">
-        <v>120000</v>
-      </c>
-      <c r="G34" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="H34" s="116" t="s">
-        <v>9</v>
-      </c>
+      <c r="C34" s="99"/>
+      <c r="D34" s="167" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="115"/>
       <c r="I34" s="103"/>
       <c r="J34" s="99"/>
     </row>
     <row r="35" spans="3:10" ht="15">
       <c r="C35" s="99">
-        <v>4</v>
-      </c>
-      <c r="D35" s="116" t="s">
-        <v>86</v>
+        <v>1</v>
+      </c>
+      <c r="D35" s="125" t="s">
+        <v>83</v>
       </c>
       <c r="E35" s="119">
         <v>1</v>
@@ -2758,7 +2750,7 @@
         <v>40000</v>
       </c>
       <c r="G35" s="118">
-        <f t="shared" si="2"/>
+        <f>E35*F35</f>
         <v>40000</v>
       </c>
       <c r="H35" s="116" t="s">
@@ -2769,10 +2761,10 @@
     </row>
     <row r="36" spans="3:10" ht="15">
       <c r="C36" s="99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E36" s="119">
         <v>1</v>
@@ -2781,7 +2773,7 @@
         <v>120000</v>
       </c>
       <c r="G36" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G36:G84" si="3">E36*F36</f>
         <v>120000</v>
       </c>
       <c r="H36" s="116" t="s">
@@ -2792,10 +2784,10 @@
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="99">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D37" s="116" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37" s="119">
         <v>1</v>
@@ -2804,7 +2796,7 @@
         <v>120000</v>
       </c>
       <c r="G37" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
       <c r="H37" s="116" t="s">
@@ -2815,20 +2807,20 @@
     </row>
     <row r="38" spans="3:10" ht="15">
       <c r="C38" s="99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E38" s="119">
         <v>1</v>
       </c>
       <c r="F38" s="118">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
+        <f t="shared" si="3"/>
+        <v>40000</v>
       </c>
       <c r="H38" s="116" t="s">
         <v>9</v>
@@ -2838,20 +2830,20 @@
     </row>
     <row r="39" spans="3:10" ht="15">
       <c r="C39" s="99">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D39" s="116" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E39" s="119">
         <v>1</v>
       </c>
       <c r="F39" s="118">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G39" s="118">
-        <f t="shared" si="2"/>
-        <v>80000</v>
+        <f t="shared" si="3"/>
+        <v>120000</v>
       </c>
       <c r="H39" s="116" t="s">
         <v>9</v>
@@ -2861,10 +2853,10 @@
     </row>
     <row r="40" spans="3:10" ht="15">
       <c r="C40" s="99">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40" s="116" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E40" s="119">
         <v>1</v>
@@ -2873,7 +2865,7 @@
         <v>120000</v>
       </c>
       <c r="G40" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
       <c r="H40" s="116" t="s">
@@ -2884,20 +2876,20 @@
     </row>
     <row r="41" spans="3:10" ht="15">
       <c r="C41" s="99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D41" s="116" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E41" s="119">
         <v>1</v>
       </c>
       <c r="F41" s="118">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G41" s="118">
-        <f t="shared" si="2"/>
-        <v>200000</v>
+        <f t="shared" si="3"/>
+        <v>120000</v>
       </c>
       <c r="H41" s="116" t="s">
         <v>9</v>
@@ -2907,10 +2899,10 @@
     </row>
     <row r="42" spans="3:10" ht="15">
       <c r="C42" s="99">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E42" s="119">
         <v>1</v>
@@ -2919,7 +2911,7 @@
         <v>80000</v>
       </c>
       <c r="G42" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80000</v>
       </c>
       <c r="H42" s="116" t="s">
@@ -2930,10 +2922,10 @@
     </row>
     <row r="43" spans="3:10" ht="15">
       <c r="C43" s="99">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="116" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E43" s="119">
         <v>1</v>
@@ -2942,7 +2934,7 @@
         <v>120000</v>
       </c>
       <c r="G43" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
       <c r="H43" s="116" t="s">
@@ -2953,20 +2945,20 @@
     </row>
     <row r="44" spans="3:10" ht="15">
       <c r="C44" s="99">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E44" s="119">
         <v>1</v>
       </c>
       <c r="F44" s="118">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G44" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="H44" s="116" t="s">
         <v>9</v>
@@ -2976,20 +2968,20 @@
     </row>
     <row r="45" spans="3:10" ht="15">
       <c r="C45" s="99">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D45" s="116" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E45" s="119">
         <v>1</v>
       </c>
       <c r="F45" s="118">
-        <v>120000</v>
+        <v>80000</v>
       </c>
       <c r="G45" s="118">
-        <f>E45*F45</f>
-        <v>120000</v>
+        <f t="shared" si="3"/>
+        <v>80000</v>
       </c>
       <c r="H45" s="116" t="s">
         <v>9</v>
@@ -2999,10 +2991,10 @@
     </row>
     <row r="46" spans="3:10" ht="15">
       <c r="C46" s="99">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D46" s="116" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E46" s="119">
         <v>1</v>
@@ -3011,7 +3003,7 @@
         <v>120000</v>
       </c>
       <c r="G46" s="118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120000</v>
       </c>
       <c r="H46" s="116" t="s">
@@ -3022,20 +3014,20 @@
     </row>
     <row r="47" spans="3:10" ht="15">
       <c r="C47" s="99">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D47" s="116" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E47" s="119">
         <v>1</v>
       </c>
       <c r="F47" s="118">
-        <v>200000</v>
+        <v>120000</v>
       </c>
       <c r="G47" s="118">
-        <f t="shared" si="2"/>
-        <v>200000</v>
+        <f t="shared" si="3"/>
+        <v>120000</v>
       </c>
       <c r="H47" s="116" t="s">
         <v>9</v>
@@ -3045,91 +3037,91 @@
     </row>
     <row r="48" spans="3:10" ht="15">
       <c r="C48" s="99">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D48" s="116" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E48" s="119">
         <v>1</v>
       </c>
-      <c r="F48" s="120">
-        <v>360000</v>
+      <c r="F48" s="118">
+        <v>120000</v>
       </c>
       <c r="G48" s="118">
-        <f t="shared" si="2"/>
-        <v>360000</v>
-      </c>
-      <c r="H48" s="126" t="s">
-        <v>21</v>
+        <f>E48*F48</f>
+        <v>120000</v>
+      </c>
+      <c r="H48" s="116" t="s">
+        <v>9</v>
       </c>
       <c r="I48" s="103"/>
       <c r="J48" s="99"/>
     </row>
     <row r="49" spans="3:10" ht="15">
       <c r="C49" s="99">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E49" s="119">
         <v>1</v>
       </c>
-      <c r="F49" s="120">
-        <v>170000</v>
+      <c r="F49" s="118">
+        <v>120000</v>
       </c>
       <c r="G49" s="118">
-        <f t="shared" si="2"/>
-        <v>170000</v>
-      </c>
-      <c r="H49" s="126" t="s">
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="H49" s="116" t="s">
+        <v>9</v>
       </c>
       <c r="I49" s="103"/>
       <c r="J49" s="99"/>
     </row>
     <row r="50" spans="3:10" ht="15">
       <c r="C50" s="99">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D50" s="116" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E50" s="119">
         <v>1</v>
       </c>
       <c r="F50" s="118">
-        <v>204000</v>
+        <v>200000</v>
       </c>
       <c r="G50" s="118">
-        <f t="shared" si="2"/>
-        <v>204000</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="H50" s="116" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I50" s="103"/>
       <c r="J50" s="99"/>
     </row>
     <row r="51" spans="3:10" ht="15">
       <c r="C51" s="99">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51" s="116" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E51" s="119">
         <v>1</v>
       </c>
-      <c r="F51" s="118">
-        <v>227000</v>
+      <c r="F51" s="120">
+        <v>360000</v>
       </c>
       <c r="G51" s="118">
-        <f t="shared" si="2"/>
-        <v>227000</v>
-      </c>
-      <c r="H51" s="116" t="s">
+        <f t="shared" si="3"/>
+        <v>360000</v>
+      </c>
+      <c r="H51" s="126" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="103"/>
@@ -3137,106 +3129,112 @@
     </row>
     <row r="52" spans="3:10" ht="15">
       <c r="C52" s="99">
+        <v>18</v>
+      </c>
+      <c r="D52" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="119">
+        <v>1</v>
+      </c>
+      <c r="F52" s="120">
+        <v>170000</v>
+      </c>
+      <c r="G52" s="118">
+        <f t="shared" si="3"/>
+        <v>170000</v>
+      </c>
+      <c r="H52" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="119">
-        <v>1</v>
-      </c>
-      <c r="F52" s="118">
-        <v>287000</v>
-      </c>
-      <c r="G52" s="118">
-        <f t="shared" si="2"/>
-        <v>287000</v>
-      </c>
-      <c r="H52" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="99"/>
+      <c r="I52" s="103"/>
       <c r="J52" s="99"/>
     </row>
     <row r="53" spans="3:10" ht="15">
       <c r="C53" s="99">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D53" s="116" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E53" s="119">
         <v>1</v>
       </c>
       <c r="F53" s="118">
-        <v>81000</v>
+        <v>204000</v>
       </c>
       <c r="G53" s="118">
-        <f t="shared" si="2"/>
-        <v>81000</v>
-      </c>
-      <c r="H53" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="99"/>
+        <f t="shared" si="3"/>
+        <v>204000</v>
+      </c>
+      <c r="H53" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="103"/>
       <c r="J53" s="99"/>
     </row>
     <row r="54" spans="3:10" ht="15">
-      <c r="C54" s="99"/>
+      <c r="C54" s="99">
+        <v>20</v>
+      </c>
       <c r="D54" s="116" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E54" s="119">
         <v>1</v>
       </c>
       <c r="F54" s="118">
-        <v>300000</v>
+        <v>227000</v>
       </c>
       <c r="G54" s="118">
-        <f t="shared" si="2"/>
-        <v>300000</v>
-      </c>
-      <c r="H54" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="99"/>
+        <f t="shared" si="3"/>
+        <v>227000</v>
+      </c>
+      <c r="H54" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="103"/>
       <c r="J54" s="99"/>
     </row>
     <row r="55" spans="3:10" ht="15">
-      <c r="C55" s="99"/>
+      <c r="C55" s="99">
+        <v>21</v>
+      </c>
       <c r="D55" s="116" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E55" s="119">
         <v>1</v>
       </c>
       <c r="F55" s="118">
-        <v>147000</v>
+        <v>287000</v>
       </c>
       <c r="G55" s="118">
-        <f t="shared" si="2"/>
-        <v>147000</v>
-      </c>
-      <c r="H55" s="99" t="s">
+        <f t="shared" si="3"/>
+        <v>287000</v>
+      </c>
+      <c r="H55" s="116" t="s">
         <v>9</v>
       </c>
       <c r="I55" s="99"/>
       <c r="J55" s="99"/>
     </row>
     <row r="56" spans="3:10" ht="15">
-      <c r="C56" s="99"/>
+      <c r="C56" s="99">
+        <v>22</v>
+      </c>
       <c r="D56" s="116" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E56" s="119">
         <v>1</v>
       </c>
       <c r="F56" s="118">
-        <v>160000</v>
+        <v>81000</v>
       </c>
       <c r="G56" s="118">
-        <f t="shared" si="2"/>
-        <v>160000</v>
+        <f t="shared" si="3"/>
+        <v>81000</v>
       </c>
       <c r="H56" s="99" t="s">
         <v>9</v>
@@ -3247,17 +3245,17 @@
     <row r="57" spans="3:10" ht="15">
       <c r="C57" s="99"/>
       <c r="D57" s="116" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E57" s="119">
         <v>1</v>
       </c>
       <c r="F57" s="118">
-        <v>76000</v>
+        <v>300000</v>
       </c>
       <c r="G57" s="118">
-        <f t="shared" si="2"/>
-        <v>76000</v>
+        <f t="shared" si="3"/>
+        <v>300000</v>
       </c>
       <c r="H57" s="99" t="s">
         <v>9</v>
@@ -3268,17 +3266,17 @@
     <row r="58" spans="3:10" ht="15">
       <c r="C58" s="99"/>
       <c r="D58" s="116" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E58" s="119">
         <v>1</v>
       </c>
       <c r="F58" s="118">
-        <v>150000</v>
+        <v>147000</v>
       </c>
       <c r="G58" s="118">
-        <f t="shared" si="2"/>
-        <v>150000</v>
+        <f t="shared" si="3"/>
+        <v>147000</v>
       </c>
       <c r="H58" s="99" t="s">
         <v>9</v>
@@ -3289,17 +3287,17 @@
     <row r="59" spans="3:10" ht="15">
       <c r="C59" s="99"/>
       <c r="D59" s="116" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E59" s="119">
         <v>1</v>
       </c>
       <c r="F59" s="118">
-        <v>96000</v>
+        <v>160000</v>
       </c>
       <c r="G59" s="118">
-        <f t="shared" si="2"/>
-        <v>96000</v>
+        <f t="shared" si="3"/>
+        <v>160000</v>
       </c>
       <c r="H59" s="99" t="s">
         <v>9</v>
@@ -3310,17 +3308,17 @@
     <row r="60" spans="3:10" ht="15">
       <c r="C60" s="99"/>
       <c r="D60" s="116" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E60" s="119">
         <v>1</v>
       </c>
       <c r="F60" s="118">
-        <v>250000</v>
+        <v>76000</v>
       </c>
       <c r="G60" s="118">
-        <f t="shared" si="2"/>
-        <v>250000</v>
+        <f t="shared" si="3"/>
+        <v>76000</v>
       </c>
       <c r="H60" s="99" t="s">
         <v>9</v>
@@ -3331,17 +3329,17 @@
     <row r="61" spans="3:10" ht="15">
       <c r="C61" s="99"/>
       <c r="D61" s="116" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="E61" s="119">
         <v>1</v>
       </c>
       <c r="F61" s="118">
-        <v>80000</v>
+        <v>150000</v>
       </c>
       <c r="G61" s="118">
-        <f t="shared" si="2"/>
-        <v>80000</v>
+        <f t="shared" si="3"/>
+        <v>150000</v>
       </c>
       <c r="H61" s="99" t="s">
         <v>9</v>
@@ -3352,17 +3350,17 @@
     <row r="62" spans="3:10" ht="15">
       <c r="C62" s="99"/>
       <c r="D62" s="116" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E62" s="119">
         <v>1</v>
       </c>
       <c r="F62" s="118">
-        <v>80000</v>
+        <v>96000</v>
       </c>
       <c r="G62" s="118">
-        <f t="shared" si="2"/>
-        <v>80000</v>
+        <f t="shared" si="3"/>
+        <v>96000</v>
       </c>
       <c r="H62" s="99" t="s">
         <v>9</v>
@@ -3373,17 +3371,17 @@
     <row r="63" spans="3:10" ht="15">
       <c r="C63" s="99"/>
       <c r="D63" s="116" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E63" s="119">
         <v>1</v>
       </c>
       <c r="F63" s="118">
-        <v>100000</v>
+        <v>250000</v>
       </c>
       <c r="G63" s="118">
-        <f t="shared" si="2"/>
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>250000</v>
       </c>
       <c r="H63" s="99" t="s">
         <v>9</v>
@@ -3394,17 +3392,17 @@
     <row r="64" spans="3:10" ht="15">
       <c r="C64" s="99"/>
       <c r="D64" s="116" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E64" s="119">
         <v>1</v>
       </c>
       <c r="F64" s="118">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G64" s="118">
-        <f t="shared" si="2"/>
-        <v>60000</v>
+        <f t="shared" si="3"/>
+        <v>80000</v>
       </c>
       <c r="H64" s="99" t="s">
         <v>9</v>
@@ -3415,17 +3413,17 @@
     <row r="65" spans="3:13" ht="15">
       <c r="C65" s="99"/>
       <c r="D65" s="116" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="E65" s="119">
         <v>1</v>
       </c>
       <c r="F65" s="118">
-        <v>150000</v>
+        <v>80000</v>
       </c>
       <c r="G65" s="118">
-        <f t="shared" si="2"/>
-        <v>150000</v>
+        <f t="shared" si="3"/>
+        <v>80000</v>
       </c>
       <c r="H65" s="99" t="s">
         <v>9</v>
@@ -3436,17 +3434,17 @@
     <row r="66" spans="3:13" ht="15">
       <c r="C66" s="99"/>
       <c r="D66" s="116" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="E66" s="119">
         <v>1</v>
       </c>
       <c r="F66" s="118">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="G66" s="118">
-        <f t="shared" si="2"/>
-        <v>120000</v>
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
       <c r="H66" s="99" t="s">
         <v>9</v>
@@ -3457,17 +3455,17 @@
     <row r="67" spans="3:13" ht="15">
       <c r="C67" s="99"/>
       <c r="D67" s="116" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="E67" s="119">
         <v>1</v>
       </c>
       <c r="F67" s="118">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="G67" s="118">
-        <f t="shared" si="2"/>
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>60000</v>
       </c>
       <c r="H67" s="99" t="s">
         <v>9</v>
@@ -3478,47 +3476,41 @@
     <row r="68" spans="3:13" ht="15">
       <c r="C68" s="99"/>
       <c r="D68" s="116" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="E68" s="119">
         <v>1</v>
       </c>
       <c r="F68" s="118">
-        <v>270000</v>
+        <v>150000</v>
       </c>
       <c r="G68" s="118">
-        <f t="shared" si="2"/>
-        <v>270000</v>
+        <f t="shared" si="3"/>
+        <v>150000</v>
       </c>
       <c r="H68" s="99" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I68" s="99"/>
       <c r="J68" s="99"/>
-      <c r="L68" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="M68" s="111" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="69" spans="3:13" ht="15">
       <c r="C69" s="99"/>
       <c r="D69" s="116" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="E69" s="119">
         <v>1</v>
       </c>
       <c r="F69" s="118">
-        <v>77000</v>
+        <v>120000</v>
       </c>
       <c r="G69" s="118">
-        <f t="shared" si="2"/>
-        <v>77000</v>
+        <f t="shared" si="3"/>
+        <v>120000</v>
       </c>
       <c r="H69" s="99" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I69" s="99"/>
       <c r="J69" s="99"/>
@@ -3526,20 +3518,20 @@
     <row r="70" spans="3:13" ht="15">
       <c r="C70" s="99"/>
       <c r="D70" s="116" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="E70" s="119">
         <v>1</v>
       </c>
       <c r="F70" s="118">
-        <v>1645000</v>
+        <v>100000</v>
       </c>
       <c r="G70" s="118">
-        <f t="shared" si="2"/>
-        <v>1645000</v>
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
       <c r="H70" s="99" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I70" s="99"/>
       <c r="J70" s="99"/>
@@ -3547,41 +3539,47 @@
     <row r="71" spans="3:13" ht="15">
       <c r="C71" s="99"/>
       <c r="D71" s="116" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="E71" s="119">
         <v>1</v>
       </c>
       <c r="F71" s="118">
-        <v>100000</v>
+        <v>270000</v>
       </c>
       <c r="G71" s="118">
-        <f t="shared" si="2"/>
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>270000</v>
       </c>
       <c r="H71" s="99" t="s">
         <v>21</v>
       </c>
       <c r="I71" s="99"/>
       <c r="J71" s="99"/>
+      <c r="L71" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="M71" s="111" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="72" spans="3:13" ht="15">
       <c r="C72" s="99"/>
       <c r="D72" s="116" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E72" s="119">
         <v>1</v>
       </c>
       <c r="F72" s="118">
-        <v>86000</v>
+        <v>77000</v>
       </c>
       <c r="G72" s="118">
-        <f t="shared" si="2"/>
-        <v>86000</v>
+        <f t="shared" si="3"/>
+        <v>77000</v>
       </c>
       <c r="H72" s="99" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I72" s="99"/>
       <c r="J72" s="99"/>
@@ -3589,20 +3587,20 @@
     <row r="73" spans="3:13" ht="15">
       <c r="C73" s="99"/>
       <c r="D73" s="116" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E73" s="119">
         <v>1</v>
       </c>
       <c r="F73" s="118">
-        <v>450000</v>
+        <v>1645000</v>
       </c>
       <c r="G73" s="118">
-        <f t="shared" si="2"/>
-        <v>450000</v>
+        <f t="shared" si="3"/>
+        <v>1645000</v>
       </c>
       <c r="H73" s="99" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I73" s="99"/>
       <c r="J73" s="99"/>
@@ -3610,20 +3608,20 @@
     <row r="74" spans="3:13" ht="15">
       <c r="C74" s="99"/>
       <c r="D74" s="116" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E74" s="119">
         <v>1</v>
       </c>
       <c r="F74" s="118">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="G74" s="118">
-        <f t="shared" si="2"/>
-        <v>200000</v>
+        <f t="shared" si="3"/>
+        <v>100000</v>
       </c>
       <c r="H74" s="99" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I74" s="99"/>
       <c r="J74" s="99"/>
@@ -3631,20 +3629,20 @@
     <row r="75" spans="3:13" ht="15">
       <c r="C75" s="99"/>
       <c r="D75" s="116" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E75" s="119">
         <v>1</v>
       </c>
       <c r="F75" s="118">
-        <v>157000</v>
+        <v>86000</v>
       </c>
       <c r="G75" s="118">
-        <f t="shared" si="2"/>
-        <v>157000</v>
+        <f t="shared" si="3"/>
+        <v>86000</v>
       </c>
       <c r="H75" s="99" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I75" s="99"/>
       <c r="J75" s="99"/>
@@ -3652,17 +3650,17 @@
     <row r="76" spans="3:13" ht="15">
       <c r="C76" s="99"/>
       <c r="D76" s="116" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E76" s="119">
         <v>1</v>
       </c>
       <c r="F76" s="118">
-        <v>65000</v>
+        <v>450000</v>
       </c>
       <c r="G76" s="118">
-        <f t="shared" si="2"/>
-        <v>65000</v>
+        <f t="shared" si="3"/>
+        <v>450000</v>
       </c>
       <c r="H76" s="99" t="s">
         <v>9</v>
@@ -3673,17 +3671,17 @@
     <row r="77" spans="3:13" ht="15">
       <c r="C77" s="99"/>
       <c r="D77" s="116" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E77" s="119">
         <v>1</v>
       </c>
       <c r="F77" s="118">
-        <v>608000</v>
+        <v>200000</v>
       </c>
       <c r="G77" s="118">
-        <f t="shared" si="2"/>
-        <v>608000</v>
+        <f t="shared" si="3"/>
+        <v>200000</v>
       </c>
       <c r="H77" s="99" t="s">
         <v>9</v>
@@ -3694,20 +3692,20 @@
     <row r="78" spans="3:13" ht="15">
       <c r="C78" s="99"/>
       <c r="D78" s="116" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E78" s="119">
         <v>1</v>
       </c>
       <c r="F78" s="118">
-        <v>250000</v>
+        <v>157000</v>
       </c>
       <c r="G78" s="118">
-        <f t="shared" si="2"/>
-        <v>250000</v>
+        <f t="shared" si="3"/>
+        <v>157000</v>
       </c>
       <c r="H78" s="99" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I78" s="99"/>
       <c r="J78" s="99"/>
@@ -3715,17 +3713,17 @@
     <row r="79" spans="3:13" ht="15">
       <c r="C79" s="99"/>
       <c r="D79" s="116" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E79" s="119">
         <v>1</v>
       </c>
       <c r="F79" s="118">
-        <v>155000</v>
+        <v>65000</v>
       </c>
       <c r="G79" s="118">
-        <f t="shared" si="2"/>
-        <v>155000</v>
+        <f t="shared" si="3"/>
+        <v>65000</v>
       </c>
       <c r="H79" s="99" t="s">
         <v>9</v>
@@ -3736,17 +3734,17 @@
     <row r="80" spans="3:13" ht="15">
       <c r="C80" s="99"/>
       <c r="D80" s="116" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E80" s="119">
         <v>1</v>
       </c>
       <c r="F80" s="118">
-        <v>150000</v>
+        <v>608000</v>
       </c>
       <c r="G80" s="118">
-        <f t="shared" si="2"/>
-        <v>150000</v>
+        <f t="shared" si="3"/>
+        <v>608000</v>
       </c>
       <c r="H80" s="99" t="s">
         <v>9</v>
@@ -3756,619 +3754,713 @@
     </row>
     <row r="81" spans="3:13" ht="15">
       <c r="C81" s="99"/>
-      <c r="D81" s="116"/>
-      <c r="E81" s="119"/>
-      <c r="F81" s="118"/>
-      <c r="G81" s="118"/>
-      <c r="H81" s="99"/>
+      <c r="D81" s="116" t="s">
+        <v>297</v>
+      </c>
+      <c r="E81" s="119">
+        <v>1</v>
+      </c>
+      <c r="F81" s="118">
+        <v>250000</v>
+      </c>
+      <c r="G81" s="118">
+        <f t="shared" si="3"/>
+        <v>250000</v>
+      </c>
+      <c r="H81" s="99" t="s">
+        <v>9</v>
+      </c>
       <c r="I81" s="99"/>
       <c r="J81" s="99"/>
     </row>
     <row r="82" spans="3:13" ht="15">
       <c r="C82" s="99"/>
-      <c r="D82" s="116"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="118"/>
-      <c r="G82" s="122">
-        <f>SUM(G32:G65)</f>
-        <v>4818000</v>
-      </c>
-      <c r="H82" s="123"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="L82" s="146">
-        <f>G30+SUM(G32:G47)+SUM(G52:G67)+G86+G97</f>
-        <v>17167000</v>
-      </c>
-      <c r="M82" s="146">
-        <f>SUM(G48:G51)+G68+G87+G84+G85+SUM(G98:G104)+G109</f>
-        <v>22283700</v>
-      </c>
+      <c r="D82" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="E82" s="119">
+        <v>1</v>
+      </c>
+      <c r="F82" s="118">
+        <v>155000</v>
+      </c>
+      <c r="G82" s="118">
+        <f t="shared" si="3"/>
+        <v>155000</v>
+      </c>
+      <c r="H82" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="99"/>
+      <c r="J82" s="99"/>
     </row>
     <row r="83" spans="3:13" ht="15">
       <c r="C83" s="99"/>
-      <c r="D83" s="167" t="s">
-        <v>104</v>
-      </c>
-      <c r="E83" s="167"/>
-      <c r="F83" s="167"/>
-      <c r="G83" s="167"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="103"/>
+      <c r="D83" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="E83" s="119">
+        <v>1</v>
+      </c>
+      <c r="F83" s="118">
+        <v>150000</v>
+      </c>
+      <c r="G83" s="118">
+        <f t="shared" si="3"/>
+        <v>150000</v>
+      </c>
+      <c r="H83" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" s="99"/>
       <c r="J83" s="99"/>
     </row>
     <row r="84" spans="3:13" ht="15">
-      <c r="C84" s="99">
-        <v>1</v>
-      </c>
-      <c r="D84" s="128" t="s">
-        <v>105</v>
+      <c r="C84" s="99"/>
+      <c r="D84" s="116" t="s">
+        <v>310</v>
       </c>
       <c r="E84" s="119">
         <v>1</v>
       </c>
-      <c r="F84" s="120">
-        <v>1800000</v>
-      </c>
-      <c r="G84" s="129">
-        <f>F84*E84</f>
-        <v>1800000</v>
-      </c>
-      <c r="H84" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="14"/>
-      <c r="J84" s="130"/>
+      <c r="F84" s="118">
+        <v>350000</v>
+      </c>
+      <c r="G84" s="118">
+        <f t="shared" si="3"/>
+        <v>350000</v>
+      </c>
+      <c r="H84" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="99"/>
+      <c r="J84" s="99"/>
     </row>
     <row r="85" spans="3:13" ht="15">
-      <c r="C85" s="99">
-        <v>2</v>
-      </c>
-      <c r="D85" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="E85" s="119">
-        <v>1</v>
-      </c>
-      <c r="F85" s="120">
-        <v>5000000</v>
-      </c>
-      <c r="G85" s="129">
-        <f>F85*E85</f>
-        <v>5000000</v>
-      </c>
-      <c r="H85" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="130"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="116"/>
+      <c r="E85" s="119"/>
+      <c r="F85" s="118"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="99"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="99"/>
     </row>
     <row r="86" spans="3:13" ht="15">
-      <c r="C86" s="99">
-        <v>3</v>
-      </c>
-      <c r="D86" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="116">
-        <v>1</v>
-      </c>
-      <c r="F86" s="118">
-        <v>2590000</v>
-      </c>
-      <c r="G86" s="129">
-        <f>F86*E86</f>
-        <v>2590000</v>
-      </c>
-      <c r="H86" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="I86" s="103"/>
-      <c r="J86" s="130"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="119"/>
+      <c r="F86" s="118"/>
+      <c r="G86" s="118"/>
+      <c r="H86" s="99"/>
+      <c r="I86" s="99"/>
+      <c r="J86" s="99"/>
     </row>
     <row r="87" spans="3:13" ht="15">
       <c r="C87" s="99"/>
-      <c r="D87" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" s="98">
-        <v>1</v>
-      </c>
-      <c r="F87" s="101">
-        <v>410000</v>
-      </c>
-      <c r="G87" s="129">
-        <f>F87*E87</f>
-        <v>410000</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="130"/>
+      <c r="D87" s="116"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="118"/>
+      <c r="G87" s="122">
+        <f>SUM(G35:G68)</f>
+        <v>4818000</v>
+      </c>
+      <c r="H87" s="123"/>
+      <c r="I87" s="124"/>
+      <c r="J87" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L87" s="146">
+        <f>G33+SUM(G35:G50)+SUM(G55:G70)+G91+G102</f>
+        <v>40167000</v>
+      </c>
+      <c r="M87" s="146">
+        <f>SUM(G51:G54)+G71+G92+G89+G90+SUM(G103:G109)+G114</f>
+        <v>22283700</v>
+      </c>
     </row>
     <row r="88" spans="3:13" ht="15">
       <c r="C88" s="99"/>
-      <c r="D88" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="E88" s="98">
-        <v>1</v>
-      </c>
-      <c r="F88" s="101">
-        <v>1500000</v>
-      </c>
-      <c r="G88" s="44">
-        <f>E88*F88</f>
-        <v>1500000</v>
-      </c>
-      <c r="H88" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="130"/>
+      <c r="D88" s="167" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="167"/>
+      <c r="F88" s="167"/>
+      <c r="G88" s="167"/>
+      <c r="H88" s="127"/>
+      <c r="I88" s="103"/>
+      <c r="J88" s="99"/>
     </row>
     <row r="89" spans="3:13" ht="15">
-      <c r="C89" s="99"/>
-      <c r="D89" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E89" s="98">
-        <v>1</v>
-      </c>
-      <c r="F89" s="101">
-        <v>750000</v>
-      </c>
-      <c r="G89" s="44">
-        <f t="shared" ref="G89:G92" si="3">E89*F89</f>
-        <v>750000</v>
-      </c>
-      <c r="H89" s="14" t="s">
-        <v>9</v>
+      <c r="C89" s="99">
+        <v>1</v>
+      </c>
+      <c r="D89" s="128" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="119">
+        <v>1</v>
+      </c>
+      <c r="F89" s="120">
+        <v>1800000</v>
+      </c>
+      <c r="G89" s="129">
+        <f>F89*E89</f>
+        <v>1800000</v>
+      </c>
+      <c r="H89" s="116" t="s">
+        <v>21</v>
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="130"/>
     </row>
     <row r="90" spans="3:13" ht="15">
-      <c r="C90" s="99"/>
-      <c r="D90" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E90" s="98">
-        <v>1</v>
-      </c>
-      <c r="F90" s="101">
-        <v>200000</v>
-      </c>
-      <c r="G90" s="44">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-      <c r="H90" s="14" t="s">
-        <v>9</v>
+      <c r="C90" s="99">
+        <v>2</v>
+      </c>
+      <c r="D90" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="E90" s="119">
+        <v>1</v>
+      </c>
+      <c r="F90" s="120">
+        <v>5000000</v>
+      </c>
+      <c r="G90" s="129">
+        <f>F90*E90</f>
+        <v>5000000</v>
+      </c>
+      <c r="H90" s="116" t="s">
+        <v>21</v>
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="130"/>
     </row>
     <row r="91" spans="3:13" ht="15">
-      <c r="C91" s="99"/>
-      <c r="D91" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E91" s="98">
-        <v>1</v>
-      </c>
-      <c r="F91" s="101">
-        <v>226000</v>
-      </c>
-      <c r="G91" s="44">
-        <f t="shared" si="3"/>
-        <v>226000</v>
-      </c>
-      <c r="H91" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" s="14"/>
+      <c r="C91" s="99">
+        <v>3</v>
+      </c>
+      <c r="D91" s="116" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="116">
+        <v>1</v>
+      </c>
+      <c r="F91" s="118">
+        <v>2590000</v>
+      </c>
+      <c r="G91" s="129">
+        <f>F91*E91</f>
+        <v>2590000</v>
+      </c>
+      <c r="H91" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="I91" s="103"/>
       <c r="J91" s="130"/>
     </row>
     <row r="92" spans="3:13" ht="15">
       <c r="C92" s="99"/>
       <c r="D92" s="15" t="s">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="E92" s="98">
         <v>1</v>
       </c>
       <c r="F92" s="101">
-        <v>390000</v>
-      </c>
-      <c r="G92" s="44">
-        <f t="shared" si="3"/>
-        <v>390000</v>
+        <v>410000</v>
+      </c>
+      <c r="G92" s="129">
+        <f>F92*E92</f>
+        <v>410000</v>
       </c>
       <c r="H92" s="14" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="130"/>
     </row>
     <row r="93" spans="3:13" ht="15">
       <c r="C93" s="99"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="98"/>
-      <c r="F93" s="101"/>
-      <c r="G93" s="44"/>
-      <c r="H93" s="14"/>
+      <c r="D93" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" s="98">
+        <v>1</v>
+      </c>
+      <c r="F93" s="101">
+        <v>1500000</v>
+      </c>
+      <c r="G93" s="44">
+        <f>E93*F93</f>
+        <v>1500000</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="I93" s="14"/>
       <c r="J93" s="130"/>
     </row>
     <row r="94" spans="3:13" ht="15">
       <c r="C94" s="99"/>
-      <c r="D94" s="131"/>
-      <c r="E94" s="132"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="45">
-        <f>SUM(G84:G92)</f>
-        <v>12866000</v>
-      </c>
-      <c r="H94" s="26"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13">
+      <c r="D94" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E94" s="98">
+        <v>1</v>
+      </c>
+      <c r="F94" s="101">
+        <v>750000</v>
+      </c>
+      <c r="G94" s="44">
+        <f t="shared" ref="G94:G97" si="4">E94*F94</f>
+        <v>750000</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I94" s="14"/>
+      <c r="J94" s="130"/>
+    </row>
+    <row r="95" spans="3:13" ht="15">
       <c r="C95" s="99"/>
-      <c r="D95" s="99"/>
-      <c r="E95" s="98"/>
-      <c r="F95" s="101"/>
-      <c r="G95" s="101"/>
-      <c r="H95" s="105"/>
-      <c r="I95" s="105"/>
-      <c r="J95" s="99"/>
+      <c r="D95" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E95" s="98">
+        <v>1</v>
+      </c>
+      <c r="F95" s="101">
+        <v>200000</v>
+      </c>
+      <c r="G95" s="44">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="14"/>
+      <c r="J95" s="130"/>
     </row>
     <row r="96" spans="3:13" ht="15">
       <c r="C96" s="99"/>
-      <c r="D96" s="167" t="s">
-        <v>108</v>
-      </c>
-      <c r="E96" s="167"/>
-      <c r="F96" s="167"/>
-      <c r="G96" s="167"/>
-      <c r="H96" s="127"/>
-      <c r="I96" s="103"/>
-      <c r="J96" s="99"/>
+      <c r="D96" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E96" s="98">
+        <v>1</v>
+      </c>
+      <c r="F96" s="101">
+        <v>226000</v>
+      </c>
+      <c r="G96" s="44">
+        <f t="shared" si="4"/>
+        <v>226000</v>
+      </c>
+      <c r="H96" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="14"/>
+      <c r="J96" s="130"/>
     </row>
     <row r="97" spans="3:10" ht="15">
-      <c r="C97" s="99">
-        <v>1</v>
-      </c>
-      <c r="D97" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="E97" s="119">
-        <v>1</v>
-      </c>
-      <c r="F97" s="118">
-        <v>2000000</v>
-      </c>
-      <c r="G97" s="129">
-        <f>F97*E97</f>
-        <v>2000000</v>
-      </c>
-      <c r="H97" s="133" t="s">
+      <c r="C97" s="99"/>
+      <c r="D97" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E97" s="98">
+        <v>1</v>
+      </c>
+      <c r="F97" s="101">
+        <v>390000</v>
+      </c>
+      <c r="G97" s="44">
+        <f t="shared" si="4"/>
+        <v>390000</v>
+      </c>
+      <c r="H97" s="14" t="s">
         <v>9</v>
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="130"/>
     </row>
     <row r="98" spans="3:10" ht="15">
-      <c r="C98" s="99">
-        <v>2</v>
-      </c>
-      <c r="D98" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="E98" s="119">
-        <v>1</v>
-      </c>
-      <c r="F98" s="120">
-        <v>250000</v>
-      </c>
-      <c r="G98" s="129">
-        <f t="shared" ref="G98:G105" si="4">F98*E98</f>
-        <v>250000</v>
-      </c>
-      <c r="H98" s="134" t="s">
-        <v>114</v>
-      </c>
+      <c r="C98" s="99"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="98"/>
+      <c r="F98" s="101"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="130"/>
     </row>
     <row r="99" spans="3:10" ht="15">
-      <c r="C99" s="99">
-        <v>3</v>
-      </c>
-      <c r="D99" s="128" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" s="116">
-        <v>1</v>
-      </c>
-      <c r="F99" s="120">
-        <v>1000000</v>
-      </c>
-      <c r="G99" s="129">
-        <f t="shared" si="4"/>
-        <v>1000000</v>
-      </c>
-      <c r="H99" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I99" s="103"/>
-      <c r="J99" s="130"/>
-    </row>
-    <row r="100" spans="3:10" ht="15">
+      <c r="C99" s="99"/>
+      <c r="D99" s="131"/>
+      <c r="E99" s="132"/>
+      <c r="F99" s="54"/>
+      <c r="G99" s="45">
+        <f>SUM(G89:G97)</f>
+        <v>12866000</v>
+      </c>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="3:10">
       <c r="C100" s="99"/>
-      <c r="D100" s="128" t="s">
-        <v>112</v>
-      </c>
-      <c r="E100" s="116">
-        <v>1</v>
-      </c>
-      <c r="F100" s="120">
-        <v>1880000</v>
-      </c>
-      <c r="G100" s="129">
-        <f t="shared" si="4"/>
-        <v>1880000</v>
-      </c>
-      <c r="H100" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="I100" s="14"/>
-      <c r="J100" s="130"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="98"/>
+      <c r="F100" s="101"/>
+      <c r="G100" s="101"/>
+      <c r="H100" s="105"/>
+      <c r="I100" s="105"/>
+      <c r="J100" s="99"/>
     </row>
     <row r="101" spans="3:10" ht="15">
       <c r="C101" s="99"/>
-      <c r="D101" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="E101" s="116">
-        <v>1</v>
-      </c>
-      <c r="F101" s="120">
-        <v>1200000</v>
-      </c>
-      <c r="G101" s="129">
-        <f t="shared" si="4"/>
-        <v>1200000</v>
-      </c>
-      <c r="H101" s="134" t="s">
+      <c r="D101" s="167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="167"/>
+      <c r="F101" s="167"/>
+      <c r="G101" s="167"/>
+      <c r="H101" s="127"/>
+      <c r="I101" s="103"/>
+      <c r="J101" s="99"/>
+    </row>
+    <row r="102" spans="3:10" ht="15">
+      <c r="C102" s="99">
+        <v>1</v>
+      </c>
+      <c r="D102" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="E102" s="119">
+        <v>1</v>
+      </c>
+      <c r="F102" s="118">
+        <v>2000000</v>
+      </c>
+      <c r="G102" s="129">
+        <f>F102*E102</f>
+        <v>2000000</v>
+      </c>
+      <c r="H102" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="14"/>
+      <c r="J102" s="130"/>
+    </row>
+    <row r="103" spans="3:10" ht="15">
+      <c r="C103" s="99">
+        <v>2</v>
+      </c>
+      <c r="D103" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="119">
+        <v>1</v>
+      </c>
+      <c r="F103" s="120">
+        <v>250000</v>
+      </c>
+      <c r="G103" s="129">
+        <f t="shared" ref="G103:G110" si="5">F103*E103</f>
+        <v>250000</v>
+      </c>
+      <c r="H103" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="I101" s="14"/>
-      <c r="J101" s="130"/>
-    </row>
-    <row r="102" spans="3:10" ht="15">
-      <c r="C102" s="99"/>
-      <c r="D102" s="128" t="s">
-        <v>165</v>
-      </c>
-      <c r="E102" s="116">
-        <v>1</v>
-      </c>
-      <c r="F102" s="120">
-        <v>326700</v>
-      </c>
-      <c r="G102" s="129">
-        <f t="shared" si="4"/>
-        <v>326700</v>
-      </c>
-      <c r="H102" s="14" t="s">
+      <c r="I103" s="14"/>
+      <c r="J103" s="130"/>
+    </row>
+    <row r="104" spans="3:10" ht="15">
+      <c r="C104" s="99">
+        <v>3</v>
+      </c>
+      <c r="D104" s="128" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="116">
+        <v>1</v>
+      </c>
+      <c r="F104" s="120">
+        <v>1000000</v>
+      </c>
+      <c r="G104" s="129">
+        <f t="shared" si="5"/>
+        <v>1000000</v>
+      </c>
+      <c r="H104" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="I102" s="14"/>
-      <c r="J102" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="103" spans="3:10" ht="15">
-      <c r="C103" s="99"/>
-      <c r="D103" s="128" t="s">
-        <v>237</v>
-      </c>
-      <c r="E103" s="116">
-        <v>1</v>
-      </c>
-      <c r="F103" s="120">
-        <v>1452000</v>
-      </c>
-      <c r="G103" s="129">
-        <f t="shared" si="4"/>
-        <v>1452000</v>
-      </c>
-      <c r="H103" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I103" s="14"/>
-      <c r="J103" s="130" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="104" spans="3:10" ht="15">
-      <c r="C104" s="99"/>
-      <c r="D104" s="128" t="s">
-        <v>238</v>
-      </c>
-      <c r="E104" s="116">
-        <v>1</v>
-      </c>
-      <c r="F104" s="120">
-        <v>560000</v>
-      </c>
-      <c r="G104" s="129">
-        <f t="shared" si="4"/>
-        <v>560000</v>
-      </c>
-      <c r="H104" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="I104" s="14"/>
-      <c r="J104" s="130" t="s">
-        <v>239</v>
-      </c>
+      <c r="I104" s="103"/>
+      <c r="J104" s="130"/>
     </row>
     <row r="105" spans="3:10" ht="15">
       <c r="C105" s="99"/>
       <c r="D105" s="128" t="s">
-        <v>306</v>
+        <v>112</v>
       </c>
       <c r="E105" s="116">
         <v>1</v>
       </c>
       <c r="F105" s="120">
-        <v>880000</v>
+        <v>1880000</v>
       </c>
       <c r="G105" s="129">
-        <f t="shared" si="4"/>
-        <v>880000</v>
-      </c>
-      <c r="H105" s="14" t="s">
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>1880000</v>
+      </c>
+      <c r="H105" s="134" t="s">
+        <v>114</v>
       </c>
       <c r="I105" s="14"/>
       <c r="J105" s="130"/>
     </row>
     <row r="106" spans="3:10" ht="15">
       <c r="C106" s="99"/>
-      <c r="D106" s="131"/>
-      <c r="E106" s="132"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="45">
-        <f>SUM(G97:G105)</f>
-        <v>9548700</v>
-      </c>
-      <c r="H106" s="26"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="D106" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="116">
+        <v>1</v>
+      </c>
+      <c r="F106" s="120">
+        <v>1200000</v>
+      </c>
+      <c r="G106" s="129">
+        <f t="shared" si="5"/>
+        <v>1200000</v>
+      </c>
+      <c r="H106" s="134" t="s">
+        <v>114</v>
+      </c>
+      <c r="I106" s="14"/>
+      <c r="J106" s="130"/>
     </row>
     <row r="107" spans="3:10" ht="15">
       <c r="C107" s="99"/>
-      <c r="D107" s="131"/>
-      <c r="E107" s="132"/>
-      <c r="F107" s="54"/>
-      <c r="G107" s="54"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="56"/>
+      <c r="D107" s="128" t="s">
+        <v>165</v>
+      </c>
+      <c r="E107" s="116">
+        <v>1</v>
+      </c>
+      <c r="F107" s="120">
+        <v>326700</v>
+      </c>
+      <c r="G107" s="129">
+        <f t="shared" si="5"/>
+        <v>326700</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I107" s="14"/>
+      <c r="J107" s="130" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="108" spans="3:10" ht="15">
       <c r="C108" s="99"/>
-      <c r="D108" s="167" t="s">
-        <v>115</v>
-      </c>
-      <c r="E108" s="167"/>
-      <c r="F108" s="167"/>
-      <c r="G108" s="167"/>
-      <c r="H108" s="127"/>
-      <c r="I108" s="103"/>
-      <c r="J108" s="99"/>
+      <c r="D108" s="128" t="s">
+        <v>237</v>
+      </c>
+      <c r="E108" s="116">
+        <v>1</v>
+      </c>
+      <c r="F108" s="120">
+        <v>1452000</v>
+      </c>
+      <c r="G108" s="129">
+        <f t="shared" si="5"/>
+        <v>1452000</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I108" s="14"/>
+      <c r="J108" s="130" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="109" spans="3:10" ht="15">
       <c r="C109" s="99"/>
-      <c r="D109" s="116" t="s">
-        <v>116</v>
-      </c>
-      <c r="E109" s="119">
-        <v>1</v>
-      </c>
-      <c r="F109" s="118">
-        <v>7174000</v>
+      <c r="D109" s="128" t="s">
+        <v>238</v>
+      </c>
+      <c r="E109" s="116">
+        <v>1</v>
+      </c>
+      <c r="F109" s="120">
+        <v>560000</v>
       </c>
       <c r="G109" s="129">
-        <f>F109*E109</f>
-        <v>7174000</v>
-      </c>
-      <c r="H109" s="133" t="s">
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>560000</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="I109" s="14"/>
-      <c r="J109" s="130"/>
+      <c r="J109" s="130" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="110" spans="3:10" ht="15">
       <c r="C110" s="99"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="119"/>
-      <c r="F110" s="120"/>
-      <c r="G110" s="129"/>
-      <c r="H110" s="134"/>
+      <c r="D110" s="128" t="s">
+        <v>306</v>
+      </c>
+      <c r="E110" s="116">
+        <v>1</v>
+      </c>
+      <c r="F110" s="120">
+        <v>880000</v>
+      </c>
+      <c r="G110" s="129">
+        <f t="shared" si="5"/>
+        <v>880000</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="I110" s="14"/>
       <c r="J110" s="130"/>
     </row>
     <row r="111" spans="3:10" ht="15">
       <c r="C111" s="99"/>
-      <c r="D111" s="128"/>
-      <c r="E111" s="116"/>
-      <c r="F111" s="120"/>
-      <c r="G111" s="129"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="130"/>
+      <c r="D111" s="131"/>
+      <c r="E111" s="132"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="45">
+        <f>SUM(G102:G110)</f>
+        <v>9548700</v>
+      </c>
+      <c r="H111" s="26"/>
+      <c r="I111" s="26"/>
+      <c r="J111" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="112" spans="3:10" ht="15">
       <c r="C112" s="99"/>
       <c r="D112" s="131"/>
       <c r="E112" s="132"/>
       <c r="F112" s="54"/>
-      <c r="G112" s="45">
-        <f>SUM(G109:G110)</f>
-        <v>7174000</v>
-      </c>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="G112" s="54"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="55"/>
+      <c r="J112" s="56"/>
     </row>
     <row r="113" spans="3:10" ht="15">
       <c r="C113" s="99"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="98"/>
-      <c r="F113" s="101"/>
-      <c r="G113" s="135"/>
-      <c r="H113" s="99"/>
-      <c r="I113" s="99"/>
+      <c r="D113" s="167" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113" s="167"/>
+      <c r="F113" s="167"/>
+      <c r="G113" s="167"/>
+      <c r="H113" s="127"/>
+      <c r="I113" s="103"/>
       <c r="J113" s="99"/>
     </row>
     <row r="114" spans="3:10" ht="15">
       <c r="C114" s="99"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="98"/>
-      <c r="F114" s="101"/>
-      <c r="G114" s="43">
-        <f>G8-G30-G82-G94-G106-G112</f>
-        <v>-42906700</v>
-      </c>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="136" t="s">
+      <c r="D114" s="116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114" s="119">
+        <v>1</v>
+      </c>
+      <c r="F114" s="118">
+        <v>7174000</v>
+      </c>
+      <c r="G114" s="129">
+        <f>F114*E114</f>
+        <v>7174000</v>
+      </c>
+      <c r="H114" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="14"/>
+      <c r="J114" s="130"/>
+    </row>
+    <row r="115" spans="3:10" ht="15">
+      <c r="C115" s="99"/>
+      <c r="D115" s="108"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="120"/>
+      <c r="G115" s="129"/>
+      <c r="H115" s="134"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="130"/>
+    </row>
+    <row r="116" spans="3:10" ht="15">
+      <c r="C116" s="99"/>
+      <c r="D116" s="128"/>
+      <c r="E116" s="116"/>
+      <c r="F116" s="120"/>
+      <c r="G116" s="129"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="130"/>
+    </row>
+    <row r="117" spans="3:10" ht="15">
+      <c r="C117" s="99"/>
+      <c r="D117" s="131"/>
+      <c r="E117" s="132"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="45">
+        <f>SUM(G114:G115)</f>
+        <v>7174000</v>
+      </c>
+      <c r="H117" s="26"/>
+      <c r="I117" s="26"/>
+      <c r="J117" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="3:10" ht="15">
+      <c r="C118" s="99"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="101"/>
+      <c r="G118" s="135"/>
+      <c r="H118" s="99"/>
+      <c r="I118" s="99"/>
+      <c r="J118" s="99"/>
+    </row>
+    <row r="119" spans="3:10" ht="15">
+      <c r="C119" s="99"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="101"/>
+      <c r="G119" s="43">
+        <f>G8-G33-G87-G99-G111-G117</f>
+        <v>-65906700</v>
+      </c>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="136" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D113:G113"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D88:G88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9626,7 +9718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76B0C4E-BB10-4A27-93F6-ECDC21CDE865}">
   <dimension ref="C2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03.ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EA1803-E9FF-49A2-92D7-C4D17DEB159A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E384D2-DED1-4051-A8A3-5AA8DBF6B902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng hợp quỹ công ty" sheetId="6" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <definedName name="sport1_p1.5" localSheetId="12">SoM_Dev!$G$47</definedName>
     <definedName name="sport1_p1.5">SPORT1_P1.5!$G$57</definedName>
     <definedName name="sport1_p2" localSheetId="7">BaoTangQS!$G$37</definedName>
-    <definedName name="sport1_p2">SPORT1_P2!$G$38</definedName>
+    <definedName name="sport1_p2">SPORT1_P2!$G$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="314">
   <si>
     <t>STT</t>
   </si>
@@ -1028,6 +1028,15 @@
   </si>
   <si>
     <t>Chuyển đồ sang văn phòng mới</t>
+  </si>
+  <si>
+    <t>chuyển bàn sang Khởi Nguồn</t>
+  </si>
+  <si>
+    <t>Đặt 2 board test</t>
+  </si>
+  <si>
+    <t>Tuấn chuyển anh Khơ 2tr</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2034,7 @@
       </c>
       <c r="J4" s="11">
         <f>chi_phi_cong_ty</f>
-        <v>-65906700</v>
+        <v>-66256700</v>
       </c>
       <c r="K4" s="8"/>
     </row>
@@ -2096,7 +2105,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-106222966.40000001</v>
+        <v>-106572966.40000001</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -2114,8 +2123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73990C79-75DF-434D-B272-2581D279AD79}">
   <dimension ref="C2:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4014,7 +4023,7 @@
         <v>750000</v>
       </c>
       <c r="G94" s="44">
-        <f t="shared" ref="G94:G97" si="4">E94*F94</f>
+        <f t="shared" ref="G94:G98" si="4">E94*F94</f>
         <v>750000</v>
       </c>
       <c r="H94" s="14" t="s">
@@ -4088,11 +4097,22 @@
     </row>
     <row r="98" spans="3:10" ht="15">
       <c r="C98" s="99"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="98"/>
-      <c r="F98" s="101"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="14"/>
+      <c r="D98" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" s="98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="101">
+        <v>350000</v>
+      </c>
+      <c r="G98" s="44">
+        <f t="shared" si="4"/>
+        <v>350000</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="I98" s="14"/>
       <c r="J98" s="130"/>
     </row>
@@ -4102,8 +4122,8 @@
       <c r="E99" s="132"/>
       <c r="F99" s="54"/>
       <c r="G99" s="45">
-        <f>SUM(G89:G97)</f>
-        <v>12866000</v>
+        <f>SUM(G89:G98)</f>
+        <v>13216000</v>
       </c>
       <c r="H99" s="26"/>
       <c r="I99" s="26"/>
@@ -4444,7 +4464,7 @@
       <c r="F119" s="101"/>
       <c r="G119" s="43">
         <f>G8-G33-G87-G99-G111-G117</f>
-        <v>-65906700</v>
+        <v>-66256700</v>
       </c>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
@@ -9066,10 +9086,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
-  <dimension ref="C2:J38"/>
+  <dimension ref="C2:J40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9345,7 +9365,7 @@
         <v>15000</v>
       </c>
       <c r="G16" s="23">
-        <f t="shared" ref="G16:G23" si="0">F16*E16</f>
+        <f t="shared" ref="G16:G24" si="0">F16*E16</f>
         <v>150000</v>
       </c>
       <c r="H16" s="34" t="s">
@@ -9505,38 +9525,44 @@
     </row>
     <row r="24" spans="3:10" ht="15">
       <c r="C24" s="8"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+      <c r="D24" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1</v>
+      </c>
+      <c r="F24" s="23">
+        <v>2000000</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="9"/>
+      <c r="J24" s="9" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="25" spans="3:10" ht="15">
       <c r="C25" s="8"/>
       <c r="D25" s="24"/>
       <c r="E25" s="32"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="49">
-        <f>SUM(G10:G18)</f>
-        <v>7615000</v>
-      </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="3:10" ht="15">
       <c r="C26" s="8"/>
-      <c r="D26" s="168" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="48"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="11"/>
       <c r="J26" s="9"/>
     </row>
@@ -9545,86 +9571,85 @@
       <c r="D27" s="24"/>
       <c r="E27" s="32"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="9"/>
+      <c r="G27" s="49">
+        <f>SUM(G10:G18)</f>
+        <v>7615000</v>
+      </c>
+      <c r="H27" s="50"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="3:10" ht="15">
       <c r="C28" s="8"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="49">
-        <f>SUM(G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="D28" s="168" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="3:10" ht="15">
       <c r="C29" s="8"/>
-      <c r="D29" s="168" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10" ht="15">
+      <c r="C30" s="8"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="49">
+        <f>SUM(G29)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="15">
+      <c r="C31" s="8"/>
+      <c r="D31" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="3:10" ht="15">
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="28"/>
-    </row>
-    <row r="31" spans="3:10" ht="15">
-      <c r="C31" s="8">
-        <v>2</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="18"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" spans="3:10" ht="15">
       <c r="C32" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="42"/>
       <c r="G32" s="44"/>
       <c r="H32" s="14"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="18"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="3:10" ht="15">
       <c r="C33" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="42"/>
@@ -9635,69 +9660,97 @@
     </row>
     <row r="34" spans="3:10" ht="15">
       <c r="C34" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="44">
-        <v>3600000</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" s="14"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="18"/>
     </row>
     <row r="35" spans="3:10" ht="15">
-      <c r="C35" s="8"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="45">
-        <f>SUM(G30:G34)</f>
-        <v>3600000</v>
-      </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C35" s="8">
+        <v>4</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="3:10" ht="15">
+      <c r="C36" s="8">
+        <v>5</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>64</v>
+      </c>
       <c r="E36" s="10"/>
       <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="8"/>
+      <c r="G36" s="44">
+        <v>3600000</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="3:10" ht="15">
       <c r="C37" s="8"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="3:10" ht="15">
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="45">
+        <f>SUM(G32:G36)</f>
+        <v>3600000</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
       <c r="C38" s="8"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="10"/>
       <c r="F38" s="42"/>
-      <c r="G38" s="43">
-        <f>G8-G25-G28-G35</f>
+      <c r="G38" s="42"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="3:10" ht="15">
+      <c r="C39" s="8"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="3:10" ht="15">
+      <c r="C40" s="8"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43">
+        <f>G8-G27-G30-G37</f>
         <v>-11215000</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="25" t="s">
+      <c r="H40" s="12"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="25" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9706,8 +9759,8 @@
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9718,7 +9771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76B0C4E-BB10-4A27-93F6-ECDC21CDE865}">
   <dimension ref="C2:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>

--- a/Project/TongHopQuy2.xlsx
+++ b/Project/TongHopQuy2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03.ViTechSolution_LTD\04.Team_Log\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E384D2-DED1-4051-A8A3-5AA8DBF6B902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF270E14-8F7A-414D-BF81-5A413A5D8CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="315">
   <si>
     <t>STT</t>
   </si>
@@ -1037,6 +1037,9 @@
   </si>
   <si>
     <t>Tuấn chuyển anh Khơ 2tr</t>
+  </si>
+  <si>
+    <t>Gửi màn hình + cảm ứng sang TQ</t>
   </si>
 </sst>
 </file>
@@ -2067,7 +2070,7 @@
       </c>
       <c r="J7" s="11">
         <f>sport1_p2</f>
-        <v>-11215000</v>
+        <v>-17813741</v>
       </c>
       <c r="K7" s="9"/>
     </row>
@@ -2105,7 +2108,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12">
         <f>SUM(J4:J11)</f>
-        <v>-106572966.40000001</v>
+        <v>-113171707.40000001</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>7</v>
@@ -9088,8 +9091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F413B64-656B-492A-8F7D-8434699F234E}">
   <dimension ref="C2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9365,7 +9368,7 @@
         <v>15000</v>
       </c>
       <c r="G16" s="23">
-        <f t="shared" ref="G16:G24" si="0">F16*E16</f>
+        <f t="shared" ref="G16:G25" si="0">F16*E16</f>
         <v>150000</v>
       </c>
       <c r="H16" s="34" t="s">
@@ -9548,11 +9551,22 @@
     </row>
     <row r="25" spans="3:10" ht="15">
       <c r="C25" s="8"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+      <c r="D25" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E25" s="32">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23">
+        <v>1670000</v>
+      </c>
+      <c r="G25" s="23">
+        <f t="shared" si="0"/>
+        <v>1670000</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="9"/>
     </row>
@@ -9572,8 +9586,8 @@
       <c r="E27" s="32"/>
       <c r="F27" s="23"/>
       <c r="G27" s="49">
-        <f>SUM(G10:G18)</f>
-        <v>7615000</v>
+        <f>SUM(G10:G25)</f>
+        <v>14213741</v>
       </c>
       <c r="H27" s="50"/>
       <c r="I27" s="29"/>
@@ -9746,7 +9760,7 @@
       <c r="F40" s="42"/>
       <c r="G40" s="43">
         <f>G8-G27-G30-G37</f>
-        <v>-11215000</v>
+        <v>-17813741</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="16"/>
